--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -4237,10 +4237,10 @@
   <dimension ref="A1:AN320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1224,7 +1224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="538">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -1868,9 +1868,6 @@
     <t>CTP 27.10.2008, GA 1.2.2010</t>
   </si>
   <si>
-    <t>Microsoft Windows Azure</t>
-  </si>
-  <si>
     <t>Pivotal One</t>
   </si>
   <si>
@@ -2838,6 +2835,9 @@
   </si>
   <si>
     <t>30loops</t>
+  </si>
+  <si>
+    <t>Windows Azure</t>
   </si>
 </sst>
 </file>
@@ -4237,10 +4237,10 @@
   <dimension ref="A1:AN320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="AN2" sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="236" t="s">
         <v>4</v>
@@ -4313,7 +4313,7 @@
       <c r="M1" s="237"/>
       <c r="N1" s="239"/>
       <c r="O1" s="108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P1" s="99" t="s">
         <v>5</v>
@@ -4334,16 +4334,16 @@
         <v>191</v>
       </c>
       <c r="V1" s="84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W1" s="189" t="s">
         <v>78</v>
       </c>
       <c r="X1" s="189" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Y1" s="247" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="248"/>
       <c r="AA1" s="74" t="s">
@@ -4358,12 +4358,12 @@
       <c r="AF1" s="242"/>
       <c r="AG1" s="243"/>
       <c r="AH1" s="233" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI1" s="234"/>
       <c r="AJ1" s="235"/>
       <c r="AK1" s="233" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL1" s="234"/>
       <c r="AM1" s="235"/>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="2" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="244" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" s="244"/>
       <c r="D2" s="244"/>
@@ -4398,10 +4398,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="207" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N2" s="210" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="100"/>
@@ -4417,14 +4417,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA2" s="75"/>
       <c r="AB2" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4436,25 +4436,25 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>283</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN2" s="75"/>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" s="87">
         <f t="shared" si="0"/>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="4" spans="1:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" s="211"/>
       <c r="H4" s="11"/>
@@ -4593,20 +4593,20 @@
       <c r="O4" s="90"/>
       <c r="P4" s="103"/>
       <c r="Q4" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R4" s="148" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W4" s="187">
         <v>40878</v>
@@ -4630,7 +4630,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="33"/>
       <c r="AN4" s="77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,10 +4640,10 @@
       <c r="C5" s="116"/>
       <c r="D5" s="116"/>
       <c r="E5" s="116" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="134"/>
       <c r="H5" s="135"/>
@@ -4657,7 +4657,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="119"/>
       <c r="P5" s="120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="121" t="s">
         <v>29</v>
@@ -4666,16 +4666,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="123" t="s">
+        <v>388</v>
+      </c>
+      <c r="T5" s="121" t="s">
         <v>389</v>
       </c>
-      <c r="T5" s="121" t="s">
+      <c r="U5" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="U5" s="118" t="s">
+      <c r="V5" s="124" t="s">
         <v>391</v>
-      </c>
-      <c r="V5" s="124" t="s">
-        <v>392</v>
       </c>
       <c r="W5" s="184"/>
       <c r="X5" s="184">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB5" s="122" t="s">
         <v>25</v>
@@ -4732,7 +4732,7 @@
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
       <c r="F6" s="126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G6" s="213" t="s">
         <v>25</v>
@@ -4763,7 +4763,7 @@
         <v>36</v>
       </c>
       <c r="S6" s="131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T6" s="130" t="s">
         <v>30</v>
@@ -4772,7 +4772,7 @@
         <v>192</v>
       </c>
       <c r="V6" s="125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W6" s="185">
         <v>40562</v>
@@ -4787,7 +4787,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB6" s="127" t="s">
         <v>25</v>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="AL6" s="125"/>
       <c r="AM6" s="130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN6" s="126"/>
     </row>
@@ -4831,7 +4831,7 @@
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
       <c r="F7" s="133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="134"/>
       <c r="H7" s="135" t="s">
@@ -4847,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="138" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="121" t="s">
         <v>29</v>
@@ -4859,10 +4859,10 @@
         <v>197</v>
       </c>
       <c r="T7" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="U7" s="122" t="s">
         <v>293</v>
-      </c>
-      <c r="U7" s="122" t="s">
-        <v>294</v>
       </c>
       <c r="V7" s="124" t="s">
         <v>208</v>
@@ -4882,7 +4882,7 @@
         <v>31</v>
       </c>
       <c r="AA7" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB7" s="139" t="s">
         <v>25</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="AL7" s="132"/>
       <c r="AM7" s="140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN7" s="117"/>
     </row>
@@ -4918,7 +4918,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="216"/>
@@ -4933,27 +4933,27 @@
       <c r="O8" s="141"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>158</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W8" s="191"/>
       <c r="X8" s="191"/>
       <c r="Y8" s="202"/>
       <c r="Z8" s="204"/>
       <c r="AA8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4978,10 +4978,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F9" s="167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="217" t="s">
         <v>25</v>
@@ -5004,16 +5004,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="T9" s="169" t="s">
         <v>359</v>
       </c>
-      <c r="T9" s="169" t="s">
-        <v>360</v>
-      </c>
       <c r="U9" s="168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W9" s="192"/>
       <c r="X9" s="192">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AB9" s="168"/>
       <c r="AG9" s="169"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="AM9" s="169"/>
       <c r="AN9" s="167" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5058,7 +5058,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5073,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="111"/>
@@ -5088,10 +5088,10 @@
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V10" s="66">
         <v>39879</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="AM10" s="54"/>
       <c r="AN10" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5137,7 +5137,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5152,7 +5152,7 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R11" s="57" t="s">
         <v>177</v>
@@ -5182,10 +5182,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="220" t="s">
         <v>25</v>
@@ -5214,13 +5214,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="162" t="s">
+        <v>426</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="U12" s="161" t="s">
         <v>427</v>
-      </c>
-      <c r="T12" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="U12" s="161" t="s">
-        <v>428</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5230,7 +5230,7 @@
       <c r="Y12" s="202"/>
       <c r="Z12" s="204"/>
       <c r="AA12" s="157" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB12" s="161" t="s">
         <v>25</v>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="13" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
       <c r="F13" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="134"/>
       <c r="H13" s="135"/>
@@ -5285,19 +5285,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="S13" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="S13" s="123" t="s">
+      <c r="T13" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="T13" s="121" t="s">
+      <c r="U13" s="122" t="s">
+        <v>363</v>
+      </c>
+      <c r="V13" s="142" t="s">
         <v>273</v>
-      </c>
-      <c r="U13" s="122" t="s">
-        <v>364</v>
-      </c>
-      <c r="V13" s="142" t="s">
-        <v>274</v>
       </c>
       <c r="W13" s="184">
         <v>39252</v>
@@ -5314,7 +5314,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB13" s="122"/>
       <c r="AC13" s="116"/>
@@ -5340,11 +5340,11 @@
     </row>
     <row r="14" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5362,16 +5362,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="S14" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="S14" s="65" t="s">
-        <v>253</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V14" s="66">
         <v>40205</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5411,15 +5411,15 @@
     </row>
     <row r="15" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G15" s="134" t="s">
         <v>31</v>
@@ -5436,30 +5436,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N15" s="136"/>
       <c r="O15" s="143" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P15" s="120"/>
       <c r="Q15" s="121" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S15" s="123" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T15" s="121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U15" s="122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V15" s="142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W15" s="184"/>
       <c r="X15" s="184">
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB15" s="122"/>
       <c r="AC15" s="116"/>
@@ -5508,7 +5508,7 @@
       <c r="D16" s="116"/>
       <c r="E16" s="116"/>
       <c r="F16" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G16" s="134" t="s">
         <v>25</v>
@@ -5542,10 +5542,10 @@
         <v>199</v>
       </c>
       <c r="T16" s="121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U16" s="122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V16" s="142" t="s">
         <v>209</v>
@@ -5565,7 +5565,7 @@
         <v>35</v>
       </c>
       <c r="AA16" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB16" s="122"/>
       <c r="AC16" s="116"/>
@@ -5596,10 +5596,10 @@
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F17" s="133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" s="134" t="s">
         <v>25</v>
@@ -5614,7 +5614,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N17" s="136" t="s">
         <v>25</v>
@@ -5630,16 +5630,16 @@
         <v>52</v>
       </c>
       <c r="S17" s="123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T17" s="140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U17" s="139" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V17" s="142" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W17" s="184"/>
       <c r="X17" s="184"/>
@@ -5679,10 +5679,10 @@
       </c>
       <c r="D18" s="125"/>
       <c r="E18" s="125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" s="126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G18" s="213"/>
       <c r="H18" s="214"/>
@@ -5713,7 +5713,7 @@
         <v>186</v>
       </c>
       <c r="U18" s="122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V18" s="125" t="s">
         <v>193</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="AL18" s="125"/>
       <c r="AM18" s="130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN18" s="126"/>
     </row>
@@ -5758,7 +5758,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5796,11 +5796,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W19" s="186">
         <v>40668</v>
@@ -5817,7 +5817,7 @@
         <v>25</v>
       </c>
       <c r="AA19" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5835,18 +5835,18 @@
       </c>
       <c r="AM19" s="49"/>
       <c r="AN19" s="78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>475</v>
-      </c>
       <c r="F20" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W20" s="186"/>
       <c r="X20" s="186"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="AM20" s="54"/>
       <c r="AN20" s="76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,10 +5925,10 @@
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="213" t="s">
         <v>25</v>
@@ -5962,13 +5962,13 @@
         <v>59</v>
       </c>
       <c r="T21" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="U21" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="U21" s="122" t="s">
-        <v>297</v>
-      </c>
       <c r="V21" s="125" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W21" s="185"/>
       <c r="X21" s="185">
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="126" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB21" s="127" t="s">
         <v>25</v>
@@ -6023,7 +6023,7 @@
         <v>160</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" s="211"/>
       <c r="H22" s="11"/>
@@ -6038,7 +6038,7 @@
       <c r="O22" s="90"/>
       <c r="P22" s="103"/>
       <c r="Q22" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>61</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W22" s="187"/>
       <c r="X22" s="187"/>
@@ -6078,12 +6078,12 @@
     </row>
     <row r="23" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6118,10 +6118,10 @@
         <v>64</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V23" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W23" s="188">
         <v>41085</v>
@@ -6159,12 +6159,12 @@
     </row>
     <row r="24" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6185,7 +6185,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="110"/>
@@ -6200,13 +6200,13 @@
         <v>207</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="V24" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W24" s="188">
         <v>41037</v>
@@ -6223,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="AA24" s="78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6254,7 +6254,7 @@
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="110"/>
@@ -6286,11 +6286,11 @@
         <v>201</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W25" s="188"/>
       <c r="X25" s="188">
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6326,10 +6326,10 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN25" s="78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6338,10 +6338,10 @@
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6360,7 +6360,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="110"/>
@@ -6369,15 +6369,15 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S26" s="65"/>
       <c r="T26" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="154" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W26" s="188"/>
       <c r="X26" s="188"/>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6418,10 +6418,10 @@
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6447,17 +6447,17 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W27" s="188">
         <v>41244</v>
@@ -6474,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="AA27" s="78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6502,12 +6502,12 @@
     </row>
     <row r="28" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6522,35 +6522,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="179"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="U28" s="183" t="s">
+        <v>511</v>
+      </c>
+      <c r="V28" s="180" t="s">
         <v>510</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="U28" s="183" t="s">
-        <v>512</v>
-      </c>
-      <c r="V28" s="180" t="s">
-        <v>511</v>
       </c>
       <c r="W28" s="195"/>
       <c r="X28" s="195"/>
       <c r="Y28" s="202"/>
       <c r="Z28" s="204"/>
       <c r="AA28" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="29" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6587,16 +6587,16 @@
       <c r="O29" s="171"/>
       <c r="P29" s="104"/>
       <c r="Q29" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="65"/>
       <c r="T29" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W29" s="186"/>
       <c r="X29" s="186"/>
@@ -6619,7 +6619,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6646,10 +6646,10 @@
         <v>67</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V30" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W30" s="186">
         <v>40269</v>
@@ -6666,7 +6666,7 @@
         <v>38</v>
       </c>
       <c r="AA30" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="AM30" s="54"/>
       <c r="AN30" s="76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
         <v>154</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="154" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W31" s="188">
         <v>40840</v>
@@ -6753,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="C32" s="155"/>
       <c r="F32" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6800,13 +6800,13 @@
       </c>
       <c r="S32" s="65"/>
       <c r="T32" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V32" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W32" s="186">
         <v>40563</v>
@@ -6844,7 +6844,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6865,7 +6865,7 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R33" s="57" t="s">
         <v>71</v>
@@ -6874,7 +6874,7 @@
         <v>72</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="175">
@@ -6885,7 +6885,7 @@
       <c r="Y33" s="202"/>
       <c r="Z33" s="204"/>
       <c r="AA33" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6922,7 +6922,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G34" s="217" t="s">
         <v>25</v>
@@ -6951,14 +6951,14 @@
         <v>183</v>
       </c>
       <c r="S34" s="229" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T34" s="169" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U34" s="168"/>
       <c r="V34" s="230" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W34" s="192"/>
       <c r="X34" s="192">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB34" s="168" t="s">
         <v>25</v>
@@ -7004,10 +7004,10 @@
         <v>74</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7034,7 +7034,7 @@
       <c r="S35" s="65"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V35" s="172">
         <v>40756</v>
@@ -7052,7 +7052,7 @@
         <v>22</v>
       </c>
       <c r="AA35" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="AM35" s="54"/>
       <c r="AN35" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="2:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7080,7 +7080,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7098,13 +7098,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="173" t="s">
+        <v>470</v>
+      </c>
+      <c r="S36" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="S36" s="62" t="s">
+      <c r="T36" s="23" t="s">
         <v>472</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>473</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="63">
@@ -7144,7 +7144,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7167,16 +7167,16 @@
         <v>77</v>
       </c>
       <c r="S37" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>79</v>
       </c>
       <c r="U37" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="V37" s="172" t="s">
         <v>469</v>
-      </c>
-      <c r="V37" s="172" t="s">
-        <v>470</v>
       </c>
       <c r="W37" s="186">
         <v>41331</v>
@@ -7191,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="38" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="211"/>
       <c r="H38" s="11"/>
@@ -7232,18 +7232,18 @@
       <c r="O38" s="90"/>
       <c r="P38" s="103"/>
       <c r="Q38" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W38" s="187">
         <v>40443</v>
@@ -7267,15 +7267,15 @@
       <c r="AL38" s="8"/>
       <c r="AM38" s="33"/>
       <c r="AN38" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7293,15 +7293,15 @@
         <v>78</v>
       </c>
       <c r="R39" s="182" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S39" s="65"/>
       <c r="T39" s="54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="66" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W39" s="186">
         <v>41061</v>
@@ -7334,7 +7334,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7353,7 +7353,7 @@
         <v>25</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N40" s="47" t="s">
         <v>25</v>
@@ -7370,10 +7370,10 @@
         <v>82</v>
       </c>
       <c r="T40" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>306</v>
-      </c>
-      <c r="U40" s="53" t="s">
-        <v>307</v>
       </c>
       <c r="V40" s="67" t="s">
         <v>210</v>
@@ -7393,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="AA40" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7427,7 +7427,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7466,10 +7466,10 @@
         <v>83</v>
       </c>
       <c r="U41" s="181" t="s">
+        <v>416</v>
+      </c>
+      <c r="V41" s="68" t="s">
         <v>417</v>
-      </c>
-      <c r="V41" s="68" t="s">
-        <v>418</v>
       </c>
       <c r="W41" s="196">
         <v>40878</v>
@@ -7511,18 +7511,18 @@
       </c>
       <c r="AM41" s="31"/>
       <c r="AN41" s="75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7533,7 +7533,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="89"/>
@@ -7542,19 +7542,19 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S42" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>414</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="66" t="s">
         <v>415</v>
-      </c>
-      <c r="V42" s="66" t="s">
-        <v>416</v>
       </c>
       <c r="W42" s="186"/>
       <c r="X42" s="186">
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7596,7 +7596,7 @@
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
       <c r="F43" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G43" s="134"/>
       <c r="H43" s="135"/>
@@ -7623,16 +7623,16 @@
         <v>87</v>
       </c>
       <c r="S43" s="123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T43" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="U43" s="122" t="s">
         <v>367</v>
       </c>
-      <c r="U43" s="122" t="s">
-        <v>368</v>
-      </c>
       <c r="V43" s="145" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W43" s="184"/>
       <c r="X43" s="184">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB43" s="122" t="s">
         <v>25</v>
@@ -7680,7 +7680,7 @@
         <v>30</v>
       </c>
       <c r="AN43" s="117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7691,7 +7691,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" s="211"/>
       <c r="H44" s="11"/>
@@ -7705,21 +7705,21 @@
       <c r="N44" s="212"/>
       <c r="O44" s="90"/>
       <c r="P44" s="103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>89</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W44" s="187"/>
       <c r="X44" s="187"/>
@@ -7749,10 +7749,10 @@
         <v>90</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7761,7 +7761,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="111"/>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W45" s="186"/>
       <c r="X45" s="186">
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7811,13 +7811,13 @@
     </row>
     <row r="46" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" s="116"/>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
       <c r="F46" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" s="134"/>
       <c r="H46" s="135"/>
@@ -7835,19 +7835,19 @@
         <v>29</v>
       </c>
       <c r="R46" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="S46" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="S46" s="123" t="s">
+      <c r="T46" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="U46" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="V46" s="124" t="s">
         <v>240</v>
-      </c>
-      <c r="T46" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="U46" s="122" t="s">
-        <v>335</v>
-      </c>
-      <c r="V46" s="124" t="s">
-        <v>241</v>
       </c>
       <c r="W46" s="184">
         <v>41143</v>
@@ -7864,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB46" s="139"/>
       <c r="AC46" s="132"/>
@@ -7896,7 +7896,7 @@
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
       <c r="F47" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47" s="134"/>
       <c r="H47" s="135"/>
@@ -7917,13 +7917,13 @@
         <v>95</v>
       </c>
       <c r="S47" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="T47" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="U47" s="122" t="s">
         <v>337</v>
-      </c>
-      <c r="T47" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="U47" s="122" t="s">
-        <v>338</v>
       </c>
       <c r="V47" s="142" t="s">
         <v>211</v>
@@ -7943,7 +7943,7 @@
         <v>29</v>
       </c>
       <c r="AA47" s="117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB47" s="122" t="s">
         <v>25</v>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="AL47" s="116"/>
       <c r="AM47" s="121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AN47" s="117"/>
     </row>
@@ -7975,7 +7975,7 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G48" s="213" t="s">
         <v>25</v>
@@ -7990,7 +7990,7 @@
       <c r="K48" s="214"/>
       <c r="L48" s="214"/>
       <c r="M48" s="214" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N48" s="215"/>
       <c r="O48" s="128"/>
@@ -8008,7 +8008,7 @@
         <v>98</v>
       </c>
       <c r="U48" s="122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V48" s="125" t="s">
         <v>194</v>
@@ -8028,7 +8028,7 @@
         <v>62</v>
       </c>
       <c r="AA48" s="126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="127" t="s">
         <v>25</v>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="AL48" s="125"/>
       <c r="AM48" s="130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN48" s="126"/>
     </row>
@@ -8062,7 +8062,7 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G49" s="213" t="s">
         <v>25</v>
@@ -8081,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="214" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N49" s="215" t="s">
         <v>25</v>
@@ -8100,7 +8100,7 @@
         <v>200</v>
       </c>
       <c r="T49" s="130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U49" s="127" t="s">
         <v>195</v>
@@ -8123,7 +8123,7 @@
         <v>67</v>
       </c>
       <c r="AA49" s="151" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB49" s="127" t="s">
         <v>25</v>
@@ -8158,10 +8158,10 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F50" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8185,13 +8185,13 @@
         <v>103</v>
       </c>
       <c r="T50" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>437</v>
-      </c>
       <c r="V50" s="166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W50" s="188">
         <v>40865</v>
@@ -8208,7 +8208,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8226,7 +8226,7 @@
       <c r="AL50" s="44"/>
       <c r="AM50" s="49"/>
       <c r="AN50" s="76" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8234,7 +8234,7 @@
         <v>104</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8263,7 +8263,7 @@
         <v>104</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V51" s="67" t="s">
         <v>212</v>
@@ -8283,7 +8283,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="76" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8311,7 +8311,7 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN51" s="76" t="s">
         <v>106</v>
@@ -8319,17 +8319,17 @@
     </row>
     <row r="52" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="F52" s="78" t="s">
         <v>444</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>445</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8347,15 +8347,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S52" s="65"/>
       <c r="T52" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W52" s="186">
         <v>39249</v>
@@ -8372,7 +8372,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="AM52" s="54"/>
       <c r="AN52" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8401,7 +8401,7 @@
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="78" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8422,13 +8422,13 @@
         <v>174</v>
       </c>
       <c r="S53" s="65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T53" s="54" t="s">
         <v>173</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V53" s="67">
         <v>2005</v>
@@ -8458,18 +8458,18 @@
       </c>
       <c r="AM53" s="54"/>
       <c r="AN53" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="132" t="s">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="132"/>
       <c r="E54" s="132"/>
       <c r="F54" s="133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G54" s="134" t="s">
         <v>25</v>
@@ -8490,7 +8490,9 @@
         <v>25</v>
       </c>
       <c r="M54" s="135"/>
-      <c r="N54" s="136"/>
+      <c r="N54" s="136" t="s">
+        <v>25</v>
+      </c>
       <c r="O54" s="146"/>
       <c r="P54" s="138"/>
       <c r="Q54" s="140" t="s">
@@ -8522,7 +8524,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB54" s="122" t="s">
         <v>25</v>
@@ -8550,7 +8552,7 @@
       </c>
       <c r="AL54" s="116"/>
       <c r="AM54" s="121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN54" s="117"/>
     </row>
@@ -8562,7 +8564,7 @@
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8583,14 +8585,14 @@
         <v>111</v>
       </c>
       <c r="S55" s="65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W55" s="186"/>
       <c r="X55" s="186"/>
@@ -8624,7 +8626,7 @@
         <v>113</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8665,7 +8667,7 @@
         <v>21</v>
       </c>
       <c r="AA56" s="76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8690,10 +8692,10 @@
         <v>166</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F57" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8708,7 +8710,7 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="111"/>
@@ -8719,19 +8721,19 @@
         <v>78</v>
       </c>
       <c r="R57" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="S57" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="S57" s="65" t="s">
+      <c r="U57" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>456</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="V57" s="66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W57" s="186">
         <v>41080</v>
@@ -8746,7 +8748,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8781,7 +8783,7 @@
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
       <c r="F58" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G58" s="134"/>
       <c r="H58" s="135"/>
@@ -8804,16 +8806,16 @@
         <v>119</v>
       </c>
       <c r="S58" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>312</v>
-      </c>
       <c r="V58" s="145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W58" s="184">
         <v>41099</v>
@@ -8830,7 +8832,7 @@
         <v>11</v>
       </c>
       <c r="AA58" s="117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB58" s="122" t="s">
         <v>25</v>
@@ -8852,7 +8854,7 @@
       </c>
       <c r="AL58" s="116"/>
       <c r="AM58" s="121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN58" s="117"/>
     </row>
@@ -8861,10 +8863,10 @@
         <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8878,17 +8880,17 @@
       <c r="N59" s="58"/>
       <c r="O59" s="177"/>
       <c r="Q59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>121</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W59" s="193"/>
       <c r="X59" s="193"/>
@@ -8902,10 +8904,10 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F60" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G60" s="211"/>
       <c r="H60" s="11"/>
@@ -8920,18 +8922,18 @@
       <c r="O60" s="90"/>
       <c r="P60" s="103"/>
       <c r="Q60" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R60" s="32" t="s">
         <v>123</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W60" s="187"/>
       <c r="X60" s="187"/>
@@ -8957,18 +8959,18 @@
       </c>
       <c r="AM60" s="33"/>
       <c r="AN60" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -8982,7 +8984,7 @@
       <c r="N61" s="58"/>
       <c r="O61" s="177"/>
       <c r="Q61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>162</v>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="U61" s="176"/>
       <c r="V61" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W61" s="193"/>
       <c r="X61" s="193"/>
@@ -9005,7 +9007,7 @@
         <v>124</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9019,16 +9021,16 @@
       <c r="N62" s="58"/>
       <c r="O62" s="177"/>
       <c r="Q62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>125</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W62" s="193"/>
       <c r="X62" s="193"/>
@@ -9040,14 +9042,14 @@
         <v>126</v>
       </c>
       <c r="C63" s="116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F63" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G63" s="134" t="s">
         <v>25</v>
@@ -9077,7 +9079,7 @@
         <v>29</v>
       </c>
       <c r="R63" s="149" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S63" s="123" t="s">
         <v>205</v>
@@ -9087,7 +9089,7 @@
       </c>
       <c r="U63" s="122"/>
       <c r="V63" s="145" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W63" s="184">
         <v>40667</v>
@@ -9104,7 +9106,7 @@
         <v>25</v>
       </c>
       <c r="AA63" s="117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB63" s="122" t="s">
         <v>25</v>
@@ -9129,18 +9131,18 @@
       </c>
       <c r="AM63" s="121"/>
       <c r="AN63" s="117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="2:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9179,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="75" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9207,7 +9209,7 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9225,16 +9227,16 @@
         <v>29</v>
       </c>
       <c r="R65" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="S65" s="152" t="s">
         <v>263</v>
       </c>
-      <c r="S65" s="152" t="s">
+      <c r="T65" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>265</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V65" s="63"/>
       <c r="W65" s="190"/>
@@ -9274,10 +9276,10 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F66" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G66" s="211"/>
       <c r="H66" s="11"/>
@@ -9298,14 +9300,14 @@
         <v>136</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W66" s="187">
         <v>40609</v>
@@ -9316,7 +9318,7 @@
       <c r="Y66" s="202"/>
       <c r="Z66" s="204"/>
       <c r="AA66" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9346,7 +9348,7 @@
         <v>163</v>
       </c>
       <c r="F67" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G67" s="134"/>
       <c r="H67" s="135"/>
@@ -9367,14 +9369,14 @@
         <v>132</v>
       </c>
       <c r="S67" s="123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T67" s="121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U67" s="122"/>
       <c r="V67" s="142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W67" s="184">
         <v>40664</v>
@@ -9391,7 +9393,7 @@
         <v>25</v>
       </c>
       <c r="AA67" s="117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB67" s="122" t="s">
         <v>25</v>
@@ -9413,10 +9415,10 @@
       </c>
       <c r="AL67" s="116"/>
       <c r="AM67" s="121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN67" s="117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9424,10 +9426,10 @@
         <v>133</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9447,10 +9449,10 @@
         <v>134</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W68" s="193"/>
       <c r="X68" s="193"/>
@@ -9462,13 +9464,13 @@
     </row>
     <row r="69" spans="1:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
       <c r="E69" s="125"/>
       <c r="F69" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G69" s="213"/>
       <c r="H69" s="214"/>
@@ -9486,17 +9488,17 @@
         <v>78</v>
       </c>
       <c r="R69" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="S69" s="125" t="s">
         <v>244</v>
       </c>
-      <c r="S69" s="125" t="s">
-        <v>245</v>
-      </c>
       <c r="T69" s="130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U69" s="127"/>
       <c r="V69" s="125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W69" s="185">
         <v>40834</v>
@@ -9535,15 +9537,15 @@
     </row>
     <row r="70" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70" s="116"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F70" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G70" s="134"/>
       <c r="H70" s="135"/>
@@ -9560,7 +9562,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="135" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N70" s="136" t="s">
         <v>25</v>
@@ -9573,19 +9575,19 @@
         <v>78</v>
       </c>
       <c r="R70" s="122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S70" s="123" t="s">
+        <v>378</v>
+      </c>
+      <c r="T70" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="U70" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="V70" s="124" t="s">
         <v>379</v>
-      </c>
-      <c r="T70" s="121" t="s">
-        <v>237</v>
-      </c>
-      <c r="U70" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="V70" s="124" t="s">
-        <v>380</v>
       </c>
       <c r="W70" s="184"/>
       <c r="X70" s="184"/>
@@ -9598,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB70" s="139" t="s">
         <v>25</v>
@@ -9625,7 +9627,7 @@
         <v>137</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9639,13 +9641,13 @@
       <c r="N71" s="58"/>
       <c r="O71" s="176"/>
       <c r="Q71" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="193"/>
@@ -9667,7 +9669,7 @@
         <v>44</v>
       </c>
       <c r="F72" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9688,14 +9690,14 @@
         <v>140</v>
       </c>
       <c r="S72" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>419</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>420</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W72" s="186">
         <v>40561</v>
@@ -9734,7 +9736,7 @@
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9755,7 +9757,7 @@
         <v>142</v>
       </c>
       <c r="S73" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T73" s="54" t="s">
         <v>141</v>
@@ -9777,7 +9779,7 @@
         <v>27</v>
       </c>
       <c r="AA73" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9808,10 +9810,10 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9832,16 +9834,16 @@
         <v>176</v>
       </c>
       <c r="S74" s="62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>117</v>
       </c>
       <c r="U74" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="V74" s="63" t="s">
         <v>517</v>
-      </c>
-      <c r="V74" s="63" t="s">
-        <v>518</v>
       </c>
       <c r="W74" s="190">
         <v>40940</v>
@@ -9858,7 +9860,7 @@
         <v>16</v>
       </c>
       <c r="AA74" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9886,7 +9888,7 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>25</v>
@@ -9943,13 +9945,13 @@
     </row>
     <row r="76" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F76" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -9967,17 +9969,17 @@
         <v>78</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="S76" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="S76" s="65" t="s">
-        <v>259</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W76" s="186">
         <v>41410</v>
@@ -10012,7 +10014,7 @@
         <v>180</v>
       </c>
       <c r="F77" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10035,7 +10037,7 @@
         <v>181</v>
       </c>
       <c r="S77" s="65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T77" s="54" t="s">
         <v>180</v>
@@ -10057,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10075,7 +10077,7 @@
       </c>
       <c r="AM77" s="54"/>
       <c r="AN77" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10086,7 +10088,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10116,11 +10118,11 @@
         <v>148</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W78" s="186">
         <v>40252</v>
@@ -10135,7 +10137,7 @@
         <v>39</v>
       </c>
       <c r="AA78" s="76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10164,18 +10166,18 @@
       </c>
       <c r="AM78" s="54"/>
       <c r="AN78" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10189,7 +10191,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="176"/>
       <c r="Q79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
@@ -10224,7 +10226,7 @@
       <c r="D80" s="132"/>
       <c r="E80" s="132"/>
       <c r="F80" s="133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G80" s="134"/>
       <c r="H80" s="135"/>
@@ -10249,10 +10251,10 @@
         <v>188</v>
       </c>
       <c r="S80" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="T80" s="121" t="s">
         <v>233</v>
-      </c>
-      <c r="T80" s="121" t="s">
-        <v>234</v>
       </c>
       <c r="U80" s="139"/>
       <c r="V80" s="142"/>
@@ -10292,10 +10294,10 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F81" s="77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G81" s="211" t="s">
         <v>25</v>
@@ -10312,7 +10314,7 @@
       <c r="O81" s="90"/>
       <c r="P81" s="103"/>
       <c r="Q81" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R81" s="32" t="s">
         <v>165</v>
@@ -10351,7 +10353,7 @@
       </c>
       <c r="AM81" s="33"/>
       <c r="AN81" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -10359,7 +10361,7 @@
         <v>167</v>
       </c>
       <c r="F82" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10373,7 +10375,7 @@
       <c r="N82" s="47"/>
       <c r="O82" s="111"/>
       <c r="P82" s="104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
@@ -10383,7 +10385,7 @@
       </c>
       <c r="S82" s="65"/>
       <c r="T82" s="54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="67"/>
@@ -10398,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10422,7 +10424,7 @@
         <v>179</v>
       </c>
       <c r="F83" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10439,7 +10441,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="111"/>
@@ -10452,7 +10454,7 @@
       </c>
       <c r="S83" s="65"/>
       <c r="T83" s="54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="67"/>
@@ -10467,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10483,10 +10485,10 @@
     </row>
     <row r="84" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F84" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10510,19 +10512,19 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="S84" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="S84" s="65" t="s">
+      <c r="U84" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="V84" s="67" t="s">
         <v>492</v>
-      </c>
-      <c r="T84" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>490</v>
-      </c>
-      <c r="V84" s="67" t="s">
-        <v>493</v>
       </c>
       <c r="W84" s="186">
         <v>39794</v>
@@ -10539,7 +10541,7 @@
         <v>54</v>
       </c>
       <c r="AA84" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10552,15 +10554,15 @@
       </c>
       <c r="AM84" s="54"/>
       <c r="AN84" s="76" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10580,7 +10582,7 @@
         <v>78</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S85" s="65" t="s">
         <v>150</v>
@@ -10589,10 +10591,10 @@
         <v>151</v>
       </c>
       <c r="U85" s="53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V85" s="172" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W85" s="186">
         <v>40497</v>
@@ -10622,7 +10624,7 @@
       </c>
       <c r="AM85" s="54"/>
       <c r="AN85" s="76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="2:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN20" authorId="1">
+    <comment ref="AO20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -696,6 +696,20 @@
           </rPr>
           <t>http://googleappengine.blogspot.de/2008/04/introducing-google-app-engine-our-new.html
 http://googleappengine.blogspot.de/2011/11/app-engine-160-out-of-preview-release.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE48" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Only in Premier account &gt; 150 $ / month</t>
         </r>
       </text>
     </comment>
@@ -1224,7 +1238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -1514,9 +1528,6 @@
     <t>https://gondor.io/</t>
   </si>
   <si>
-    <t>Google AppEngine</t>
-  </si>
-  <si>
     <t>https://developers.google.com/appengine/</t>
   </si>
   <si>
@@ -2838,6 +2849,15 @@
   </si>
   <si>
     <t>Windows Azure</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>SSAE 16 Type II, ISAE 3402 Type II</t>
+  </si>
+  <si>
+    <t>Google App Engine</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3193,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3832,6 +3852,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4234,13 +4257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN320"/>
+  <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="V40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN2" sqref="A1:AN2"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4282,11 +4305,12 @@
     <col min="37" max="37" width="6.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="106.42578125" style="80" customWidth="1"/>
-    <col min="41" max="16384" width="17.140625" style="16"/>
+    <col min="40" max="40" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="106.42578125" style="80" customWidth="1"/>
+    <col min="42" max="16384" width="17.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4300,20 +4324,20 @@
         <v>3</v>
       </c>
       <c r="F1" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="236" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="239"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="240"/>
       <c r="O1" s="108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P1" s="99" t="s">
         <v>5</v>
@@ -4331,53 +4355,56 @@
         <v>9</v>
       </c>
       <c r="U1" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V1" s="84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W1" s="189" t="s">
         <v>78</v>
       </c>
       <c r="X1" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y1" s="247" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z1" s="248"/>
+        <v>524</v>
+      </c>
+      <c r="Y1" s="248" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z1" s="249"/>
       <c r="AA1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="240" t="s">
+      <c r="AB1" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="242"/>
-      <c r="AE1" s="242"/>
-      <c r="AF1" s="242"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="233" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI1" s="234"/>
-      <c r="AJ1" s="235"/>
-      <c r="AK1" s="233" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL1" s="234"/>
-      <c r="AM1" s="235"/>
-      <c r="AN1" s="74" t="s">
+      <c r="AC1" s="242"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="234" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="233" t="s">
+        <v>537</v>
+      </c>
+      <c r="AO1" s="74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="244" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+    <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="245" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="114"/>
       <c r="G2" s="208" t="s">
         <v>13</v>
@@ -4398,10 +4425,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="207" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N2" s="210" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O2" s="86"/>
       <c r="P2" s="100"/>
@@ -4417,14 +4444,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="199" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AA2" s="75"/>
       <c r="AB2" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4436,36 +4463,37 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>282</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN2" s="75"/>
-    </row>
-    <row r="3" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="75"/>
+    </row>
+    <row r="3" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="75"/>
       <c r="G3" s="18">
         <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G87)</f>
@@ -4537,7 +4565,7 @@
       </c>
       <c r="AE3" s="10">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF3" s="10">
         <f t="shared" si="1"/>
@@ -4568,17 +4596,18 @@
         <v>23</v>
       </c>
       <c r="AM3" s="23"/>
-      <c r="AN3" s="75"/>
-    </row>
-    <row r="4" spans="1:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="75"/>
+    </row>
+    <row r="4" spans="1:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="211"/>
       <c r="H4" s="11"/>
@@ -4593,20 +4622,20 @@
       <c r="O4" s="90"/>
       <c r="P4" s="103"/>
       <c r="Q4" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R4" s="148" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="115" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W4" s="187">
         <v>40878</v>
@@ -4629,21 +4658,22 @@
       </c>
       <c r="AL4" s="8"/>
       <c r="AM4" s="33"/>
-      <c r="AN4" s="77" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="116" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="116"/>
       <c r="D5" s="116"/>
       <c r="E5" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G5" s="134"/>
       <c r="H5" s="135"/>
@@ -4657,7 +4687,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="119"/>
       <c r="P5" s="120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="121" t="s">
         <v>29</v>
@@ -4666,16 +4696,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="123" t="s">
+        <v>387</v>
+      </c>
+      <c r="T5" s="121" t="s">
         <v>388</v>
       </c>
-      <c r="T5" s="121" t="s">
+      <c r="U5" s="118" t="s">
         <v>389</v>
       </c>
-      <c r="U5" s="118" t="s">
+      <c r="V5" s="124" t="s">
         <v>390</v>
-      </c>
-      <c r="V5" s="124" t="s">
-        <v>391</v>
       </c>
       <c r="W5" s="184"/>
       <c r="X5" s="184">
@@ -4690,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB5" s="122" t="s">
         <v>25</v>
@@ -4722,9 +4752,10 @@
       <c r="AM5" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="117"/>
-    </row>
-    <row r="6" spans="1:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="117"/>
+    </row>
+    <row r="6" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="125" t="s">
         <v>35</v>
       </c>
@@ -4732,7 +4763,7 @@
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
       <c r="F6" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G6" s="213" t="s">
         <v>25</v>
@@ -4763,16 +4794,16 @@
         <v>36</v>
       </c>
       <c r="S6" s="131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T6" s="130" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V6" s="125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W6" s="185">
         <v>40562</v>
@@ -4787,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB6" s="127" t="s">
         <v>25</v>
@@ -4819,11 +4850,12 @@
       </c>
       <c r="AL6" s="125"/>
       <c r="AM6" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN6" s="126"/>
-    </row>
-    <row r="7" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="126"/>
+    </row>
+    <row r="7" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="132" t="s">
         <v>37</v>
       </c>
@@ -4831,7 +4863,7 @@
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
       <c r="F7" s="133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="134"/>
       <c r="H7" s="135" t="s">
@@ -4847,7 +4879,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="121" t="s">
         <v>29</v>
@@ -4856,16 +4888,16 @@
         <v>38</v>
       </c>
       <c r="S7" s="123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T7" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="U7" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="U7" s="122" t="s">
-        <v>293</v>
-      </c>
       <c r="V7" s="124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W7" s="184">
         <v>40495</v>
@@ -4882,7 +4914,7 @@
         <v>31</v>
       </c>
       <c r="AA7" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB7" s="139" t="s">
         <v>25</v>
@@ -4906,11 +4938,12 @@
       </c>
       <c r="AL7" s="132"/>
       <c r="AM7" s="140" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN7" s="117"/>
-    </row>
-    <row r="8" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="AN7" s="140"/>
+      <c r="AO7" s="117"/>
+    </row>
+    <row r="8" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
@@ -4918,7 +4951,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="216"/>
@@ -4933,27 +4966,27 @@
       <c r="O8" s="141"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W8" s="191"/>
       <c r="X8" s="191"/>
       <c r="Y8" s="202"/>
       <c r="Z8" s="204"/>
       <c r="AA8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4972,16 +5005,17 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" s="51" customFormat="1" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AO8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" s="51" customFormat="1" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F9" s="167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G9" s="217" t="s">
         <v>25</v>
@@ -5004,16 +5038,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="T9" s="169" t="s">
         <v>358</v>
       </c>
-      <c r="T9" s="169" t="s">
-        <v>359</v>
-      </c>
       <c r="U9" s="168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W9" s="192"/>
       <c r="X9" s="192">
@@ -5028,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AB9" s="168"/>
       <c r="AG9" s="169"/>
@@ -5046,11 +5080,12 @@
         <v>25</v>
       </c>
       <c r="AM9" s="169"/>
-      <c r="AN9" s="167" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN9" s="169"/>
+      <c r="AO9" s="167" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
         <v>42</v>
       </c>
@@ -5058,7 +5093,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5073,7 +5108,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="111"/>
@@ -5082,16 +5117,16 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S10" s="65" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V10" s="66">
         <v>39879</v>
@@ -5109,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5125,11 +5160,12 @@
         <v>25</v>
       </c>
       <c r="AM10" s="54"/>
-      <c r="AN10" s="76" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
         <v>46</v>
       </c>
@@ -5137,7 +5173,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5152,10 +5188,10 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
@@ -5176,16 +5212,17 @@
       <c r="AK11" s="57"/>
       <c r="AL11" s="57"/>
       <c r="AM11" s="57"/>
-    </row>
-    <row r="12" spans="1:40" s="156" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AN11" s="57"/>
+    </row>
+    <row r="12" spans="1:41" s="156" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="156" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="156" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F12" s="157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="220" t="s">
         <v>25</v>
@@ -5214,13 +5251,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="162" t="s">
+        <v>425</v>
+      </c>
+      <c r="T12" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="U12" s="161" t="s">
         <v>426</v>
-      </c>
-      <c r="T12" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="U12" s="161" t="s">
-        <v>427</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5230,7 +5267,7 @@
       <c r="Y12" s="202"/>
       <c r="Z12" s="204"/>
       <c r="AA12" s="157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB12" s="161" t="s">
         <v>25</v>
@@ -5257,17 +5294,18 @@
       <c r="AM12" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="AN12" s="157"/>
-    </row>
-    <row r="13" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN12" s="160"/>
+      <c r="AO12" s="157"/>
+    </row>
+    <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
       <c r="F13" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G13" s="134"/>
       <c r="H13" s="135"/>
@@ -5285,19 +5323,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="S13" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="S13" s="123" t="s">
+      <c r="T13" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="T13" s="121" t="s">
+      <c r="U13" s="122" t="s">
+        <v>362</v>
+      </c>
+      <c r="V13" s="142" t="s">
         <v>272</v>
-      </c>
-      <c r="U13" s="122" t="s">
-        <v>363</v>
-      </c>
-      <c r="V13" s="142" t="s">
-        <v>273</v>
       </c>
       <c r="W13" s="184">
         <v>39252</v>
@@ -5314,7 +5352,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB13" s="122"/>
       <c r="AC13" s="116"/>
@@ -5336,15 +5374,16 @@
       </c>
       <c r="AL13" s="116"/>
       <c r="AM13" s="121"/>
-      <c r="AN13" s="117"/>
-    </row>
-    <row r="14" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="117"/>
+    </row>
+    <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5362,16 +5401,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="S14" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="S14" s="65" t="s">
-        <v>252</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="V14" s="66">
         <v>40205</v>
@@ -5389,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5407,19 +5446,20 @@
       </c>
       <c r="AL14" s="44"/>
       <c r="AM14" s="49"/>
-      <c r="AN14" s="76"/>
-    </row>
-    <row r="15" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="76"/>
+    </row>
+    <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G15" s="134" t="s">
         <v>31</v>
@@ -5436,30 +5476,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N15" s="136"/>
       <c r="O15" s="143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P15" s="120"/>
       <c r="Q15" s="121" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S15" s="123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T15" s="121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U15" s="122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V15" s="142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W15" s="184"/>
       <c r="X15" s="184">
@@ -5474,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB15" s="122"/>
       <c r="AC15" s="116"/>
@@ -5498,9 +5538,10 @@
       </c>
       <c r="AL15" s="116"/>
       <c r="AM15" s="121"/>
-      <c r="AN15" s="117"/>
-    </row>
-    <row r="16" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="117"/>
+    </row>
+    <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="116" t="s">
         <v>49</v>
       </c>
@@ -5508,7 +5549,7 @@
       <c r="D16" s="116"/>
       <c r="E16" s="116"/>
       <c r="F16" s="117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16" s="134" t="s">
         <v>25</v>
@@ -5539,16 +5580,16 @@
         <v>50</v>
       </c>
       <c r="S16" s="123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T16" s="121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U16" s="122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V16" s="142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W16" s="184">
         <v>40360</v>
@@ -5565,7 +5606,7 @@
         <v>35</v>
       </c>
       <c r="AA16" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB16" s="122"/>
       <c r="AC16" s="116"/>
@@ -5587,19 +5628,20 @@
       </c>
       <c r="AL16" s="116"/>
       <c r="AM16" s="121"/>
-      <c r="AN16" s="117"/>
-    </row>
-    <row r="17" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="117"/>
+    </row>
+    <row r="17" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="132" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="132" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17" s="134" t="s">
         <v>25</v>
@@ -5614,7 +5656,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N17" s="136" t="s">
         <v>25</v>
@@ -5630,16 +5672,16 @@
         <v>52</v>
       </c>
       <c r="S17" s="123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T17" s="140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U17" s="139" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V17" s="142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W17" s="184"/>
       <c r="X17" s="184"/>
@@ -5668,21 +5710,22 @@
         <v>25</v>
       </c>
       <c r="AM17" s="140"/>
-      <c r="AN17" s="133" t="s">
+      <c r="AN17" s="140"/>
+      <c r="AO17" s="133" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="125"/>
       <c r="C18" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="125"/>
       <c r="E18" s="125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G18" s="213"/>
       <c r="H18" s="214"/>
@@ -5704,19 +5747,19 @@
         <v>78</v>
       </c>
       <c r="R18" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="125" t="s">
+        <v>197</v>
+      </c>
+      <c r="T18" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="S18" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="T18" s="130" t="s">
-        <v>186</v>
-      </c>
       <c r="U18" s="122" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V18" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W18" s="185">
         <v>41383</v>
@@ -5747,18 +5790,19 @@
       </c>
       <c r="AL18" s="125"/>
       <c r="AM18" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN18" s="126"/>
-    </row>
-    <row r="19" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="AN18" s="130"/>
+      <c r="AO18" s="126"/>
+    </row>
+    <row r="19" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5796,11 +5840,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W19" s="186">
         <v>40668</v>
@@ -5817,7 +5861,7 @@
         <v>25</v>
       </c>
       <c r="AA19" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5834,19 +5878,20 @@
         <v>25</v>
       </c>
       <c r="AM19" s="49"/>
-      <c r="AN19" s="78" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="78" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>474</v>
-      </c>
       <c r="F20" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5886,7 +5931,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W20" s="186"/>
       <c r="X20" s="186"/>
@@ -5914,21 +5959,22 @@
         <v>25</v>
       </c>
       <c r="AM20" s="54"/>
-      <c r="AN20" s="76" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="21" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="76" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125"/>
       <c r="C21" s="125" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G21" s="213" t="s">
         <v>25</v>
@@ -5962,13 +6008,13 @@
         <v>59</v>
       </c>
       <c r="T21" s="130" t="s">
+        <v>294</v>
+      </c>
+      <c r="U21" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="U21" s="122" t="s">
-        <v>296</v>
-      </c>
       <c r="V21" s="125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W21" s="185"/>
       <c r="X21" s="185">
@@ -5983,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="126" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB21" s="127" t="s">
         <v>25</v>
@@ -6011,19 +6057,20 @@
         <v>25</v>
       </c>
       <c r="AM21" s="130"/>
-      <c r="AN21" s="126"/>
-    </row>
-    <row r="22" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN21" s="130"/>
+      <c r="AO21" s="126"/>
+    </row>
+    <row r="22" spans="2:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G22" s="211"/>
       <c r="H22" s="11"/>
@@ -6038,7 +6085,7 @@
       <c r="O22" s="90"/>
       <c r="P22" s="103"/>
       <c r="Q22" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>61</v>
@@ -6051,7 +6098,7 @@
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W22" s="187"/>
       <c r="X22" s="187"/>
@@ -6074,16 +6121,17 @@
       </c>
       <c r="AL22" s="8"/>
       <c r="AM22" s="33"/>
-      <c r="AN22" s="77"/>
-    </row>
-    <row r="23" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="77"/>
+    </row>
+    <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6112,16 +6160,16 @@
         <v>63</v>
       </c>
       <c r="S23" s="153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>64</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V23" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W23" s="188">
         <v>41085</v>
@@ -6155,16 +6203,17 @@
         <v>25</v>
       </c>
       <c r="AM23" s="49"/>
-      <c r="AN23" s="78"/>
-    </row>
-    <row r="24" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="78"/>
+    </row>
+    <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6185,7 +6234,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="110"/>
@@ -6194,19 +6243,19 @@
         <v>29</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S24" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="V24" s="70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W24" s="188">
         <v>41037</v>
@@ -6223,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="AA24" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6245,16 +6294,17 @@
       </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="49"/>
-      <c r="AN24" s="78"/>
-    </row>
-    <row r="25" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="78"/>
+    </row>
+    <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6271,7 +6321,7 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="110"/>
@@ -6280,17 +6330,17 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S25" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W25" s="188"/>
       <c r="X25" s="188">
@@ -6305,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6326,22 +6376,23 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN25" s="78" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6360,7 +6411,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="110"/>
@@ -6369,15 +6420,15 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S26" s="65"/>
       <c r="T26" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="154" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W26" s="188"/>
       <c r="X26" s="188"/>
@@ -6390,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6410,18 +6461,19 @@
       </c>
       <c r="AL26" s="44"/>
       <c r="AM26" s="49"/>
-      <c r="AN26" s="78"/>
-    </row>
-    <row r="27" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="78"/>
+    </row>
+    <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6447,17 +6499,17 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S27" s="65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W27" s="188">
         <v>41244</v>
@@ -6467,14 +6519,14 @@
       </c>
       <c r="Y27" s="202">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="204">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="AA27" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6498,16 +6550,17 @@
       </c>
       <c r="AL27" s="44"/>
       <c r="AM27" s="49"/>
-      <c r="AN27" s="78"/>
-    </row>
-    <row r="28" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="78"/>
+    </row>
+    <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="178" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6522,35 +6575,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="179"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="U28" s="183" t="s">
+        <v>510</v>
+      </c>
+      <c r="V28" s="180" t="s">
         <v>509</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="U28" s="183" t="s">
-        <v>511</v>
-      </c>
-      <c r="V28" s="180" t="s">
-        <v>510</v>
       </c>
       <c r="W28" s="195"/>
       <c r="X28" s="195"/>
       <c r="Y28" s="202"/>
       <c r="Z28" s="204"/>
       <c r="AA28" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6568,13 +6621,14 @@
       <c r="AL28" s="57"/>
       <c r="AM28" s="57"/>
       <c r="AN28" s="57"/>
-    </row>
-    <row r="29" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AO28" s="57"/>
+    </row>
+    <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6587,16 +6641,16 @@
       <c r="O29" s="171"/>
       <c r="P29" s="104"/>
       <c r="Q29" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="65"/>
       <c r="T29" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W29" s="186"/>
       <c r="X29" s="186"/>
@@ -6612,14 +6666,15 @@
       <c r="AK29" s="48"/>
       <c r="AL29" s="44"/>
       <c r="AM29" s="49"/>
-      <c r="AN29" s="76"/>
-    </row>
-    <row r="30" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="76"/>
+    </row>
+    <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6640,16 +6695,16 @@
         <v>66</v>
       </c>
       <c r="S30" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T30" s="54" t="s">
         <v>67</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V30" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W30" s="186">
         <v>40269</v>
@@ -6666,7 +6721,7 @@
         <v>38</v>
       </c>
       <c r="AA30" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6688,21 +6743,22 @@
         <v>25</v>
       </c>
       <c r="AM30" s="54"/>
-      <c r="AN30" s="76" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="31" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6726,17 +6782,17 @@
         <v>29</v>
       </c>
       <c r="R31" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="S31" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="S31" s="165" t="s">
+      <c r="T31" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="154" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W31" s="188">
         <v>40840</v>
@@ -6753,7 +6809,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="78" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6770,15 +6826,16 @@
         <v>25</v>
       </c>
       <c r="AM31" s="49"/>
-      <c r="AN31" s="78"/>
-    </row>
-    <row r="32" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="78"/>
+    </row>
+    <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="155"/>
       <c r="F32" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6800,13 +6857,13 @@
       </c>
       <c r="S32" s="65"/>
       <c r="T32" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V32" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W32" s="186">
         <v>40563</v>
@@ -6834,9 +6891,10 @@
         <v>25</v>
       </c>
       <c r="AM32" s="54"/>
-      <c r="AN32" s="76"/>
-    </row>
-    <row r="33" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="76"/>
+    </row>
+    <row r="33" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
         <v>70</v>
       </c>
@@ -6844,7 +6902,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6865,7 +6923,7 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R33" s="57" t="s">
         <v>71</v>
@@ -6874,7 +6932,7 @@
         <v>72</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="175">
@@ -6885,7 +6943,7 @@
       <c r="Y33" s="202"/>
       <c r="Z33" s="204"/>
       <c r="AA33" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6910,19 +6968,20 @@
       </c>
       <c r="AL33" s="57"/>
       <c r="AM33" s="57"/>
-      <c r="AN33" s="57" t="s">
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G34" s="217" t="s">
         <v>25</v>
@@ -6948,17 +7007,17 @@
         <v>29</v>
       </c>
       <c r="R34" s="168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S34" s="229" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T34" s="169" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U34" s="168"/>
       <c r="V34" s="230" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W34" s="192"/>
       <c r="X34" s="192">
@@ -6973,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="167" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB34" s="168" t="s">
         <v>25</v>
@@ -6997,17 +7056,18 @@
       </c>
       <c r="AL34" s="51"/>
       <c r="AM34" s="169"/>
-      <c r="AN34" s="167"/>
-    </row>
-    <row r="35" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN34" s="169"/>
+      <c r="AO34" s="167"/>
+    </row>
+    <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7034,7 +7094,7 @@
       <c r="S35" s="65"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V35" s="172">
         <v>40756</v>
@@ -7052,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="AA35" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7068,19 +7128,20 @@
         <v>25</v>
       </c>
       <c r="AM35" s="54"/>
-      <c r="AN35" s="76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="36" spans="2:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7098,13 +7159,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="173" t="s">
+        <v>469</v>
+      </c>
+      <c r="S36" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="S36" s="62" t="s">
+      <c r="T36" s="23" t="s">
         <v>471</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>472</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="63">
@@ -7137,14 +7198,15 @@
       <c r="AM36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AN36" s="75"/>
-    </row>
-    <row r="37" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="75"/>
+    </row>
+    <row r="37" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>76</v>
       </c>
       <c r="F37" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7167,16 +7229,16 @@
         <v>77</v>
       </c>
       <c r="S37" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>79</v>
       </c>
       <c r="U37" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="V37" s="172" t="s">
         <v>468</v>
-      </c>
-      <c r="V37" s="172" t="s">
-        <v>469</v>
       </c>
       <c r="W37" s="186">
         <v>41331</v>
@@ -7191,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7207,17 +7269,18 @@
         <v>25</v>
       </c>
       <c r="AM37" s="54"/>
-      <c r="AN37" s="76"/>
-    </row>
-    <row r="38" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="76"/>
+    </row>
+    <row r="38" spans="2:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G38" s="211"/>
       <c r="H38" s="11"/>
@@ -7232,18 +7295,18 @@
       <c r="O38" s="90"/>
       <c r="P38" s="103"/>
       <c r="Q38" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W38" s="187">
         <v>40443</v>
@@ -7266,16 +7329,17 @@
       </c>
       <c r="AL38" s="8"/>
       <c r="AM38" s="33"/>
-      <c r="AN38" s="77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="77" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7293,15 +7357,15 @@
         <v>78</v>
       </c>
       <c r="R39" s="182" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S39" s="65"/>
       <c r="T39" s="54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W39" s="186">
         <v>41061</v>
@@ -7324,9 +7388,10 @@
         <v>25</v>
       </c>
       <c r="AM39" s="54"/>
-      <c r="AN39" s="76"/>
-    </row>
-    <row r="40" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="76"/>
+    </row>
+    <row r="40" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>80</v>
       </c>
@@ -7334,7 +7399,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7353,7 +7418,7 @@
         <v>25</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N40" s="47" t="s">
         <v>25</v>
@@ -7370,13 +7435,13 @@
         <v>82</v>
       </c>
       <c r="T40" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="U40" s="53" t="s">
-        <v>306</v>
-      </c>
       <c r="V40" s="67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W40" s="186">
         <v>40544</v>
@@ -7393,7 +7458,7 @@
         <v>29</v>
       </c>
       <c r="AA40" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7417,9 +7482,10 @@
       <c r="AM40" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AN40" s="76"/>
-    </row>
-    <row r="41" spans="2:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="76"/>
+    </row>
+    <row r="41" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>83</v>
       </c>
@@ -7427,7 +7493,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7466,10 +7532,10 @@
         <v>83</v>
       </c>
       <c r="U41" s="181" t="s">
+        <v>415</v>
+      </c>
+      <c r="V41" s="68" t="s">
         <v>416</v>
-      </c>
-      <c r="V41" s="68" t="s">
-        <v>417</v>
       </c>
       <c r="W41" s="196">
         <v>40878</v>
@@ -7510,19 +7576,20 @@
         <v>25</v>
       </c>
       <c r="AM41" s="31"/>
-      <c r="AN41" s="75" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="42" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="75" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7533,7 +7600,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="89"/>
@@ -7542,19 +7609,19 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S42" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="66" t="s">
         <v>414</v>
-      </c>
-      <c r="V42" s="66" t="s">
-        <v>415</v>
       </c>
       <c r="W42" s="186"/>
       <c r="X42" s="186">
@@ -7569,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7586,9 +7653,10 @@
       <c r="AM42" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AN42" s="76"/>
-    </row>
-    <row r="43" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="76"/>
+    </row>
+    <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="116" t="s">
         <v>86</v>
       </c>
@@ -7596,7 +7664,7 @@
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
       <c r="F43" s="117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G43" s="134"/>
       <c r="H43" s="135"/>
@@ -7623,16 +7691,16 @@
         <v>87</v>
       </c>
       <c r="S43" s="123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T43" s="121" t="s">
+        <v>365</v>
+      </c>
+      <c r="U43" s="122" t="s">
         <v>366</v>
       </c>
-      <c r="U43" s="122" t="s">
-        <v>367</v>
-      </c>
       <c r="V43" s="145" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W43" s="184"/>
       <c r="X43" s="184">
@@ -7647,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB43" s="122" t="s">
         <v>25</v>
@@ -7679,11 +7747,12 @@
       <c r="AM43" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="AN43" s="117" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN43" s="121"/>
+      <c r="AO43" s="117" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="2:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>88</v>
       </c>
@@ -7691,7 +7760,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G44" s="211"/>
       <c r="H44" s="11"/>
@@ -7705,21 +7774,21 @@
       <c r="N44" s="212"/>
       <c r="O44" s="90"/>
       <c r="P44" s="103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>89</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W44" s="187"/>
       <c r="X44" s="187"/>
@@ -7742,17 +7811,18 @@
       <c r="AM44" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AN44" s="77"/>
-    </row>
-    <row r="45" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN44" s="33"/>
+      <c r="AO44" s="77"/>
+    </row>
+    <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7761,7 +7831,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="111"/>
@@ -7780,7 +7850,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="67" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W45" s="186"/>
       <c r="X45" s="186">
@@ -7795,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7807,17 +7877,18 @@
         <v>25</v>
       </c>
       <c r="AM45" s="54"/>
-      <c r="AN45" s="76"/>
-    </row>
-    <row r="46" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="76"/>
+    </row>
+    <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="116"/>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
       <c r="F46" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G46" s="134"/>
       <c r="H46" s="135"/>
@@ -7835,19 +7906,19 @@
         <v>29</v>
       </c>
       <c r="R46" s="122" t="s">
+        <v>237</v>
+      </c>
+      <c r="S46" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="S46" s="123" t="s">
+      <c r="T46" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="U46" s="122" t="s">
+        <v>333</v>
+      </c>
+      <c r="V46" s="124" t="s">
         <v>239</v>
-      </c>
-      <c r="T46" s="121" t="s">
-        <v>241</v>
-      </c>
-      <c r="U46" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="V46" s="124" t="s">
-        <v>240</v>
       </c>
       <c r="W46" s="184">
         <v>41143</v>
@@ -7864,7 +7935,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB46" s="139"/>
       <c r="AC46" s="132"/>
@@ -7886,9 +7957,10 @@
       </c>
       <c r="AL46" s="132"/>
       <c r="AM46" s="140"/>
-      <c r="AN46" s="117"/>
-    </row>
-    <row r="47" spans="2:40" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="AN46" s="140"/>
+      <c r="AO46" s="117"/>
+    </row>
+    <row r="47" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="116" t="s">
         <v>94</v>
       </c>
@@ -7896,7 +7968,7 @@
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
       <c r="F47" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G47" s="134"/>
       <c r="H47" s="135"/>
@@ -7917,16 +7989,16 @@
         <v>95</v>
       </c>
       <c r="S47" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="T47" s="121" t="s">
+        <v>334</v>
+      </c>
+      <c r="U47" s="122" t="s">
         <v>336</v>
       </c>
-      <c r="T47" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="U47" s="122" t="s">
-        <v>337</v>
-      </c>
       <c r="V47" s="142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W47" s="184">
         <v>40546</v>
@@ -7943,7 +8015,7 @@
         <v>29</v>
       </c>
       <c r="AA47" s="117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB47" s="122" t="s">
         <v>25</v>
@@ -7963,19 +8035,20 @@
       </c>
       <c r="AL47" s="116"/>
       <c r="AM47" s="121" t="s">
-        <v>338</v>
-      </c>
-      <c r="AN47" s="117"/>
-    </row>
-    <row r="48" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="AN47" s="121"/>
+      <c r="AO47" s="117"/>
+    </row>
+    <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="125" t="s">
-        <v>96</v>
+        <v>539</v>
       </c>
       <c r="C48" s="125"/>
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G48" s="213" t="s">
         <v>25</v>
@@ -7990,7 +8063,7 @@
       <c r="K48" s="214"/>
       <c r="L48" s="214"/>
       <c r="M48" s="214" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N48" s="215"/>
       <c r="O48" s="128"/>
@@ -7999,19 +8072,19 @@
         <v>29</v>
       </c>
       <c r="R48" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="S48" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="T48" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="S48" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="T48" s="130" t="s">
-        <v>98</v>
-      </c>
       <c r="U48" s="122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V48" s="125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W48" s="185">
         <v>39545</v>
@@ -8028,14 +8101,16 @@
         <v>62</v>
       </c>
       <c r="AA48" s="126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB48" s="127" t="s">
         <v>25</v>
       </c>
       <c r="AC48" s="125"/>
       <c r="AD48" s="125"/>
-      <c r="AE48" s="125"/>
+      <c r="AE48" s="125" t="s">
+        <v>25</v>
+      </c>
       <c r="AF48" s="125"/>
       <c r="AG48" s="130"/>
       <c r="AH48" s="127"/>
@@ -8050,19 +8125,22 @@
       </c>
       <c r="AL48" s="125"/>
       <c r="AM48" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN48" s="126"/>
-    </row>
-    <row r="49" spans="2:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="AN48" s="130" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO48" s="126"/>
+    </row>
+    <row r="49" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="125"/>
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G49" s="213" t="s">
         <v>25</v>
@@ -8081,7 +8159,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="214" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N49" s="215" t="s">
         <v>25</v>
@@ -8094,19 +8172,19 @@
         <v>29</v>
       </c>
       <c r="R49" s="150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S49" s="125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T49" s="130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U49" s="127" t="s">
+        <v>194</v>
+      </c>
+      <c r="V49" s="125" t="s">
         <v>195</v>
-      </c>
-      <c r="V49" s="125" t="s">
-        <v>196</v>
       </c>
       <c r="W49" s="185">
         <v>39385</v>
@@ -8123,7 +8201,7 @@
         <v>67</v>
       </c>
       <c r="AA49" s="151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB49" s="127" t="s">
         <v>25</v>
@@ -8149,19 +8227,20 @@
       <c r="AM49" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AN49" s="126"/>
-    </row>
-    <row r="50" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN49" s="130"/>
+      <c r="AO49" s="126"/>
+    </row>
+    <row r="50" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F50" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8179,19 +8258,19 @@
         <v>78</v>
       </c>
       <c r="R50" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="S50" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="S50" s="165" t="s">
-        <v>103</v>
-      </c>
       <c r="T50" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>436</v>
-      </c>
       <c r="V50" s="166" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W50" s="188">
         <v>40865</v>
@@ -8208,7 +8287,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="78" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8225,16 +8304,17 @@
       </c>
       <c r="AL50" s="44"/>
       <c r="AM50" s="49"/>
-      <c r="AN50" s="76" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN50" s="49"/>
+      <c r="AO50" s="76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8254,19 +8334,19 @@
         <v>29</v>
       </c>
       <c r="R51" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S51" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T51" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="V51" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W51" s="186">
         <v>40742</v>
@@ -8283,7 +8363,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8311,25 +8391,26 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN51" s="54"/>
+      <c r="AO51" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>441</v>
-      </c>
-      <c r="AN51" s="76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>442</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="78" t="s">
         <v>443</v>
-      </c>
-      <c r="F52" s="78" t="s">
-        <v>444</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8347,15 +8428,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S52" s="65"/>
       <c r="T52" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W52" s="186">
         <v>39249</v>
@@ -8372,7 +8453,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8389,19 +8470,20 @@
         <v>25</v>
       </c>
       <c r="AM52" s="54"/>
-      <c r="AN52" s="76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="53" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN52" s="54"/>
+      <c r="AO52" s="76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8419,16 +8501,16 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S53" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V53" s="67">
         <v>2005</v>
@@ -8457,19 +8539,20 @@
         <v>25</v>
       </c>
       <c r="AM53" s="54"/>
-      <c r="AN53" s="76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="54" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C54" s="132"/>
       <c r="D54" s="132"/>
       <c r="E54" s="132"/>
       <c r="F54" s="133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G54" s="134" t="s">
         <v>25</v>
@@ -8499,15 +8582,15 @@
         <v>29</v>
       </c>
       <c r="R54" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S54" s="123"/>
       <c r="T54" s="140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U54" s="122"/>
       <c r="V54" s="147" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W54" s="197">
         <v>39748</v>
@@ -8524,7 +8607,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="133" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB54" s="122" t="s">
         <v>25</v>
@@ -8552,19 +8635,20 @@
       </c>
       <c r="AL54" s="116"/>
       <c r="AM54" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN54" s="117"/>
-    </row>
-    <row r="55" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="AN54" s="121"/>
+      <c r="AO54" s="117"/>
+    </row>
+    <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8582,17 +8666,17 @@
         <v>78</v>
       </c>
       <c r="R55" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S55" s="65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W55" s="186"/>
       <c r="X55" s="186"/>
@@ -8616,17 +8700,18 @@
       </c>
       <c r="AL55" s="44"/>
       <c r="AM55" s="49"/>
-      <c r="AN55" s="76"/>
-    </row>
-    <row r="56" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN55" s="49"/>
+      <c r="AO55" s="76"/>
+    </row>
+    <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="42" t="s">
-        <v>113</v>
-      </c>
       <c r="F56" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8644,11 +8729,11 @@
         <v>78</v>
       </c>
       <c r="R56" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S56" s="65"/>
       <c r="T56" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U56" s="52"/>
       <c r="V56" s="172">
@@ -8667,7 +8752,7 @@
         <v>21</v>
       </c>
       <c r="AA56" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8683,19 +8768,20 @@
         <v>25</v>
       </c>
       <c r="AM56" s="54"/>
-      <c r="AN56" s="76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="2:40" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="AN56" s="54"/>
+      <c r="AO56" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F57" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8710,30 +8796,30 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="111"/>
       <c r="P57" s="104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q57" s="54" t="s">
         <v>78</v>
       </c>
       <c r="R57" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="S57" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="S57" s="65" t="s">
+      <c r="U57" s="53" t="s">
         <v>456</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>457</v>
-      </c>
       <c r="V57" s="66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="W57" s="186">
         <v>41080</v>
@@ -8748,7 +8834,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8773,17 +8859,18 @@
         <v>25</v>
       </c>
       <c r="AM57" s="54"/>
-      <c r="AN57" s="76"/>
-    </row>
-    <row r="58" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN57" s="54"/>
+      <c r="AO57" s="76"/>
+    </row>
+    <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="116"/>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
       <c r="F58" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G58" s="134"/>
       <c r="H58" s="135"/>
@@ -8803,19 +8890,19 @@
         <v>29</v>
       </c>
       <c r="R58" s="149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S58" s="123" t="s">
+        <v>308</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>311</v>
-      </c>
       <c r="V58" s="145" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W58" s="184">
         <v>41099</v>
@@ -8832,7 +8919,7 @@
         <v>11</v>
       </c>
       <c r="AA58" s="117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB58" s="122" t="s">
         <v>25</v>
@@ -8854,19 +8941,20 @@
       </c>
       <c r="AL58" s="116"/>
       <c r="AM58" s="121" t="s">
-        <v>313</v>
-      </c>
-      <c r="AN58" s="117"/>
-    </row>
-    <row r="59" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="AN58" s="121"/>
+      <c r="AO58" s="117"/>
+    </row>
+    <row r="59" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8880,34 +8968,34 @@
       <c r="N59" s="58"/>
       <c r="O59" s="177"/>
       <c r="Q59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W59" s="193"/>
       <c r="X59" s="193"/>
       <c r="Y59" s="202"/>
       <c r="Z59" s="204"/>
     </row>
-    <row r="60" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F60" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G60" s="211"/>
       <c r="H60" s="11"/>
@@ -8922,18 +9010,18 @@
       <c r="O60" s="90"/>
       <c r="P60" s="103"/>
       <c r="Q60" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R60" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W60" s="187"/>
       <c r="X60" s="187"/>
@@ -8958,19 +9046,20 @@
         <v>25</v>
       </c>
       <c r="AM60" s="33"/>
-      <c r="AN60" s="77" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN60" s="33"/>
+      <c r="AO60" s="77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -8984,30 +9073,30 @@
       <c r="N61" s="58"/>
       <c r="O61" s="177"/>
       <c r="Q61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U61" s="176"/>
       <c r="V61" s="56" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W61" s="193"/>
       <c r="X61" s="193"/>
       <c r="Y61" s="202"/>
       <c r="Z61" s="204"/>
     </row>
-    <row r="62" spans="2:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9021,35 +9110,35 @@
       <c r="N62" s="58"/>
       <c r="O62" s="177"/>
       <c r="Q62" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W62" s="193"/>
       <c r="X62" s="193"/>
       <c r="Y62" s="202"/>
       <c r="Z62" s="204"/>
     </row>
-    <row r="63" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F63" s="117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G63" s="134" t="s">
         <v>25</v>
@@ -9079,17 +9168,17 @@
         <v>29</v>
       </c>
       <c r="R63" s="149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S63" s="123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T63" s="121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U63" s="122"/>
       <c r="V63" s="145" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W63" s="184">
         <v>40667</v>
@@ -9106,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="AA63" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB63" s="122" t="s">
         <v>25</v>
@@ -9130,19 +9219,20 @@
         <v>25</v>
       </c>
       <c r="AM63" s="121"/>
-      <c r="AN63" s="117" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="2:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN63" s="121"/>
+      <c r="AO63" s="117" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9160,13 +9250,13 @@
         <v>29</v>
       </c>
       <c r="R64" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="S64" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="S64" s="62" t="s">
-        <v>130</v>
-      </c>
       <c r="T64" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="63"/>
@@ -9181,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="75" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9199,17 +9289,18 @@
         <v>25</v>
       </c>
       <c r="AM64" s="23"/>
-      <c r="AN64" s="75"/>
-    </row>
-    <row r="65" spans="1:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="75"/>
+    </row>
+    <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9227,16 +9318,16 @@
         <v>29</v>
       </c>
       <c r="R65" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="S65" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="S65" s="152" t="s">
+      <c r="T65" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>264</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V65" s="63"/>
       <c r="W65" s="190"/>
@@ -9266,20 +9357,21 @@
         <v>25</v>
       </c>
       <c r="AM65" s="31"/>
-      <c r="AN65" s="75"/>
-    </row>
-    <row r="66" spans="1:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN65" s="31"/>
+      <c r="AO65" s="75"/>
+    </row>
+    <row r="66" spans="1:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="71"/>
       <c r="B66" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F66" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G66" s="211"/>
       <c r="H66" s="11"/>
@@ -9297,17 +9389,17 @@
         <v>29</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W66" s="187">
         <v>40609</v>
@@ -9318,7 +9410,7 @@
       <c r="Y66" s="202"/>
       <c r="Z66" s="204"/>
       <c r="AA66" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9336,19 +9428,20 @@
       </c>
       <c r="AL66" s="8"/>
       <c r="AM66" s="33"/>
-      <c r="AN66" s="77"/>
-    </row>
-    <row r="67" spans="1:40" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="77"/>
+    </row>
+    <row r="67" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="116"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F67" s="117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G67" s="134"/>
       <c r="H67" s="135"/>
@@ -9366,17 +9459,17 @@
         <v>29</v>
       </c>
       <c r="R67" s="122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S67" s="123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T67" s="121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U67" s="122"/>
       <c r="V67" s="142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W67" s="184">
         <v>40664</v>
@@ -9393,7 +9486,7 @@
         <v>25</v>
       </c>
       <c r="AA67" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB67" s="122" t="s">
         <v>25</v>
@@ -9415,21 +9508,22 @@
       </c>
       <c r="AL67" s="116"/>
       <c r="AM67" s="121" t="s">
-        <v>376</v>
-      </c>
-      <c r="AN67" s="117" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="AN67" s="121"/>
+      <c r="AO67" s="117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9446,13 +9540,13 @@
         <v>78</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W68" s="193"/>
       <c r="X68" s="193"/>
@@ -9462,15 +9556,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:40" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
       <c r="E69" s="125"/>
       <c r="F69" s="126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G69" s="213"/>
       <c r="H69" s="214"/>
@@ -9488,17 +9582,17 @@
         <v>78</v>
       </c>
       <c r="R69" s="127" t="s">
+        <v>242</v>
+      </c>
+      <c r="S69" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="S69" s="125" t="s">
-        <v>244</v>
-      </c>
       <c r="T69" s="130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U69" s="127"/>
       <c r="V69" s="125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W69" s="185">
         <v>40834</v>
@@ -9533,19 +9627,20 @@
         <v>25</v>
       </c>
       <c r="AM69" s="130"/>
-      <c r="AN69" s="126"/>
-    </row>
-    <row r="70" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN69" s="130"/>
+      <c r="AO69" s="126"/>
+    </row>
+    <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" s="116"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F70" s="117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G70" s="134"/>
       <c r="H70" s="135"/>
@@ -9562,7 +9657,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N70" s="136" t="s">
         <v>25</v>
@@ -9575,19 +9670,19 @@
         <v>78</v>
       </c>
       <c r="R70" s="122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S70" s="123" t="s">
+        <v>377</v>
+      </c>
+      <c r="T70" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="U70" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="V70" s="124" t="s">
         <v>378</v>
-      </c>
-      <c r="T70" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="U70" s="122" t="s">
-        <v>380</v>
-      </c>
-      <c r="V70" s="124" t="s">
-        <v>379</v>
       </c>
       <c r="W70" s="184"/>
       <c r="X70" s="184"/>
@@ -9600,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB70" s="139" t="s">
         <v>25</v>
@@ -9620,14 +9715,15 @@
       </c>
       <c r="AL70" s="132"/>
       <c r="AM70" s="140"/>
-      <c r="AN70" s="117"/>
-    </row>
-    <row r="71" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN70" s="140"/>
+      <c r="AO70" s="117"/>
+    </row>
+    <row r="71" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9641,13 +9737,13 @@
       <c r="N71" s="58"/>
       <c r="O71" s="176"/>
       <c r="Q71" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="193"/>
@@ -9661,15 +9757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9687,17 +9783,17 @@
         <v>78</v>
       </c>
       <c r="R72" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S72" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>418</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>419</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W72" s="186">
         <v>40561</v>
@@ -9728,15 +9824,16 @@
         <v>25</v>
       </c>
       <c r="AM72" s="54"/>
-      <c r="AN72" s="76"/>
-    </row>
-    <row r="73" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN72" s="54"/>
+      <c r="AO72" s="76"/>
+    </row>
+    <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9754,13 +9851,13 @@
         <v>78</v>
       </c>
       <c r="R73" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S73" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T73" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U73" s="53"/>
       <c r="V73" s="172">
@@ -9779,7 +9876,7 @@
         <v>27</v>
       </c>
       <c r="AA73" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9801,19 +9898,20 @@
       </c>
       <c r="AL73" s="44"/>
       <c r="AM73" s="49"/>
-      <c r="AN73" s="76"/>
-    </row>
-    <row r="74" spans="1:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN73" s="49"/>
+      <c r="AO73" s="76"/>
+    </row>
+    <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9831,19 +9929,19 @@
         <v>29</v>
       </c>
       <c r="R74" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S74" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="T74" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="T74" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="U74" s="22" t="s">
+      <c r="V74" s="63" t="s">
         <v>516</v>
-      </c>
-      <c r="V74" s="63" t="s">
-        <v>517</v>
       </c>
       <c r="W74" s="190">
         <v>40940</v>
@@ -9860,7 +9958,7 @@
         <v>16</v>
       </c>
       <c r="AA74" s="75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9878,17 +9976,18 @@
       </c>
       <c r="AL74" s="10"/>
       <c r="AM74" s="23"/>
-      <c r="AN74" s="75"/>
-    </row>
-    <row r="75" spans="1:40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN74" s="23"/>
+      <c r="AO74" s="75"/>
+    </row>
+    <row r="75" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G75" s="18" t="s">
         <v>25</v>
@@ -9908,11 +10007,11 @@
         <v>29</v>
       </c>
       <c r="R75" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S75" s="62"/>
       <c r="T75" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U75" s="22"/>
       <c r="V75" s="63">
@@ -9941,17 +10040,18 @@
       <c r="AK75" s="22"/>
       <c r="AL75" s="10"/>
       <c r="AM75" s="23"/>
-      <c r="AN75" s="75"/>
-    </row>
-    <row r="76" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN75" s="23"/>
+      <c r="AO75" s="75"/>
+    </row>
+    <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F76" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -9969,17 +10069,17 @@
         <v>78</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="S76" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="S76" s="65" t="s">
-        <v>258</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W76" s="186">
         <v>41410</v>
@@ -10007,14 +10107,15 @@
       </c>
       <c r="AL76" s="44"/>
       <c r="AM76" s="49"/>
-      <c r="AN76" s="76"/>
-    </row>
-    <row r="77" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN76" s="49"/>
+      <c r="AO76" s="76"/>
+    </row>
+    <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F77" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10034,13 +10135,13 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S77" s="65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T77" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="172">
@@ -10059,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10076,19 +10177,20 @@
         <v>25</v>
       </c>
       <c r="AM77" s="54"/>
-      <c r="AN77" s="76" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN77" s="54"/>
+      <c r="AO77" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10112,17 +10214,17 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="S78" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="S78" s="65" t="s">
-        <v>148</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W78" s="186">
         <v>40252</v>
@@ -10137,7 +10239,7 @@
         <v>39</v>
       </c>
       <c r="AA78" s="76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10165,19 +10267,20 @@
         <v>25</v>
       </c>
       <c r="AM78" s="54"/>
-      <c r="AN78" s="76" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:40" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN78" s="54"/>
+      <c r="AO78" s="76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10191,7 +10294,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="176"/>
       <c r="Q79" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
@@ -10217,16 +10320,17 @@
       <c r="AK79" s="57"/>
       <c r="AL79" s="57"/>
       <c r="AM79" s="57"/>
-    </row>
-    <row r="80" spans="1:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AN79" s="57"/>
+    </row>
+    <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B80" s="132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" s="132"/>
       <c r="D80" s="132"/>
       <c r="E80" s="132"/>
       <c r="F80" s="133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G80" s="134"/>
       <c r="H80" s="135"/>
@@ -10248,13 +10352,13 @@
         <v>78</v>
       </c>
       <c r="R80" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S80" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="T80" s="121" t="s">
         <v>232</v>
-      </c>
-      <c r="T80" s="121" t="s">
-        <v>233</v>
       </c>
       <c r="U80" s="139"/>
       <c r="V80" s="142"/>
@@ -10285,19 +10389,20 @@
         <v>25</v>
       </c>
       <c r="AM80" s="140"/>
-      <c r="AN80" s="117"/>
-    </row>
-    <row r="81" spans="2:40" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN80" s="140"/>
+      <c r="AO80" s="117"/>
+    </row>
+    <row r="81" spans="2:41" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F81" s="77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G81" s="211" t="s">
         <v>25</v>
@@ -10314,10 +10419,10 @@
       <c r="O81" s="90"/>
       <c r="P81" s="103"/>
       <c r="Q81" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R81" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="33"/>
@@ -10352,16 +10457,17 @@
         <v>25</v>
       </c>
       <c r="AM81" s="33"/>
-      <c r="AN81" s="77" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN81" s="33"/>
+      <c r="AO81" s="77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F82" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10375,17 +10481,17 @@
       <c r="N82" s="47"/>
       <c r="O82" s="111"/>
       <c r="P82" s="104" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R82" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S82" s="65"/>
       <c r="T82" s="54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="67"/>
@@ -10400,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10417,14 +10523,15 @@
         <v>25</v>
       </c>
       <c r="AM82" s="49"/>
-      <c r="AN82" s="76"/>
-    </row>
-    <row r="83" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN82" s="49"/>
+      <c r="AO82" s="76"/>
+    </row>
+    <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F83" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10441,7 +10548,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="111"/>
@@ -10450,11 +10557,11 @@
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S83" s="65"/>
       <c r="T83" s="54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="67"/>
@@ -10469,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10481,14 +10588,15 @@
         <v>25</v>
       </c>
       <c r="AM83" s="54"/>
-      <c r="AN83" s="76"/>
-    </row>
-    <row r="84" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN83" s="54"/>
+      <c r="AO83" s="76"/>
+    </row>
+    <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10512,19 +10620,19 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="S84" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="S84" s="65" t="s">
+      <c r="U84" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="V84" s="67" t="s">
         <v>491</v>
-      </c>
-      <c r="T84" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>489</v>
-      </c>
-      <c r="V84" s="67" t="s">
-        <v>492</v>
       </c>
       <c r="W84" s="186">
         <v>39794</v>
@@ -10541,7 +10649,7 @@
         <v>54</v>
       </c>
       <c r="AA84" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10553,16 +10661,17 @@
         <v>25</v>
       </c>
       <c r="AM84" s="54"/>
-      <c r="AN84" s="76" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="85" spans="2:40" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN84" s="54"/>
+      <c r="AO84" s="76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10582,19 +10691,19 @@
         <v>78</v>
       </c>
       <c r="R85" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="S85" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="T85" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="U85" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="V85" s="172" t="s">
         <v>483</v>
-      </c>
-      <c r="S85" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="T85" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="U85" s="53" t="s">
-        <v>482</v>
-      </c>
-      <c r="V85" s="172" t="s">
-        <v>484</v>
       </c>
       <c r="W85" s="186">
         <v>40497</v>
@@ -10623,11 +10732,12 @@
         <v>25</v>
       </c>
       <c r="AM85" s="54"/>
-      <c r="AN85" s="76" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="86" spans="2:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN85" s="54"/>
+      <c r="AO85" s="76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -10666,9 +10776,10 @@
       <c r="AK86" s="22"/>
       <c r="AL86" s="10"/>
       <c r="AM86" s="23"/>
-      <c r="AN86" s="75"/>
-    </row>
-    <row r="87" spans="2:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN86" s="23"/>
+      <c r="AO86" s="75"/>
+    </row>
+    <row r="87" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L87" s="226"/>
       <c r="AA87" s="81"/>
       <c r="AB87" s="35"/>
@@ -10680,8 +10791,9 @@
       <c r="AK87" s="39"/>
       <c r="AL87" s="14"/>
       <c r="AM87" s="36"/>
-    </row>
-    <row r="88" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN87" s="36"/>
+    </row>
+    <row r="88" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E88" s="15"/>
       <c r="F88" s="82"/>
       <c r="G88" s="28"/>
@@ -10699,8 +10811,9 @@
       <c r="AK88" s="40"/>
       <c r="AL88" s="15"/>
       <c r="AM88" s="38"/>
-    </row>
-    <row r="89" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN88" s="38"/>
+    </row>
+    <row r="89" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E89" s="15"/>
       <c r="F89" s="82"/>
       <c r="G89" s="28"/>
@@ -10718,8 +10831,9 @@
       <c r="AK89" s="40"/>
       <c r="AL89" s="15"/>
       <c r="AM89" s="38"/>
-    </row>
-    <row r="90" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN89" s="38"/>
+    </row>
+    <row r="90" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E90" s="15"/>
       <c r="F90" s="82"/>
       <c r="G90" s="28"/>
@@ -10737,8 +10851,9 @@
       <c r="AK90" s="40"/>
       <c r="AL90" s="15"/>
       <c r="AM90" s="38"/>
-    </row>
-    <row r="91" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN90" s="38"/>
+    </row>
+    <row r="91" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E91" s="15"/>
       <c r="F91" s="82"/>
       <c r="G91" s="28"/>
@@ -10756,8 +10871,9 @@
       <c r="AK91" s="40"/>
       <c r="AL91" s="15"/>
       <c r="AM91" s="38"/>
-    </row>
-    <row r="92" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN91" s="38"/>
+    </row>
+    <row r="92" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E92" s="15"/>
       <c r="F92" s="82"/>
       <c r="G92" s="28"/>
@@ -10775,8 +10891,9 @@
       <c r="AK92" s="40"/>
       <c r="AL92" s="15"/>
       <c r="AM92" s="38"/>
-    </row>
-    <row r="93" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN92" s="38"/>
+    </row>
+    <row r="93" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E93" s="15"/>
       <c r="F93" s="82"/>
       <c r="G93" s="28"/>
@@ -10794,8 +10911,9 @@
       <c r="AK93" s="40"/>
       <c r="AL93" s="15"/>
       <c r="AM93" s="38"/>
-    </row>
-    <row r="94" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN93" s="38"/>
+    </row>
+    <row r="94" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E94" s="15"/>
       <c r="F94" s="82"/>
       <c r="G94" s="28"/>
@@ -10813,8 +10931,9 @@
       <c r="AK94" s="40"/>
       <c r="AL94" s="15"/>
       <c r="AM94" s="38"/>
-    </row>
-    <row r="95" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN94" s="38"/>
+    </row>
+    <row r="95" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E95" s="15"/>
       <c r="F95" s="82"/>
       <c r="G95" s="28"/>
@@ -10832,8 +10951,9 @@
       <c r="AK95" s="40"/>
       <c r="AL95" s="15"/>
       <c r="AM95" s="38"/>
-    </row>
-    <row r="96" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN95" s="38"/>
+    </row>
+    <row r="96" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E96" s="15"/>
       <c r="F96" s="82"/>
       <c r="G96" s="28"/>
@@ -10851,8 +10971,9 @@
       <c r="AK96" s="40"/>
       <c r="AL96" s="15"/>
       <c r="AM96" s="38"/>
-    </row>
-    <row r="97" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN96" s="38"/>
+    </row>
+    <row r="97" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E97" s="15"/>
       <c r="F97" s="82"/>
       <c r="G97" s="28"/>
@@ -10870,8 +10991,9 @@
       <c r="AK97" s="40"/>
       <c r="AL97" s="15"/>
       <c r="AM97" s="38"/>
-    </row>
-    <row r="98" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN97" s="38"/>
+    </row>
+    <row r="98" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E98" s="15"/>
       <c r="F98" s="82"/>
       <c r="G98" s="28"/>
@@ -10889,8 +11011,9 @@
       <c r="AK98" s="40"/>
       <c r="AL98" s="15"/>
       <c r="AM98" s="38"/>
-    </row>
-    <row r="99" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN98" s="38"/>
+    </row>
+    <row r="99" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E99" s="15"/>
       <c r="F99" s="82"/>
       <c r="G99" s="28"/>
@@ -10908,8 +11031,9 @@
       <c r="AK99" s="40"/>
       <c r="AL99" s="15"/>
       <c r="AM99" s="38"/>
-    </row>
-    <row r="100" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN99" s="38"/>
+    </row>
+    <row r="100" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E100" s="15"/>
       <c r="F100" s="82"/>
       <c r="G100" s="28"/>
@@ -10927,8 +11051,9 @@
       <c r="AK100" s="40"/>
       <c r="AL100" s="15"/>
       <c r="AM100" s="38"/>
-    </row>
-    <row r="101" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN100" s="38"/>
+    </row>
+    <row r="101" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E101" s="15"/>
       <c r="F101" s="82"/>
       <c r="G101" s="28"/>
@@ -10946,8 +11071,9 @@
       <c r="AK101" s="40"/>
       <c r="AL101" s="15"/>
       <c r="AM101" s="38"/>
-    </row>
-    <row r="102" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN101" s="38"/>
+    </row>
+    <row r="102" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E102" s="15"/>
       <c r="F102" s="82"/>
       <c r="G102" s="28"/>
@@ -10965,8 +11091,9 @@
       <c r="AK102" s="40"/>
       <c r="AL102" s="15"/>
       <c r="AM102" s="38"/>
-    </row>
-    <row r="103" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN102" s="38"/>
+    </row>
+    <row r="103" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E103" s="15"/>
       <c r="F103" s="82"/>
       <c r="G103" s="28"/>
@@ -10984,8 +11111,9 @@
       <c r="AK103" s="40"/>
       <c r="AL103" s="15"/>
       <c r="AM103" s="38"/>
-    </row>
-    <row r="104" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN103" s="38"/>
+    </row>
+    <row r="104" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E104" s="15"/>
       <c r="F104" s="82"/>
       <c r="G104" s="28"/>
@@ -11003,8 +11131,9 @@
       <c r="AK104" s="40"/>
       <c r="AL104" s="15"/>
       <c r="AM104" s="38"/>
-    </row>
-    <row r="105" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN104" s="38"/>
+    </row>
+    <row r="105" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E105" s="15"/>
       <c r="F105" s="82"/>
       <c r="G105" s="28"/>
@@ -11022,8 +11151,9 @@
       <c r="AK105" s="40"/>
       <c r="AL105" s="15"/>
       <c r="AM105" s="38"/>
-    </row>
-    <row r="106" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN105" s="38"/>
+    </row>
+    <row r="106" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E106" s="15"/>
       <c r="F106" s="82"/>
       <c r="G106" s="28"/>
@@ -11041,8 +11171,9 @@
       <c r="AK106" s="40"/>
       <c r="AL106" s="15"/>
       <c r="AM106" s="38"/>
-    </row>
-    <row r="107" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN106" s="38"/>
+    </row>
+    <row r="107" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="15"/>
       <c r="F107" s="82"/>
       <c r="G107" s="28"/>
@@ -11060,8 +11191,9 @@
       <c r="AK107" s="40"/>
       <c r="AL107" s="15"/>
       <c r="AM107" s="38"/>
-    </row>
-    <row r="108" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN107" s="38"/>
+    </row>
+    <row r="108" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E108" s="15"/>
       <c r="F108" s="82"/>
       <c r="G108" s="28"/>
@@ -11079,8 +11211,9 @@
       <c r="AK108" s="40"/>
       <c r="AL108" s="15"/>
       <c r="AM108" s="38"/>
-    </row>
-    <row r="109" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN108" s="38"/>
+    </row>
+    <row r="109" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E109" s="15"/>
       <c r="F109" s="82"/>
       <c r="G109" s="28"/>
@@ -11098,8 +11231,9 @@
       <c r="AK109" s="40"/>
       <c r="AL109" s="15"/>
       <c r="AM109" s="38"/>
-    </row>
-    <row r="110" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN109" s="38"/>
+    </row>
+    <row r="110" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E110" s="15"/>
       <c r="F110" s="82"/>
       <c r="G110" s="28"/>
@@ -11117,8 +11251,9 @@
       <c r="AK110" s="40"/>
       <c r="AL110" s="15"/>
       <c r="AM110" s="38"/>
-    </row>
-    <row r="111" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN110" s="38"/>
+    </row>
+    <row r="111" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E111" s="15"/>
       <c r="F111" s="82"/>
       <c r="G111" s="28"/>
@@ -11136,8 +11271,9 @@
       <c r="AK111" s="40"/>
       <c r="AL111" s="15"/>
       <c r="AM111" s="38"/>
-    </row>
-    <row r="112" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN111" s="38"/>
+    </row>
+    <row r="112" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E112" s="15"/>
       <c r="F112" s="82"/>
       <c r="G112" s="28"/>
@@ -11155,8 +11291,9 @@
       <c r="AK112" s="40"/>
       <c r="AL112" s="15"/>
       <c r="AM112" s="38"/>
-    </row>
-    <row r="113" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN112" s="38"/>
+    </row>
+    <row r="113" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E113" s="15"/>
       <c r="F113" s="82"/>
       <c r="G113" s="28"/>
@@ -11174,8 +11311,9 @@
       <c r="AK113" s="40"/>
       <c r="AL113" s="15"/>
       <c r="AM113" s="38"/>
-    </row>
-    <row r="114" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN113" s="38"/>
+    </row>
+    <row r="114" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="15"/>
       <c r="F114" s="82"/>
       <c r="G114" s="28"/>
@@ -11193,8 +11331,9 @@
       <c r="AK114" s="40"/>
       <c r="AL114" s="15"/>
       <c r="AM114" s="38"/>
-    </row>
-    <row r="115" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN114" s="38"/>
+    </row>
+    <row r="115" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="15"/>
       <c r="F115" s="82"/>
       <c r="G115" s="28"/>
@@ -11212,8 +11351,9 @@
       <c r="AK115" s="40"/>
       <c r="AL115" s="15"/>
       <c r="AM115" s="38"/>
-    </row>
-    <row r="116" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN115" s="38"/>
+    </row>
+    <row r="116" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="15"/>
       <c r="F116" s="82"/>
       <c r="G116" s="28"/>
@@ -11231,8 +11371,9 @@
       <c r="AK116" s="40"/>
       <c r="AL116" s="15"/>
       <c r="AM116" s="38"/>
-    </row>
-    <row r="117" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN116" s="38"/>
+    </row>
+    <row r="117" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="15"/>
       <c r="F117" s="82"/>
       <c r="G117" s="28"/>
@@ -11250,8 +11391,9 @@
       <c r="AK117" s="40"/>
       <c r="AL117" s="15"/>
       <c r="AM117" s="38"/>
-    </row>
-    <row r="118" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN117" s="38"/>
+    </row>
+    <row r="118" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="15"/>
       <c r="F118" s="82"/>
       <c r="G118" s="28"/>
@@ -11269,8 +11411,9 @@
       <c r="AK118" s="40"/>
       <c r="AL118" s="15"/>
       <c r="AM118" s="38"/>
-    </row>
-    <row r="119" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN118" s="38"/>
+    </row>
+    <row r="119" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="15"/>
       <c r="F119" s="82"/>
       <c r="G119" s="28"/>
@@ -11288,8 +11431,9 @@
       <c r="AK119" s="40"/>
       <c r="AL119" s="15"/>
       <c r="AM119" s="38"/>
-    </row>
-    <row r="120" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN119" s="38"/>
+    </row>
+    <row r="120" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="15"/>
       <c r="F120" s="82"/>
       <c r="G120" s="28"/>
@@ -11307,8 +11451,9 @@
       <c r="AK120" s="40"/>
       <c r="AL120" s="15"/>
       <c r="AM120" s="38"/>
-    </row>
-    <row r="121" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN120" s="38"/>
+    </row>
+    <row r="121" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="15"/>
       <c r="F121" s="82"/>
       <c r="G121" s="28"/>
@@ -11326,8 +11471,9 @@
       <c r="AK121" s="40"/>
       <c r="AL121" s="15"/>
       <c r="AM121" s="38"/>
-    </row>
-    <row r="122" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN121" s="38"/>
+    </row>
+    <row r="122" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="15"/>
       <c r="F122" s="82"/>
       <c r="G122" s="28"/>
@@ -11345,8 +11491,9 @@
       <c r="AK122" s="40"/>
       <c r="AL122" s="15"/>
       <c r="AM122" s="38"/>
-    </row>
-    <row r="123" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN122" s="38"/>
+    </row>
+    <row r="123" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="15"/>
       <c r="F123" s="82"/>
       <c r="G123" s="28"/>
@@ -11364,8 +11511,9 @@
       <c r="AK123" s="40"/>
       <c r="AL123" s="15"/>
       <c r="AM123" s="38"/>
-    </row>
-    <row r="124" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN123" s="38"/>
+    </row>
+    <row r="124" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="15"/>
       <c r="F124" s="82"/>
       <c r="G124" s="28"/>
@@ -11383,8 +11531,9 @@
       <c r="AK124" s="40"/>
       <c r="AL124" s="15"/>
       <c r="AM124" s="38"/>
-    </row>
-    <row r="125" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN124" s="38"/>
+    </row>
+    <row r="125" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="15"/>
       <c r="F125" s="82"/>
       <c r="G125" s="28"/>
@@ -11402,8 +11551,9 @@
       <c r="AK125" s="40"/>
       <c r="AL125" s="15"/>
       <c r="AM125" s="38"/>
-    </row>
-    <row r="126" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN125" s="38"/>
+    </row>
+    <row r="126" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="15"/>
       <c r="F126" s="82"/>
       <c r="G126" s="28"/>
@@ -11421,8 +11571,9 @@
       <c r="AK126" s="40"/>
       <c r="AL126" s="15"/>
       <c r="AM126" s="38"/>
-    </row>
-    <row r="127" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN126" s="38"/>
+    </row>
+    <row r="127" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="15"/>
       <c r="F127" s="82"/>
       <c r="G127" s="28"/>
@@ -11440,8 +11591,9 @@
       <c r="AK127" s="40"/>
       <c r="AL127" s="15"/>
       <c r="AM127" s="38"/>
-    </row>
-    <row r="128" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN127" s="38"/>
+    </row>
+    <row r="128" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="15"/>
       <c r="F128" s="82"/>
       <c r="G128" s="28"/>
@@ -11459,8 +11611,9 @@
       <c r="AK128" s="40"/>
       <c r="AL128" s="15"/>
       <c r="AM128" s="38"/>
-    </row>
-    <row r="129" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN128" s="38"/>
+    </row>
+    <row r="129" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="15"/>
       <c r="F129" s="82"/>
       <c r="G129" s="28"/>
@@ -11478,8 +11631,9 @@
       <c r="AK129" s="40"/>
       <c r="AL129" s="15"/>
       <c r="AM129" s="38"/>
-    </row>
-    <row r="130" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN129" s="38"/>
+    </row>
+    <row r="130" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E130" s="15"/>
       <c r="F130" s="82"/>
       <c r="G130" s="28"/>
@@ -11497,8 +11651,9 @@
       <c r="AK130" s="40"/>
       <c r="AL130" s="15"/>
       <c r="AM130" s="38"/>
-    </row>
-    <row r="131" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN130" s="38"/>
+    </row>
+    <row r="131" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E131" s="15"/>
       <c r="F131" s="82"/>
       <c r="G131" s="28"/>
@@ -11516,8 +11671,9 @@
       <c r="AK131" s="40"/>
       <c r="AL131" s="15"/>
       <c r="AM131" s="38"/>
-    </row>
-    <row r="132" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN131" s="38"/>
+    </row>
+    <row r="132" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E132" s="15"/>
       <c r="F132" s="82"/>
       <c r="G132" s="28"/>
@@ -11535,8 +11691,9 @@
       <c r="AK132" s="40"/>
       <c r="AL132" s="15"/>
       <c r="AM132" s="38"/>
-    </row>
-    <row r="133" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN132" s="38"/>
+    </row>
+    <row r="133" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E133" s="15"/>
       <c r="F133" s="82"/>
       <c r="G133" s="28"/>
@@ -11554,8 +11711,9 @@
       <c r="AK133" s="40"/>
       <c r="AL133" s="15"/>
       <c r="AM133" s="38"/>
-    </row>
-    <row r="134" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN133" s="38"/>
+    </row>
+    <row r="134" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E134" s="15"/>
       <c r="F134" s="82"/>
       <c r="G134" s="28"/>
@@ -11573,8 +11731,9 @@
       <c r="AK134" s="40"/>
       <c r="AL134" s="15"/>
       <c r="AM134" s="38"/>
-    </row>
-    <row r="135" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN134" s="38"/>
+    </row>
+    <row r="135" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E135" s="15"/>
       <c r="F135" s="82"/>
       <c r="G135" s="28"/>
@@ -11592,8 +11751,9 @@
       <c r="AK135" s="40"/>
       <c r="AL135" s="15"/>
       <c r="AM135" s="38"/>
-    </row>
-    <row r="136" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN135" s="38"/>
+    </row>
+    <row r="136" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E136" s="15"/>
       <c r="F136" s="82"/>
       <c r="G136" s="28"/>
@@ -11611,8 +11771,9 @@
       <c r="AK136" s="40"/>
       <c r="AL136" s="15"/>
       <c r="AM136" s="38"/>
-    </row>
-    <row r="137" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN136" s="38"/>
+    </row>
+    <row r="137" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E137" s="15"/>
       <c r="F137" s="82"/>
       <c r="G137" s="28"/>
@@ -11630,8 +11791,9 @@
       <c r="AK137" s="40"/>
       <c r="AL137" s="15"/>
       <c r="AM137" s="38"/>
-    </row>
-    <row r="138" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN137" s="38"/>
+    </row>
+    <row r="138" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E138" s="15"/>
       <c r="F138" s="82"/>
       <c r="G138" s="28"/>
@@ -11649,8 +11811,9 @@
       <c r="AK138" s="40"/>
       <c r="AL138" s="15"/>
       <c r="AM138" s="38"/>
-    </row>
-    <row r="139" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN138" s="38"/>
+    </row>
+    <row r="139" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E139" s="15"/>
       <c r="F139" s="82"/>
       <c r="G139" s="28"/>
@@ -11668,8 +11831,9 @@
       <c r="AK139" s="40"/>
       <c r="AL139" s="15"/>
       <c r="AM139" s="38"/>
-    </row>
-    <row r="140" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN139" s="38"/>
+    </row>
+    <row r="140" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E140" s="15"/>
       <c r="F140" s="82"/>
       <c r="G140" s="28"/>
@@ -11687,8 +11851,9 @@
       <c r="AK140" s="40"/>
       <c r="AL140" s="15"/>
       <c r="AM140" s="38"/>
-    </row>
-    <row r="141" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN140" s="38"/>
+    </row>
+    <row r="141" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E141" s="15"/>
       <c r="F141" s="82"/>
       <c r="G141" s="28"/>
@@ -11706,8 +11871,9 @@
       <c r="AK141" s="40"/>
       <c r="AL141" s="15"/>
       <c r="AM141" s="38"/>
-    </row>
-    <row r="142" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN141" s="38"/>
+    </row>
+    <row r="142" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E142" s="15"/>
       <c r="F142" s="82"/>
       <c r="G142" s="28"/>
@@ -11725,8 +11891,9 @@
       <c r="AK142" s="40"/>
       <c r="AL142" s="15"/>
       <c r="AM142" s="38"/>
-    </row>
-    <row r="143" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN142" s="38"/>
+    </row>
+    <row r="143" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E143" s="15"/>
       <c r="F143" s="82"/>
       <c r="G143" s="28"/>
@@ -11744,8 +11911,9 @@
       <c r="AK143" s="40"/>
       <c r="AL143" s="15"/>
       <c r="AM143" s="38"/>
-    </row>
-    <row r="144" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN143" s="38"/>
+    </row>
+    <row r="144" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E144" s="15"/>
       <c r="F144" s="82"/>
       <c r="G144" s="28"/>
@@ -11763,8 +11931,9 @@
       <c r="AK144" s="40"/>
       <c r="AL144" s="15"/>
       <c r="AM144" s="38"/>
-    </row>
-    <row r="145" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN144" s="38"/>
+    </row>
+    <row r="145" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E145" s="15"/>
       <c r="F145" s="82"/>
       <c r="G145" s="28"/>
@@ -11782,8 +11951,9 @@
       <c r="AK145" s="40"/>
       <c r="AL145" s="15"/>
       <c r="AM145" s="38"/>
-    </row>
-    <row r="146" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN145" s="38"/>
+    </row>
+    <row r="146" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E146" s="15"/>
       <c r="F146" s="82"/>
       <c r="G146" s="28"/>
@@ -11801,8 +11971,9 @@
       <c r="AK146" s="40"/>
       <c r="AL146" s="15"/>
       <c r="AM146" s="38"/>
-    </row>
-    <row r="147" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN146" s="38"/>
+    </row>
+    <row r="147" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E147" s="15"/>
       <c r="F147" s="82"/>
       <c r="G147" s="28"/>
@@ -11820,8 +11991,9 @@
       <c r="AK147" s="40"/>
       <c r="AL147" s="15"/>
       <c r="AM147" s="38"/>
-    </row>
-    <row r="148" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN147" s="38"/>
+    </row>
+    <row r="148" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E148" s="15"/>
       <c r="F148" s="82"/>
       <c r="G148" s="28"/>
@@ -11839,8 +12011,9 @@
       <c r="AK148" s="40"/>
       <c r="AL148" s="15"/>
       <c r="AM148" s="38"/>
-    </row>
-    <row r="149" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN148" s="38"/>
+    </row>
+    <row r="149" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E149" s="15"/>
       <c r="F149" s="82"/>
       <c r="G149" s="28"/>
@@ -11858,8 +12031,9 @@
       <c r="AK149" s="40"/>
       <c r="AL149" s="15"/>
       <c r="AM149" s="38"/>
-    </row>
-    <row r="150" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN149" s="38"/>
+    </row>
+    <row r="150" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="15"/>
       <c r="F150" s="82"/>
       <c r="G150" s="28"/>
@@ -11877,8 +12051,9 @@
       <c r="AK150" s="40"/>
       <c r="AL150" s="15"/>
       <c r="AM150" s="38"/>
-    </row>
-    <row r="151" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN150" s="38"/>
+    </row>
+    <row r="151" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E151" s="15"/>
       <c r="F151" s="82"/>
       <c r="G151" s="28"/>
@@ -11896,8 +12071,9 @@
       <c r="AK151" s="40"/>
       <c r="AL151" s="15"/>
       <c r="AM151" s="38"/>
-    </row>
-    <row r="152" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN151" s="38"/>
+    </row>
+    <row r="152" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E152" s="15"/>
       <c r="F152" s="82"/>
       <c r="G152" s="28"/>
@@ -11915,8 +12091,9 @@
       <c r="AK152" s="40"/>
       <c r="AL152" s="15"/>
       <c r="AM152" s="38"/>
-    </row>
-    <row r="153" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN152" s="38"/>
+    </row>
+    <row r="153" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E153" s="15"/>
       <c r="F153" s="82"/>
       <c r="G153" s="28"/>
@@ -11934,8 +12111,9 @@
       <c r="AK153" s="40"/>
       <c r="AL153" s="15"/>
       <c r="AM153" s="38"/>
-    </row>
-    <row r="154" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN153" s="38"/>
+    </row>
+    <row r="154" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E154" s="15"/>
       <c r="F154" s="82"/>
       <c r="G154" s="28"/>
@@ -11953,8 +12131,9 @@
       <c r="AK154" s="40"/>
       <c r="AL154" s="15"/>
       <c r="AM154" s="38"/>
-    </row>
-    <row r="155" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN154" s="38"/>
+    </row>
+    <row r="155" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E155" s="15"/>
       <c r="F155" s="82"/>
       <c r="G155" s="28"/>
@@ -11972,8 +12151,9 @@
       <c r="AK155" s="40"/>
       <c r="AL155" s="15"/>
       <c r="AM155" s="38"/>
-    </row>
-    <row r="156" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN155" s="38"/>
+    </row>
+    <row r="156" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E156" s="15"/>
       <c r="F156" s="82"/>
       <c r="G156" s="28"/>
@@ -11991,8 +12171,9 @@
       <c r="AK156" s="40"/>
       <c r="AL156" s="15"/>
       <c r="AM156" s="38"/>
-    </row>
-    <row r="157" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN156" s="38"/>
+    </row>
+    <row r="157" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E157" s="15"/>
       <c r="F157" s="82"/>
       <c r="G157" s="28"/>
@@ -12010,8 +12191,9 @@
       <c r="AK157" s="40"/>
       <c r="AL157" s="15"/>
       <c r="AM157" s="38"/>
-    </row>
-    <row r="158" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN157" s="38"/>
+    </row>
+    <row r="158" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E158" s="15"/>
       <c r="F158" s="82"/>
       <c r="G158" s="28"/>
@@ -12029,8 +12211,9 @@
       <c r="AK158" s="40"/>
       <c r="AL158" s="15"/>
       <c r="AM158" s="38"/>
-    </row>
-    <row r="159" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN158" s="38"/>
+    </row>
+    <row r="159" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E159" s="15"/>
       <c r="F159" s="82"/>
       <c r="G159" s="28"/>
@@ -12048,8 +12231,9 @@
       <c r="AK159" s="40"/>
       <c r="AL159" s="15"/>
       <c r="AM159" s="38"/>
-    </row>
-    <row r="160" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN159" s="38"/>
+    </row>
+    <row r="160" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E160" s="15"/>
       <c r="F160" s="82"/>
       <c r="G160" s="28"/>
@@ -12067,8 +12251,9 @@
       <c r="AK160" s="40"/>
       <c r="AL160" s="15"/>
       <c r="AM160" s="38"/>
-    </row>
-    <row r="161" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN160" s="38"/>
+    </row>
+    <row r="161" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E161" s="15"/>
       <c r="F161" s="82"/>
       <c r="G161" s="28"/>
@@ -12086,8 +12271,9 @@
       <c r="AK161" s="40"/>
       <c r="AL161" s="15"/>
       <c r="AM161" s="38"/>
-    </row>
-    <row r="162" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN161" s="38"/>
+    </row>
+    <row r="162" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E162" s="15"/>
       <c r="F162" s="82"/>
       <c r="G162" s="28"/>
@@ -12105,8 +12291,9 @@
       <c r="AK162" s="40"/>
       <c r="AL162" s="15"/>
       <c r="AM162" s="38"/>
-    </row>
-    <row r="163" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN162" s="38"/>
+    </row>
+    <row r="163" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E163" s="15"/>
       <c r="F163" s="82"/>
       <c r="G163" s="28"/>
@@ -12124,8 +12311,9 @@
       <c r="AK163" s="40"/>
       <c r="AL163" s="15"/>
       <c r="AM163" s="38"/>
-    </row>
-    <row r="164" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN163" s="38"/>
+    </row>
+    <row r="164" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E164" s="15"/>
       <c r="F164" s="82"/>
       <c r="G164" s="28"/>
@@ -12143,8 +12331,9 @@
       <c r="AK164" s="40"/>
       <c r="AL164" s="15"/>
       <c r="AM164" s="38"/>
-    </row>
-    <row r="165" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN164" s="38"/>
+    </row>
+    <row r="165" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E165" s="15"/>
       <c r="F165" s="82"/>
       <c r="G165" s="28"/>
@@ -12162,8 +12351,9 @@
       <c r="AK165" s="40"/>
       <c r="AL165" s="15"/>
       <c r="AM165" s="38"/>
-    </row>
-    <row r="166" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN165" s="38"/>
+    </row>
+    <row r="166" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E166" s="15"/>
       <c r="F166" s="82"/>
       <c r="G166" s="28"/>
@@ -12181,8 +12371,9 @@
       <c r="AK166" s="40"/>
       <c r="AL166" s="15"/>
       <c r="AM166" s="38"/>
-    </row>
-    <row r="167" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN166" s="38"/>
+    </row>
+    <row r="167" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E167" s="15"/>
       <c r="F167" s="82"/>
       <c r="G167" s="28"/>
@@ -12200,8 +12391,9 @@
       <c r="AK167" s="40"/>
       <c r="AL167" s="15"/>
       <c r="AM167" s="38"/>
-    </row>
-    <row r="168" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN167" s="38"/>
+    </row>
+    <row r="168" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E168" s="15"/>
       <c r="F168" s="82"/>
       <c r="G168" s="28"/>
@@ -12219,8 +12411,9 @@
       <c r="AK168" s="40"/>
       <c r="AL168" s="15"/>
       <c r="AM168" s="38"/>
-    </row>
-    <row r="169" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN168" s="38"/>
+    </row>
+    <row r="169" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E169" s="15"/>
       <c r="F169" s="82"/>
       <c r="G169" s="28"/>
@@ -12238,8 +12431,9 @@
       <c r="AK169" s="40"/>
       <c r="AL169" s="15"/>
       <c r="AM169" s="38"/>
-    </row>
-    <row r="170" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN169" s="38"/>
+    </row>
+    <row r="170" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E170" s="15"/>
       <c r="F170" s="82"/>
       <c r="G170" s="28"/>
@@ -12257,8 +12451,9 @@
       <c r="AK170" s="40"/>
       <c r="AL170" s="15"/>
       <c r="AM170" s="38"/>
-    </row>
-    <row r="171" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN170" s="38"/>
+    </row>
+    <row r="171" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E171" s="15"/>
       <c r="F171" s="82"/>
       <c r="G171" s="28"/>
@@ -12276,8 +12471,9 @@
       <c r="AK171" s="40"/>
       <c r="AL171" s="15"/>
       <c r="AM171" s="38"/>
-    </row>
-    <row r="172" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN171" s="38"/>
+    </row>
+    <row r="172" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="15"/>
       <c r="F172" s="82"/>
       <c r="G172" s="28"/>
@@ -12295,8 +12491,9 @@
       <c r="AK172" s="40"/>
       <c r="AL172" s="15"/>
       <c r="AM172" s="38"/>
-    </row>
-    <row r="173" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN172" s="38"/>
+    </row>
+    <row r="173" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E173" s="15"/>
       <c r="F173" s="82"/>
       <c r="G173" s="28"/>
@@ -12314,8 +12511,9 @@
       <c r="AK173" s="40"/>
       <c r="AL173" s="15"/>
       <c r="AM173" s="38"/>
-    </row>
-    <row r="174" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN173" s="38"/>
+    </row>
+    <row r="174" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E174" s="15"/>
       <c r="F174" s="82"/>
       <c r="G174" s="28"/>
@@ -12333,8 +12531,9 @@
       <c r="AK174" s="40"/>
       <c r="AL174" s="15"/>
       <c r="AM174" s="38"/>
-    </row>
-    <row r="175" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN174" s="38"/>
+    </row>
+    <row r="175" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E175" s="15"/>
       <c r="F175" s="82"/>
       <c r="G175" s="28"/>
@@ -12352,8 +12551,9 @@
       <c r="AK175" s="40"/>
       <c r="AL175" s="15"/>
       <c r="AM175" s="38"/>
-    </row>
-    <row r="176" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN175" s="38"/>
+    </row>
+    <row r="176" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E176" s="15"/>
       <c r="F176" s="82"/>
       <c r="G176" s="28"/>
@@ -12371,8 +12571,9 @@
       <c r="AK176" s="40"/>
       <c r="AL176" s="15"/>
       <c r="AM176" s="38"/>
-    </row>
-    <row r="177" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN176" s="38"/>
+    </row>
+    <row r="177" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E177" s="15"/>
       <c r="F177" s="82"/>
       <c r="G177" s="28"/>
@@ -12390,8 +12591,9 @@
       <c r="AK177" s="40"/>
       <c r="AL177" s="15"/>
       <c r="AM177" s="38"/>
-    </row>
-    <row r="178" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN177" s="38"/>
+    </row>
+    <row r="178" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E178" s="15"/>
       <c r="F178" s="82"/>
       <c r="G178" s="28"/>
@@ -12409,8 +12611,9 @@
       <c r="AK178" s="40"/>
       <c r="AL178" s="15"/>
       <c r="AM178" s="38"/>
-    </row>
-    <row r="179" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN178" s="38"/>
+    </row>
+    <row r="179" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E179" s="15"/>
       <c r="F179" s="82"/>
       <c r="G179" s="28"/>
@@ -12428,8 +12631,9 @@
       <c r="AK179" s="40"/>
       <c r="AL179" s="15"/>
       <c r="AM179" s="38"/>
-    </row>
-    <row r="180" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN179" s="38"/>
+    </row>
+    <row r="180" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E180" s="15"/>
       <c r="F180" s="82"/>
       <c r="G180" s="28"/>
@@ -12447,8 +12651,9 @@
       <c r="AK180" s="40"/>
       <c r="AL180" s="15"/>
       <c r="AM180" s="38"/>
-    </row>
-    <row r="181" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN180" s="38"/>
+    </row>
+    <row r="181" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E181" s="15"/>
       <c r="F181" s="82"/>
       <c r="G181" s="28"/>
@@ -12466,8 +12671,9 @@
       <c r="AK181" s="40"/>
       <c r="AL181" s="15"/>
       <c r="AM181" s="38"/>
-    </row>
-    <row r="182" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN181" s="38"/>
+    </row>
+    <row r="182" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E182" s="15"/>
       <c r="F182" s="82"/>
       <c r="G182" s="28"/>
@@ -12485,8 +12691,9 @@
       <c r="AK182" s="40"/>
       <c r="AL182" s="15"/>
       <c r="AM182" s="38"/>
-    </row>
-    <row r="183" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN182" s="38"/>
+    </row>
+    <row r="183" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E183" s="15"/>
       <c r="F183" s="82"/>
       <c r="G183" s="28"/>
@@ -12504,8 +12711,9 @@
       <c r="AK183" s="40"/>
       <c r="AL183" s="15"/>
       <c r="AM183" s="38"/>
-    </row>
-    <row r="184" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN183" s="38"/>
+    </row>
+    <row r="184" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E184" s="15"/>
       <c r="F184" s="82"/>
       <c r="G184" s="28"/>
@@ -12523,8 +12731,9 @@
       <c r="AK184" s="40"/>
       <c r="AL184" s="15"/>
       <c r="AM184" s="38"/>
-    </row>
-    <row r="185" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN184" s="38"/>
+    </row>
+    <row r="185" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E185" s="15"/>
       <c r="F185" s="82"/>
       <c r="G185" s="28"/>
@@ -12542,8 +12751,9 @@
       <c r="AK185" s="40"/>
       <c r="AL185" s="15"/>
       <c r="AM185" s="38"/>
-    </row>
-    <row r="186" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN185" s="38"/>
+    </row>
+    <row r="186" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E186" s="15"/>
       <c r="F186" s="82"/>
       <c r="G186" s="28"/>
@@ -12561,8 +12771,9 @@
       <c r="AK186" s="40"/>
       <c r="AL186" s="15"/>
       <c r="AM186" s="38"/>
-    </row>
-    <row r="187" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN186" s="38"/>
+    </row>
+    <row r="187" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E187" s="15"/>
       <c r="F187" s="82"/>
       <c r="G187" s="28"/>
@@ -12580,8 +12791,9 @@
       <c r="AK187" s="40"/>
       <c r="AL187" s="15"/>
       <c r="AM187" s="38"/>
-    </row>
-    <row r="188" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN187" s="38"/>
+    </row>
+    <row r="188" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="15"/>
       <c r="F188" s="82"/>
       <c r="G188" s="28"/>
@@ -12599,8 +12811,9 @@
       <c r="AK188" s="40"/>
       <c r="AL188" s="15"/>
       <c r="AM188" s="38"/>
-    </row>
-    <row r="189" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN188" s="38"/>
+    </row>
+    <row r="189" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="15"/>
       <c r="F189" s="82"/>
       <c r="G189" s="28"/>
@@ -12618,8 +12831,9 @@
       <c r="AK189" s="40"/>
       <c r="AL189" s="15"/>
       <c r="AM189" s="38"/>
-    </row>
-    <row r="190" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN189" s="38"/>
+    </row>
+    <row r="190" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="15"/>
       <c r="F190" s="82"/>
       <c r="G190" s="28"/>
@@ -12637,8 +12851,9 @@
       <c r="AK190" s="40"/>
       <c r="AL190" s="15"/>
       <c r="AM190" s="38"/>
-    </row>
-    <row r="191" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN190" s="38"/>
+    </row>
+    <row r="191" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="15"/>
       <c r="F191" s="82"/>
       <c r="G191" s="28"/>
@@ -12656,8 +12871,9 @@
       <c r="AK191" s="40"/>
       <c r="AL191" s="15"/>
       <c r="AM191" s="38"/>
-    </row>
-    <row r="192" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN191" s="38"/>
+    </row>
+    <row r="192" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="15"/>
       <c r="F192" s="82"/>
       <c r="G192" s="28"/>
@@ -12675,8 +12891,9 @@
       <c r="AK192" s="40"/>
       <c r="AL192" s="15"/>
       <c r="AM192" s="38"/>
-    </row>
-    <row r="193" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN192" s="38"/>
+    </row>
+    <row r="193" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="15"/>
       <c r="F193" s="82"/>
       <c r="G193" s="28"/>
@@ -12694,8 +12911,9 @@
       <c r="AK193" s="40"/>
       <c r="AL193" s="15"/>
       <c r="AM193" s="38"/>
-    </row>
-    <row r="194" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN193" s="38"/>
+    </row>
+    <row r="194" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="15"/>
       <c r="F194" s="82"/>
       <c r="G194" s="28"/>
@@ -12713,8 +12931,9 @@
       <c r="AK194" s="40"/>
       <c r="AL194" s="15"/>
       <c r="AM194" s="38"/>
-    </row>
-    <row r="195" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN194" s="38"/>
+    </row>
+    <row r="195" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="15"/>
       <c r="F195" s="82"/>
       <c r="G195" s="28"/>
@@ -12732,8 +12951,9 @@
       <c r="AK195" s="40"/>
       <c r="AL195" s="15"/>
       <c r="AM195" s="38"/>
-    </row>
-    <row r="196" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN195" s="38"/>
+    </row>
+    <row r="196" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="15"/>
       <c r="F196" s="82"/>
       <c r="G196" s="28"/>
@@ -12751,8 +12971,9 @@
       <c r="AK196" s="40"/>
       <c r="AL196" s="15"/>
       <c r="AM196" s="38"/>
-    </row>
-    <row r="197" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN196" s="38"/>
+    </row>
+    <row r="197" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="15"/>
       <c r="F197" s="82"/>
       <c r="G197" s="28"/>
@@ -12770,8 +12991,9 @@
       <c r="AK197" s="40"/>
       <c r="AL197" s="15"/>
       <c r="AM197" s="38"/>
-    </row>
-    <row r="198" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN197" s="38"/>
+    </row>
+    <row r="198" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="15"/>
       <c r="F198" s="82"/>
       <c r="G198" s="28"/>
@@ -12789,8 +13011,9 @@
       <c r="AK198" s="40"/>
       <c r="AL198" s="15"/>
       <c r="AM198" s="38"/>
-    </row>
-    <row r="199" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN198" s="38"/>
+    </row>
+    <row r="199" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="15"/>
       <c r="F199" s="82"/>
       <c r="G199" s="28"/>
@@ -12808,8 +13031,9 @@
       <c r="AK199" s="40"/>
       <c r="AL199" s="15"/>
       <c r="AM199" s="38"/>
-    </row>
-    <row r="200" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN199" s="38"/>
+    </row>
+    <row r="200" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="15"/>
       <c r="F200" s="82"/>
       <c r="G200" s="28"/>
@@ -12827,8 +13051,9 @@
       <c r="AK200" s="40"/>
       <c r="AL200" s="15"/>
       <c r="AM200" s="38"/>
-    </row>
-    <row r="201" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN200" s="38"/>
+    </row>
+    <row r="201" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="15"/>
       <c r="F201" s="82"/>
       <c r="G201" s="28"/>
@@ -12846,8 +13071,9 @@
       <c r="AK201" s="40"/>
       <c r="AL201" s="15"/>
       <c r="AM201" s="38"/>
-    </row>
-    <row r="202" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN201" s="38"/>
+    </row>
+    <row r="202" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="15"/>
       <c r="F202" s="82"/>
       <c r="G202" s="28"/>
@@ -12865,8 +13091,9 @@
       <c r="AK202" s="40"/>
       <c r="AL202" s="15"/>
       <c r="AM202" s="38"/>
-    </row>
-    <row r="203" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN202" s="38"/>
+    </row>
+    <row r="203" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="15"/>
       <c r="F203" s="82"/>
       <c r="G203" s="28"/>
@@ -12884,8 +13111,9 @@
       <c r="AK203" s="40"/>
       <c r="AL203" s="15"/>
       <c r="AM203" s="38"/>
-    </row>
-    <row r="204" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN203" s="38"/>
+    </row>
+    <row r="204" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="15"/>
       <c r="F204" s="82"/>
       <c r="G204" s="28"/>
@@ -12903,8 +13131,9 @@
       <c r="AK204" s="40"/>
       <c r="AL204" s="15"/>
       <c r="AM204" s="38"/>
-    </row>
-    <row r="205" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN204" s="38"/>
+    </row>
+    <row r="205" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="15"/>
       <c r="F205" s="82"/>
       <c r="G205" s="28"/>
@@ -12922,8 +13151,9 @@
       <c r="AK205" s="40"/>
       <c r="AL205" s="15"/>
       <c r="AM205" s="38"/>
-    </row>
-    <row r="206" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN205" s="38"/>
+    </row>
+    <row r="206" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="15"/>
       <c r="F206" s="82"/>
       <c r="G206" s="28"/>
@@ -12941,8 +13171,9 @@
       <c r="AK206" s="40"/>
       <c r="AL206" s="15"/>
       <c r="AM206" s="38"/>
-    </row>
-    <row r="207" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN206" s="38"/>
+    </row>
+    <row r="207" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="15"/>
       <c r="F207" s="82"/>
       <c r="G207" s="28"/>
@@ -12960,8 +13191,9 @@
       <c r="AK207" s="40"/>
       <c r="AL207" s="15"/>
       <c r="AM207" s="38"/>
-    </row>
-    <row r="208" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN207" s="38"/>
+    </row>
+    <row r="208" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="15"/>
       <c r="F208" s="82"/>
       <c r="G208" s="28"/>
@@ -12979,8 +13211,9 @@
       <c r="AK208" s="40"/>
       <c r="AL208" s="15"/>
       <c r="AM208" s="38"/>
-    </row>
-    <row r="209" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN208" s="38"/>
+    </row>
+    <row r="209" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="15"/>
       <c r="F209" s="82"/>
       <c r="G209" s="28"/>
@@ -12998,8 +13231,9 @@
       <c r="AK209" s="40"/>
       <c r="AL209" s="15"/>
       <c r="AM209" s="38"/>
-    </row>
-    <row r="210" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN209" s="38"/>
+    </row>
+    <row r="210" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="15"/>
       <c r="F210" s="82"/>
       <c r="G210" s="28"/>
@@ -13017,8 +13251,9 @@
       <c r="AK210" s="40"/>
       <c r="AL210" s="15"/>
       <c r="AM210" s="38"/>
-    </row>
-    <row r="211" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN210" s="38"/>
+    </row>
+    <row r="211" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="15"/>
       <c r="F211" s="82"/>
       <c r="G211" s="28"/>
@@ -13036,8 +13271,9 @@
       <c r="AK211" s="40"/>
       <c r="AL211" s="15"/>
       <c r="AM211" s="38"/>
-    </row>
-    <row r="212" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN211" s="38"/>
+    </row>
+    <row r="212" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="15"/>
       <c r="F212" s="82"/>
       <c r="G212" s="28"/>
@@ -13055,8 +13291,9 @@
       <c r="AK212" s="40"/>
       <c r="AL212" s="15"/>
       <c r="AM212" s="38"/>
-    </row>
-    <row r="213" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN212" s="38"/>
+    </row>
+    <row r="213" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="15"/>
       <c r="F213" s="82"/>
       <c r="G213" s="28"/>
@@ -13074,8 +13311,9 @@
       <c r="AK213" s="40"/>
       <c r="AL213" s="15"/>
       <c r="AM213" s="38"/>
-    </row>
-    <row r="214" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN213" s="38"/>
+    </row>
+    <row r="214" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="15"/>
       <c r="F214" s="82"/>
       <c r="G214" s="28"/>
@@ -13093,8 +13331,9 @@
       <c r="AK214" s="40"/>
       <c r="AL214" s="15"/>
       <c r="AM214" s="38"/>
-    </row>
-    <row r="215" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN214" s="38"/>
+    </row>
+    <row r="215" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="15"/>
       <c r="F215" s="82"/>
       <c r="G215" s="28"/>
@@ -13112,8 +13351,9 @@
       <c r="AK215" s="40"/>
       <c r="AL215" s="15"/>
       <c r="AM215" s="38"/>
-    </row>
-    <row r="216" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN215" s="38"/>
+    </row>
+    <row r="216" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="15"/>
       <c r="F216" s="82"/>
       <c r="G216" s="28"/>
@@ -13131,8 +13371,9 @@
       <c r="AK216" s="40"/>
       <c r="AL216" s="15"/>
       <c r="AM216" s="38"/>
-    </row>
-    <row r="217" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN216" s="38"/>
+    </row>
+    <row r="217" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="15"/>
       <c r="F217" s="82"/>
       <c r="G217" s="28"/>
@@ -13150,8 +13391,9 @@
       <c r="AK217" s="40"/>
       <c r="AL217" s="15"/>
       <c r="AM217" s="38"/>
-    </row>
-    <row r="218" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN217" s="38"/>
+    </row>
+    <row r="218" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="15"/>
       <c r="F218" s="82"/>
       <c r="G218" s="28"/>
@@ -13169,8 +13411,9 @@
       <c r="AK218" s="40"/>
       <c r="AL218" s="15"/>
       <c r="AM218" s="38"/>
-    </row>
-    <row r="219" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN218" s="38"/>
+    </row>
+    <row r="219" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="15"/>
       <c r="F219" s="82"/>
       <c r="G219" s="28"/>
@@ -13188,8 +13431,9 @@
       <c r="AK219" s="40"/>
       <c r="AL219" s="15"/>
       <c r="AM219" s="38"/>
-    </row>
-    <row r="220" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN219" s="38"/>
+    </row>
+    <row r="220" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="15"/>
       <c r="F220" s="82"/>
       <c r="G220" s="28"/>
@@ -13207,8 +13451,9 @@
       <c r="AK220" s="40"/>
       <c r="AL220" s="15"/>
       <c r="AM220" s="38"/>
-    </row>
-    <row r="221" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN220" s="38"/>
+    </row>
+    <row r="221" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="15"/>
       <c r="F221" s="82"/>
       <c r="G221" s="28"/>
@@ -13226,8 +13471,9 @@
       <c r="AK221" s="40"/>
       <c r="AL221" s="15"/>
       <c r="AM221" s="38"/>
-    </row>
-    <row r="222" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN221" s="38"/>
+    </row>
+    <row r="222" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="15"/>
       <c r="F222" s="82"/>
       <c r="G222" s="28"/>
@@ -13245,8 +13491,9 @@
       <c r="AK222" s="40"/>
       <c r="AL222" s="15"/>
       <c r="AM222" s="38"/>
-    </row>
-    <row r="223" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN222" s="38"/>
+    </row>
+    <row r="223" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="15"/>
       <c r="F223" s="82"/>
       <c r="G223" s="28"/>
@@ -13264,8 +13511,9 @@
       <c r="AK223" s="40"/>
       <c r="AL223" s="15"/>
       <c r="AM223" s="38"/>
-    </row>
-    <row r="224" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN223" s="38"/>
+    </row>
+    <row r="224" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="15"/>
       <c r="F224" s="82"/>
       <c r="G224" s="28"/>
@@ -13283,8 +13531,9 @@
       <c r="AK224" s="40"/>
       <c r="AL224" s="15"/>
       <c r="AM224" s="38"/>
-    </row>
-    <row r="225" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN224" s="38"/>
+    </row>
+    <row r="225" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="15"/>
       <c r="F225" s="82"/>
       <c r="G225" s="28"/>
@@ -13302,8 +13551,9 @@
       <c r="AK225" s="40"/>
       <c r="AL225" s="15"/>
       <c r="AM225" s="38"/>
-    </row>
-    <row r="226" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN225" s="38"/>
+    </row>
+    <row r="226" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="15"/>
       <c r="F226" s="82"/>
       <c r="G226" s="28"/>
@@ -13321,8 +13571,9 @@
       <c r="AK226" s="40"/>
       <c r="AL226" s="15"/>
       <c r="AM226" s="38"/>
-    </row>
-    <row r="227" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN226" s="38"/>
+    </row>
+    <row r="227" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="15"/>
       <c r="F227" s="82"/>
       <c r="G227" s="28"/>
@@ -13340,8 +13591,9 @@
       <c r="AK227" s="40"/>
       <c r="AL227" s="15"/>
       <c r="AM227" s="38"/>
-    </row>
-    <row r="228" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN227" s="38"/>
+    </row>
+    <row r="228" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="15"/>
       <c r="F228" s="82"/>
       <c r="G228" s="28"/>
@@ -13359,8 +13611,9 @@
       <c r="AK228" s="40"/>
       <c r="AL228" s="15"/>
       <c r="AM228" s="38"/>
-    </row>
-    <row r="229" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN228" s="38"/>
+    </row>
+    <row r="229" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="15"/>
       <c r="F229" s="82"/>
       <c r="G229" s="28"/>
@@ -13378,8 +13631,9 @@
       <c r="AK229" s="40"/>
       <c r="AL229" s="15"/>
       <c r="AM229" s="38"/>
-    </row>
-    <row r="230" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN229" s="38"/>
+    </row>
+    <row r="230" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="15"/>
       <c r="F230" s="82"/>
       <c r="G230" s="28"/>
@@ -13397,8 +13651,9 @@
       <c r="AK230" s="40"/>
       <c r="AL230" s="15"/>
       <c r="AM230" s="38"/>
-    </row>
-    <row r="231" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN230" s="38"/>
+    </row>
+    <row r="231" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="15"/>
       <c r="F231" s="82"/>
       <c r="G231" s="28"/>
@@ -13416,8 +13671,9 @@
       <c r="AK231" s="40"/>
       <c r="AL231" s="15"/>
       <c r="AM231" s="38"/>
-    </row>
-    <row r="232" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN231" s="38"/>
+    </row>
+    <row r="232" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="15"/>
       <c r="F232" s="82"/>
       <c r="G232" s="28"/>
@@ -13435,8 +13691,9 @@
       <c r="AK232" s="40"/>
       <c r="AL232" s="15"/>
       <c r="AM232" s="38"/>
-    </row>
-    <row r="233" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN232" s="38"/>
+    </row>
+    <row r="233" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="15"/>
       <c r="F233" s="82"/>
       <c r="G233" s="28"/>
@@ -13454,8 +13711,9 @@
       <c r="AK233" s="40"/>
       <c r="AL233" s="15"/>
       <c r="AM233" s="38"/>
-    </row>
-    <row r="234" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN233" s="38"/>
+    </row>
+    <row r="234" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="15"/>
       <c r="F234" s="82"/>
       <c r="G234" s="28"/>
@@ -13473,8 +13731,9 @@
       <c r="AK234" s="40"/>
       <c r="AL234" s="15"/>
       <c r="AM234" s="38"/>
-    </row>
-    <row r="235" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN234" s="38"/>
+    </row>
+    <row r="235" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="15"/>
       <c r="F235" s="82"/>
       <c r="G235" s="28"/>
@@ -13492,8 +13751,9 @@
       <c r="AK235" s="40"/>
       <c r="AL235" s="15"/>
       <c r="AM235" s="38"/>
-    </row>
-    <row r="236" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN235" s="38"/>
+    </row>
+    <row r="236" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="15"/>
       <c r="F236" s="82"/>
       <c r="G236" s="28"/>
@@ -13511,8 +13771,9 @@
       <c r="AK236" s="40"/>
       <c r="AL236" s="15"/>
       <c r="AM236" s="38"/>
-    </row>
-    <row r="237" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN236" s="38"/>
+    </row>
+    <row r="237" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="15"/>
       <c r="F237" s="82"/>
       <c r="G237" s="28"/>
@@ -13530,8 +13791,9 @@
       <c r="AK237" s="40"/>
       <c r="AL237" s="15"/>
       <c r="AM237" s="38"/>
-    </row>
-    <row r="238" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN237" s="38"/>
+    </row>
+    <row r="238" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="15"/>
       <c r="F238" s="82"/>
       <c r="G238" s="28"/>
@@ -13549,8 +13811,9 @@
       <c r="AK238" s="40"/>
       <c r="AL238" s="15"/>
       <c r="AM238" s="38"/>
-    </row>
-    <row r="239" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN238" s="38"/>
+    </row>
+    <row r="239" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E239" s="15"/>
       <c r="F239" s="82"/>
       <c r="G239" s="28"/>
@@ -13568,8 +13831,9 @@
       <c r="AK239" s="40"/>
       <c r="AL239" s="15"/>
       <c r="AM239" s="38"/>
-    </row>
-    <row r="240" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN239" s="38"/>
+    </row>
+    <row r="240" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E240" s="15"/>
       <c r="F240" s="82"/>
       <c r="G240" s="28"/>
@@ -13587,8 +13851,9 @@
       <c r="AK240" s="40"/>
       <c r="AL240" s="15"/>
       <c r="AM240" s="38"/>
-    </row>
-    <row r="241" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN240" s="38"/>
+    </row>
+    <row r="241" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E241" s="15"/>
       <c r="F241" s="82"/>
       <c r="G241" s="28"/>
@@ -13606,8 +13871,9 @@
       <c r="AK241" s="40"/>
       <c r="AL241" s="15"/>
       <c r="AM241" s="38"/>
-    </row>
-    <row r="242" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN241" s="38"/>
+    </row>
+    <row r="242" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E242" s="15"/>
       <c r="F242" s="82"/>
       <c r="G242" s="28"/>
@@ -13625,8 +13891,9 @@
       <c r="AK242" s="40"/>
       <c r="AL242" s="15"/>
       <c r="AM242" s="38"/>
-    </row>
-    <row r="243" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN242" s="38"/>
+    </row>
+    <row r="243" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E243" s="15"/>
       <c r="F243" s="82"/>
       <c r="G243" s="28"/>
@@ -13644,8 +13911,9 @@
       <c r="AK243" s="40"/>
       <c r="AL243" s="15"/>
       <c r="AM243" s="38"/>
-    </row>
-    <row r="244" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN243" s="38"/>
+    </row>
+    <row r="244" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E244" s="15"/>
       <c r="F244" s="82"/>
       <c r="G244" s="28"/>
@@ -13663,8 +13931,9 @@
       <c r="AK244" s="40"/>
       <c r="AL244" s="15"/>
       <c r="AM244" s="38"/>
-    </row>
-    <row r="245" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN244" s="38"/>
+    </row>
+    <row r="245" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E245" s="15"/>
       <c r="F245" s="82"/>
       <c r="G245" s="28"/>
@@ -13682,8 +13951,9 @@
       <c r="AK245" s="40"/>
       <c r="AL245" s="15"/>
       <c r="AM245" s="38"/>
-    </row>
-    <row r="246" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN245" s="38"/>
+    </row>
+    <row r="246" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E246" s="15"/>
       <c r="F246" s="82"/>
       <c r="G246" s="28"/>
@@ -13701,8 +13971,9 @@
       <c r="AK246" s="40"/>
       <c r="AL246" s="15"/>
       <c r="AM246" s="38"/>
-    </row>
-    <row r="247" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN246" s="38"/>
+    </row>
+    <row r="247" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E247" s="15"/>
       <c r="F247" s="82"/>
       <c r="G247" s="28"/>
@@ -13720,8 +13991,9 @@
       <c r="AK247" s="40"/>
       <c r="AL247" s="15"/>
       <c r="AM247" s="38"/>
-    </row>
-    <row r="248" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN247" s="38"/>
+    </row>
+    <row r="248" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E248" s="15"/>
       <c r="F248" s="82"/>
       <c r="G248" s="28"/>
@@ -13739,8 +14011,9 @@
       <c r="AK248" s="40"/>
       <c r="AL248" s="15"/>
       <c r="AM248" s="38"/>
-    </row>
-    <row r="249" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN248" s="38"/>
+    </row>
+    <row r="249" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E249" s="15"/>
       <c r="F249" s="82"/>
       <c r="G249" s="28"/>
@@ -13758,8 +14031,9 @@
       <c r="AK249" s="40"/>
       <c r="AL249" s="15"/>
       <c r="AM249" s="38"/>
-    </row>
-    <row r="250" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN249" s="38"/>
+    </row>
+    <row r="250" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E250" s="15"/>
       <c r="F250" s="82"/>
       <c r="G250" s="28"/>
@@ -13777,8 +14051,9 @@
       <c r="AK250" s="40"/>
       <c r="AL250" s="15"/>
       <c r="AM250" s="38"/>
-    </row>
-    <row r="251" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN250" s="38"/>
+    </row>
+    <row r="251" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E251" s="15"/>
       <c r="F251" s="82"/>
       <c r="G251" s="28"/>
@@ -13796,8 +14071,9 @@
       <c r="AK251" s="40"/>
       <c r="AL251" s="15"/>
       <c r="AM251" s="38"/>
-    </row>
-    <row r="252" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN251" s="38"/>
+    </row>
+    <row r="252" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E252" s="15"/>
       <c r="F252" s="82"/>
       <c r="G252" s="28"/>
@@ -13815,8 +14091,9 @@
       <c r="AK252" s="40"/>
       <c r="AL252" s="15"/>
       <c r="AM252" s="38"/>
-    </row>
-    <row r="253" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN252" s="38"/>
+    </row>
+    <row r="253" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E253" s="15"/>
       <c r="F253" s="82"/>
       <c r="G253" s="28"/>
@@ -13834,8 +14111,9 @@
       <c r="AK253" s="40"/>
       <c r="AL253" s="15"/>
       <c r="AM253" s="38"/>
-    </row>
-    <row r="254" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN253" s="38"/>
+    </row>
+    <row r="254" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E254" s="15"/>
       <c r="F254" s="82"/>
       <c r="G254" s="28"/>
@@ -13853,8 +14131,9 @@
       <c r="AK254" s="40"/>
       <c r="AL254" s="15"/>
       <c r="AM254" s="38"/>
-    </row>
-    <row r="255" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN254" s="38"/>
+    </row>
+    <row r="255" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E255" s="15"/>
       <c r="F255" s="82"/>
       <c r="G255" s="28"/>
@@ -13872,8 +14151,9 @@
       <c r="AK255" s="40"/>
       <c r="AL255" s="15"/>
       <c r="AM255" s="38"/>
-    </row>
-    <row r="256" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN255" s="38"/>
+    </row>
+    <row r="256" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E256" s="15"/>
       <c r="F256" s="82"/>
       <c r="G256" s="28"/>
@@ -13891,8 +14171,9 @@
       <c r="AK256" s="40"/>
       <c r="AL256" s="15"/>
       <c r="AM256" s="38"/>
-    </row>
-    <row r="257" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN256" s="38"/>
+    </row>
+    <row r="257" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E257" s="15"/>
       <c r="F257" s="82"/>
       <c r="G257" s="28"/>
@@ -13910,8 +14191,9 @@
       <c r="AK257" s="40"/>
       <c r="AL257" s="15"/>
       <c r="AM257" s="38"/>
-    </row>
-    <row r="258" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN257" s="38"/>
+    </row>
+    <row r="258" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E258" s="15"/>
       <c r="F258" s="82"/>
       <c r="G258" s="28"/>
@@ -13929,8 +14211,9 @@
       <c r="AK258" s="40"/>
       <c r="AL258" s="15"/>
       <c r="AM258" s="38"/>
-    </row>
-    <row r="259" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN258" s="38"/>
+    </row>
+    <row r="259" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E259" s="15"/>
       <c r="F259" s="82"/>
       <c r="G259" s="28"/>
@@ -13948,8 +14231,9 @@
       <c r="AK259" s="40"/>
       <c r="AL259" s="15"/>
       <c r="AM259" s="38"/>
-    </row>
-    <row r="260" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN259" s="38"/>
+    </row>
+    <row r="260" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E260" s="15"/>
       <c r="F260" s="82"/>
       <c r="G260" s="28"/>
@@ -13967,8 +14251,9 @@
       <c r="AK260" s="40"/>
       <c r="AL260" s="15"/>
       <c r="AM260" s="38"/>
-    </row>
-    <row r="261" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN260" s="38"/>
+    </row>
+    <row r="261" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E261" s="15"/>
       <c r="F261" s="82"/>
       <c r="G261" s="28"/>
@@ -13986,8 +14271,9 @@
       <c r="AK261" s="40"/>
       <c r="AL261" s="15"/>
       <c r="AM261" s="38"/>
-    </row>
-    <row r="262" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN261" s="38"/>
+    </row>
+    <row r="262" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E262" s="15"/>
       <c r="F262" s="82"/>
       <c r="G262" s="28"/>
@@ -14005,8 +14291,9 @@
       <c r="AK262" s="40"/>
       <c r="AL262" s="15"/>
       <c r="AM262" s="38"/>
-    </row>
-    <row r="263" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN262" s="38"/>
+    </row>
+    <row r="263" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E263" s="15"/>
       <c r="F263" s="82"/>
       <c r="G263" s="28"/>
@@ -14024,8 +14311,9 @@
       <c r="AK263" s="40"/>
       <c r="AL263" s="15"/>
       <c r="AM263" s="38"/>
-    </row>
-    <row r="264" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN263" s="38"/>
+    </row>
+    <row r="264" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E264" s="15"/>
       <c r="F264" s="82"/>
       <c r="G264" s="28"/>
@@ -14043,8 +14331,9 @@
       <c r="AK264" s="40"/>
       <c r="AL264" s="15"/>
       <c r="AM264" s="38"/>
-    </row>
-    <row r="265" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN264" s="38"/>
+    </row>
+    <row r="265" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E265" s="15"/>
       <c r="F265" s="82"/>
       <c r="G265" s="28"/>
@@ -14062,8 +14351,9 @@
       <c r="AK265" s="40"/>
       <c r="AL265" s="15"/>
       <c r="AM265" s="38"/>
-    </row>
-    <row r="266" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN265" s="38"/>
+    </row>
+    <row r="266" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E266" s="15"/>
       <c r="F266" s="82"/>
       <c r="G266" s="28"/>
@@ -14081,8 +14371,9 @@
       <c r="AK266" s="40"/>
       <c r="AL266" s="15"/>
       <c r="AM266" s="38"/>
-    </row>
-    <row r="267" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN266" s="38"/>
+    </row>
+    <row r="267" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E267" s="15"/>
       <c r="F267" s="82"/>
       <c r="G267" s="28"/>
@@ -14100,8 +14391,9 @@
       <c r="AK267" s="40"/>
       <c r="AL267" s="15"/>
       <c r="AM267" s="38"/>
-    </row>
-    <row r="268" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN267" s="38"/>
+    </row>
+    <row r="268" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E268" s="15"/>
       <c r="F268" s="82"/>
       <c r="G268" s="28"/>
@@ -14119,8 +14411,9 @@
       <c r="AK268" s="40"/>
       <c r="AL268" s="15"/>
       <c r="AM268" s="38"/>
-    </row>
-    <row r="269" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN268" s="38"/>
+    </row>
+    <row r="269" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E269" s="15"/>
       <c r="F269" s="82"/>
       <c r="G269" s="28"/>
@@ -14138,8 +14431,9 @@
       <c r="AK269" s="40"/>
       <c r="AL269" s="15"/>
       <c r="AM269" s="38"/>
-    </row>
-    <row r="270" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN269" s="38"/>
+    </row>
+    <row r="270" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E270" s="15"/>
       <c r="F270" s="82"/>
       <c r="G270" s="28"/>
@@ -14157,8 +14451,9 @@
       <c r="AK270" s="40"/>
       <c r="AL270" s="15"/>
       <c r="AM270" s="38"/>
-    </row>
-    <row r="271" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN270" s="38"/>
+    </row>
+    <row r="271" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E271" s="15"/>
       <c r="F271" s="82"/>
       <c r="G271" s="28"/>
@@ -14176,8 +14471,9 @@
       <c r="AK271" s="40"/>
       <c r="AL271" s="15"/>
       <c r="AM271" s="38"/>
-    </row>
-    <row r="272" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN271" s="38"/>
+    </row>
+    <row r="272" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E272" s="15"/>
       <c r="F272" s="82"/>
       <c r="G272" s="28"/>
@@ -14195,8 +14491,9 @@
       <c r="AK272" s="40"/>
       <c r="AL272" s="15"/>
       <c r="AM272" s="38"/>
-    </row>
-    <row r="273" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN272" s="38"/>
+    </row>
+    <row r="273" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E273" s="15"/>
       <c r="F273" s="82"/>
       <c r="G273" s="28"/>
@@ -14214,8 +14511,9 @@
       <c r="AK273" s="40"/>
       <c r="AL273" s="15"/>
       <c r="AM273" s="38"/>
-    </row>
-    <row r="274" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN273" s="38"/>
+    </row>
+    <row r="274" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E274" s="15"/>
       <c r="F274" s="82"/>
       <c r="G274" s="28"/>
@@ -14233,8 +14531,9 @@
       <c r="AK274" s="40"/>
       <c r="AL274" s="15"/>
       <c r="AM274" s="38"/>
-    </row>
-    <row r="275" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN274" s="38"/>
+    </row>
+    <row r="275" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E275" s="15"/>
       <c r="F275" s="82"/>
       <c r="G275" s="28"/>
@@ -14252,8 +14551,9 @@
       <c r="AK275" s="40"/>
       <c r="AL275" s="15"/>
       <c r="AM275" s="38"/>
-    </row>
-    <row r="276" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN275" s="38"/>
+    </row>
+    <row r="276" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E276" s="15"/>
       <c r="F276" s="82"/>
       <c r="G276" s="28"/>
@@ -14271,8 +14571,9 @@
       <c r="AK276" s="40"/>
       <c r="AL276" s="15"/>
       <c r="AM276" s="38"/>
-    </row>
-    <row r="277" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN276" s="38"/>
+    </row>
+    <row r="277" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E277" s="15"/>
       <c r="F277" s="82"/>
       <c r="G277" s="28"/>
@@ -14290,8 +14591,9 @@
       <c r="AK277" s="40"/>
       <c r="AL277" s="15"/>
       <c r="AM277" s="38"/>
-    </row>
-    <row r="278" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN277" s="38"/>
+    </row>
+    <row r="278" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E278" s="15"/>
       <c r="F278" s="82"/>
       <c r="G278" s="28"/>
@@ -14309,8 +14611,9 @@
       <c r="AK278" s="40"/>
       <c r="AL278" s="15"/>
       <c r="AM278" s="38"/>
-    </row>
-    <row r="279" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN278" s="38"/>
+    </row>
+    <row r="279" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E279" s="15"/>
       <c r="F279" s="82"/>
       <c r="G279" s="28"/>
@@ -14328,8 +14631,9 @@
       <c r="AK279" s="40"/>
       <c r="AL279" s="15"/>
       <c r="AM279" s="38"/>
-    </row>
-    <row r="280" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN279" s="38"/>
+    </row>
+    <row r="280" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E280" s="15"/>
       <c r="F280" s="82"/>
       <c r="G280" s="28"/>
@@ -14347,8 +14651,9 @@
       <c r="AK280" s="40"/>
       <c r="AL280" s="15"/>
       <c r="AM280" s="38"/>
-    </row>
-    <row r="281" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN280" s="38"/>
+    </row>
+    <row r="281" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E281" s="15"/>
       <c r="F281" s="82"/>
       <c r="G281" s="28"/>
@@ -14366,8 +14671,9 @@
       <c r="AK281" s="40"/>
       <c r="AL281" s="15"/>
       <c r="AM281" s="38"/>
-    </row>
-    <row r="282" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN281" s="38"/>
+    </row>
+    <row r="282" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E282" s="15"/>
       <c r="F282" s="82"/>
       <c r="G282" s="28"/>
@@ -14385,8 +14691,9 @@
       <c r="AK282" s="40"/>
       <c r="AL282" s="15"/>
       <c r="AM282" s="38"/>
-    </row>
-    <row r="283" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN282" s="38"/>
+    </row>
+    <row r="283" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E283" s="15"/>
       <c r="F283" s="82"/>
       <c r="G283" s="28"/>
@@ -14404,8 +14711,9 @@
       <c r="AK283" s="40"/>
       <c r="AL283" s="15"/>
       <c r="AM283" s="38"/>
-    </row>
-    <row r="284" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN283" s="38"/>
+    </row>
+    <row r="284" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E284" s="15"/>
       <c r="F284" s="82"/>
       <c r="G284" s="28"/>
@@ -14423,8 +14731,9 @@
       <c r="AK284" s="40"/>
       <c r="AL284" s="15"/>
       <c r="AM284" s="38"/>
-    </row>
-    <row r="285" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN284" s="38"/>
+    </row>
+    <row r="285" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E285" s="15"/>
       <c r="F285" s="82"/>
       <c r="G285" s="28"/>
@@ -14442,8 +14751,9 @@
       <c r="AK285" s="40"/>
       <c r="AL285" s="15"/>
       <c r="AM285" s="38"/>
-    </row>
-    <row r="286" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN285" s="38"/>
+    </row>
+    <row r="286" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E286" s="15"/>
       <c r="F286" s="82"/>
       <c r="G286" s="28"/>
@@ -14461,8 +14771,9 @@
       <c r="AK286" s="40"/>
       <c r="AL286" s="15"/>
       <c r="AM286" s="38"/>
-    </row>
-    <row r="287" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN286" s="38"/>
+    </row>
+    <row r="287" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E287" s="15"/>
       <c r="F287" s="82"/>
       <c r="G287" s="28"/>
@@ -14480,8 +14791,9 @@
       <c r="AK287" s="40"/>
       <c r="AL287" s="15"/>
       <c r="AM287" s="38"/>
-    </row>
-    <row r="288" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN287" s="38"/>
+    </row>
+    <row r="288" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E288" s="15"/>
       <c r="F288" s="82"/>
       <c r="G288" s="28"/>
@@ -14499,8 +14811,9 @@
       <c r="AK288" s="40"/>
       <c r="AL288" s="15"/>
       <c r="AM288" s="38"/>
-    </row>
-    <row r="289" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN288" s="38"/>
+    </row>
+    <row r="289" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E289" s="15"/>
       <c r="F289" s="82"/>
       <c r="G289" s="28"/>
@@ -14518,8 +14831,9 @@
       <c r="AK289" s="40"/>
       <c r="AL289" s="15"/>
       <c r="AM289" s="38"/>
-    </row>
-    <row r="290" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN289" s="38"/>
+    </row>
+    <row r="290" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E290" s="15"/>
       <c r="F290" s="82"/>
       <c r="G290" s="28"/>
@@ -14537,8 +14851,9 @@
       <c r="AK290" s="40"/>
       <c r="AL290" s="15"/>
       <c r="AM290" s="38"/>
-    </row>
-    <row r="291" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN290" s="38"/>
+    </row>
+    <row r="291" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E291" s="15"/>
       <c r="F291" s="82"/>
       <c r="G291" s="28"/>
@@ -14556,8 +14871,9 @@
       <c r="AK291" s="40"/>
       <c r="AL291" s="15"/>
       <c r="AM291" s="38"/>
-    </row>
-    <row r="292" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN291" s="38"/>
+    </row>
+    <row r="292" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E292" s="15"/>
       <c r="F292" s="82"/>
       <c r="G292" s="28"/>
@@ -14575,8 +14891,9 @@
       <c r="AK292" s="40"/>
       <c r="AL292" s="15"/>
       <c r="AM292" s="38"/>
-    </row>
-    <row r="293" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN292" s="38"/>
+    </row>
+    <row r="293" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E293" s="15"/>
       <c r="F293" s="82"/>
       <c r="G293" s="28"/>
@@ -14594,8 +14911,9 @@
       <c r="AK293" s="40"/>
       <c r="AL293" s="15"/>
       <c r="AM293" s="38"/>
-    </row>
-    <row r="294" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN293" s="38"/>
+    </row>
+    <row r="294" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E294" s="15"/>
       <c r="F294" s="82"/>
       <c r="G294" s="28"/>
@@ -14613,8 +14931,9 @@
       <c r="AK294" s="40"/>
       <c r="AL294" s="15"/>
       <c r="AM294" s="38"/>
-    </row>
-    <row r="295" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN294" s="38"/>
+    </row>
+    <row r="295" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E295" s="15"/>
       <c r="F295" s="82"/>
       <c r="G295" s="28"/>
@@ -14632,8 +14951,9 @@
       <c r="AK295" s="40"/>
       <c r="AL295" s="15"/>
       <c r="AM295" s="38"/>
-    </row>
-    <row r="296" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN295" s="38"/>
+    </row>
+    <row r="296" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E296" s="15"/>
       <c r="F296" s="82"/>
       <c r="G296" s="28"/>
@@ -14651,8 +14971,9 @@
       <c r="AK296" s="40"/>
       <c r="AL296" s="15"/>
       <c r="AM296" s="38"/>
-    </row>
-    <row r="297" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN296" s="38"/>
+    </row>
+    <row r="297" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E297" s="15"/>
       <c r="F297" s="82"/>
       <c r="G297" s="28"/>
@@ -14670,8 +14991,9 @@
       <c r="AK297" s="40"/>
       <c r="AL297" s="15"/>
       <c r="AM297" s="38"/>
-    </row>
-    <row r="298" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN297" s="38"/>
+    </row>
+    <row r="298" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E298" s="15"/>
       <c r="F298" s="82"/>
       <c r="G298" s="28"/>
@@ -14689,8 +15011,9 @@
       <c r="AK298" s="40"/>
       <c r="AL298" s="15"/>
       <c r="AM298" s="38"/>
-    </row>
-    <row r="299" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN298" s="38"/>
+    </row>
+    <row r="299" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E299" s="15"/>
       <c r="F299" s="82"/>
       <c r="G299" s="28"/>
@@ -14708,8 +15031,9 @@
       <c r="AK299" s="40"/>
       <c r="AL299" s="15"/>
       <c r="AM299" s="38"/>
-    </row>
-    <row r="300" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN299" s="38"/>
+    </row>
+    <row r="300" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E300" s="15"/>
       <c r="F300" s="82"/>
       <c r="G300" s="28"/>
@@ -14727,8 +15051,9 @@
       <c r="AK300" s="40"/>
       <c r="AL300" s="15"/>
       <c r="AM300" s="38"/>
-    </row>
-    <row r="301" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN300" s="38"/>
+    </row>
+    <row r="301" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E301" s="15"/>
       <c r="F301" s="82"/>
       <c r="G301" s="28"/>
@@ -14746,8 +15071,9 @@
       <c r="AK301" s="40"/>
       <c r="AL301" s="15"/>
       <c r="AM301" s="38"/>
-    </row>
-    <row r="302" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN301" s="38"/>
+    </row>
+    <row r="302" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E302" s="15"/>
       <c r="F302" s="82"/>
       <c r="G302" s="28"/>
@@ -14765,8 +15091,9 @@
       <c r="AK302" s="40"/>
       <c r="AL302" s="15"/>
       <c r="AM302" s="38"/>
-    </row>
-    <row r="303" spans="5:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN302" s="38"/>
+    </row>
+    <row r="303" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E303" s="15"/>
       <c r="F303" s="82"/>
       <c r="G303" s="28"/>
@@ -14784,6 +15111,7 @@
       <c r="AK303" s="40"/>
       <c r="AL303" s="15"/>
       <c r="AM303" s="38"/>
+      <c r="AN303" s="38"/>
     </row>
     <row r="319" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="320" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14812,8 +15140,8 @@
     <hyperlink ref="U16" r:id="rId9"/>
     <hyperlink ref="U15" r:id="rId10"/>
     <hyperlink ref="U46" r:id="rId11"/>
-    <hyperlink ref="AN81" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
-    <hyperlink ref="AN60" r:id="rId13"/>
+    <hyperlink ref="AO81" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
+    <hyperlink ref="AO60" r:id="rId13"/>
     <hyperlink ref="U13" r:id="rId14"/>
     <hyperlink ref="U43" r:id="rId15"/>
     <hyperlink ref="R4" r:id="rId16"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="541">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -2824,9 +2824,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>OPA, Perl</t>
-  </si>
-  <si>
     <t>Cloudways Ltd.</t>
   </si>
   <si>
@@ -2876,6 +2873,9 @@
   </si>
   <si>
     <t>Beta 12.10.2011, GA 21.12.2012</t>
+  </si>
+  <si>
+    <t>Opa</t>
   </si>
 </sst>
 </file>
@@ -4225,10 +4225,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="N70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4357,7 +4357,7 @@
       <c r="AL1" s="222"/>
       <c r="AM1" s="223"/>
       <c r="AN1" s="220" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5184,7 +5184,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>336</v>
@@ -6975,14 +6975,14 @@
         <v>180</v>
       </c>
       <c r="S34" s="216" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="217" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W34" s="183"/>
       <c r="X34" s="183">
@@ -7383,13 +7383,15 @@
         <v>25</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>523</v>
+        <v>18</v>
       </c>
       <c r="N40" s="47" t="s">
         <v>25</v>
       </c>
       <c r="O40" s="110"/>
-      <c r="P40" s="103"/>
+      <c r="P40" s="103" t="s">
+        <v>540</v>
+      </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
       </c>
@@ -7543,7 +7545,7 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8007,7 +8009,7 @@
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
@@ -8093,7 +8095,7 @@
         <v>295</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8511,7 +8513,7 @@
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
@@ -8784,7 +8786,7 @@
         <v>453</v>
       </c>
       <c r="V57" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W57" s="177">
         <v>41080</v>
@@ -9502,7 +9504,7 @@
       <c r="N68" s="58"/>
       <c r="O68" s="168"/>
       <c r="Q68" s="1" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>133</v>
@@ -9946,7 +9948,7 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F75" s="75" t="s">
         <v>305</v>
@@ -9969,7 +9971,7 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
@@ -9977,7 +9979,7 @@
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W75" s="177">
         <v>40828</v>
@@ -10200,11 +10202,11 @@
         <v>145</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W78" s="177">
         <v>40252</v>
@@ -10249,7 +10251,7 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -2126,9 +2126,6 @@
   </si>
   <si>
     <t>http://blog.appharbor.com/</t>
-  </si>
-  <si>
-    <t>Monthly Fee</t>
   </si>
   <si>
     <t>AppFog Inc.</t>
@@ -4225,10 +4222,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
+      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4289,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G1" s="224" t="s">
         <v>4</v>
@@ -4323,16 +4320,16 @@
         <v>188</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W1" s="180" t="s">
         <v>78</v>
       </c>
       <c r="X1" s="180" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Y1" s="235" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z1" s="236"/>
       <c r="AA1" s="73" t="s">
@@ -4357,7 +4354,7 @@
       <c r="AL1" s="222"/>
       <c r="AM1" s="223"/>
       <c r="AN1" s="220" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4365,7 +4362,7 @@
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="232" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="232"/>
@@ -4390,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N2" s="200" t="s">
         <v>285</v>
@@ -4409,14 +4406,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="189" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4428,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH2" s="30" t="s">
         <v>277</v>
@@ -4566,13 +4563,13 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="201"/>
       <c r="H4" s="11"/>
@@ -4596,11 +4593,11 @@
         <v>215</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W4" s="178">
         <v>40878</v>
@@ -4625,7 +4622,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,10 +4632,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4652,7 +4649,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4661,16 +4658,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>384</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>385</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>387</v>
-      </c>
-      <c r="V5" s="123" t="s">
-        <v>388</v>
       </c>
       <c r="W5" s="175"/>
       <c r="X5" s="175">
@@ -4685,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4728,7 +4725,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" s="203" t="s">
         <v>25</v>
@@ -4759,7 +4756,7 @@
         <v>36</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
@@ -4783,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4815,7 +4812,7 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
@@ -4828,7 +4825,7 @@
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4872,14 +4869,14 @@
       </c>
       <c r="Y7" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="194">
         <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4903,7 +4900,7 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
@@ -4916,7 +4913,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G8" s="206"/>
       <c r="H8" s="206"/>
@@ -4937,10 +4934,10 @@
         <v>155</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
@@ -4951,7 +4948,7 @@
       <c r="Y8" s="192"/>
       <c r="Z8" s="194"/>
       <c r="AA8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4977,10 +4974,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="207" t="s">
         <v>25</v>
@@ -5003,16 +5000,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>355</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>356</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W9" s="183"/>
       <c r="X9" s="183">
@@ -5020,14 +5017,14 @@
       </c>
       <c r="Y9" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="194" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5047,7 +5044,7 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5058,7 +5055,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5073,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5088,10 +5085,10 @@
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5109,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5127,7 +5124,7 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5138,7 +5135,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5184,10 +5181,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5216,13 +5213,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>423</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>424</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5232,7 +5229,7 @@
       <c r="Y12" s="218"/>
       <c r="Z12" s="219"/>
       <c r="AA12" s="75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5270,7 +5267,7 @@
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5297,7 +5294,7 @@
         <v>269</v>
       </c>
       <c r="U13" s="121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V13" s="141" t="s">
         <v>270</v>
@@ -5317,7 +5314,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5348,7 +5345,7 @@
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5372,10 +5369,10 @@
         <v>249</v>
       </c>
       <c r="T14" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5393,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5421,10 +5418,10 @@
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5441,11 +5438,11 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
@@ -5461,7 +5458,7 @@
         <v>262</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V15" s="141" t="s">
         <v>275</v>
@@ -5479,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5514,7 +5511,7 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5551,7 +5548,7 @@
         <v>217</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V16" s="141" t="s">
         <v>206</v>
@@ -5571,7 +5568,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5603,10 +5600,10 @@
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5621,7 +5618,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5637,16 +5634,16 @@
         <v>52</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T17" s="139" t="s">
         <v>265</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W17" s="175"/>
       <c r="X17" s="175"/>
@@ -5687,10 +5684,10 @@
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G18" s="203"/>
       <c r="H18" s="204"/>
@@ -5721,7 +5718,7 @@
         <v>183</v>
       </c>
       <c r="U18" s="121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V18" s="124" t="s">
         <v>190</v>
@@ -5755,7 +5752,7 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
@@ -5767,7 +5764,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5805,11 +5802,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W19" s="177">
         <v>40668</v>
@@ -5826,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5845,18 +5842,18 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>470</v>
-      </c>
       <c r="F20" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5896,7 +5893,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W20" s="177"/>
       <c r="X20" s="177"/>
@@ -5926,7 +5923,7 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,10 +5933,10 @@
       </c>
       <c r="D21" s="124"/>
       <c r="E21" s="124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>25</v>
@@ -5973,10 +5970,10 @@
         <v>59</v>
       </c>
       <c r="T21" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="U21" s="121" t="s">
         <v>292</v>
-      </c>
-      <c r="U21" s="121" t="s">
-        <v>293</v>
       </c>
       <c r="V21" s="124" t="s">
         <v>218</v>
@@ -5994,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="AB21" s="126" t="s">
         <v>25</v>
@@ -6035,7 +6032,7 @@
         <v>157</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G22" s="201"/>
       <c r="H22" s="11"/>
@@ -6096,7 +6093,7 @@
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6131,7 +6128,7 @@
         <v>64</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V23" s="69" t="s">
         <v>219</v>
@@ -6178,7 +6175,7 @@
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6199,7 +6196,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
@@ -6214,10 +6211,10 @@
         <v>204</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="V24" s="69" t="s">
         <v>222</v>
@@ -6237,7 +6234,7 @@
         <v>13</v>
       </c>
       <c r="AA24" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6269,7 +6266,7 @@
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6286,7 +6283,7 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6301,7 +6298,7 @@
         <v>198</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="69" t="s">
@@ -6320,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6341,11 +6338,11 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6354,10 +6351,10 @@
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6376,7 +6373,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6393,7 +6390,7 @@
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="153" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W26" s="179"/>
       <c r="X26" s="179"/>
@@ -6406,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6435,10 +6432,10 @@
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6464,10 +6461,10 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T27" s="49" t="s">
         <v>227</v>
@@ -6491,7 +6488,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6520,12 +6517,12 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="169" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6540,7 +6537,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
@@ -6549,26 +6546,26 @@
         <v>216</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>506</v>
+      </c>
+      <c r="V28" s="171" t="s">
         <v>505</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>507</v>
-      </c>
-      <c r="V28" s="171" t="s">
-        <v>506</v>
       </c>
       <c r="W28" s="185"/>
       <c r="X28" s="185"/>
       <c r="Y28" s="192"/>
       <c r="Z28" s="194"/>
       <c r="AA28" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6593,7 +6590,7 @@
         <v>211</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6611,11 +6608,11 @@
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W29" s="177"/>
       <c r="X29" s="177"/>
@@ -6639,7 +6636,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6666,7 +6663,7 @@
         <v>67</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V30" s="65" t="s">
         <v>274</v>
@@ -6686,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6710,7 +6707,7 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6723,7 +6720,7 @@
         <v>151</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6757,7 +6754,7 @@
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W31" s="179">
         <v>40840</v>
@@ -6774,7 +6771,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6800,7 +6797,7 @@
       </c>
       <c r="C32" s="154"/>
       <c r="F32" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6822,10 +6819,10 @@
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V32" s="66" t="s">
         <v>224</v>
@@ -6867,7 +6864,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6897,7 +6894,7 @@
         <v>72</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
@@ -6908,7 +6905,7 @@
       <c r="Y33" s="192"/>
       <c r="Z33" s="194"/>
       <c r="AA33" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6946,7 +6943,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G34" s="207" t="s">
         <v>25</v>
@@ -6975,14 +6972,14 @@
         <v>180</v>
       </c>
       <c r="S34" s="216" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="217" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W34" s="183"/>
       <c r="X34" s="183">
@@ -6997,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="158" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB34" s="159" t="s">
         <v>25</v>
@@ -7029,10 +7026,10 @@
         <v>74</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7059,7 +7056,7 @@
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
@@ -7077,7 +7074,7 @@
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7095,7 +7092,7 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7106,7 +7103,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7124,13 +7121,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>465</v>
+      </c>
+      <c r="S36" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="23" t="s">
         <v>467</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>468</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
@@ -7171,7 +7168,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7194,16 +7191,16 @@
         <v>77</v>
       </c>
       <c r="S37" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>79</v>
       </c>
       <c r="U37" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="V37" s="163" t="s">
         <v>464</v>
-      </c>
-      <c r="V37" s="163" t="s">
-        <v>465</v>
       </c>
       <c r="W37" s="177">
         <v>41331</v>
@@ -7218,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7239,13 +7236,13 @@
     </row>
     <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G38" s="201"/>
       <c r="H38" s="11"/>
@@ -7263,15 +7260,15 @@
         <v>216</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W38" s="178">
         <v>40443</v>
@@ -7296,15 +7293,15 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7322,15 +7319,15 @@
         <v>78</v>
       </c>
       <c r="R39" s="173" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S39" s="64"/>
       <c r="T39" s="54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W39" s="177">
         <v>41061</v>
@@ -7364,7 +7361,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7390,7 +7387,7 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
@@ -7402,10 +7399,10 @@
         <v>82</v>
       </c>
       <c r="T40" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>302</v>
-      </c>
-      <c r="U40" s="53" t="s">
-        <v>303</v>
       </c>
       <c r="V40" s="66" t="s">
         <v>207</v>
@@ -7425,7 +7422,7 @@
         <v>30</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7460,7 +7457,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7499,10 +7496,10 @@
         <v>83</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>413</v>
-      </c>
-      <c r="V41" s="67" t="s">
-        <v>414</v>
       </c>
       <c r="W41" s="186">
         <v>40878</v>
@@ -7545,7 +7542,7 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7553,10 +7550,10 @@
         <v>251</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7567,7 +7564,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="88"/>
@@ -7579,16 +7576,16 @@
         <v>252</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>411</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>412</v>
       </c>
       <c r="W42" s="177"/>
       <c r="X42" s="177">
@@ -7603,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7631,7 +7628,7 @@
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
@@ -7658,16 +7655,16 @@
         <v>87</v>
       </c>
       <c r="S43" s="122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T43" s="120" t="s">
+        <v>362</v>
+      </c>
+      <c r="U43" s="121" t="s">
         <v>363</v>
       </c>
-      <c r="U43" s="121" t="s">
-        <v>364</v>
-      </c>
       <c r="V43" s="144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W43" s="175"/>
       <c r="X43" s="175">
@@ -7682,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB43" s="121" t="s">
         <v>25</v>
@@ -7716,7 +7713,7 @@
       </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7727,7 +7724,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G44" s="201"/>
       <c r="H44" s="11"/>
@@ -7741,7 +7738,7 @@
       <c r="N44" s="202"/>
       <c r="O44" s="89"/>
       <c r="P44" s="102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="33" t="s">
         <v>216</v>
@@ -7750,12 +7747,12 @@
         <v>89</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W44" s="178"/>
       <c r="X44" s="178"/>
@@ -7786,10 +7783,10 @@
         <v>90</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7798,7 +7795,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7817,7 +7814,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W45" s="177"/>
       <c r="X45" s="177">
@@ -7832,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7855,7 +7852,7 @@
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G46" s="133"/>
       <c r="H46" s="134"/>
@@ -7882,7 +7879,7 @@
         <v>238</v>
       </c>
       <c r="U46" s="121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V46" s="123" t="s">
         <v>237</v>
@@ -7902,7 +7899,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB46" s="138"/>
       <c r="AC46" s="131"/>
@@ -7935,7 +7932,7 @@
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
@@ -7956,13 +7953,13 @@
         <v>95</v>
       </c>
       <c r="S47" s="122" t="s">
+        <v>332</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>331</v>
+      </c>
+      <c r="U47" s="121" t="s">
         <v>333</v>
-      </c>
-      <c r="T47" s="120" t="s">
-        <v>332</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>334</v>
       </c>
       <c r="V47" s="141" t="s">
         <v>208</v>
@@ -7975,14 +7972,14 @@
       </c>
       <c r="Y47" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z47" s="194">
         <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="AA47" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB47" s="121" t="s">
         <v>25</v>
@@ -8002,20 +7999,20 @@
       </c>
       <c r="AL47" s="115"/>
       <c r="AM47" s="120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN47" s="120"/>
       <c r="AO47" s="116"/>
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="124"/>
       <c r="F48" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G48" s="203" t="s">
         <v>25</v>
@@ -8030,7 +8027,7 @@
       <c r="K48" s="204"/>
       <c r="L48" s="204"/>
       <c r="M48" s="204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N48" s="205"/>
       <c r="O48" s="127"/>
@@ -8048,7 +8045,7 @@
         <v>97</v>
       </c>
       <c r="U48" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V48" s="124" t="s">
         <v>191</v>
@@ -8068,7 +8065,7 @@
         <v>62</v>
       </c>
       <c r="AA48" s="125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB48" s="126" t="s">
         <v>25</v>
@@ -8092,10 +8089,10 @@
       </c>
       <c r="AL48" s="124"/>
       <c r="AM48" s="129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8107,7 +8104,7 @@
       <c r="D49" s="124"/>
       <c r="E49" s="124"/>
       <c r="F49" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G49" s="203" t="s">
         <v>25</v>
@@ -8126,7 +8123,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="204" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N49" s="205" t="s">
         <v>25</v>
@@ -8145,7 +8142,7 @@
         <v>197</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U49" s="126" t="s">
         <v>192</v>
@@ -8168,7 +8165,7 @@
         <v>68</v>
       </c>
       <c r="AA49" s="150" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB49" s="126" t="s">
         <v>25</v>
@@ -8204,10 +8201,10 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8231,13 +8228,13 @@
         <v>102</v>
       </c>
       <c r="T50" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>432</v>
-      </c>
       <c r="V50" s="157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W50" s="179">
         <v>40865</v>
@@ -8247,14 +8244,14 @@
       </c>
       <c r="Y50" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z50" s="194">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8273,7 +8270,7 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8281,7 +8278,7 @@
         <v>103</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8310,7 +8307,7 @@
         <v>103</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V51" s="66" t="s">
         <v>209</v>
@@ -8330,7 +8327,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8358,7 +8355,7 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
@@ -8370,14 +8367,14 @@
         <v>256</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" s="77" t="s">
         <v>439</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>440</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8395,15 +8392,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W52" s="177">
         <v>39249</v>
@@ -8420,7 +8417,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8439,7 +8436,7 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8450,7 +8447,7 @@
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8471,13 +8468,13 @@
         <v>171</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T53" s="54" t="s">
         <v>170</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
@@ -8508,18 +8505,18 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
       <c r="E54" s="131"/>
       <c r="F54" s="132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>25</v>
@@ -8574,7 +8571,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="132" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB54" s="121" t="s">
         <v>25</v>
@@ -8602,7 +8599,7 @@
       </c>
       <c r="AL54" s="115"/>
       <c r="AM54" s="120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN54" s="120"/>
       <c r="AO54" s="116"/>
@@ -8615,7 +8612,7 @@
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8643,7 +8640,7 @@
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W55" s="177"/>
       <c r="X55" s="177"/>
@@ -8678,7 +8675,7 @@
         <v>112</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8719,7 +8716,7 @@
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8745,10 +8742,10 @@
         <v>163</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8763,7 +8760,7 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
@@ -8774,19 +8771,19 @@
         <v>78</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="S57" s="64" t="s">
+      <c r="U57" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W57" s="177">
         <v>41080</v>
@@ -8801,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8837,7 +8834,7 @@
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G58" s="133"/>
       <c r="H58" s="134"/>
@@ -8860,16 +8857,16 @@
         <v>118</v>
       </c>
       <c r="S58" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>308</v>
-      </c>
       <c r="V58" s="144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W58" s="175">
         <v>41099</v>
@@ -8886,7 +8883,7 @@
         <v>11</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB58" s="121" t="s">
         <v>25</v>
@@ -8908,7 +8905,7 @@
       </c>
       <c r="AL58" s="115"/>
       <c r="AM58" s="120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN58" s="120"/>
       <c r="AO58" s="116"/>
@@ -8918,10 +8915,10 @@
         <v>119</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8942,10 +8939,10 @@
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W59" s="184"/>
       <c r="X59" s="184"/>
@@ -8959,10 +8956,10 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G60" s="201"/>
       <c r="H60" s="11"/>
@@ -8984,11 +8981,11 @@
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W60" s="178"/>
       <c r="X60" s="178"/>
@@ -9015,18 +9012,18 @@
       <c r="AM60" s="33"/>
       <c r="AN60" s="33"/>
       <c r="AO60" s="76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9051,7 +9048,7 @@
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W61" s="184"/>
       <c r="X61" s="184"/>
@@ -9063,7 +9060,7 @@
         <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9083,10 +9080,10 @@
         <v>124</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W62" s="184"/>
       <c r="X62" s="184"/>
@@ -9102,10 +9099,10 @@
       </c>
       <c r="D63" s="115"/>
       <c r="E63" s="115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F63" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>25</v>
@@ -9135,7 +9132,7 @@
         <v>29</v>
       </c>
       <c r="R63" s="148" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S63" s="122" t="s">
         <v>202</v>
@@ -9162,7 +9159,7 @@
         <v>25</v>
       </c>
       <c r="AA63" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB63" s="121" t="s">
         <v>25</v>
@@ -9188,18 +9185,18 @@
       <c r="AM63" s="120"/>
       <c r="AN63" s="120"/>
       <c r="AO63" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9238,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9267,7 +9264,7 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9294,7 +9291,7 @@
         <v>261</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="181"/>
@@ -9335,10 +9332,10 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G66" s="201"/>
       <c r="H66" s="11"/>
@@ -9359,14 +9356,14 @@
         <v>135</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W66" s="178">
         <v>40609</v>
@@ -9377,7 +9374,7 @@
       <c r="Y66" s="192"/>
       <c r="Z66" s="194"/>
       <c r="AA66" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9408,7 +9405,7 @@
         <v>160</v>
       </c>
       <c r="F67" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G67" s="133"/>
       <c r="H67" s="134"/>
@@ -9432,7 +9429,7 @@
         <v>246</v>
       </c>
       <c r="T67" s="120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U67" s="121"/>
       <c r="V67" s="141" t="s">
@@ -9453,7 +9450,7 @@
         <v>26</v>
       </c>
       <c r="AA67" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB67" s="121" t="s">
         <v>25</v>
@@ -9475,11 +9472,11 @@
       </c>
       <c r="AL67" s="115"/>
       <c r="AM67" s="120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN67" s="120"/>
       <c r="AO67" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9487,10 +9484,10 @@
         <v>132</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9510,10 +9507,10 @@
         <v>133</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W68" s="184"/>
       <c r="X68" s="184"/>
@@ -9525,13 +9522,13 @@
     </row>
     <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C69" s="124"/>
       <c r="D69" s="124"/>
       <c r="E69" s="124"/>
       <c r="F69" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G69" s="203"/>
       <c r="H69" s="204"/>
@@ -9555,7 +9552,7 @@
         <v>241</v>
       </c>
       <c r="T69" s="129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U69" s="126"/>
       <c r="V69" s="124" t="s">
@@ -9604,10 +9601,10 @@
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F70" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G70" s="133"/>
       <c r="H70" s="134"/>
@@ -9624,7 +9621,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N70" s="135" t="s">
         <v>25</v>
@@ -9640,16 +9637,16 @@
         <v>234</v>
       </c>
       <c r="S70" s="122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T70" s="120" t="s">
         <v>233</v>
       </c>
       <c r="U70" s="121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V70" s="123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W70" s="175"/>
       <c r="X70" s="175"/>
@@ -9662,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB70" s="138" t="s">
         <v>25</v>
@@ -9690,7 +9687,7 @@
         <v>136</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9710,7 +9707,7 @@
         <v>137</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="184"/>
@@ -9732,7 +9729,7 @@
         <v>44</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9753,14 +9750,14 @@
         <v>139</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>415</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>416</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W72" s="177">
         <v>40561</v>
@@ -9800,7 +9797,7 @@
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9843,7 +9840,7 @@
         <v>28</v>
       </c>
       <c r="AA73" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9875,10 +9872,10 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9899,16 +9896,16 @@
         <v>173</v>
       </c>
       <c r="S74" s="61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>116</v>
       </c>
       <c r="U74" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="V74" s="62" t="s">
         <v>512</v>
-      </c>
-      <c r="V74" s="62" t="s">
-        <v>513</v>
       </c>
       <c r="W74" s="181">
         <v>40940</v>
@@ -9925,7 +9922,7 @@
         <v>17</v>
       </c>
       <c r="AA74" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9948,10 +9945,10 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>25</v>
@@ -9971,7 +9968,7 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
@@ -9979,7 +9976,7 @@
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="W75" s="177">
         <v>40828</v>
@@ -9996,7 +9993,7 @@
         <v>20</v>
       </c>
       <c r="AA75" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB75" s="53" t="s">
         <v>25</v>
@@ -10030,10 +10027,10 @@
         <v>253</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -10097,7 +10094,7 @@
         <v>177</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10120,7 +10117,7 @@
         <v>178</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T77" s="54" t="s">
         <v>177</v>
@@ -10142,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10161,7 +10158,7 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10172,7 +10169,7 @@
         <v>161</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10202,11 +10199,11 @@
         <v>145</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W78" s="177">
         <v>40252</v>
@@ -10221,7 +10218,7 @@
         <v>39</v>
       </c>
       <c r="AA78" s="75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10251,7 +10248,7 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10259,10 +10256,10 @@
         <v>239</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10312,7 +10309,7 @@
       <c r="D80" s="131"/>
       <c r="E80" s="131"/>
       <c r="F80" s="132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="134"/>
@@ -10381,10 +10378,10 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F81" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G81" s="201" t="s">
         <v>25</v>
@@ -10441,7 +10438,7 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -10449,7 +10446,7 @@
         <v>164</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10463,7 +10460,7 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
@@ -10473,7 +10470,7 @@
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
@@ -10488,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10513,7 +10510,7 @@
         <v>176</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10530,7 +10527,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
@@ -10543,7 +10540,7 @@
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
@@ -10558,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10578,7 +10575,7 @@
         <v>271</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10605,16 +10602,16 @@
         <v>272</v>
       </c>
       <c r="S84" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T84" s="54" t="s">
         <v>273</v>
       </c>
       <c r="U84" s="53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V84" s="66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="W84" s="177">
         <v>39794</v>
@@ -10631,7 +10628,7 @@
         <v>54</v>
       </c>
       <c r="AA84" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10645,15 +10642,15 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10673,7 +10670,7 @@
         <v>78</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S85" s="64" t="s">
         <v>147</v>
@@ -10682,10 +10679,10 @@
         <v>148</v>
       </c>
       <c r="U85" s="53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V85" s="163" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W85" s="177">
         <v>40497</v>
@@ -10716,7 +10713,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1435,9 +1435,6 @@
     <t>@appfog</t>
   </si>
   <si>
-    <t>PHP Fog (AppFog)</t>
-  </si>
-  <si>
     <t>https://www.phpfog.com/</t>
   </si>
   <si>
@@ -2873,6 +2870,9 @@
   </si>
   <si>
     <t>Opa</t>
+  </si>
+  <si>
+    <t>PHP Fog</t>
   </si>
 </sst>
 </file>
@@ -4222,10 +4222,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="S19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4286,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G1" s="224" t="s">
         <v>4</v>
@@ -4299,7 +4299,7 @@
       <c r="M1" s="225"/>
       <c r="N1" s="227"/>
       <c r="O1" s="107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>5</v>
@@ -4317,19 +4317,19 @@
         <v>9</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W1" s="180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X1" s="180" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y1" s="235" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z1" s="236"/>
       <c r="AA1" s="73" t="s">
@@ -4344,17 +4344,17 @@
       <c r="AF1" s="230"/>
       <c r="AG1" s="231"/>
       <c r="AH1" s="221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI1" s="222"/>
       <c r="AJ1" s="223"/>
       <c r="AK1" s="221" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL1" s="222"/>
       <c r="AM1" s="223"/>
       <c r="AN1" s="220" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="232" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="232"/>
@@ -4387,10 +4387,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N2" s="200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="99"/>
@@ -4406,14 +4406,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="189" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4425,25 +4425,25 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>279</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN2" s="31"/>
       <c r="AO2" s="74"/>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="201"/>
       <c r="H4" s="11"/>
@@ -4584,20 +4584,20 @@
       <c r="O4" s="89"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W4" s="178">
         <v>40878</v>
@@ -4622,7 +4622,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,10 +4632,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4649,7 +4649,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4658,16 +4658,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>384</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>386</v>
-      </c>
-      <c r="V5" s="123" t="s">
-        <v>387</v>
       </c>
       <c r="W5" s="175"/>
       <c r="X5" s="175">
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4725,7 +4725,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="203" t="s">
         <v>25</v>
@@ -4750,22 +4750,22 @@
       <c r="O6" s="127"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" s="126" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W6" s="176">
         <v>40562</v>
@@ -4780,7 +4780,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
@@ -4825,7 +4825,7 @@
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4841,7 +4841,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="120" t="s">
         <v>29</v>
@@ -4850,16 +4850,16 @@
         <v>38</v>
       </c>
       <c r="S7" s="122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T7" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="U7" s="121" t="s">
         <v>289</v>
       </c>
-      <c r="U7" s="121" t="s">
-        <v>290</v>
-      </c>
       <c r="V7" s="123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W7" s="175">
         <v>40495</v>
@@ -4876,7 +4876,7 @@
         <v>31</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
@@ -4913,7 +4913,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G8" s="206"/>
       <c r="H8" s="206"/>
@@ -4928,27 +4928,27 @@
       <c r="O8" s="140"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W8" s="182"/>
       <c r="X8" s="182"/>
       <c r="Y8" s="192"/>
       <c r="Z8" s="194"/>
       <c r="AA8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4974,10 +4974,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G9" s="207" t="s">
         <v>25</v>
@@ -5000,16 +5000,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>355</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W9" s="183"/>
       <c r="X9" s="183">
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5044,7 +5044,7 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5055,7 +5055,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5070,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5079,16 +5079,16 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5124,7 +5124,7 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5135,7 +5135,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5150,10 +5150,10 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
@@ -5181,10 +5181,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5213,13 +5213,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>422</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>423</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5229,7 +5229,7 @@
       <c r="Y12" s="218"/>
       <c r="Z12" s="219"/>
       <c r="AA12" s="75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5285,19 +5285,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="S13" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="T13" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="T13" s="120" t="s">
+      <c r="U13" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="V13" s="141" t="s">
         <v>269</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>359</v>
-      </c>
-      <c r="V13" s="141" t="s">
-        <v>270</v>
       </c>
       <c r="W13" s="175">
         <v>39252</v>
@@ -5314,7 +5314,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5341,11 +5341,11 @@
     </row>
     <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5363,16 +5363,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>249</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5413,15 +5413,15 @@
     </row>
     <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5438,30 +5438,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V15" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W15" s="175"/>
       <c r="X15" s="175">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5511,7 +5511,7 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5542,16 +5542,16 @@
         <v>50</v>
       </c>
       <c r="S16" s="122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V16" s="141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W16" s="175">
         <v>40360</v>
@@ -5568,7 +5568,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5600,10 +5600,10 @@
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5618,7 +5618,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5628,22 +5628,22 @@
       </c>
       <c r="P17" s="137"/>
       <c r="Q17" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R17" s="138" t="s">
         <v>52</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T17" s="139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W17" s="175"/>
       <c r="X17" s="175"/>
@@ -5680,14 +5680,14 @@
     <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="124"/>
       <c r="C18" s="124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G18" s="203"/>
       <c r="H18" s="204"/>
@@ -5706,22 +5706,22 @@
       <c r="O18" s="127"/>
       <c r="P18" s="128"/>
       <c r="Q18" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R18" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="T18" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="S18" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>183</v>
-      </c>
       <c r="U18" s="121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V18" s="124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W18" s="176">
         <v>41383</v>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
@@ -5764,7 +5764,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5802,11 +5802,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W19" s="177">
         <v>40668</v>
@@ -5823,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5842,18 +5842,18 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>469</v>
-      </c>
       <c r="F20" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5880,7 +5880,7 @@
       <c r="O20" s="110"/>
       <c r="P20" s="103"/>
       <c r="Q20" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R20" s="53" t="s">
         <v>54</v>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W20" s="177"/>
       <c r="X20" s="177"/>
@@ -5923,7 +5923,7 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5933,10 +5933,10 @@
       </c>
       <c r="D21" s="124"/>
       <c r="E21" s="124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>25</v>
@@ -5970,13 +5970,13 @@
         <v>59</v>
       </c>
       <c r="T21" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="U21" s="121" t="s">
         <v>291</v>
       </c>
-      <c r="U21" s="121" t="s">
-        <v>292</v>
-      </c>
       <c r="V21" s="124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W21" s="176"/>
       <c r="X21" s="176">
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB21" s="126" t="s">
         <v>25</v>
@@ -6025,14 +6025,14 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>539</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G22" s="201"/>
       <c r="H22" s="11"/>
@@ -6047,20 +6047,20 @@
       <c r="O22" s="89"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R22" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="T22" s="33" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W22" s="178"/>
       <c r="X22" s="178"/>
@@ -6088,12 +6088,12 @@
     </row>
     <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6116,22 +6116,22 @@
       <c r="O23" s="109"/>
       <c r="P23" s="101"/>
       <c r="Q23" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R23" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="T23" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="S23" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="T23" s="49" t="s">
-        <v>64</v>
-      </c>
       <c r="U23" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W23" s="179">
         <v>41085</v>
@@ -6170,12 +6170,12 @@
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6196,7 +6196,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
@@ -6205,19 +6205,19 @@
         <v>29</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S24" s="64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="V24" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W24" s="179">
         <v>41037</v>
@@ -6234,7 +6234,7 @@
         <v>13</v>
       </c>
       <c r="AA24" s="77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6261,12 +6261,12 @@
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6292,17 +6292,17 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W25" s="179"/>
       <c r="X25" s="179">
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6338,23 +6338,23 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6373,7 +6373,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6382,15 +6382,15 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S26" s="64"/>
       <c r="T26" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="153" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W26" s="179"/>
       <c r="X26" s="179"/>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6428,14 +6428,14 @@
     </row>
     <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6461,17 +6461,17 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W27" s="179">
         <v>41244</v>
@@ -6488,7 +6488,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6517,12 +6517,12 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="169" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6537,35 +6537,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>505</v>
+      </c>
+      <c r="V28" s="171" t="s">
         <v>504</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>506</v>
-      </c>
-      <c r="V28" s="171" t="s">
-        <v>505</v>
       </c>
       <c r="W28" s="185"/>
       <c r="X28" s="185"/>
       <c r="Y28" s="192"/>
       <c r="Z28" s="194"/>
       <c r="AA28" s="57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6603,16 +6603,16 @@
       <c r="O29" s="162"/>
       <c r="P29" s="103"/>
       <c r="Q29" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="W29" s="177"/>
       <c r="X29" s="177"/>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6654,19 +6654,19 @@
         <v>29</v>
       </c>
       <c r="R30" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="T30" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="T30" s="54" t="s">
-        <v>67</v>
-      </c>
       <c r="U30" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V30" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W30" s="177">
         <v>40269</v>
@@ -6683,7 +6683,7 @@
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6707,20 +6707,20 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6744,17 +6744,17 @@
         <v>29</v>
       </c>
       <c r="R31" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="S31" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="T31" s="49" t="s">
         <v>153</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W31" s="179">
         <v>40840</v>
@@ -6771,7 +6771,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6793,11 +6793,11 @@
     </row>
     <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="154"/>
       <c r="F32" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6812,20 +6812,20 @@
       <c r="O32" s="110"/>
       <c r="P32" s="103"/>
       <c r="Q32" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R32" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V32" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W32" s="177">
         <v>40563</v>
@@ -6858,13 +6858,13 @@
     </row>
     <row r="33" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6885,16 +6885,16 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R33" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="S33" s="165" t="s">
-        <v>72</v>
-      </c>
       <c r="T33" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
@@ -6905,7 +6905,7 @@
       <c r="Y33" s="192"/>
       <c r="Z33" s="194"/>
       <c r="AA33" s="57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6932,18 +6932,18 @@
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G34" s="207" t="s">
         <v>25</v>
@@ -6969,17 +6969,17 @@
         <v>29</v>
       </c>
       <c r="R34" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S34" s="216" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="217" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W34" s="183"/>
       <c r="X34" s="183">
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB34" s="159" t="s">
         <v>25</v>
@@ -7023,13 +7023,13 @@
     </row>
     <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7048,15 +7048,15 @@
       <c r="O35" s="110"/>
       <c r="P35" s="103"/>
       <c r="Q35" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
@@ -7074,7 +7074,7 @@
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7092,18 +7092,18 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7121,13 +7121,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>464</v>
+      </c>
+      <c r="S36" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
@@ -7165,10 +7165,10 @@
     </row>
     <row r="37" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7185,22 +7185,22 @@
       <c r="O37" s="110"/>
       <c r="P37" s="103"/>
       <c r="Q37" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="T37" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="R37" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="S37" s="64" t="s">
+      <c r="U37" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="T37" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="U37" s="53" t="s">
+      <c r="V37" s="163" t="s">
         <v>463</v>
-      </c>
-      <c r="V37" s="163" t="s">
-        <v>464</v>
       </c>
       <c r="W37" s="177">
         <v>41331</v>
@@ -7215,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G38" s="201"/>
       <c r="H38" s="11"/>
@@ -7257,18 +7257,18 @@
       <c r="O38" s="89"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W38" s="178">
         <v>40443</v>
@@ -7293,15 +7293,15 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7316,18 +7316,18 @@
       <c r="O39" s="162"/>
       <c r="P39" s="103"/>
       <c r="Q39" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R39" s="173" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S39" s="64"/>
       <c r="T39" s="54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W39" s="177">
         <v>41061</v>
@@ -7355,13 +7355,13 @@
     </row>
     <row r="40" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7387,25 +7387,25 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="S40" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="S40" s="64" t="s">
-        <v>82</v>
-      </c>
       <c r="T40" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="U40" s="53" t="s">
-        <v>302</v>
-      </c>
       <c r="V40" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W40" s="177">
         <v>40544</v>
@@ -7422,7 +7422,7 @@
         <v>30</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7451,13 +7451,13 @@
     </row>
     <row r="41" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7484,22 +7484,22 @@
       <c r="O41" s="111"/>
       <c r="P41" s="104"/>
       <c r="Q41" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R41" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="S41" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="S41" s="68" t="s">
-        <v>85</v>
-      </c>
       <c r="T41" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>412</v>
-      </c>
-      <c r="V41" s="67" t="s">
-        <v>413</v>
       </c>
       <c r="W41" s="186">
         <v>40878</v>
@@ -7542,18 +7542,18 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7564,7 +7564,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="88"/>
@@ -7573,19 +7573,19 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>410</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>411</v>
       </c>
       <c r="W42" s="177"/>
       <c r="X42" s="177">
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7622,13 +7622,13 @@
     </row>
     <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
@@ -7652,19 +7652,19 @@
         <v>29</v>
       </c>
       <c r="R43" s="121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S43" s="122" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T43" s="120" t="s">
+        <v>361</v>
+      </c>
+      <c r="U43" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="U43" s="121" t="s">
-        <v>363</v>
-      </c>
       <c r="V43" s="144" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W43" s="175"/>
       <c r="X43" s="175">
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB43" s="121" t="s">
         <v>25</v>
@@ -7713,18 +7713,18 @@
       </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G44" s="201"/>
       <c r="H44" s="11"/>
@@ -7738,21 +7738,21 @@
       <c r="N44" s="202"/>
       <c r="O44" s="89"/>
       <c r="P44" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S44" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="Q44" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="R44" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>323</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W44" s="178"/>
       <c r="X44" s="178"/>
@@ -7780,13 +7780,13 @@
     </row>
     <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7795,7 +7795,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7804,17 +7804,17 @@
         <v>29</v>
       </c>
       <c r="R45" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="S45" s="64" t="s">
+      <c r="T45" s="54" t="s">
         <v>92</v>
-      </c>
-      <c r="T45" s="54" t="s">
-        <v>93</v>
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W45" s="177"/>
       <c r="X45" s="177">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7846,13 +7846,13 @@
     </row>
     <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="115"/>
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G46" s="133"/>
       <c r="H46" s="134"/>
@@ -7870,19 +7870,19 @@
         <v>29</v>
       </c>
       <c r="R46" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="S46" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="S46" s="122" t="s">
+      <c r="T46" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="U46" s="121" t="s">
+        <v>329</v>
+      </c>
+      <c r="V46" s="123" t="s">
         <v>236</v>
-      </c>
-      <c r="T46" s="120" t="s">
-        <v>238</v>
-      </c>
-      <c r="U46" s="121" t="s">
-        <v>330</v>
-      </c>
-      <c r="V46" s="123" t="s">
-        <v>237</v>
       </c>
       <c r="W46" s="175">
         <v>41143</v>
@@ -7899,7 +7899,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB46" s="138"/>
       <c r="AC46" s="131"/>
@@ -7926,13 +7926,13 @@
     </row>
     <row r="47" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
@@ -7950,19 +7950,19 @@
         <v>29</v>
       </c>
       <c r="R47" s="121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S47" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="U47" s="121" t="s">
         <v>332</v>
       </c>
-      <c r="T47" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>333</v>
-      </c>
       <c r="V47" s="141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W47" s="175">
         <v>40546</v>
@@ -7979,7 +7979,7 @@
         <v>29</v>
       </c>
       <c r="AA47" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB47" s="121" t="s">
         <v>25</v>
@@ -7999,20 +7999,20 @@
       </c>
       <c r="AL47" s="115"/>
       <c r="AM47" s="120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN47" s="120"/>
       <c r="AO47" s="116"/>
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="124"/>
       <c r="F48" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G48" s="203" t="s">
         <v>25</v>
@@ -8027,7 +8027,7 @@
       <c r="K48" s="204"/>
       <c r="L48" s="204"/>
       <c r="M48" s="204" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N48" s="205"/>
       <c r="O48" s="127"/>
@@ -8036,19 +8036,19 @@
         <v>29</v>
       </c>
       <c r="R48" s="149" t="s">
+        <v>95</v>
+      </c>
+      <c r="S48" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="T48" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="S48" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="T48" s="129" t="s">
-        <v>97</v>
-      </c>
       <c r="U48" s="121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V48" s="124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W48" s="176">
         <v>39545</v>
@@ -8065,7 +8065,7 @@
         <v>62</v>
       </c>
       <c r="AA48" s="125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB48" s="126" t="s">
         <v>25</v>
@@ -8089,22 +8089,22 @@
       </c>
       <c r="AL48" s="124"/>
       <c r="AM48" s="129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
     <row r="49" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
       <c r="E49" s="124"/>
       <c r="F49" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G49" s="203" t="s">
         <v>25</v>
@@ -8123,7 +8123,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N49" s="205" t="s">
         <v>25</v>
@@ -8136,19 +8136,19 @@
         <v>29</v>
       </c>
       <c r="R49" s="149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S49" s="124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U49" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="V49" s="124" t="s">
         <v>192</v>
-      </c>
-      <c r="V49" s="124" t="s">
-        <v>193</v>
       </c>
       <c r="W49" s="176">
         <v>39385</v>
@@ -8165,7 +8165,7 @@
         <v>68</v>
       </c>
       <c r="AA49" s="150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB49" s="126" t="s">
         <v>25</v>
@@ -8196,15 +8196,15 @@
     </row>
     <row r="50" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8219,22 +8219,22 @@
       <c r="O50" s="109"/>
       <c r="P50" s="101"/>
       <c r="Q50" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R50" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="S50" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="S50" s="156" t="s">
-        <v>102</v>
-      </c>
       <c r="T50" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>431</v>
-      </c>
       <c r="V50" s="157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W50" s="179">
         <v>40865</v>
@@ -8251,7 +8251,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8270,15 +8270,15 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8298,19 +8298,19 @@
         <v>29</v>
       </c>
       <c r="R51" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S51" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T51" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V51" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W51" s="177">
         <v>40742</v>
@@ -8327,7 +8327,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8355,26 +8355,26 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="F52" s="77" t="s">
         <v>438</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>439</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8392,15 +8392,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W52" s="177">
         <v>39249</v>
@@ -8417,7 +8417,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8436,18 +8436,18 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8465,16 +8465,16 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
@@ -8505,18 +8505,18 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
       <c r="E54" s="131"/>
       <c r="F54" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>25</v>
@@ -8546,15 +8546,15 @@
         <v>29</v>
       </c>
       <c r="R54" s="138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S54" s="122"/>
       <c r="T54" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U54" s="121"/>
       <c r="V54" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W54" s="187">
         <v>39748</v>
@@ -8571,7 +8571,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB54" s="121" t="s">
         <v>25</v>
@@ -8599,20 +8599,20 @@
       </c>
       <c r="AL54" s="115"/>
       <c r="AM54" s="120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN54" s="120"/>
       <c r="AO54" s="116"/>
     </row>
     <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8627,20 +8627,20 @@
       <c r="O55" s="155"/>
       <c r="P55" s="101"/>
       <c r="Q55" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R55" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S55" s="64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W55" s="177"/>
       <c r="X55" s="177"/>
@@ -8669,13 +8669,13 @@
     </row>
     <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="42" t="s">
-        <v>112</v>
-      </c>
       <c r="F56" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8690,14 +8690,14 @@
       <c r="O56" s="110"/>
       <c r="P56" s="103"/>
       <c r="Q56" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R56" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S56" s="64"/>
       <c r="T56" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U56" s="52"/>
       <c r="V56" s="163">
@@ -8716,7 +8716,7 @@
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8734,18 +8734,18 @@
       <c r="AM56" s="54"/>
       <c r="AN56" s="54"/>
       <c r="AO56" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8760,30 +8760,30 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
       <c r="P57" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q57" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>448</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="S57" s="64" t="s">
+      <c r="U57" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>452</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W57" s="177">
         <v>41080</v>
@@ -8798,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8828,13 +8828,13 @@
     </row>
     <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="115"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="133"/>
       <c r="H58" s="134"/>
@@ -8854,19 +8854,19 @@
         <v>29</v>
       </c>
       <c r="R58" s="148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S58" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>307</v>
-      </c>
       <c r="V58" s="144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W58" s="175">
         <v>41099</v>
@@ -8883,7 +8883,7 @@
         <v>11</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB58" s="121" t="s">
         <v>25</v>
@@ -8905,20 +8905,20 @@
       </c>
       <c r="AL58" s="115"/>
       <c r="AM58" s="120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN58" s="120"/>
       <c r="AO58" s="116"/>
     </row>
     <row r="59" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8932,17 +8932,17 @@
       <c r="N59" s="58"/>
       <c r="O59" s="168"/>
       <c r="Q59" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W59" s="184"/>
       <c r="X59" s="184"/>
@@ -8951,15 +8951,15 @@
     </row>
     <row r="60" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G60" s="201"/>
       <c r="H60" s="11"/>
@@ -8974,18 +8974,18 @@
       <c r="O60" s="89"/>
       <c r="P60" s="102"/>
       <c r="Q60" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R60" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W60" s="178"/>
       <c r="X60" s="178"/>
@@ -9012,18 +9012,18 @@
       <c r="AM60" s="33"/>
       <c r="AN60" s="33"/>
       <c r="AO60" s="76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9037,18 +9037,18 @@
       <c r="N61" s="58"/>
       <c r="O61" s="168"/>
       <c r="Q61" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W61" s="184"/>
       <c r="X61" s="184"/>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="62" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9074,16 +9074,16 @@
       <c r="N62" s="58"/>
       <c r="O62" s="168"/>
       <c r="Q62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W62" s="184"/>
       <c r="X62" s="184"/>
@@ -9092,17 +9092,17 @@
     </row>
     <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" s="115"/>
       <c r="E63" s="115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F63" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>25</v>
@@ -9132,17 +9132,17 @@
         <v>29</v>
       </c>
       <c r="R63" s="148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S63" s="122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T63" s="120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U63" s="121"/>
       <c r="V63" s="144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W63" s="175">
         <v>40667</v>
@@ -9159,7 +9159,7 @@
         <v>25</v>
       </c>
       <c r="AA63" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB63" s="121" t="s">
         <v>25</v>
@@ -9185,18 +9185,18 @@
       <c r="AM63" s="120"/>
       <c r="AN63" s="120"/>
       <c r="AO63" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9214,13 +9214,13 @@
         <v>29</v>
       </c>
       <c r="R64" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="S64" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="S64" s="61" t="s">
-        <v>129</v>
-      </c>
       <c r="T64" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="62"/>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9258,13 +9258,13 @@
     </row>
     <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9282,16 +9282,16 @@
         <v>29</v>
       </c>
       <c r="R65" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="S65" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="S65" s="151" t="s">
+      <c r="T65" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>261</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="181"/>
@@ -9327,15 +9327,15 @@
     <row r="66" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70"/>
       <c r="B66" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G66" s="201"/>
       <c r="H66" s="11"/>
@@ -9353,17 +9353,17 @@
         <v>29</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W66" s="178">
         <v>40609</v>
@@ -9374,7 +9374,7 @@
       <c r="Y66" s="192"/>
       <c r="Z66" s="194"/>
       <c r="AA66" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9397,15 +9397,15 @@
     </row>
     <row r="67" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="115"/>
       <c r="D67" s="115"/>
       <c r="E67" s="115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F67" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G67" s="133"/>
       <c r="H67" s="134"/>
@@ -9423,17 +9423,17 @@
         <v>29</v>
       </c>
       <c r="R67" s="121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S67" s="122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T67" s="120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U67" s="121"/>
       <c r="V67" s="141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W67" s="175">
         <v>40664</v>
@@ -9450,7 +9450,7 @@
         <v>26</v>
       </c>
       <c r="AA67" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB67" s="121" t="s">
         <v>25</v>
@@ -9472,22 +9472,22 @@
       </c>
       <c r="AL67" s="115"/>
       <c r="AM67" s="120" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN67" s="120"/>
       <c r="AO67" s="116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9501,16 +9501,16 @@
       <c r="N68" s="58"/>
       <c r="O68" s="168"/>
       <c r="Q68" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W68" s="184"/>
       <c r="X68" s="184"/>
@@ -9522,13 +9522,13 @@
     </row>
     <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C69" s="124"/>
       <c r="D69" s="124"/>
       <c r="E69" s="124"/>
       <c r="F69" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G69" s="203"/>
       <c r="H69" s="204"/>
@@ -9543,20 +9543,20 @@
       <c r="O69" s="127"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R69" s="126" t="s">
+        <v>239</v>
+      </c>
+      <c r="S69" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="S69" s="124" t="s">
-        <v>241</v>
-      </c>
       <c r="T69" s="129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U69" s="126"/>
       <c r="V69" s="124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W69" s="176">
         <v>40834</v>
@@ -9596,15 +9596,15 @@
     </row>
     <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F70" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G70" s="133"/>
       <c r="H70" s="134"/>
@@ -9621,7 +9621,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N70" s="135" t="s">
         <v>25</v>
@@ -9631,22 +9631,22 @@
       </c>
       <c r="P70" s="119"/>
       <c r="Q70" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R70" s="121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S70" s="122" t="s">
+        <v>373</v>
+      </c>
+      <c r="T70" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="U70" s="121" t="s">
+        <v>375</v>
+      </c>
+      <c r="V70" s="123" t="s">
         <v>374</v>
-      </c>
-      <c r="T70" s="120" t="s">
-        <v>233</v>
-      </c>
-      <c r="U70" s="121" t="s">
-        <v>376</v>
-      </c>
-      <c r="V70" s="123" t="s">
-        <v>375</v>
       </c>
       <c r="W70" s="175"/>
       <c r="X70" s="175"/>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB70" s="138" t="s">
         <v>25</v>
@@ -9684,10 +9684,10 @@
     </row>
     <row r="71" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9701,13 +9701,13 @@
       <c r="N71" s="58"/>
       <c r="O71" s="167"/>
       <c r="Q71" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="184"/>
@@ -9723,13 +9723,13 @@
     </row>
     <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9744,20 +9744,20 @@
       <c r="O72" s="110"/>
       <c r="P72" s="103"/>
       <c r="Q72" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R72" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>414</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>415</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W72" s="177">
         <v>40561</v>
@@ -9793,11 +9793,11 @@
     </row>
     <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9812,16 +9812,16 @@
       <c r="O73" s="88"/>
       <c r="P73" s="101"/>
       <c r="Q73" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R73" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S73" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T73" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U73" s="53"/>
       <c r="V73" s="163">
@@ -9840,7 +9840,7 @@
         <v>28</v>
       </c>
       <c r="AA73" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9867,15 +9867,15 @@
     </row>
     <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9893,19 +9893,19 @@
         <v>29</v>
       </c>
       <c r="R74" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S74" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="T74" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="T74" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="U74" s="22" t="s">
+      <c r="V74" s="62" t="s">
         <v>511</v>
-      </c>
-      <c r="V74" s="62" t="s">
-        <v>512</v>
       </c>
       <c r="W74" s="181">
         <v>40940</v>
@@ -9922,7 +9922,7 @@
         <v>17</v>
       </c>
       <c r="AA74" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9945,10 +9945,10 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>25</v>
@@ -9968,15 +9968,15 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W75" s="177">
         <v>40828</v>
@@ -9993,7 +9993,7 @@
         <v>20</v>
       </c>
       <c r="AA75" s="75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB75" s="53" t="s">
         <v>25</v>
@@ -10024,13 +10024,13 @@
     </row>
     <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -10045,20 +10045,20 @@
       <c r="O76" s="109"/>
       <c r="P76" s="101"/>
       <c r="Q76" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="S76" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="S76" s="64" t="s">
-        <v>255</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W76" s="177">
         <v>41410</v>
@@ -10091,10 +10091,10 @@
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10114,13 +10114,13 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T77" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="163">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10158,18 +10158,18 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10193,17 +10193,17 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="S78" s="64" t="s">
-        <v>145</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W78" s="177">
         <v>40252</v>
@@ -10218,7 +10218,7 @@
         <v>39</v>
       </c>
       <c r="AA78" s="75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10248,18 +10248,18 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10273,7 +10273,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="167"/>
       <c r="Q79" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
@@ -10303,13 +10303,13 @@
     </row>
     <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B80" s="131" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" s="131"/>
       <c r="D80" s="131"/>
       <c r="E80" s="131"/>
       <c r="F80" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="134"/>
@@ -10328,16 +10328,16 @@
       </c>
       <c r="P80" s="137"/>
       <c r="Q80" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R80" s="121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S80" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="T80" s="120" t="s">
         <v>229</v>
-      </c>
-      <c r="T80" s="120" t="s">
-        <v>230</v>
       </c>
       <c r="U80" s="138"/>
       <c r="V80" s="141"/>
@@ -10373,15 +10373,15 @@
     </row>
     <row r="81" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F81" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G81" s="201" t="s">
         <v>25</v>
@@ -10398,10 +10398,10 @@
       <c r="O81" s="89"/>
       <c r="P81" s="102"/>
       <c r="Q81" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R81" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="33"/>
@@ -10438,15 +10438,15 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10460,17 +10460,17 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R82" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10507,10 +10507,10 @@
     </row>
     <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
@@ -10536,11 +10536,11 @@
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10572,10 +10572,10 @@
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10599,19 +10599,19 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="S84" s="64" t="s">
+      <c r="U84" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="V84" s="66" t="s">
         <v>486</v>
-      </c>
-      <c r="T84" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>484</v>
-      </c>
-      <c r="V84" s="66" t="s">
-        <v>487</v>
       </c>
       <c r="W84" s="177">
         <v>39794</v>
@@ -10628,7 +10628,7 @@
         <v>54</v>
       </c>
       <c r="AA84" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10642,15 +10642,15 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10667,22 +10667,22 @@
       <c r="O85" s="110"/>
       <c r="P85" s="103"/>
       <c r="Q85" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R85" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="S85" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="T85" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="U85" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="V85" s="163" t="s">
         <v>478</v>
-      </c>
-      <c r="S85" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="T85" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="U85" s="53" t="s">
-        <v>477</v>
-      </c>
-      <c r="V85" s="163" t="s">
-        <v>479</v>
       </c>
       <c r="W85" s="177">
         <v>40497</v>
@@ -10713,7 +10713,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -4222,10 +4222,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="S19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="Z16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4539,11 +4539,11 @@
       </c>
       <c r="AH3" s="22">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI3" s="10">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ3" s="23">
         <f t="shared" si="1"/>
@@ -5744,8 +5744,12 @@
       </c>
       <c r="AF18" s="124"/>
       <c r="AG18" s="129"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="124"/>
+      <c r="AH18" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI18" s="124" t="s">
+        <v>25</v>
+      </c>
       <c r="AJ18" s="129"/>
       <c r="AK18" s="126" t="s">
         <v>25</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -4222,10 +4222,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="Z16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
+      <selection pane="bottomRight" activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="Z47" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA47" s="116" t="s">
         <v>307</v>
@@ -9354,7 +9354,7 @@
       <c r="O66" s="89"/>
       <c r="P66" s="102"/>
       <c r="Q66" s="33" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>134</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -4222,10 +4222,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q66" sqref="Q66"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="86">
         <f t="shared" si="0"/>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="Y5" s="192">
         <f t="shared" ref="Y5:Y67" ca="1" si="2">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="194" t="str">
         <f t="shared" ref="Z5:Z67" ca="1" si="3">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
@@ -6651,7 +6651,9 @@
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
+      <c r="N30" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="O30" s="110"/>
       <c r="P30" s="103"/>
       <c r="Q30" s="54" t="s">
@@ -6687,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6839,7 +6841,7 @@
       </c>
       <c r="Y32" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z32" s="194">
         <f t="shared" ca="1" si="3"/>
@@ -7896,7 +7898,7 @@
       </c>
       <c r="Y46" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z46" s="194">
         <f t="shared" ca="1" si="3"/>
@@ -9160,7 +9162,7 @@
       </c>
       <c r="Z63" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA63" s="116" t="s">
         <v>347</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="539">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -1625,9 +1625,6 @@
   </si>
   <si>
     <t>http://www.nuagehq.com/</t>
-  </si>
-  <si>
-    <t>OpenShift</t>
   </si>
   <si>
     <t>Red Hat</t>
@@ -4222,10 +4219,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G1" s="224" t="s">
         <v>4</v>
@@ -4299,7 +4296,7 @@
       <c r="M1" s="225"/>
       <c r="N1" s="227"/>
       <c r="O1" s="107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>5</v>
@@ -4317,19 +4314,19 @@
         <v>9</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W1" s="180" t="s">
         <v>77</v>
       </c>
       <c r="X1" s="180" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y1" s="235" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z1" s="236"/>
       <c r="AA1" s="73" t="s">
@@ -4344,17 +4341,17 @@
       <c r="AF1" s="230"/>
       <c r="AG1" s="231"/>
       <c r="AH1" s="221" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI1" s="222"/>
       <c r="AJ1" s="223"/>
       <c r="AK1" s="221" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL1" s="222"/>
       <c r="AM1" s="223"/>
       <c r="AN1" s="220" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="232" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="232"/>
@@ -4387,10 +4384,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="197" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N2" s="200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="99"/>
@@ -4406,14 +4403,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="189" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4425,25 +4422,25 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>278</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN2" s="31"/>
       <c r="AO2" s="74"/>
@@ -4510,7 +4507,7 @@
       </c>
       <c r="Z3" s="196">
         <f ca="1">MEDIAN(Z4:Z100)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="78"/>
       <c r="AB3" s="22">
@@ -4563,13 +4560,13 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" s="201"/>
       <c r="H4" s="11"/>
@@ -4584,20 +4581,20 @@
       <c r="O4" s="89"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W4" s="178">
         <v>40878</v>
@@ -4622,7 +4619,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,10 +4629,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4649,7 +4646,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4658,16 +4655,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>383</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>384</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>385</v>
-      </c>
-      <c r="V5" s="123" t="s">
-        <v>386</v>
       </c>
       <c r="W5" s="175"/>
       <c r="X5" s="175">
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4725,7 +4722,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G6" s="203" t="s">
         <v>25</v>
@@ -4756,16 +4753,16 @@
         <v>36</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W6" s="176">
         <v>40562</v>
@@ -4780,7 +4777,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4812,7 +4809,7 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
@@ -4825,7 +4822,7 @@
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4841,7 +4838,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="120" t="s">
         <v>29</v>
@@ -4850,16 +4847,16 @@
         <v>38</v>
       </c>
       <c r="S7" s="122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T7" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="U7" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="U7" s="121" t="s">
-        <v>289</v>
-      </c>
       <c r="V7" s="123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W7" s="175">
         <v>40495</v>
@@ -4876,7 +4873,7 @@
         <v>31</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4900,7 +4897,7 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
@@ -4913,7 +4910,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G8" s="206"/>
       <c r="H8" s="206"/>
@@ -4928,27 +4925,27 @@
       <c r="O8" s="140"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W8" s="182"/>
       <c r="X8" s="182"/>
       <c r="Y8" s="192"/>
       <c r="Z8" s="194"/>
       <c r="AA8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4974,10 +4971,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G9" s="207" t="s">
         <v>25</v>
@@ -5000,16 +4997,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>353</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>354</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W9" s="183"/>
       <c r="X9" s="183">
@@ -5024,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5044,7 +5041,7 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5055,7 +5052,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5070,7 +5067,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5079,16 +5076,16 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5106,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5124,7 +5121,7 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5135,7 +5132,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5150,10 +5147,10 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
@@ -5181,10 +5178,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5213,13 +5210,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>421</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>422</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5229,7 +5226,7 @@
       <c r="Y12" s="218"/>
       <c r="Z12" s="219"/>
       <c r="AA12" s="75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5261,13 +5258,13 @@
     </row>
     <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5285,19 +5282,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="S13" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="T13" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="T13" s="120" t="s">
+      <c r="U13" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="V13" s="141" t="s">
         <v>268</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>358</v>
-      </c>
-      <c r="V13" s="141" t="s">
-        <v>269</v>
       </c>
       <c r="W13" s="175">
         <v>39252</v>
@@ -5314,7 +5311,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5341,11 +5338,11 @@
     </row>
     <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5363,16 +5360,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>248</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5390,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5413,15 +5410,15 @@
     </row>
     <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5438,30 +5435,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V15" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W15" s="175"/>
       <c r="X15" s="175">
@@ -5476,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5511,7 +5508,7 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5542,16 +5539,16 @@
         <v>50</v>
       </c>
       <c r="S16" s="122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V16" s="141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W16" s="175">
         <v>40360</v>
@@ -5568,7 +5565,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5600,10 +5597,10 @@
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5618,7 +5615,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5634,16 +5631,16 @@
         <v>52</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T17" s="139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W17" s="175"/>
       <c r="X17" s="175"/>
@@ -5680,14 +5677,14 @@
     <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="124"/>
       <c r="C18" s="124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G18" s="203"/>
       <c r="H18" s="204"/>
@@ -5709,19 +5706,19 @@
         <v>77</v>
       </c>
       <c r="R18" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T18" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="S18" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>182</v>
-      </c>
       <c r="U18" s="121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V18" s="124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W18" s="176">
         <v>41383</v>
@@ -5756,7 +5753,7 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
@@ -5768,7 +5765,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5806,11 +5803,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W19" s="177">
         <v>40668</v>
@@ -5824,10 +5821,10 @@
       </c>
       <c r="Z19" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5846,18 +5843,18 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>468</v>
-      </c>
       <c r="F20" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5897,7 +5894,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W20" s="177"/>
       <c r="X20" s="177"/>
@@ -5927,7 +5924,7 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,10 +5934,10 @@
       </c>
       <c r="D21" s="124"/>
       <c r="E21" s="124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>25</v>
@@ -5974,13 +5971,13 @@
         <v>59</v>
       </c>
       <c r="T21" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="U21" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="U21" s="121" t="s">
-        <v>291</v>
-      </c>
       <c r="V21" s="124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W21" s="176"/>
       <c r="X21" s="176">
@@ -5995,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB21" s="126" t="s">
         <v>25</v>
@@ -6029,14 +6026,14 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G22" s="201"/>
       <c r="H22" s="11"/>
@@ -6051,7 +6048,7 @@
       <c r="O22" s="89"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>60</v>
@@ -6064,7 +6061,7 @@
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W22" s="178"/>
       <c r="X22" s="178"/>
@@ -6092,12 +6089,12 @@
     </row>
     <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6126,16 +6123,16 @@
         <v>62</v>
       </c>
       <c r="S23" s="152" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>63</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W23" s="179">
         <v>41085</v>
@@ -6174,12 +6171,12 @@
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6200,7 +6197,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
@@ -6209,19 +6206,19 @@
         <v>29</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S24" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="V24" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W24" s="179">
         <v>41037</v>
@@ -6238,7 +6235,7 @@
         <v>13</v>
       </c>
       <c r="AA24" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6265,12 +6262,12 @@
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6296,17 +6293,17 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W25" s="179"/>
       <c r="X25" s="179">
@@ -6321,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6342,23 +6339,23 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6377,7 +6374,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6386,15 +6383,15 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S26" s="64"/>
       <c r="T26" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="153" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W26" s="179"/>
       <c r="X26" s="179"/>
@@ -6407,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6432,14 +6429,14 @@
     </row>
     <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6465,17 +6462,17 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W27" s="179">
         <v>41244</v>
@@ -6492,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6521,12 +6518,12 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6541,35 +6538,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>504</v>
+      </c>
+      <c r="V28" s="171" t="s">
         <v>503</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>505</v>
-      </c>
-      <c r="V28" s="171" t="s">
-        <v>504</v>
       </c>
       <c r="W28" s="185"/>
       <c r="X28" s="185"/>
       <c r="Y28" s="192"/>
       <c r="Z28" s="194"/>
       <c r="AA28" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6591,10 +6588,10 @@
     </row>
     <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6607,16 +6604,16 @@
       <c r="O29" s="162"/>
       <c r="P29" s="103"/>
       <c r="Q29" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W29" s="177"/>
       <c r="X29" s="177"/>
@@ -6640,7 +6637,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6663,16 +6660,16 @@
         <v>65</v>
       </c>
       <c r="S30" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T30" s="54" t="s">
         <v>66</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V30" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W30" s="177">
         <v>40269</v>
@@ -6689,7 +6686,7 @@
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6713,20 +6710,20 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6750,17 +6747,17 @@
         <v>29</v>
       </c>
       <c r="R31" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="S31" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="T31" s="49" t="s">
         <v>152</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>153</v>
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W31" s="179">
         <v>40840</v>
@@ -6777,7 +6774,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6803,7 +6800,7 @@
       </c>
       <c r="C32" s="154"/>
       <c r="F32" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6825,13 +6822,13 @@
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V32" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W32" s="177">
         <v>40563</v>
@@ -6870,7 +6867,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6891,7 +6888,7 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R33" s="57" t="s">
         <v>70</v>
@@ -6900,7 +6897,7 @@
         <v>71</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
@@ -6911,7 +6908,7 @@
       <c r="Y33" s="192"/>
       <c r="Z33" s="194"/>
       <c r="AA33" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6943,13 +6940,13 @@
     </row>
     <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G34" s="207" t="s">
         <v>25</v>
@@ -6975,17 +6972,17 @@
         <v>29</v>
       </c>
       <c r="R34" s="159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S34" s="216" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="217" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W34" s="183"/>
       <c r="X34" s="183">
@@ -7000,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="158" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB34" s="159" t="s">
         <v>25</v>
@@ -7032,10 +7029,10 @@
         <v>73</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7062,7 +7059,7 @@
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
@@ -7080,7 +7077,7 @@
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7098,18 +7095,18 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7127,13 +7124,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>463</v>
+      </c>
+      <c r="S36" s="61" t="s">
         <v>464</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="23" t="s">
         <v>465</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>466</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
@@ -7174,7 +7171,7 @@
         <v>75</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7197,16 +7194,16 @@
         <v>76</v>
       </c>
       <c r="S37" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>78</v>
       </c>
       <c r="U37" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="V37" s="163" t="s">
         <v>462</v>
-      </c>
-      <c r="V37" s="163" t="s">
-        <v>463</v>
       </c>
       <c r="W37" s="177">
         <v>41331</v>
@@ -7221,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7242,13 +7239,13 @@
     </row>
     <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G38" s="201"/>
       <c r="H38" s="11"/>
@@ -7263,18 +7260,18 @@
       <c r="O38" s="89"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="143" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W38" s="178">
         <v>40443</v>
@@ -7299,15 +7296,15 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7325,15 +7322,15 @@
         <v>77</v>
       </c>
       <c r="R39" s="173" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S39" s="64"/>
       <c r="T39" s="54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W39" s="177">
         <v>41061</v>
@@ -7367,7 +7364,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7393,7 +7390,7 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
@@ -7405,13 +7402,13 @@
         <v>81</v>
       </c>
       <c r="T40" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="U40" s="53" t="s">
-        <v>301</v>
-      </c>
       <c r="V40" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W40" s="177">
         <v>40544</v>
@@ -7428,7 +7425,7 @@
         <v>30</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7463,7 +7460,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7502,10 +7499,10 @@
         <v>82</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>411</v>
-      </c>
-      <c r="V41" s="67" t="s">
-        <v>412</v>
       </c>
       <c r="W41" s="186">
         <v>40878</v>
@@ -7548,18 +7545,18 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7570,7 +7567,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="88"/>
@@ -7579,19 +7576,19 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>409</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>410</v>
       </c>
       <c r="W42" s="177"/>
       <c r="X42" s="177">
@@ -7606,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7634,7 +7631,7 @@
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
@@ -7661,16 +7658,16 @@
         <v>86</v>
       </c>
       <c r="S43" s="122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T43" s="120" t="s">
+        <v>360</v>
+      </c>
+      <c r="U43" s="121" t="s">
         <v>361</v>
       </c>
-      <c r="U43" s="121" t="s">
-        <v>362</v>
-      </c>
       <c r="V43" s="144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W43" s="175"/>
       <c r="X43" s="175">
@@ -7685,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB43" s="121" t="s">
         <v>25</v>
@@ -7719,7 +7716,7 @@
       </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7730,7 +7727,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G44" s="201"/>
       <c r="H44" s="11"/>
@@ -7744,21 +7741,21 @@
       <c r="N44" s="202"/>
       <c r="O44" s="89"/>
       <c r="P44" s="102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>88</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W44" s="178"/>
       <c r="X44" s="178"/>
@@ -7789,10 +7786,10 @@
         <v>89</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7801,7 +7798,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7820,7 +7817,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W45" s="177"/>
       <c r="X45" s="177">
@@ -7835,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7852,13 +7849,13 @@
     </row>
     <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="115"/>
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G46" s="133"/>
       <c r="H46" s="134"/>
@@ -7876,19 +7873,19 @@
         <v>29</v>
       </c>
       <c r="R46" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="S46" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="S46" s="122" t="s">
+      <c r="T46" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="U46" s="121" t="s">
+        <v>328</v>
+      </c>
+      <c r="V46" s="123" t="s">
         <v>235</v>
-      </c>
-      <c r="T46" s="120" t="s">
-        <v>237</v>
-      </c>
-      <c r="U46" s="121" t="s">
-        <v>329</v>
-      </c>
-      <c r="V46" s="123" t="s">
-        <v>236</v>
       </c>
       <c r="W46" s="175">
         <v>41143</v>
@@ -7905,7 +7902,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB46" s="138"/>
       <c r="AC46" s="131"/>
@@ -7938,7 +7935,7 @@
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
@@ -7959,16 +7956,16 @@
         <v>94</v>
       </c>
       <c r="S47" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="U47" s="121" t="s">
         <v>331</v>
       </c>
-      <c r="T47" s="120" t="s">
-        <v>330</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>332</v>
-      </c>
       <c r="V47" s="141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W47" s="175">
         <v>40546</v>
@@ -7985,7 +7982,7 @@
         <v>30</v>
       </c>
       <c r="AA47" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB47" s="121" t="s">
         <v>25</v>
@@ -8005,20 +8002,20 @@
       </c>
       <c r="AL47" s="115"/>
       <c r="AM47" s="120" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AN47" s="120"/>
       <c r="AO47" s="116"/>
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="124"/>
       <c r="F48" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G48" s="203" t="s">
         <v>25</v>
@@ -8033,7 +8030,7 @@
       <c r="K48" s="204"/>
       <c r="L48" s="204"/>
       <c r="M48" s="204" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N48" s="205"/>
       <c r="O48" s="127"/>
@@ -8045,16 +8042,16 @@
         <v>95</v>
       </c>
       <c r="S48" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T48" s="129" t="s">
         <v>96</v>
       </c>
       <c r="U48" s="121" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V48" s="124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W48" s="176">
         <v>39545</v>
@@ -8071,7 +8068,7 @@
         <v>62</v>
       </c>
       <c r="AA48" s="125" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB48" s="126" t="s">
         <v>25</v>
@@ -8095,10 +8092,10 @@
       </c>
       <c r="AL48" s="124"/>
       <c r="AM48" s="129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8110,7 +8107,7 @@
       <c r="D49" s="124"/>
       <c r="E49" s="124"/>
       <c r="F49" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G49" s="203" t="s">
         <v>25</v>
@@ -8129,7 +8126,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N49" s="205" t="s">
         <v>25</v>
@@ -8145,16 +8142,16 @@
         <v>98</v>
       </c>
       <c r="S49" s="124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U49" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="V49" s="124" t="s">
         <v>191</v>
-      </c>
-      <c r="V49" s="124" t="s">
-        <v>192</v>
       </c>
       <c r="W49" s="176">
         <v>39385</v>
@@ -8171,7 +8168,7 @@
         <v>68</v>
       </c>
       <c r="AA49" s="150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB49" s="126" t="s">
         <v>25</v>
@@ -8207,10 +8204,10 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8234,13 +8231,13 @@
         <v>101</v>
       </c>
       <c r="T50" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>430</v>
-      </c>
       <c r="V50" s="157" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W50" s="179">
         <v>40865</v>
@@ -8257,7 +8254,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8276,7 +8273,7 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8284,7 +8281,7 @@
         <v>102</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8307,16 +8304,16 @@
         <v>103</v>
       </c>
       <c r="S51" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T51" s="54" t="s">
         <v>102</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V51" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W51" s="177">
         <v>40742</v>
@@ -8333,7 +8330,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8361,7 +8358,7 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
@@ -8370,17 +8367,17 @@
     </row>
     <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" s="77" t="s">
         <v>437</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>438</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8398,15 +8395,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W52" s="177">
         <v>39249</v>
@@ -8423,7 +8420,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8442,18 +8439,18 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8471,16 +8468,16 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
@@ -8511,18 +8508,18 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
       <c r="E54" s="131"/>
       <c r="F54" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>25</v>
@@ -8560,7 +8557,7 @@
       </c>
       <c r="U54" s="121"/>
       <c r="V54" s="146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W54" s="187">
         <v>39748</v>
@@ -8577,7 +8574,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="132" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB54" s="121" t="s">
         <v>25</v>
@@ -8605,7 +8602,7 @@
       </c>
       <c r="AL54" s="115"/>
       <c r="AM54" s="120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN54" s="120"/>
       <c r="AO54" s="116"/>
@@ -8618,7 +8615,7 @@
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8639,14 +8636,14 @@
         <v>109</v>
       </c>
       <c r="S55" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W55" s="177"/>
       <c r="X55" s="177"/>
@@ -8681,7 +8678,7 @@
         <v>111</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8722,7 +8719,7 @@
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8745,13 +8742,13 @@
     </row>
     <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8766,30 +8763,30 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
       <c r="P57" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q57" s="54" t="s">
         <v>77</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>447</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="S57" s="64" t="s">
+      <c r="U57" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>451</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W57" s="177">
         <v>41080</v>
@@ -8804,7 +8801,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8840,7 +8837,7 @@
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G58" s="133"/>
       <c r="H58" s="134"/>
@@ -8863,16 +8860,16 @@
         <v>117</v>
       </c>
       <c r="S58" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>306</v>
-      </c>
       <c r="V58" s="144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W58" s="175">
         <v>41099</v>
@@ -8889,7 +8886,7 @@
         <v>11</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB58" s="121" t="s">
         <v>25</v>
@@ -8911,7 +8908,7 @@
       </c>
       <c r="AL58" s="115"/>
       <c r="AM58" s="120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN58" s="120"/>
       <c r="AO58" s="116"/>
@@ -8921,10 +8918,10 @@
         <v>118</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8938,17 +8935,17 @@
       <c r="N59" s="58"/>
       <c r="O59" s="168"/>
       <c r="Q59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>119</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W59" s="184"/>
       <c r="X59" s="184"/>
@@ -8962,10 +8959,10 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G60" s="201"/>
       <c r="H60" s="11"/>
@@ -8980,18 +8977,18 @@
       <c r="O60" s="89"/>
       <c r="P60" s="102"/>
       <c r="Q60" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R60" s="32" t="s">
         <v>121</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W60" s="178"/>
       <c r="X60" s="178"/>
@@ -9018,18 +9015,18 @@
       <c r="AM60" s="33"/>
       <c r="AN60" s="33"/>
       <c r="AO60" s="76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9043,10 +9040,10 @@
       <c r="N61" s="58"/>
       <c r="O61" s="168"/>
       <c r="Q61" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
@@ -9054,7 +9051,7 @@
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W61" s="184"/>
       <c r="X61" s="184"/>
@@ -9066,7 +9063,7 @@
         <v>122</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9080,16 +9077,16 @@
       <c r="N62" s="58"/>
       <c r="O62" s="168"/>
       <c r="Q62" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>123</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W62" s="184"/>
       <c r="X62" s="184"/>
@@ -9098,17 +9095,17 @@
     </row>
     <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="C63" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D63" s="115"/>
       <c r="E63" s="115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F63" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>25</v>
@@ -9138,17 +9135,17 @@
         <v>29</v>
       </c>
       <c r="R63" s="148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S63" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T63" s="120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U63" s="121"/>
       <c r="V63" s="144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W63" s="175">
         <v>40667</v>
@@ -9165,7 +9162,7 @@
         <v>26</v>
       </c>
       <c r="AA63" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB63" s="121" t="s">
         <v>25</v>
@@ -9191,18 +9188,18 @@
       <c r="AM63" s="120"/>
       <c r="AN63" s="120"/>
       <c r="AO63" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9220,13 +9217,13 @@
         <v>29</v>
       </c>
       <c r="R64" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="S64" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="S64" s="61" t="s">
-        <v>128</v>
-      </c>
       <c r="T64" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="62"/>
@@ -9241,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9264,13 +9261,13 @@
     </row>
     <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9288,16 +9285,16 @@
         <v>29</v>
       </c>
       <c r="R65" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="S65" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="S65" s="151" t="s">
+      <c r="T65" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>260</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="181"/>
@@ -9333,15 +9330,15 @@
     <row r="66" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70"/>
       <c r="B66" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G66" s="201"/>
       <c r="H66" s="11"/>
@@ -9356,20 +9353,20 @@
       <c r="O66" s="89"/>
       <c r="P66" s="102"/>
       <c r="Q66" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W66" s="178">
         <v>40609</v>
@@ -9380,7 +9377,7 @@
       <c r="Y66" s="192"/>
       <c r="Z66" s="194"/>
       <c r="AA66" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9403,15 +9400,15 @@
     </row>
     <row r="67" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="115"/>
       <c r="D67" s="115"/>
       <c r="E67" s="115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F67" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G67" s="133"/>
       <c r="H67" s="134"/>
@@ -9429,17 +9426,17 @@
         <v>29</v>
       </c>
       <c r="R67" s="121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S67" s="122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T67" s="120" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U67" s="121"/>
       <c r="V67" s="141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W67" s="175">
         <v>40664</v>
@@ -9456,7 +9453,7 @@
         <v>26</v>
       </c>
       <c r="AA67" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB67" s="121" t="s">
         <v>25</v>
@@ -9478,22 +9475,22 @@
       </c>
       <c r="AL67" s="115"/>
       <c r="AM67" s="120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN67" s="120"/>
       <c r="AO67" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9507,16 +9504,16 @@
       <c r="N68" s="58"/>
       <c r="O68" s="168"/>
       <c r="Q68" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W68" s="184"/>
       <c r="X68" s="184"/>
@@ -9528,13 +9525,13 @@
     </row>
     <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C69" s="124"/>
       <c r="D69" s="124"/>
       <c r="E69" s="124"/>
       <c r="F69" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G69" s="203"/>
       <c r="H69" s="204"/>
@@ -9552,17 +9549,17 @@
         <v>77</v>
       </c>
       <c r="R69" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="S69" s="124" t="s">
         <v>239</v>
       </c>
-      <c r="S69" s="124" t="s">
-        <v>240</v>
-      </c>
       <c r="T69" s="129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U69" s="126"/>
       <c r="V69" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W69" s="176">
         <v>40834</v>
@@ -9602,15 +9599,15 @@
     </row>
     <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F70" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G70" s="133"/>
       <c r="H70" s="134"/>
@@ -9627,7 +9624,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N70" s="135" t="s">
         <v>25</v>
@@ -9640,19 +9637,19 @@
         <v>77</v>
       </c>
       <c r="R70" s="121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S70" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="T70" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="U70" s="121" t="s">
+        <v>374</v>
+      </c>
+      <c r="V70" s="123" t="s">
         <v>373</v>
-      </c>
-      <c r="T70" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="U70" s="121" t="s">
-        <v>375</v>
-      </c>
-      <c r="V70" s="123" t="s">
-        <v>374</v>
       </c>
       <c r="W70" s="175"/>
       <c r="X70" s="175"/>
@@ -9665,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB70" s="138" t="s">
         <v>25</v>
@@ -9690,10 +9687,10 @@
     </row>
     <row r="71" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9707,13 +9704,13 @@
       <c r="N71" s="58"/>
       <c r="O71" s="167"/>
       <c r="Q71" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="184"/>
@@ -9729,13 +9726,13 @@
     </row>
     <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9753,17 +9750,17 @@
         <v>77</v>
       </c>
       <c r="R72" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>413</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>414</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W72" s="177">
         <v>40561</v>
@@ -9799,11 +9796,11 @@
     </row>
     <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9821,13 +9818,13 @@
         <v>77</v>
       </c>
       <c r="R73" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S73" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T73" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U73" s="53"/>
       <c r="V73" s="163">
@@ -9846,7 +9843,7 @@
         <v>28</v>
       </c>
       <c r="AA73" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9873,15 +9870,15 @@
     </row>
     <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9899,19 +9896,19 @@
         <v>29</v>
       </c>
       <c r="R74" s="95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S74" s="61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>115</v>
       </c>
       <c r="U74" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="V74" s="62" t="s">
         <v>510</v>
-      </c>
-      <c r="V74" s="62" t="s">
-        <v>511</v>
       </c>
       <c r="W74" s="181">
         <v>40940</v>
@@ -9928,7 +9925,7 @@
         <v>17</v>
       </c>
       <c r="AA74" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9951,10 +9948,10 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>25</v>
@@ -9974,15 +9971,15 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="W75" s="177">
         <v>40828</v>
@@ -9999,7 +9996,7 @@
         <v>20</v>
       </c>
       <c r="AA75" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB75" s="53" t="s">
         <v>25</v>
@@ -10030,13 +10027,13 @@
     </row>
     <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -10054,17 +10051,17 @@
         <v>77</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="S76" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="S76" s="64" t="s">
-        <v>254</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W76" s="177">
         <v>41410</v>
@@ -10097,10 +10094,10 @@
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10120,13 +10117,13 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T77" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="163">
@@ -10145,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10164,18 +10161,18 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10199,17 +10196,17 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="S78" s="64" t="s">
-        <v>144</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W78" s="177">
         <v>40252</v>
@@ -10224,7 +10221,7 @@
         <v>39</v>
       </c>
       <c r="AA78" s="75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10254,18 +10251,18 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10279,7 +10276,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="167"/>
       <c r="Q79" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
@@ -10309,13 +10306,13 @@
     </row>
     <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B80" s="131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="131"/>
       <c r="D80" s="131"/>
       <c r="E80" s="131"/>
       <c r="F80" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="134"/>
@@ -10337,13 +10334,13 @@
         <v>77</v>
       </c>
       <c r="R80" s="121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S80" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="T80" s="120" t="s">
         <v>228</v>
-      </c>
-      <c r="T80" s="120" t="s">
-        <v>229</v>
       </c>
       <c r="U80" s="138"/>
       <c r="V80" s="141"/>
@@ -10379,15 +10376,15 @@
     </row>
     <row r="81" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F81" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G81" s="201" t="s">
         <v>25</v>
@@ -10404,10 +10401,10 @@
       <c r="O81" s="89"/>
       <c r="P81" s="102"/>
       <c r="Q81" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R81" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="33"/>
@@ -10444,15 +10441,15 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10466,17 +10463,17 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R82" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
@@ -10491,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10513,10 +10510,10 @@
     </row>
     <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10533,7 +10530,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
@@ -10542,11 +10539,11 @@
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
@@ -10561,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10578,10 +10575,10 @@
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10605,19 +10602,19 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="S84" s="64" t="s">
+      <c r="U84" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="V84" s="66" t="s">
         <v>485</v>
-      </c>
-      <c r="T84" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>483</v>
-      </c>
-      <c r="V84" s="66" t="s">
-        <v>486</v>
       </c>
       <c r="W84" s="177">
         <v>39794</v>
@@ -10634,7 +10631,7 @@
         <v>54</v>
       </c>
       <c r="AA84" s="75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10648,15 +10645,15 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10676,19 +10673,19 @@
         <v>77</v>
       </c>
       <c r="R85" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="S85" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="T85" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="U85" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="V85" s="163" t="s">
         <v>477</v>
-      </c>
-      <c r="S85" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="T85" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="U85" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="V85" s="163" t="s">
-        <v>478</v>
       </c>
       <c r="W85" s="177">
         <v>40497</v>
@@ -10719,7 +10716,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -4219,10 +4219,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="Q32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4503,11 +4503,11 @@
       <c r="X3" s="190"/>
       <c r="Y3" s="195">
         <f ca="1">MEDIAN(Y4:Y100)</f>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="196">
         <f ca="1">MEDIAN(Z4:Z100)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="78"/>
       <c r="AB3" s="22">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="Y10" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="194" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6831,18 +6831,16 @@
         <v>222</v>
       </c>
       <c r="W32" s="177">
-        <v>40563</v>
-      </c>
-      <c r="X32" s="177">
         <v>40790</v>
       </c>
-      <c r="Y32" s="192">
+      <c r="X32" s="177"/>
+      <c r="Y32" s="192" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA32" s="75"/>
       <c r="AB32" s="53"/>
@@ -8061,11 +8059,11 @@
       </c>
       <c r="Y48" s="192">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z48" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA48" s="125" t="s">
         <v>297</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="539">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -4219,10 +4219,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="Q32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="L3" s="19">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="Z24" s="194">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA24" s="77" t="s">
         <v>297</v>
@@ -6282,7 +6282,9 @@
       <c r="K25" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="46"/>
+      <c r="L25" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="M25" s="46" t="s">
         <v>391</v>
       </c>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1402,9 +1402,6 @@
     <t>http://bitnami.org/cloud</t>
   </si>
   <si>
-    <t>Cloud Control</t>
-  </si>
-  <si>
     <t>http://cloudcontrol.com/</t>
   </si>
   <si>
@@ -2870,14 +2867,18 @@
   </si>
   <si>
     <t>PHP Fog</t>
+  </si>
+  <si>
+    <t>cloudControl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.###############"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -3192,7 +3193,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3684,40 +3685,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3863,6 +3835,38 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4219,10 +4223,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4232,14 +4236,14 @@
     <col min="3" max="4" width="17.140625" style="16"/>
     <col min="5" max="5" width="23.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="211" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="212" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="212" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="212" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="212" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="212" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="212" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="214" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="200" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="201" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="201" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="201" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="201" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="201" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="201" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="203" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="90" customWidth="1"/>
     <col min="16" max="16" width="23.28515625" style="105" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="27" customWidth="1"/>
@@ -4248,8 +4252,8 @@
     <col min="20" max="20" width="14.42578125" style="27" customWidth="1"/>
     <col min="21" max="21" width="17.140625" style="26" customWidth="1"/>
     <col min="22" max="22" width="19.42578125" style="72" customWidth="1"/>
-    <col min="23" max="24" width="11.7109375" style="188" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="193" customWidth="1"/>
+    <col min="23" max="24" width="11.7109375" style="177" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="182" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" style="50" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="47.85546875" style="79" customWidth="1"/>
     <col min="28" max="28" width="8.85546875" style="26" customWidth="1"/>
@@ -4283,20 +4287,20 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="224" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="227"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="216"/>
       <c r="O1" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>5</v>
@@ -4314,80 +4318,80 @@
         <v>9</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="W1" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="180" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y1" s="235" t="s">
         <v>335</v>
       </c>
-      <c r="Z1" s="236"/>
+      <c r="W1" s="175" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="175" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y1" s="224" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z1" s="225"/>
       <c r="AA1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="228" t="s">
+      <c r="AB1" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="221" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="221" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="223"/>
-      <c r="AN1" s="220" t="s">
-        <v>530</v>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="220"/>
+      <c r="AH1" s="210" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="212"/>
+      <c r="AK1" s="210" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="212"/>
+      <c r="AN1" s="209" t="s">
+        <v>529</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="232" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
+      <c r="B2" s="221" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="113"/>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="197" t="s">
+      <c r="J2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="197" t="s">
+      <c r="K2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="199" t="s">
+      <c r="L2" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="197" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="200" t="s">
-        <v>283</v>
+      <c r="M2" s="186" t="s">
+        <v>293</v>
+      </c>
+      <c r="N2" s="189" t="s">
+        <v>282</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="99"/>
@@ -4397,20 +4401,20 @@
       <c r="T2" s="23"/>
       <c r="U2" s="22"/>
       <c r="V2" s="62"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="191" t="s">
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="189" t="s">
-        <v>519</v>
+      <c r="Z2" s="178" t="s">
+        <v>518</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4422,37 +4426,37 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>277</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN2" s="31"/>
       <c r="AO2" s="74"/>
     </row>
     <row r="3" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
       <c r="F3" s="74"/>
       <c r="G3" s="18">
         <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G87)</f>
@@ -4499,13 +4503,13 @@
       <c r="T3" s="23"/>
       <c r="U3" s="22"/>
       <c r="V3" s="62"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="195">
+      <c r="W3" s="176"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="184">
         <f ca="1">MEDIAN(Y4:Y100)</f>
         <v>20</v>
       </c>
-      <c r="Z3" s="196">
+      <c r="Z3" s="185">
         <f ca="1">MEDIAN(Z4:Z100)</f>
         <v>23</v>
       </c>
@@ -4560,15 +4564,15 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G4" s="190"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
         <v>25</v>
@@ -4577,31 +4581,31 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="202"/>
+      <c r="N4" s="191"/>
       <c r="O4" s="89"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="W4" s="178">
+        <v>316</v>
+      </c>
+      <c r="W4" s="226">
         <v>40878</v>
       </c>
-      <c r="X4" s="178"/>
-      <c r="Y4" s="192"/>
-      <c r="Z4" s="194"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="181"/>
+      <c r="Z4" s="183"/>
       <c r="AA4" s="76"/>
       <c r="AB4" s="32"/>
       <c r="AC4" s="8"/>
@@ -4619,7 +4623,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,10 +4633,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4646,7 +4650,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4655,31 +4659,31 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>382</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>383</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="V5" s="123" t="s">
-        <v>385</v>
-      </c>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175">
+      <c r="W5" s="227"/>
+      <c r="X5" s="227">
         <v>39876</v>
       </c>
-      <c r="Y5" s="192">
+      <c r="Y5" s="181">
         <f t="shared" ref="Y5:Y67" ca="1" si="2">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
         <v>52</v>
       </c>
-      <c r="Z5" s="194" t="str">
+      <c r="Z5" s="183" t="str">
         <f t="shared" ref="Z5:Z67" ca="1" si="3">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4722,62 +4726,62 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="204"/>
-      <c r="N6" s="205"/>
+        <v>332</v>
+      </c>
+      <c r="G6" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="193"/>
+      <c r="N6" s="194"/>
       <c r="O6" s="127"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R6" s="126" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>211</v>
-      </c>
-      <c r="W6" s="176">
+        <v>210</v>
+      </c>
+      <c r="W6" s="228">
         <v>40562</v>
       </c>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="192" t="str">
+      <c r="X6" s="228"/>
+      <c r="Y6" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="194">
+      <c r="Z6" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4809,7 +4813,7 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
@@ -4822,7 +4826,7 @@
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4838,7 +4842,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="120" t="s">
         <v>29</v>
@@ -4847,33 +4851,33 @@
         <v>38</v>
       </c>
       <c r="S7" s="122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T7" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="U7" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="U7" s="121" t="s">
-        <v>288</v>
-      </c>
       <c r="V7" s="123" t="s">
-        <v>203</v>
-      </c>
-      <c r="W7" s="175">
+        <v>202</v>
+      </c>
+      <c r="W7" s="227">
         <v>40495</v>
       </c>
-      <c r="X7" s="175">
+      <c r="X7" s="227">
         <v>40941</v>
       </c>
-      <c r="Y7" s="192">
+      <c r="Y7" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
-      <c r="Z7" s="194">
+      <c r="Z7" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4897,7 +4901,7 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
@@ -4910,42 +4914,42 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
+        <v>301</v>
+      </c>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
       <c r="O8" s="140"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="194"/>
+        <v>211</v>
+      </c>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="183"/>
       <c r="AA8" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4971,23 +4975,23 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="207" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="208" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="209"/>
+        <v>301</v>
+      </c>
+      <c r="G9" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="198"/>
       <c r="O9" s="161"/>
       <c r="P9" s="161"/>
       <c r="Q9" s="160" t="s">
@@ -4997,31 +5001,31 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>352</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>353</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183">
+        <v>354</v>
+      </c>
+      <c r="W9" s="230"/>
+      <c r="X9" s="230">
         <v>39784</v>
       </c>
-      <c r="Y9" s="192">
+      <c r="Y9" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
-      <c r="Z9" s="194" t="str">
+      <c r="Z9" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5041,7 +5045,7 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5052,7 +5056,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5067,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5076,34 +5080,34 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
       </c>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177">
+      <c r="W10" s="231"/>
+      <c r="X10" s="231">
         <v>39879</v>
       </c>
-      <c r="Y10" s="192">
+      <c r="Y10" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
-      <c r="Z10" s="194" t="str">
+      <c r="Z10" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5121,7 +5125,7 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5132,7 +5136,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5147,20 +5151,20 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
       <c r="V11" s="56">
         <v>2010</v>
       </c>
-      <c r="W11" s="184"/>
-      <c r="X11" s="184"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="194"/>
+      <c r="W11" s="232"/>
+      <c r="X11" s="232"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="183"/>
       <c r="AA11" s="57"/>
       <c r="AB11" s="57"/>
       <c r="AC11" s="57"/>
@@ -5178,10 +5182,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5210,23 +5214,23 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>420</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>421</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
       </c>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="219"/>
+      <c r="W12" s="231"/>
+      <c r="X12" s="231"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="208"/>
       <c r="AA12" s="75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5258,13 +5262,13 @@
     </row>
     <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5282,36 +5286,36 @@
         <v>29</v>
       </c>
       <c r="R13" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="S13" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="T13" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="T13" s="120" t="s">
+      <c r="U13" s="121" t="s">
+        <v>356</v>
+      </c>
+      <c r="V13" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="U13" s="121" t="s">
-        <v>357</v>
-      </c>
-      <c r="V13" s="141" t="s">
-        <v>268</v>
-      </c>
-      <c r="W13" s="175">
+      <c r="W13" s="227">
         <v>39252</v>
       </c>
-      <c r="X13" s="175">
+      <c r="X13" s="227">
         <v>39370</v>
       </c>
-      <c r="Y13" s="192">
+      <c r="Y13" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
-      <c r="Z13" s="194">
+      <c r="Z13" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>72</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5338,11 +5342,11 @@
     </row>
     <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5360,34 +5364,34 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>247</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
       </c>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177">
+      <c r="W14" s="231"/>
+      <c r="X14" s="231">
         <v>40205</v>
       </c>
-      <c r="Y14" s="192">
+      <c r="Y14" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
-      <c r="Z14" s="194" t="str">
+      <c r="Z14" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5410,15 +5414,15 @@
     </row>
     <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5435,45 +5439,45 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V15" s="141" t="s">
-        <v>273</v>
-      </c>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175">
+        <v>272</v>
+      </c>
+      <c r="W15" s="227"/>
+      <c r="X15" s="227">
         <v>41304</v>
       </c>
-      <c r="Y15" s="192">
+      <c r="Y15" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="Z15" s="194" t="str">
+      <c r="Z15" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5502,13 +5506,13 @@
     </row>
     <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115" t="s">
-        <v>49</v>
+        <v>538</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5536,36 +5540,36 @@
         <v>29</v>
       </c>
       <c r="R16" s="121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S16" s="122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V16" s="141" t="s">
-        <v>204</v>
-      </c>
-      <c r="W16" s="175">
+        <v>203</v>
+      </c>
+      <c r="W16" s="227">
         <v>40360</v>
       </c>
-      <c r="X16" s="175">
+      <c r="X16" s="227">
         <v>40513</v>
       </c>
-      <c r="Y16" s="192">
+      <c r="Y16" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
-      <c r="Z16" s="194">
+      <c r="Z16" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5592,15 +5596,15 @@
     </row>
     <row r="17" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5615,7 +5619,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5625,27 +5629,27 @@
       </c>
       <c r="P17" s="137"/>
       <c r="Q17" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R17" s="138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T17" s="139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="W17" s="175"/>
-      <c r="X17" s="175"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="194"/>
+        <v>377</v>
+      </c>
+      <c r="W17" s="227"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="181"/>
+      <c r="Z17" s="183"/>
       <c r="AA17" s="132"/>
       <c r="AB17" s="138" t="s">
         <v>25</v>
@@ -5671,64 +5675,64 @@
       <c r="AM17" s="139"/>
       <c r="AN17" s="139"/>
       <c r="AO17" s="132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="124"/>
       <c r="C18" s="124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="203"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="204"/>
-      <c r="N18" s="205" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="193"/>
+      <c r="N18" s="194" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="128"/>
       <c r="Q18" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="S18" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>181</v>
-      </c>
       <c r="U18" s="121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V18" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="W18" s="176">
+        <v>187</v>
+      </c>
+      <c r="W18" s="228">
         <v>41383</v>
       </c>
-      <c r="X18" s="176"/>
-      <c r="Y18" s="192" t="str">
+      <c r="X18" s="228"/>
+      <c r="Y18" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="194">
+      <c r="Z18" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
@@ -5753,7 +5757,7 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
@@ -5765,7 +5769,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5803,28 +5807,28 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="W19" s="177">
+        <v>453</v>
+      </c>
+      <c r="W19" s="231">
         <v>40668</v>
       </c>
-      <c r="X19" s="177">
+      <c r="X19" s="231">
         <v>40968</v>
       </c>
-      <c r="Y19" s="192">
+      <c r="Y19" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
-      <c r="Z19" s="194">
+      <c r="Z19" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5843,18 +5847,18 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>466</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>467</v>
-      </c>
       <c r="F20" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5881,28 +5885,28 @@
       <c r="O20" s="110"/>
       <c r="P20" s="103"/>
       <c r="Q20" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R20" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="64" t="s">
+      <c r="T20" s="54" t="s">
         <v>55</v>
-      </c>
-      <c r="T20" s="54" t="s">
-        <v>56</v>
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="W20" s="177"/>
-      <c r="X20" s="177"/>
-      <c r="Y20" s="192" t="str">
+        <v>468</v>
+      </c>
+      <c r="W20" s="231"/>
+      <c r="X20" s="231"/>
+      <c r="Y20" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="194" t="str">
+      <c r="Z20" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -5924,39 +5928,39 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="124"/>
       <c r="C21" s="124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="124"/>
       <c r="E21" s="124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="204"/>
-      <c r="N21" s="205"/>
+        <v>332</v>
+      </c>
+      <c r="G21" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="193"/>
+      <c r="N21" s="194"/>
       <c r="O21" s="127" t="s">
         <v>25</v>
       </c>
@@ -5965,34 +5969,34 @@
         <v>29</v>
       </c>
       <c r="R21" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="124" t="s">
-        <v>59</v>
-      </c>
       <c r="T21" s="129" t="s">
+        <v>288</v>
+      </c>
+      <c r="U21" s="121" t="s">
         <v>289</v>
       </c>
-      <c r="U21" s="121" t="s">
-        <v>290</v>
-      </c>
       <c r="V21" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="W21" s="176"/>
-      <c r="X21" s="176">
+        <v>215</v>
+      </c>
+      <c r="W21" s="228"/>
+      <c r="X21" s="228">
         <v>41105</v>
       </c>
-      <c r="Y21" s="192">
+      <c r="Y21" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
-      <c r="Z21" s="194" t="str">
+      <c r="Z21" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB21" s="126" t="s">
         <v>25</v>
@@ -6026,16 +6030,16 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G22" s="190"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
@@ -6044,29 +6048,29 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="202"/>
+      <c r="N22" s="191"/>
       <c r="O22" s="89"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R22" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="T22" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="W22" s="178"/>
-      <c r="X22" s="178"/>
-      <c r="Y22" s="192"/>
-      <c r="Z22" s="194"/>
+        <v>209</v>
+      </c>
+      <c r="W22" s="226"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="183"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="32" t="s">
         <v>25</v>
@@ -6089,12 +6093,12 @@
     </row>
     <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6117,32 +6121,32 @@
       <c r="O23" s="109"/>
       <c r="P23" s="101"/>
       <c r="Q23" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R23" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="T23" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="152" t="s">
-        <v>201</v>
-      </c>
-      <c r="T23" s="49" t="s">
-        <v>63</v>
-      </c>
       <c r="U23" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="W23" s="179">
+        <v>216</v>
+      </c>
+      <c r="W23" s="233">
         <v>41085</v>
       </c>
-      <c r="X23" s="179"/>
-      <c r="Y23" s="192" t="str">
+      <c r="X23" s="233"/>
+      <c r="Y23" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="194">
+      <c r="Z23" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
@@ -6171,12 +6175,12 @@
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6197,7 +6201,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
@@ -6206,36 +6210,36 @@
         <v>29</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S24" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="V24" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="W24" s="179">
+        <v>219</v>
+      </c>
+      <c r="W24" s="233">
         <v>41037</v>
       </c>
-      <c r="X24" s="179">
+      <c r="X24" s="233">
         <v>41061</v>
       </c>
-      <c r="Y24" s="192">
+      <c r="Y24" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
-      <c r="Z24" s="194">
+      <c r="Z24" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="AA24" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6262,12 +6266,12 @@
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6286,7 +6290,7 @@
         <v>25</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6295,32 +6299,32 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="W25" s="179"/>
-      <c r="X25" s="179">
+        <v>220</v>
+      </c>
+      <c r="W25" s="233"/>
+      <c r="X25" s="233">
         <v>41343</v>
       </c>
-      <c r="Y25" s="192">
+      <c r="Y25" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="Z25" s="194" t="str">
+      <c r="Z25" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6341,23 +6345,23 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6376,7 +6380,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6385,28 +6389,28 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S26" s="64"/>
       <c r="T26" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="153" t="s">
-        <v>395</v>
-      </c>
-      <c r="W26" s="179"/>
-      <c r="X26" s="179"/>
-      <c r="Y26" s="192" t="str">
+        <v>394</v>
+      </c>
+      <c r="W26" s="233"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="194" t="str">
+      <c r="Z26" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6431,14 +6435,14 @@
     </row>
     <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6464,34 +6468,34 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="W27" s="179">
+        <v>225</v>
+      </c>
+      <c r="W27" s="233">
         <v>41244</v>
       </c>
-      <c r="X27" s="179">
+      <c r="X27" s="233">
         <v>41361</v>
       </c>
-      <c r="Y27" s="192">
+      <c r="Y27" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="Z27" s="194">
+      <c r="Z27" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6520,12 +6524,12 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="169" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6540,35 +6544,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>503</v>
+      </c>
+      <c r="V28" s="171" t="s">
         <v>502</v>
       </c>
-      <c r="T28" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>504</v>
-      </c>
-      <c r="V28" s="171" t="s">
-        <v>503</v>
-      </c>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="194"/>
+      <c r="W28" s="234"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="183"/>
       <c r="AA28" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6590,10 +6594,10 @@
     </row>
     <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6606,21 +6610,21 @@
       <c r="O29" s="162"/>
       <c r="P29" s="103"/>
       <c r="Q29" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>456</v>
-      </c>
-      <c r="W29" s="177"/>
-      <c r="X29" s="177"/>
-      <c r="Y29" s="192"/>
-      <c r="Z29" s="194"/>
+        <v>455</v>
+      </c>
+      <c r="W29" s="231"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="183"/>
       <c r="AA29" s="77"/>
       <c r="AB29" s="48"/>
       <c r="AC29" s="44"/>
@@ -6636,10 +6640,10 @@
     </row>
     <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6659,36 +6663,36 @@
         <v>29</v>
       </c>
       <c r="R30" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="S30" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="T30" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="T30" s="54" t="s">
-        <v>66</v>
-      </c>
       <c r="U30" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V30" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="W30" s="177">
+        <v>271</v>
+      </c>
+      <c r="W30" s="231">
         <v>40269</v>
       </c>
-      <c r="X30" s="177">
+      <c r="X30" s="231">
         <v>40574</v>
       </c>
-      <c r="Y30" s="192">
+      <c r="Y30" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
-      <c r="Z30" s="194">
+      <c r="Z30" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6712,20 +6716,20 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6749,34 +6753,34 @@
         <v>29</v>
       </c>
       <c r="R31" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="S31" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="T31" s="49" t="s">
         <v>151</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>152</v>
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>470</v>
-      </c>
-      <c r="W31" s="179">
+        <v>469</v>
+      </c>
+      <c r="W31" s="233">
         <v>40840</v>
       </c>
-      <c r="X31" s="179">
+      <c r="X31" s="233">
         <v>40953</v>
       </c>
-      <c r="Y31" s="192">
+      <c r="Y31" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
-      <c r="Z31" s="194">
+      <c r="Z31" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6798,11 +6802,11 @@
     </row>
     <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="154"/>
       <c r="F32" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6817,30 +6821,30 @@
       <c r="O32" s="110"/>
       <c r="P32" s="103"/>
       <c r="Q32" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R32" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V32" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="W32" s="177">
+        <v>221</v>
+      </c>
+      <c r="W32" s="231">
         <v>40790</v>
       </c>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="192" t="str">
+      <c r="X32" s="231"/>
+      <c r="Y32" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="194">
+      <c r="Z32" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
@@ -6861,13 +6865,13 @@
     </row>
     <row r="33" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6888,27 +6892,27 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R33" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="S33" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="S33" s="165" t="s">
-        <v>71</v>
-      </c>
       <c r="T33" s="57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
         <v>40756</v>
       </c>
-      <c r="W33" s="184"/>
-      <c r="X33" s="184"/>
-      <c r="Y33" s="192"/>
-      <c r="Z33" s="194"/>
+      <c r="W33" s="232"/>
+      <c r="X33" s="232"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="183"/>
       <c r="AA33" s="57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6935,36 +6939,36 @@
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="158" t="s">
-        <v>333</v>
-      </c>
-      <c r="G34" s="207" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="208" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="208" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="208"/>
-      <c r="M34" s="208"/>
-      <c r="N34" s="209"/>
-      <c r="O34" s="215" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="198"/>
+      <c r="O34" s="204" t="s">
         <v>25</v>
       </c>
       <c r="P34" s="161"/>
@@ -6972,32 +6976,32 @@
         <v>29</v>
       </c>
       <c r="R34" s="159" t="s">
-        <v>178</v>
-      </c>
-      <c r="S34" s="216" t="s">
+        <v>177</v>
+      </c>
+      <c r="S34" s="205" t="s">
+        <v>520</v>
+      </c>
+      <c r="T34" s="160" t="s">
+        <v>519</v>
+      </c>
+      <c r="U34" s="159"/>
+      <c r="V34" s="206" t="s">
         <v>521</v>
       </c>
-      <c r="T34" s="160" t="s">
-        <v>520</v>
-      </c>
-      <c r="U34" s="159"/>
-      <c r="V34" s="217" t="s">
-        <v>522</v>
-      </c>
-      <c r="W34" s="183"/>
-      <c r="X34" s="183">
+      <c r="W34" s="230"/>
+      <c r="X34" s="230">
         <v>40989</v>
       </c>
-      <c r="Y34" s="218">
+      <c r="Y34" s="207">
         <f t="shared" ca="1" si="2"/>
         <v>15</v>
       </c>
-      <c r="Z34" s="219" t="str">
+      <c r="Z34" s="208" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA34" s="158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB34" s="159" t="s">
         <v>25</v>
@@ -7026,13 +7030,13 @@
     </row>
     <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7051,33 +7055,33 @@
       <c r="O35" s="110"/>
       <c r="P35" s="103"/>
       <c r="Q35" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R35" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
       </c>
-      <c r="W35" s="177">
+      <c r="W35" s="231">
         <v>40756</v>
       </c>
-      <c r="X35" s="177"/>
-      <c r="Y35" s="192" t="str">
+      <c r="X35" s="231"/>
+      <c r="Y35" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="194">
+      <c r="Z35" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7095,18 +7099,18 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7115,7 +7119,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="210"/>
+      <c r="L36" s="199"/>
       <c r="M36" s="5"/>
       <c r="N36" s="20"/>
       <c r="O36" s="87"/>
@@ -7124,25 +7128,25 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>462</v>
+      </c>
+      <c r="S36" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="23" t="s">
         <v>464</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>465</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
         <v>2012</v>
       </c>
-      <c r="W36" s="181"/>
-      <c r="X36" s="181"/>
-      <c r="Y36" s="192" t="str">
+      <c r="W36" s="235"/>
+      <c r="X36" s="235"/>
+      <c r="Y36" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="194" t="str">
+      <c r="Z36" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -7168,10 +7172,10 @@
     </row>
     <row r="37" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7188,37 +7192,37 @@
       <c r="O37" s="110"/>
       <c r="P37" s="103"/>
       <c r="Q37" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="S37" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="T37" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="R37" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="S37" s="64" t="s">
+      <c r="U37" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="T37" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="U37" s="53" t="s">
+      <c r="V37" s="163" t="s">
         <v>461</v>
       </c>
-      <c r="V37" s="163" t="s">
-        <v>462</v>
-      </c>
-      <c r="W37" s="177">
+      <c r="W37" s="231">
         <v>41331</v>
       </c>
-      <c r="X37" s="177"/>
-      <c r="Y37" s="192" t="str">
+      <c r="X37" s="231"/>
+      <c r="Y37" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="194">
+      <c r="Z37" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="AA37" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7239,15 +7243,15 @@
     </row>
     <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G38" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G38" s="190"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11" t="s">
         <v>25</v>
@@ -7256,29 +7260,29 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="202"/>
+      <c r="N38" s="191"/>
       <c r="O38" s="89"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="W38" s="178">
+        <v>323</v>
+      </c>
+      <c r="W38" s="226">
         <v>40443</v>
       </c>
-      <c r="X38" s="178"/>
-      <c r="Y38" s="192"/>
-      <c r="Z38" s="194"/>
+      <c r="X38" s="226"/>
+      <c r="Y38" s="181"/>
+      <c r="Z38" s="183"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="32"/>
       <c r="AC38" s="8"/>
@@ -7296,15 +7300,15 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7319,28 +7323,28 @@
       <c r="O39" s="162"/>
       <c r="P39" s="103"/>
       <c r="Q39" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R39" s="173" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S39" s="64"/>
       <c r="T39" s="54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>514</v>
-      </c>
-      <c r="W39" s="177">
+        <v>513</v>
+      </c>
+      <c r="W39" s="231">
         <v>41061</v>
       </c>
-      <c r="X39" s="177"/>
-      <c r="Y39" s="192" t="str">
+      <c r="X39" s="231"/>
+      <c r="Y39" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="194">
+      <c r="Z39" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
@@ -7358,13 +7362,13 @@
     </row>
     <row r="40" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7390,42 +7394,42 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="S40" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="S40" s="64" t="s">
-        <v>81</v>
-      </c>
       <c r="T40" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="U40" s="53" t="s">
-        <v>300</v>
-      </c>
       <c r="V40" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="W40" s="177">
+        <v>204</v>
+      </c>
+      <c r="W40" s="231">
         <v>40544</v>
       </c>
-      <c r="X40" s="177">
+      <c r="X40" s="231">
         <v>40719</v>
       </c>
-      <c r="Y40" s="192">
+      <c r="Y40" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
-      <c r="Z40" s="194">
+      <c r="Z40" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7454,13 +7458,13 @@
     </row>
     <row r="41" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7487,32 +7491,32 @@
       <c r="O41" s="111"/>
       <c r="P41" s="104"/>
       <c r="Q41" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R41" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="S41" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="S41" s="68" t="s">
-        <v>84</v>
-      </c>
       <c r="T41" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>409</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="V41" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="W41" s="186">
+      <c r="W41" s="236">
         <v>40878</v>
       </c>
-      <c r="X41" s="186"/>
-      <c r="Y41" s="192" t="str">
+      <c r="X41" s="236"/>
+      <c r="Y41" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="194">
+      <c r="Z41" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
@@ -7545,18 +7549,18 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7567,7 +7571,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="88"/>
@@ -7576,34 +7580,34 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="V42" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="W42" s="177"/>
-      <c r="X42" s="177">
+      <c r="W42" s="231"/>
+      <c r="X42" s="231">
         <v>41011</v>
       </c>
-      <c r="Y42" s="192">
+      <c r="Y42" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="Z42" s="194" t="str">
+      <c r="Z42" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA42" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7625,13 +7629,13 @@
     </row>
     <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
@@ -7655,34 +7659,34 @@
         <v>29</v>
       </c>
       <c r="R43" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S43" s="122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T43" s="120" t="s">
+        <v>359</v>
+      </c>
+      <c r="U43" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="U43" s="121" t="s">
-        <v>361</v>
-      </c>
       <c r="V43" s="144" t="s">
-        <v>364</v>
-      </c>
-      <c r="W43" s="175"/>
-      <c r="X43" s="175">
+        <v>363</v>
+      </c>
+      <c r="W43" s="227"/>
+      <c r="X43" s="227">
         <v>38961</v>
       </c>
-      <c r="Y43" s="192">
+      <c r="Y43" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>82</v>
       </c>
-      <c r="Z43" s="194" t="str">
+      <c r="Z43" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA43" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB43" s="121" t="s">
         <v>25</v>
@@ -7716,20 +7720,20 @@
       </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G44" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G44" s="190"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11" t="s">
         <v>25</v>
@@ -7738,29 +7742,29 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="202"/>
+      <c r="N44" s="191"/>
       <c r="O44" s="89"/>
       <c r="P44" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="S44" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="Q44" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="R44" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="W44" s="178"/>
-      <c r="X44" s="178"/>
-      <c r="Y44" s="192"/>
-      <c r="Z44" s="194"/>
+        <v>318</v>
+      </c>
+      <c r="W44" s="226"/>
+      <c r="X44" s="226"/>
+      <c r="Y44" s="181"/>
+      <c r="Z44" s="183"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="32"/>
       <c r="AC44" s="8"/>
@@ -7783,13 +7787,13 @@
     </row>
     <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7798,7 +7802,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7807,32 +7811,32 @@
         <v>29</v>
       </c>
       <c r="R45" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="S45" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="S45" s="64" t="s">
+      <c r="T45" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="T45" s="54" t="s">
-        <v>92</v>
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>446</v>
-      </c>
-      <c r="W45" s="177"/>
-      <c r="X45" s="177">
+        <v>445</v>
+      </c>
+      <c r="W45" s="231"/>
+      <c r="X45" s="231">
         <v>39448</v>
       </c>
-      <c r="Y45" s="192">
+      <c r="Y45" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="Z45" s="194" t="str">
+      <c r="Z45" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA45" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7849,13 +7853,13 @@
     </row>
     <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="115"/>
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G46" s="133"/>
       <c r="H46" s="134"/>
@@ -7873,36 +7877,36 @@
         <v>29</v>
       </c>
       <c r="R46" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="S46" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="S46" s="122" t="s">
+      <c r="T46" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="U46" s="121" t="s">
+        <v>327</v>
+      </c>
+      <c r="V46" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="T46" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="U46" s="121" t="s">
-        <v>328</v>
-      </c>
-      <c r="V46" s="123" t="s">
-        <v>235</v>
-      </c>
-      <c r="W46" s="175">
+      <c r="W46" s="227">
         <v>41143</v>
       </c>
-      <c r="X46" s="175">
+      <c r="X46" s="227">
         <v>41186</v>
       </c>
-      <c r="Y46" s="192">
+      <c r="Y46" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="Z46" s="194">
+      <c r="Z46" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="AA46" s="132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB46" s="138"/>
       <c r="AC46" s="131"/>
@@ -7929,13 +7933,13 @@
     </row>
     <row r="47" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
@@ -7953,36 +7957,36 @@
         <v>29</v>
       </c>
       <c r="R47" s="121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S47" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>328</v>
+      </c>
+      <c r="U47" s="121" t="s">
         <v>330</v>
       </c>
-      <c r="T47" s="120" t="s">
-        <v>329</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>331</v>
-      </c>
       <c r="V47" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="W47" s="175">
+        <v>205</v>
+      </c>
+      <c r="W47" s="227">
         <v>40546</v>
       </c>
-      <c r="X47" s="175">
+      <c r="X47" s="227">
         <v>40788</v>
       </c>
-      <c r="Y47" s="192">
+      <c r="Y47" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
-      <c r="Z47" s="194">
+      <c r="Z47" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="AA47" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB47" s="121" t="s">
         <v>25</v>
@@ -8002,73 +8006,73 @@
       </c>
       <c r="AL47" s="115"/>
       <c r="AM47" s="120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN47" s="120"/>
       <c r="AO47" s="116"/>
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="124"/>
       <c r="F48" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204" t="s">
-        <v>293</v>
-      </c>
-      <c r="N48" s="205"/>
+        <v>332</v>
+      </c>
+      <c r="G48" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="193"/>
+      <c r="L48" s="193"/>
+      <c r="M48" s="193" t="s">
+        <v>292</v>
+      </c>
+      <c r="N48" s="194"/>
       <c r="O48" s="127"/>
       <c r="P48" s="128"/>
       <c r="Q48" s="129" t="s">
         <v>29</v>
       </c>
       <c r="R48" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="S48" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="T48" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="S48" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="T48" s="129" t="s">
-        <v>96</v>
-      </c>
       <c r="U48" s="121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V48" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="W48" s="176">
+        <v>188</v>
+      </c>
+      <c r="W48" s="228">
         <v>39545</v>
       </c>
-      <c r="X48" s="176">
+      <c r="X48" s="228">
         <v>40854</v>
       </c>
-      <c r="Y48" s="192">
+      <c r="Y48" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z48" s="194">
+      <c r="Z48" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="AA48" s="125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB48" s="126" t="s">
         <v>25</v>
@@ -8092,43 +8096,43 @@
       </c>
       <c r="AL48" s="124"/>
       <c r="AM48" s="129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
     <row r="49" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
       <c r="E49" s="124"/>
       <c r="F49" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="203" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="204"/>
-      <c r="I49" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="204" t="s">
-        <v>295</v>
-      </c>
-      <c r="N49" s="205" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="193" t="s">
+        <v>294</v>
+      </c>
+      <c r="N49" s="194" t="s">
         <v>25</v>
       </c>
       <c r="O49" s="127" t="s">
@@ -8139,36 +8143,36 @@
         <v>29</v>
       </c>
       <c r="R49" s="149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S49" s="124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U49" s="126" t="s">
+        <v>189</v>
+      </c>
+      <c r="V49" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="V49" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="W49" s="176">
+      <c r="W49" s="228">
         <v>39385</v>
       </c>
-      <c r="X49" s="176">
+      <c r="X49" s="228">
         <v>39927</v>
       </c>
-      <c r="Y49" s="192">
+      <c r="Y49" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
-      <c r="Z49" s="194">
+      <c r="Z49" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="AA49" s="150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB49" s="126" t="s">
         <v>25</v>
@@ -8199,15 +8203,15 @@
     </row>
     <row r="50" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8222,39 +8226,39 @@
       <c r="O50" s="109"/>
       <c r="P50" s="101"/>
       <c r="Q50" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R50" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S50" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="S50" s="156" t="s">
-        <v>101</v>
-      </c>
       <c r="T50" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>429</v>
-      </c>
       <c r="V50" s="157" t="s">
-        <v>431</v>
-      </c>
-      <c r="W50" s="179">
+        <v>430</v>
+      </c>
+      <c r="W50" s="233">
         <v>40865</v>
       </c>
-      <c r="X50" s="179">
+      <c r="X50" s="233">
         <v>41184</v>
       </c>
-      <c r="Y50" s="192">
+      <c r="Y50" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="Z50" s="194">
+      <c r="Z50" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8273,15 +8277,15 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8301,36 +8305,36 @@
         <v>29</v>
       </c>
       <c r="R51" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S51" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T51" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V51" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="W51" s="177">
+        <v>206</v>
+      </c>
+      <c r="W51" s="231">
         <v>40742</v>
       </c>
-      <c r="X51" s="177">
+      <c r="X51" s="231">
         <v>40969</v>
       </c>
-      <c r="Y51" s="192">
+      <c r="Y51" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
-      <c r="Z51" s="194">
+      <c r="Z51" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8358,26 +8362,26 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="F52" s="77" t="s">
         <v>436</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>437</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8395,32 +8399,32 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="W52" s="177">
+        <v>439</v>
+      </c>
+      <c r="W52" s="231">
         <v>39249</v>
       </c>
-      <c r="X52" s="177">
+      <c r="X52" s="231">
         <v>39349</v>
       </c>
-      <c r="Y52" s="192">
+      <c r="Y52" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
-      <c r="Z52" s="194">
+      <c r="Z52" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>72</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8439,18 +8443,18 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8468,27 +8472,27 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
       </c>
-      <c r="W53" s="177"/>
-      <c r="X53" s="177"/>
-      <c r="Y53" s="192" t="str">
+      <c r="W53" s="231"/>
+      <c r="X53" s="231"/>
+      <c r="Y53" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="194" t="str">
+      <c r="Z53" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -8508,18 +8512,18 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
       <c r="E54" s="131"/>
       <c r="F54" s="132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>25</v>
@@ -8549,32 +8553,32 @@
         <v>29</v>
       </c>
       <c r="R54" s="138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S54" s="122"/>
       <c r="T54" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U54" s="121"/>
       <c r="V54" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="W54" s="187">
+        <v>207</v>
+      </c>
+      <c r="W54" s="237">
         <v>39748</v>
       </c>
-      <c r="X54" s="187">
+      <c r="X54" s="237">
         <v>40210</v>
       </c>
-      <c r="Y54" s="192">
+      <c r="Y54" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
-      <c r="Z54" s="194">
+      <c r="Z54" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
       <c r="AA54" s="132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB54" s="121" t="s">
         <v>25</v>
@@ -8602,20 +8606,20 @@
       </c>
       <c r="AL54" s="115"/>
       <c r="AM54" s="120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN54" s="120"/>
       <c r="AO54" s="116"/>
     </row>
     <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8630,28 +8634,28 @@
       <c r="O55" s="155"/>
       <c r="P55" s="101"/>
       <c r="Q55" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R55" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S55" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="W55" s="177"/>
-      <c r="X55" s="177"/>
-      <c r="Y55" s="192" t="str">
+        <v>425</v>
+      </c>
+      <c r="W55" s="231"/>
+      <c r="X55" s="231"/>
+      <c r="Y55" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="194" t="str">
+      <c r="Z55" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -8672,13 +8676,13 @@
     </row>
     <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="42" t="s">
-        <v>111</v>
-      </c>
       <c r="F56" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8693,33 +8697,33 @@
       <c r="O56" s="110"/>
       <c r="P56" s="103"/>
       <c r="Q56" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R56" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S56" s="64"/>
       <c r="T56" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U56" s="52"/>
       <c r="V56" s="163">
         <v>40787</v>
       </c>
-      <c r="W56" s="177">
+      <c r="W56" s="231">
         <v>40787</v>
       </c>
-      <c r="X56" s="177"/>
-      <c r="Y56" s="218" t="str">
+      <c r="X56" s="231"/>
+      <c r="Y56" s="207" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="219">
+      <c r="Z56" s="208">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8737,18 +8741,18 @@
       <c r="AM56" s="54"/>
       <c r="AN56" s="54"/>
       <c r="AO56" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8763,45 +8767,45 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
       <c r="P57" s="103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q57" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>446</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="S57" s="64" t="s">
+      <c r="U57" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>450</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>527</v>
-      </c>
-      <c r="W57" s="177">
+        <v>526</v>
+      </c>
+      <c r="W57" s="231">
         <v>41080</v>
       </c>
-      <c r="X57" s="177"/>
-      <c r="Y57" s="192" t="str">
+      <c r="X57" s="231"/>
+      <c r="Y57" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="194">
+      <c r="Z57" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8831,13 +8835,13 @@
     </row>
     <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="115"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G58" s="133"/>
       <c r="H58" s="134"/>
@@ -8857,36 +8861,36 @@
         <v>29</v>
       </c>
       <c r="R58" s="148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S58" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>305</v>
-      </c>
       <c r="V58" s="144" t="s">
-        <v>308</v>
-      </c>
-      <c r="W58" s="175">
+        <v>307</v>
+      </c>
+      <c r="W58" s="227">
         <v>41099</v>
       </c>
-      <c r="X58" s="175">
+      <c r="X58" s="227">
         <v>41192</v>
       </c>
-      <c r="Y58" s="192">
+      <c r="Y58" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="Z58" s="194">
+      <c r="Z58" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB58" s="121" t="s">
         <v>25</v>
@@ -8908,20 +8912,20 @@
       </c>
       <c r="AL58" s="115"/>
       <c r="AM58" s="120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN58" s="120"/>
       <c r="AO58" s="116"/>
     </row>
     <row r="59" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8935,36 +8939,36 @@
       <c r="N59" s="58"/>
       <c r="O59" s="168"/>
       <c r="Q59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="W59" s="184"/>
-      <c r="X59" s="184"/>
-      <c r="Y59" s="192"/>
-      <c r="Z59" s="194"/>
+        <v>494</v>
+      </c>
+      <c r="W59" s="232"/>
+      <c r="X59" s="232"/>
+      <c r="Y59" s="181"/>
+      <c r="Z59" s="183"/>
     </row>
     <row r="60" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G60" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G60" s="190"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -8973,27 +8977,27 @@
         <v>25</v>
       </c>
       <c r="M60" s="11"/>
-      <c r="N60" s="202"/>
+      <c r="N60" s="191"/>
       <c r="O60" s="89"/>
       <c r="P60" s="102"/>
       <c r="Q60" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R60" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="W60" s="178"/>
-      <c r="X60" s="178"/>
-      <c r="Y60" s="192"/>
-      <c r="Z60" s="194"/>
+        <v>341</v>
+      </c>
+      <c r="W60" s="226"/>
+      <c r="X60" s="226"/>
+      <c r="Y60" s="181"/>
+      <c r="Z60" s="183"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="32" t="s">
         <v>25</v>
@@ -9015,18 +9019,18 @@
       <c r="AM60" s="33"/>
       <c r="AN60" s="33"/>
       <c r="AO60" s="76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9040,30 +9044,30 @@
       <c r="N61" s="58"/>
       <c r="O61" s="168"/>
       <c r="Q61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="W61" s="184"/>
-      <c r="X61" s="184"/>
-      <c r="Y61" s="192"/>
-      <c r="Z61" s="194"/>
+        <v>496</v>
+      </c>
+      <c r="W61" s="232"/>
+      <c r="X61" s="232"/>
+      <c r="Y61" s="181"/>
+      <c r="Z61" s="183"/>
     </row>
     <row r="62" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9077,35 +9081,35 @@
       <c r="N62" s="58"/>
       <c r="O62" s="168"/>
       <c r="Q62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>506</v>
-      </c>
-      <c r="W62" s="184"/>
-      <c r="X62" s="184"/>
-      <c r="Y62" s="192"/>
-      <c r="Z62" s="194"/>
+        <v>505</v>
+      </c>
+      <c r="W62" s="232"/>
+      <c r="X62" s="232"/>
+      <c r="Y62" s="181"/>
+      <c r="Z62" s="183"/>
     </row>
     <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C63" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D63" s="115"/>
       <c r="E63" s="115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F63" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>25</v>
@@ -9135,34 +9139,34 @@
         <v>29</v>
       </c>
       <c r="R63" s="148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S63" s="122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T63" s="120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U63" s="121"/>
       <c r="V63" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="W63" s="175">
+        <v>278</v>
+      </c>
+      <c r="W63" s="227">
         <v>40667</v>
       </c>
-      <c r="X63" s="175">
+      <c r="X63" s="227">
         <v>41435</v>
       </c>
-      <c r="Y63" s="192">
+      <c r="Y63" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z63" s="194">
+      <c r="Z63" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="AA63" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB63" s="121" t="s">
         <v>25</v>
@@ -9188,18 +9192,18 @@
       <c r="AM63" s="120"/>
       <c r="AN63" s="120"/>
       <c r="AO63" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9208,7 +9212,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="210"/>
+      <c r="L64" s="199"/>
       <c r="M64" s="5"/>
       <c r="N64" s="20"/>
       <c r="O64" s="108"/>
@@ -9217,28 +9221,28 @@
         <v>29</v>
       </c>
       <c r="R64" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="S64" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="S64" s="61" t="s">
-        <v>127</v>
-      </c>
       <c r="T64" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="62"/>
-      <c r="W64" s="181"/>
-      <c r="X64" s="181"/>
-      <c r="Y64" s="192" t="str">
+      <c r="W64" s="235"/>
+      <c r="X64" s="235"/>
+      <c r="Y64" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z64" s="194" t="str">
+      <c r="Z64" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9261,13 +9265,13 @@
     </row>
     <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9276,7 +9280,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="210"/>
+      <c r="L65" s="199"/>
       <c r="M65" s="5"/>
       <c r="N65" s="20"/>
       <c r="O65" s="108"/>
@@ -9285,25 +9289,25 @@
         <v>29</v>
       </c>
       <c r="R65" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="S65" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="S65" s="151" t="s">
+      <c r="T65" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>259</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="V65" s="62"/>
-      <c r="W65" s="181"/>
-      <c r="X65" s="181"/>
-      <c r="Y65" s="192" t="str">
+      <c r="W65" s="235"/>
+      <c r="X65" s="235"/>
+      <c r="Y65" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z65" s="194" t="str">
+      <c r="Z65" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -9330,17 +9334,17 @@
     <row r="66" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70"/>
       <c r="B66" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="G66" s="201"/>
+        <v>301</v>
+      </c>
+      <c r="G66" s="190"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11" t="s">
@@ -9349,35 +9353,35 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="202"/>
+      <c r="N66" s="191"/>
       <c r="O66" s="89"/>
       <c r="P66" s="102"/>
       <c r="Q66" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="W66" s="178">
+        <v>366</v>
+      </c>
+      <c r="W66" s="226">
         <v>40609</v>
       </c>
-      <c r="X66" s="178">
+      <c r="X66" s="226">
         <v>40638</v>
       </c>
-      <c r="Y66" s="192"/>
-      <c r="Z66" s="194"/>
+      <c r="Y66" s="181"/>
+      <c r="Z66" s="183"/>
       <c r="AA66" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9400,15 +9404,15 @@
     </row>
     <row r="67" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="115"/>
       <c r="D67" s="115"/>
       <c r="E67" s="115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F67" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G67" s="133"/>
       <c r="H67" s="134"/>
@@ -9426,34 +9430,34 @@
         <v>29</v>
       </c>
       <c r="R67" s="121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S67" s="122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T67" s="120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U67" s="121"/>
       <c r="V67" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="W67" s="175">
+        <v>242</v>
+      </c>
+      <c r="W67" s="227">
         <v>40664</v>
       </c>
-      <c r="X67" s="175">
+      <c r="X67" s="227">
         <v>40836</v>
       </c>
-      <c r="Y67" s="192">
+      <c r="Y67" s="181">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z67" s="194">
+      <c r="Z67" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="AA67" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB67" s="121" t="s">
         <v>25</v>
@@ -9475,22 +9479,22 @@
       </c>
       <c r="AL67" s="115"/>
       <c r="AM67" s="120" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN67" s="120"/>
       <c r="AO67" s="116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9504,72 +9508,72 @@
       <c r="N68" s="58"/>
       <c r="O68" s="168"/>
       <c r="Q68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="W68" s="184"/>
-      <c r="X68" s="184"/>
-      <c r="Y68" s="192"/>
-      <c r="Z68" s="194"/>
+        <v>490</v>
+      </c>
+      <c r="W68" s="232"/>
+      <c r="X68" s="232"/>
+      <c r="Y68" s="181"/>
+      <c r="Z68" s="183"/>
       <c r="AK68" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C69" s="124"/>
       <c r="D69" s="124"/>
       <c r="E69" s="124"/>
       <c r="F69" s="125" t="s">
-        <v>302</v>
-      </c>
-      <c r="G69" s="203"/>
-      <c r="H69" s="204"/>
-      <c r="I69" s="204"/>
-      <c r="J69" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="204"/>
-      <c r="L69" s="204"/>
-      <c r="M69" s="204"/>
-      <c r="N69" s="205"/>
+        <v>301</v>
+      </c>
+      <c r="G69" s="192"/>
+      <c r="H69" s="193"/>
+      <c r="I69" s="193"/>
+      <c r="J69" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="193"/>
+      <c r="L69" s="193"/>
+      <c r="M69" s="193"/>
+      <c r="N69" s="194"/>
       <c r="O69" s="127"/>
       <c r="P69" s="128"/>
       <c r="Q69" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R69" s="126" t="s">
+        <v>237</v>
+      </c>
+      <c r="S69" s="124" t="s">
         <v>238</v>
       </c>
-      <c r="S69" s="124" t="s">
-        <v>239</v>
-      </c>
       <c r="T69" s="129" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U69" s="126"/>
       <c r="V69" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="W69" s="176">
+        <v>240</v>
+      </c>
+      <c r="W69" s="228">
         <v>40834</v>
       </c>
-      <c r="X69" s="176"/>
-      <c r="Y69" s="192" t="str">
+      <c r="X69" s="228"/>
+      <c r="Y69" s="181" t="str">
         <f t="shared" ref="Y69:Y85" ca="1" si="4">IF(ISBLANK(X69),"0", DATEDIF(X69,TODAY(),"m"))</f>
         <v>0</v>
       </c>
-      <c r="Z69" s="194">
+      <c r="Z69" s="183">
         <f t="shared" ref="Z69:Z85" ca="1" si="5">IF(ISBLANK(W69),"0", DATEDIF(W69,TODAY(),"m"))</f>
         <v>20</v>
       </c>
@@ -9599,15 +9603,15 @@
     </row>
     <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F70" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G70" s="133"/>
       <c r="H70" s="134"/>
@@ -9624,7 +9628,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N70" s="135" t="s">
         <v>25</v>
@@ -9634,35 +9638,35 @@
       </c>
       <c r="P70" s="119"/>
       <c r="Q70" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R70" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S70" s="122" t="s">
+        <v>371</v>
+      </c>
+      <c r="T70" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="U70" s="121" t="s">
+        <v>373</v>
+      </c>
+      <c r="V70" s="123" t="s">
         <v>372</v>
       </c>
-      <c r="T70" s="120" t="s">
-        <v>231</v>
-      </c>
-      <c r="U70" s="121" t="s">
-        <v>374</v>
-      </c>
-      <c r="V70" s="123" t="s">
-        <v>373</v>
-      </c>
-      <c r="W70" s="175"/>
-      <c r="X70" s="175"/>
-      <c r="Y70" s="192" t="str">
+      <c r="W70" s="227"/>
+      <c r="X70" s="227"/>
+      <c r="Y70" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z70" s="194" t="str">
+      <c r="Z70" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AA70" s="132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB70" s="138" t="s">
         <v>25</v>
@@ -9687,10 +9691,10 @@
     </row>
     <row r="71" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9704,35 +9708,35 @@
       <c r="N71" s="58"/>
       <c r="O71" s="167"/>
       <c r="Q71" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="V71" s="56"/>
-      <c r="W71" s="184"/>
-      <c r="X71" s="184"/>
-      <c r="Y71" s="192" t="str">
+      <c r="W71" s="232"/>
+      <c r="X71" s="232"/>
+      <c r="Y71" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z71" s="194" t="str">
+      <c r="Z71" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9747,30 +9751,30 @@
       <c r="O72" s="110"/>
       <c r="P72" s="103"/>
       <c r="Q72" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R72" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>412</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>413</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="W72" s="177">
+        <v>413</v>
+      </c>
+      <c r="W72" s="231">
         <v>40561</v>
       </c>
-      <c r="X72" s="177"/>
-      <c r="Y72" s="192" t="str">
+      <c r="X72" s="231"/>
+      <c r="Y72" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z72" s="194">
+      <c r="Z72" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
@@ -9796,11 +9800,11 @@
     </row>
     <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9815,35 +9819,35 @@
       <c r="O73" s="88"/>
       <c r="P73" s="101"/>
       <c r="Q73" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R73" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S73" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T73" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U73" s="53"/>
       <c r="V73" s="163">
         <v>40603</v>
       </c>
-      <c r="W73" s="177">
+      <c r="W73" s="231">
         <v>40603</v>
       </c>
-      <c r="X73" s="177"/>
-      <c r="Y73" s="192" t="str">
+      <c r="X73" s="231"/>
+      <c r="Y73" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="194">
+      <c r="Z73" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>28</v>
       </c>
       <c r="AA73" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9870,15 +9874,15 @@
     </row>
     <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9887,7 +9891,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="210"/>
+      <c r="L74" s="199"/>
       <c r="M74" s="5"/>
       <c r="N74" s="20"/>
       <c r="O74" s="108"/>
@@ -9896,36 +9900,36 @@
         <v>29</v>
       </c>
       <c r="R74" s="95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S74" s="61" t="s">
+        <v>507</v>
+      </c>
+      <c r="T74" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="T74" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="U74" s="22" t="s">
+      <c r="V74" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="V74" s="62" t="s">
-        <v>510</v>
-      </c>
-      <c r="W74" s="181">
+      <c r="W74" s="235">
         <v>40940</v>
       </c>
-      <c r="X74" s="181">
+      <c r="X74" s="235">
         <v>41030</v>
       </c>
-      <c r="Y74" s="192">
+      <c r="Y74" s="181">
         <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
-      <c r="Z74" s="194">
+      <c r="Z74" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>17</v>
       </c>
       <c r="AA74" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9948,10 +9952,10 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>25</v>
@@ -9971,32 +9975,32 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>536</v>
-      </c>
-      <c r="W75" s="177">
+        <v>535</v>
+      </c>
+      <c r="W75" s="231">
         <v>40828</v>
       </c>
-      <c r="X75" s="177">
+      <c r="X75" s="231">
         <v>41264</v>
       </c>
-      <c r="Y75" s="218">
+      <c r="Y75" s="207">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="Z75" s="219">
+      <c r="Z75" s="208">
         <f t="shared" ca="1" si="5"/>
         <v>20</v>
       </c>
       <c r="AA75" s="75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB75" s="53" t="s">
         <v>25</v>
@@ -10027,13 +10031,13 @@
     </row>
     <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -10048,30 +10052,30 @@
       <c r="O76" s="109"/>
       <c r="P76" s="101"/>
       <c r="Q76" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="S76" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="S76" s="64" t="s">
-        <v>253</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="W76" s="177">
+        <v>255</v>
+      </c>
+      <c r="W76" s="231">
         <v>41410</v>
       </c>
-      <c r="X76" s="177"/>
-      <c r="Y76" s="192" t="str">
+      <c r="X76" s="231"/>
+      <c r="Y76" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z76" s="194">
+      <c r="Z76" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -10094,10 +10098,10 @@
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10117,32 +10121,32 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T77" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="163">
         <v>40210</v>
       </c>
-      <c r="W77" s="177"/>
-      <c r="X77" s="177">
+      <c r="W77" s="231"/>
+      <c r="X77" s="231">
         <v>40210</v>
       </c>
-      <c r="Y77" s="192">
+      <c r="Y77" s="181">
         <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
-      <c r="Z77" s="194" t="str">
+      <c r="Z77" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10161,18 +10165,18 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10196,32 +10200,32 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="S78" s="64" t="s">
-        <v>143</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>526</v>
-      </c>
-      <c r="W78" s="177">
+        <v>525</v>
+      </c>
+      <c r="W78" s="231">
         <v>40252</v>
       </c>
-      <c r="X78" s="177"/>
-      <c r="Y78" s="218" t="str">
+      <c r="X78" s="231"/>
+      <c r="Y78" s="207" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z78" s="219">
+      <c r="Z78" s="208">
         <f t="shared" ca="1" si="5"/>
         <v>39</v>
       </c>
       <c r="AA78" s="75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10251,18 +10255,18 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10276,19 +10280,19 @@
       <c r="N79" s="58"/>
       <c r="O79" s="167"/>
       <c r="Q79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
         <v>2008</v>
       </c>
-      <c r="W79" s="184"/>
-      <c r="X79" s="184"/>
-      <c r="Y79" s="192" t="str">
+      <c r="W79" s="232"/>
+      <c r="X79" s="232"/>
+      <c r="Y79" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z79" s="194" t="str">
+      <c r="Z79" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -10306,13 +10310,13 @@
     </row>
     <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B80" s="131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C80" s="131"/>
       <c r="D80" s="131"/>
       <c r="E80" s="131"/>
       <c r="F80" s="132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="134"/>
@@ -10331,26 +10335,26 @@
       </c>
       <c r="P80" s="137"/>
       <c r="Q80" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R80" s="121" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S80" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="T80" s="120" t="s">
         <v>227</v>
-      </c>
-      <c r="T80" s="120" t="s">
-        <v>228</v>
       </c>
       <c r="U80" s="138"/>
       <c r="V80" s="141"/>
-      <c r="W80" s="175"/>
-      <c r="X80" s="175"/>
-      <c r="Y80" s="192" t="str">
+      <c r="W80" s="227"/>
+      <c r="X80" s="227"/>
+      <c r="Y80" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="194" t="str">
+      <c r="Z80" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -10376,17 +10380,17 @@
     </row>
     <row r="81" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F81" s="76" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81" s="201" t="s">
+        <v>332</v>
+      </c>
+      <c r="G81" s="190" t="s">
         <v>25</v>
       </c>
       <c r="H81" s="11"/>
@@ -10397,26 +10401,26 @@
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
-      <c r="N81" s="202"/>
+      <c r="N81" s="191"/>
       <c r="O81" s="89"/>
       <c r="P81" s="102"/>
       <c r="Q81" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R81" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="33"/>
       <c r="U81" s="32"/>
       <c r="V81" s="13"/>
-      <c r="W81" s="178"/>
-      <c r="X81" s="178"/>
-      <c r="Y81" s="192" t="str">
+      <c r="W81" s="226"/>
+      <c r="X81" s="226"/>
+      <c r="Y81" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="194" t="str">
+      <c r="Z81" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -10441,15 +10445,15 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10463,32 +10467,32 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R82" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
-      <c r="W82" s="177"/>
-      <c r="X82" s="177"/>
-      <c r="Y82" s="192" t="str">
+      <c r="W82" s="231"/>
+      <c r="X82" s="231"/>
+      <c r="Y82" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z82" s="194" t="str">
+      <c r="Z82" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AA82" s="77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10510,10 +10514,10 @@
     </row>
     <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10530,7 +10534,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
@@ -10539,26 +10543,26 @@
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
-      <c r="W83" s="177"/>
-      <c r="X83" s="177"/>
-      <c r="Y83" s="192" t="str">
+      <c r="W83" s="231"/>
+      <c r="X83" s="231"/>
+      <c r="Y83" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z83" s="194" t="str">
+      <c r="Z83" s="183" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="AA83" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10575,10 +10579,10 @@
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10602,36 +10606,36 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="S84" s="64" t="s">
+      <c r="U84" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="V84" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="T84" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>482</v>
-      </c>
-      <c r="V84" s="66" t="s">
-        <v>485</v>
-      </c>
-      <c r="W84" s="177">
+      <c r="W84" s="231">
         <v>39794</v>
       </c>
-      <c r="X84" s="177">
+      <c r="X84" s="231">
         <v>39975</v>
       </c>
-      <c r="Y84" s="192">
+      <c r="Y84" s="181">
         <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
-      <c r="Z84" s="194">
+      <c r="Z84" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>54</v>
       </c>
       <c r="AA84" s="75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10645,15 +10649,15 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10670,32 +10674,32 @@
       <c r="O85" s="110"/>
       <c r="P85" s="103"/>
       <c r="Q85" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R85" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="S85" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="T85" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="U85" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="V85" s="163" t="s">
         <v>476</v>
       </c>
-      <c r="S85" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="T85" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="U85" s="53" t="s">
-        <v>475</v>
-      </c>
-      <c r="V85" s="163" t="s">
-        <v>477</v>
-      </c>
-      <c r="W85" s="177">
+      <c r="W85" s="231">
         <v>40497</v>
       </c>
-      <c r="X85" s="177"/>
-      <c r="Y85" s="192" t="str">
+      <c r="X85" s="231"/>
+      <c r="Y85" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z85" s="194">
+      <c r="Z85" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>31</v>
       </c>
@@ -10716,7 +10720,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10730,7 +10734,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="210"/>
+      <c r="L86" s="199"/>
       <c r="M86" s="5"/>
       <c r="N86" s="20"/>
       <c r="O86" s="87"/>
@@ -10741,9 +10745,9 @@
       <c r="T86" s="23"/>
       <c r="U86" s="30"/>
       <c r="V86" s="62"/>
-      <c r="W86" s="181"/>
-      <c r="X86" s="181"/>
-      <c r="Y86" s="192"/>
+      <c r="W86" s="176"/>
+      <c r="X86" s="176"/>
+      <c r="Y86" s="181"/>
       <c r="Z86" s="21"/>
       <c r="AA86" s="74"/>
       <c r="AB86" s="22"/>
@@ -10762,7 +10766,7 @@
       <c r="AO86" s="74"/>
     </row>
     <row r="87" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L87" s="213"/>
+      <c r="L87" s="202"/>
       <c r="AA87" s="80"/>
       <c r="AB87" s="35"/>
       <c r="AC87" s="59"/>
@@ -10779,7 +10783,7 @@
       <c r="E88" s="15"/>
       <c r="F88" s="81"/>
       <c r="G88" s="28"/>
-      <c r="L88" s="213"/>
+      <c r="L88" s="202"/>
       <c r="N88" s="29"/>
       <c r="O88" s="91"/>
       <c r="P88" s="106"/>
@@ -10799,7 +10803,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="81"/>
       <c r="G89" s="28"/>
-      <c r="L89" s="213"/>
+      <c r="L89" s="202"/>
       <c r="N89" s="29"/>
       <c r="O89" s="91"/>
       <c r="P89" s="106"/>
@@ -10819,7 +10823,7 @@
       <c r="E90" s="15"/>
       <c r="F90" s="81"/>
       <c r="G90" s="28"/>
-      <c r="L90" s="213"/>
+      <c r="L90" s="202"/>
       <c r="N90" s="29"/>
       <c r="O90" s="91"/>
       <c r="P90" s="106"/>
@@ -10839,7 +10843,7 @@
       <c r="E91" s="15"/>
       <c r="F91" s="81"/>
       <c r="G91" s="28"/>
-      <c r="L91" s="213"/>
+      <c r="L91" s="202"/>
       <c r="N91" s="29"/>
       <c r="O91" s="91"/>
       <c r="P91" s="106"/>
@@ -10859,7 +10863,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="81"/>
       <c r="G92" s="28"/>
-      <c r="L92" s="213"/>
+      <c r="L92" s="202"/>
       <c r="N92" s="29"/>
       <c r="O92" s="91"/>
       <c r="P92" s="106"/>
@@ -10879,7 +10883,7 @@
       <c r="E93" s="15"/>
       <c r="F93" s="81"/>
       <c r="G93" s="28"/>
-      <c r="L93" s="213"/>
+      <c r="L93" s="202"/>
       <c r="N93" s="29"/>
       <c r="O93" s="91"/>
       <c r="P93" s="106"/>
@@ -10899,7 +10903,7 @@
       <c r="E94" s="15"/>
       <c r="F94" s="81"/>
       <c r="G94" s="28"/>
-      <c r="L94" s="213"/>
+      <c r="L94" s="202"/>
       <c r="N94" s="29"/>
       <c r="O94" s="91"/>
       <c r="P94" s="106"/>
@@ -10919,7 +10923,7 @@
       <c r="E95" s="15"/>
       <c r="F95" s="81"/>
       <c r="G95" s="28"/>
-      <c r="L95" s="213"/>
+      <c r="L95" s="202"/>
       <c r="N95" s="29"/>
       <c r="O95" s="91"/>
       <c r="P95" s="106"/>
@@ -10939,7 +10943,7 @@
       <c r="E96" s="15"/>
       <c r="F96" s="81"/>
       <c r="G96" s="28"/>
-      <c r="L96" s="213"/>
+      <c r="L96" s="202"/>
       <c r="N96" s="29"/>
       <c r="O96" s="91"/>
       <c r="P96" s="106"/>
@@ -10959,7 +10963,7 @@
       <c r="E97" s="15"/>
       <c r="F97" s="81"/>
       <c r="G97" s="28"/>
-      <c r="L97" s="213"/>
+      <c r="L97" s="202"/>
       <c r="N97" s="29"/>
       <c r="O97" s="91"/>
       <c r="P97" s="106"/>
@@ -10979,7 +10983,7 @@
       <c r="E98" s="15"/>
       <c r="F98" s="81"/>
       <c r="G98" s="28"/>
-      <c r="L98" s="213"/>
+      <c r="L98" s="202"/>
       <c r="N98" s="29"/>
       <c r="O98" s="91"/>
       <c r="P98" s="106"/>
@@ -10999,7 +11003,7 @@
       <c r="E99" s="15"/>
       <c r="F99" s="81"/>
       <c r="G99" s="28"/>
-      <c r="L99" s="213"/>
+      <c r="L99" s="202"/>
       <c r="N99" s="29"/>
       <c r="O99" s="91"/>
       <c r="P99" s="106"/>
@@ -11019,7 +11023,7 @@
       <c r="E100" s="15"/>
       <c r="F100" s="81"/>
       <c r="G100" s="28"/>
-      <c r="L100" s="213"/>
+      <c r="L100" s="202"/>
       <c r="N100" s="29"/>
       <c r="O100" s="91"/>
       <c r="P100" s="106"/>
@@ -11039,7 +11043,7 @@
       <c r="E101" s="15"/>
       <c r="F101" s="81"/>
       <c r="G101" s="28"/>
-      <c r="L101" s="213"/>
+      <c r="L101" s="202"/>
       <c r="N101" s="29"/>
       <c r="O101" s="91"/>
       <c r="P101" s="106"/>
@@ -11059,7 +11063,7 @@
       <c r="E102" s="15"/>
       <c r="F102" s="81"/>
       <c r="G102" s="28"/>
-      <c r="L102" s="213"/>
+      <c r="L102" s="202"/>
       <c r="N102" s="29"/>
       <c r="O102" s="91"/>
       <c r="P102" s="106"/>
@@ -11079,7 +11083,7 @@
       <c r="E103" s="15"/>
       <c r="F103" s="81"/>
       <c r="G103" s="28"/>
-      <c r="L103" s="213"/>
+      <c r="L103" s="202"/>
       <c r="N103" s="29"/>
       <c r="O103" s="91"/>
       <c r="P103" s="106"/>
@@ -11099,7 +11103,7 @@
       <c r="E104" s="15"/>
       <c r="F104" s="81"/>
       <c r="G104" s="28"/>
-      <c r="L104" s="213"/>
+      <c r="L104" s="202"/>
       <c r="N104" s="29"/>
       <c r="O104" s="91"/>
       <c r="P104" s="106"/>
@@ -11119,7 +11123,7 @@
       <c r="E105" s="15"/>
       <c r="F105" s="81"/>
       <c r="G105" s="28"/>
-      <c r="L105" s="213"/>
+      <c r="L105" s="202"/>
       <c r="N105" s="29"/>
       <c r="O105" s="91"/>
       <c r="P105" s="106"/>
@@ -11139,7 +11143,7 @@
       <c r="E106" s="15"/>
       <c r="F106" s="81"/>
       <c r="G106" s="28"/>
-      <c r="L106" s="213"/>
+      <c r="L106" s="202"/>
       <c r="N106" s="29"/>
       <c r="O106" s="91"/>
       <c r="P106" s="106"/>
@@ -11159,7 +11163,7 @@
       <c r="E107" s="15"/>
       <c r="F107" s="81"/>
       <c r="G107" s="28"/>
-      <c r="L107" s="213"/>
+      <c r="L107" s="202"/>
       <c r="N107" s="29"/>
       <c r="O107" s="91"/>
       <c r="P107" s="106"/>
@@ -11179,7 +11183,7 @@
       <c r="E108" s="15"/>
       <c r="F108" s="81"/>
       <c r="G108" s="28"/>
-      <c r="L108" s="213"/>
+      <c r="L108" s="202"/>
       <c r="N108" s="29"/>
       <c r="O108" s="91"/>
       <c r="P108" s="106"/>
@@ -11199,7 +11203,7 @@
       <c r="E109" s="15"/>
       <c r="F109" s="81"/>
       <c r="G109" s="28"/>
-      <c r="L109" s="213"/>
+      <c r="L109" s="202"/>
       <c r="N109" s="29"/>
       <c r="O109" s="91"/>
       <c r="P109" s="106"/>
@@ -11219,7 +11223,7 @@
       <c r="E110" s="15"/>
       <c r="F110" s="81"/>
       <c r="G110" s="28"/>
-      <c r="L110" s="213"/>
+      <c r="L110" s="202"/>
       <c r="N110" s="29"/>
       <c r="O110" s="91"/>
       <c r="P110" s="106"/>
@@ -11239,7 +11243,7 @@
       <c r="E111" s="15"/>
       <c r="F111" s="81"/>
       <c r="G111" s="28"/>
-      <c r="L111" s="213"/>
+      <c r="L111" s="202"/>
       <c r="N111" s="29"/>
       <c r="O111" s="91"/>
       <c r="P111" s="106"/>
@@ -11259,7 +11263,7 @@
       <c r="E112" s="15"/>
       <c r="F112" s="81"/>
       <c r="G112" s="28"/>
-      <c r="L112" s="213"/>
+      <c r="L112" s="202"/>
       <c r="N112" s="29"/>
       <c r="O112" s="91"/>
       <c r="P112" s="106"/>
@@ -11279,7 +11283,7 @@
       <c r="E113" s="15"/>
       <c r="F113" s="81"/>
       <c r="G113" s="28"/>
-      <c r="L113" s="213"/>
+      <c r="L113" s="202"/>
       <c r="N113" s="29"/>
       <c r="O113" s="91"/>
       <c r="P113" s="106"/>
@@ -11299,7 +11303,7 @@
       <c r="E114" s="15"/>
       <c r="F114" s="81"/>
       <c r="G114" s="28"/>
-      <c r="L114" s="213"/>
+      <c r="L114" s="202"/>
       <c r="N114" s="29"/>
       <c r="O114" s="91"/>
       <c r="P114" s="106"/>
@@ -11319,7 +11323,7 @@
       <c r="E115" s="15"/>
       <c r="F115" s="81"/>
       <c r="G115" s="28"/>
-      <c r="L115" s="213"/>
+      <c r="L115" s="202"/>
       <c r="N115" s="29"/>
       <c r="O115" s="91"/>
       <c r="P115" s="106"/>
@@ -11339,7 +11343,7 @@
       <c r="E116" s="15"/>
       <c r="F116" s="81"/>
       <c r="G116" s="28"/>
-      <c r="L116" s="213"/>
+      <c r="L116" s="202"/>
       <c r="N116" s="29"/>
       <c r="O116" s="91"/>
       <c r="P116" s="106"/>
@@ -11359,7 +11363,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="81"/>
       <c r="G117" s="28"/>
-      <c r="L117" s="213"/>
+      <c r="L117" s="202"/>
       <c r="N117" s="29"/>
       <c r="O117" s="91"/>
       <c r="P117" s="106"/>
@@ -11379,7 +11383,7 @@
       <c r="E118" s="15"/>
       <c r="F118" s="81"/>
       <c r="G118" s="28"/>
-      <c r="L118" s="213"/>
+      <c r="L118" s="202"/>
       <c r="N118" s="29"/>
       <c r="O118" s="91"/>
       <c r="P118" s="106"/>
@@ -11399,7 +11403,7 @@
       <c r="E119" s="15"/>
       <c r="F119" s="81"/>
       <c r="G119" s="28"/>
-      <c r="L119" s="213"/>
+      <c r="L119" s="202"/>
       <c r="N119" s="29"/>
       <c r="O119" s="91"/>
       <c r="P119" s="106"/>
@@ -11419,7 +11423,7 @@
       <c r="E120" s="15"/>
       <c r="F120" s="81"/>
       <c r="G120" s="28"/>
-      <c r="L120" s="213"/>
+      <c r="L120" s="202"/>
       <c r="N120" s="29"/>
       <c r="O120" s="91"/>
       <c r="P120" s="106"/>
@@ -11439,7 +11443,7 @@
       <c r="E121" s="15"/>
       <c r="F121" s="81"/>
       <c r="G121" s="28"/>
-      <c r="L121" s="213"/>
+      <c r="L121" s="202"/>
       <c r="N121" s="29"/>
       <c r="O121" s="91"/>
       <c r="P121" s="106"/>
@@ -11459,7 +11463,7 @@
       <c r="E122" s="15"/>
       <c r="F122" s="81"/>
       <c r="G122" s="28"/>
-      <c r="L122" s="213"/>
+      <c r="L122" s="202"/>
       <c r="N122" s="29"/>
       <c r="O122" s="91"/>
       <c r="P122" s="106"/>
@@ -11479,7 +11483,7 @@
       <c r="E123" s="15"/>
       <c r="F123" s="81"/>
       <c r="G123" s="28"/>
-      <c r="L123" s="213"/>
+      <c r="L123" s="202"/>
       <c r="N123" s="29"/>
       <c r="O123" s="91"/>
       <c r="P123" s="106"/>
@@ -11499,7 +11503,7 @@
       <c r="E124" s="15"/>
       <c r="F124" s="81"/>
       <c r="G124" s="28"/>
-      <c r="L124" s="213"/>
+      <c r="L124" s="202"/>
       <c r="N124" s="29"/>
       <c r="O124" s="91"/>
       <c r="P124" s="106"/>
@@ -11519,7 +11523,7 @@
       <c r="E125" s="15"/>
       <c r="F125" s="81"/>
       <c r="G125" s="28"/>
-      <c r="L125" s="213"/>
+      <c r="L125" s="202"/>
       <c r="N125" s="29"/>
       <c r="O125" s="91"/>
       <c r="P125" s="106"/>
@@ -11539,7 +11543,7 @@
       <c r="E126" s="15"/>
       <c r="F126" s="81"/>
       <c r="G126" s="28"/>
-      <c r="L126" s="213"/>
+      <c r="L126" s="202"/>
       <c r="N126" s="29"/>
       <c r="O126" s="91"/>
       <c r="P126" s="106"/>
@@ -11559,7 +11563,7 @@
       <c r="E127" s="15"/>
       <c r="F127" s="81"/>
       <c r="G127" s="28"/>
-      <c r="L127" s="213"/>
+      <c r="L127" s="202"/>
       <c r="N127" s="29"/>
       <c r="O127" s="91"/>
       <c r="P127" s="106"/>
@@ -11579,7 +11583,7 @@
       <c r="E128" s="15"/>
       <c r="F128" s="81"/>
       <c r="G128" s="28"/>
-      <c r="L128" s="213"/>
+      <c r="L128" s="202"/>
       <c r="N128" s="29"/>
       <c r="O128" s="91"/>
       <c r="P128" s="106"/>
@@ -11599,7 +11603,7 @@
       <c r="E129" s="15"/>
       <c r="F129" s="81"/>
       <c r="G129" s="28"/>
-      <c r="L129" s="213"/>
+      <c r="L129" s="202"/>
       <c r="N129" s="29"/>
       <c r="O129" s="91"/>
       <c r="P129" s="106"/>
@@ -11619,7 +11623,7 @@
       <c r="E130" s="15"/>
       <c r="F130" s="81"/>
       <c r="G130" s="28"/>
-      <c r="L130" s="213"/>
+      <c r="L130" s="202"/>
       <c r="N130" s="29"/>
       <c r="O130" s="91"/>
       <c r="P130" s="106"/>
@@ -11639,7 +11643,7 @@
       <c r="E131" s="15"/>
       <c r="F131" s="81"/>
       <c r="G131" s="28"/>
-      <c r="L131" s="213"/>
+      <c r="L131" s="202"/>
       <c r="N131" s="29"/>
       <c r="O131" s="91"/>
       <c r="P131" s="106"/>
@@ -11659,7 +11663,7 @@
       <c r="E132" s="15"/>
       <c r="F132" s="81"/>
       <c r="G132" s="28"/>
-      <c r="L132" s="213"/>
+      <c r="L132" s="202"/>
       <c r="N132" s="29"/>
       <c r="O132" s="91"/>
       <c r="P132" s="106"/>
@@ -11679,7 +11683,7 @@
       <c r="E133" s="15"/>
       <c r="F133" s="81"/>
       <c r="G133" s="28"/>
-      <c r="L133" s="213"/>
+      <c r="L133" s="202"/>
       <c r="N133" s="29"/>
       <c r="O133" s="91"/>
       <c r="P133" s="106"/>
@@ -11699,7 +11703,7 @@
       <c r="E134" s="15"/>
       <c r="F134" s="81"/>
       <c r="G134" s="28"/>
-      <c r="L134" s="213"/>
+      <c r="L134" s="202"/>
       <c r="N134" s="29"/>
       <c r="O134" s="91"/>
       <c r="P134" s="106"/>
@@ -11719,7 +11723,7 @@
       <c r="E135" s="15"/>
       <c r="F135" s="81"/>
       <c r="G135" s="28"/>
-      <c r="L135" s="213"/>
+      <c r="L135" s="202"/>
       <c r="N135" s="29"/>
       <c r="O135" s="91"/>
       <c r="P135" s="106"/>
@@ -11739,7 +11743,7 @@
       <c r="E136" s="15"/>
       <c r="F136" s="81"/>
       <c r="G136" s="28"/>
-      <c r="L136" s="213"/>
+      <c r="L136" s="202"/>
       <c r="N136" s="29"/>
       <c r="O136" s="91"/>
       <c r="P136" s="106"/>
@@ -11759,7 +11763,7 @@
       <c r="E137" s="15"/>
       <c r="F137" s="81"/>
       <c r="G137" s="28"/>
-      <c r="L137" s="213"/>
+      <c r="L137" s="202"/>
       <c r="N137" s="29"/>
       <c r="O137" s="91"/>
       <c r="P137" s="106"/>
@@ -11779,7 +11783,7 @@
       <c r="E138" s="15"/>
       <c r="F138" s="81"/>
       <c r="G138" s="28"/>
-      <c r="L138" s="213"/>
+      <c r="L138" s="202"/>
       <c r="N138" s="29"/>
       <c r="O138" s="91"/>
       <c r="P138" s="106"/>
@@ -11799,7 +11803,7 @@
       <c r="E139" s="15"/>
       <c r="F139" s="81"/>
       <c r="G139" s="28"/>
-      <c r="L139" s="213"/>
+      <c r="L139" s="202"/>
       <c r="N139" s="29"/>
       <c r="O139" s="91"/>
       <c r="P139" s="106"/>
@@ -11819,7 +11823,7 @@
       <c r="E140" s="15"/>
       <c r="F140" s="81"/>
       <c r="G140" s="28"/>
-      <c r="L140" s="213"/>
+      <c r="L140" s="202"/>
       <c r="N140" s="29"/>
       <c r="O140" s="91"/>
       <c r="P140" s="106"/>
@@ -11839,7 +11843,7 @@
       <c r="E141" s="15"/>
       <c r="F141" s="81"/>
       <c r="G141" s="28"/>
-      <c r="L141" s="213"/>
+      <c r="L141" s="202"/>
       <c r="N141" s="29"/>
       <c r="O141" s="91"/>
       <c r="P141" s="106"/>
@@ -11859,7 +11863,7 @@
       <c r="E142" s="15"/>
       <c r="F142" s="81"/>
       <c r="G142" s="28"/>
-      <c r="L142" s="213"/>
+      <c r="L142" s="202"/>
       <c r="N142" s="29"/>
       <c r="O142" s="91"/>
       <c r="P142" s="106"/>
@@ -11879,7 +11883,7 @@
       <c r="E143" s="15"/>
       <c r="F143" s="81"/>
       <c r="G143" s="28"/>
-      <c r="L143" s="213"/>
+      <c r="L143" s="202"/>
       <c r="N143" s="29"/>
       <c r="O143" s="91"/>
       <c r="P143" s="106"/>
@@ -11899,7 +11903,7 @@
       <c r="E144" s="15"/>
       <c r="F144" s="81"/>
       <c r="G144" s="28"/>
-      <c r="L144" s="213"/>
+      <c r="L144" s="202"/>
       <c r="N144" s="29"/>
       <c r="O144" s="91"/>
       <c r="P144" s="106"/>
@@ -11919,7 +11923,7 @@
       <c r="E145" s="15"/>
       <c r="F145" s="81"/>
       <c r="G145" s="28"/>
-      <c r="L145" s="213"/>
+      <c r="L145" s="202"/>
       <c r="N145" s="29"/>
       <c r="O145" s="91"/>
       <c r="P145" s="106"/>
@@ -11939,7 +11943,7 @@
       <c r="E146" s="15"/>
       <c r="F146" s="81"/>
       <c r="G146" s="28"/>
-      <c r="L146" s="213"/>
+      <c r="L146" s="202"/>
       <c r="N146" s="29"/>
       <c r="O146" s="91"/>
       <c r="P146" s="106"/>
@@ -11959,7 +11963,7 @@
       <c r="E147" s="15"/>
       <c r="F147" s="81"/>
       <c r="G147" s="28"/>
-      <c r="L147" s="213"/>
+      <c r="L147" s="202"/>
       <c r="N147" s="29"/>
       <c r="O147" s="91"/>
       <c r="P147" s="106"/>
@@ -11979,7 +11983,7 @@
       <c r="E148" s="15"/>
       <c r="F148" s="81"/>
       <c r="G148" s="28"/>
-      <c r="L148" s="213"/>
+      <c r="L148" s="202"/>
       <c r="N148" s="29"/>
       <c r="O148" s="91"/>
       <c r="P148" s="106"/>
@@ -11999,7 +12003,7 @@
       <c r="E149" s="15"/>
       <c r="F149" s="81"/>
       <c r="G149" s="28"/>
-      <c r="L149" s="213"/>
+      <c r="L149" s="202"/>
       <c r="N149" s="29"/>
       <c r="O149" s="91"/>
       <c r="P149" s="106"/>
@@ -12019,7 +12023,7 @@
       <c r="E150" s="15"/>
       <c r="F150" s="81"/>
       <c r="G150" s="28"/>
-      <c r="L150" s="213"/>
+      <c r="L150" s="202"/>
       <c r="N150" s="29"/>
       <c r="O150" s="91"/>
       <c r="P150" s="106"/>
@@ -12039,7 +12043,7 @@
       <c r="E151" s="15"/>
       <c r="F151" s="81"/>
       <c r="G151" s="28"/>
-      <c r="L151" s="213"/>
+      <c r="L151" s="202"/>
       <c r="N151" s="29"/>
       <c r="O151" s="91"/>
       <c r="P151" s="106"/>
@@ -12059,7 +12063,7 @@
       <c r="E152" s="15"/>
       <c r="F152" s="81"/>
       <c r="G152" s="28"/>
-      <c r="L152" s="213"/>
+      <c r="L152" s="202"/>
       <c r="N152" s="29"/>
       <c r="O152" s="91"/>
       <c r="P152" s="106"/>
@@ -12079,7 +12083,7 @@
       <c r="E153" s="15"/>
       <c r="F153" s="81"/>
       <c r="G153" s="28"/>
-      <c r="L153" s="213"/>
+      <c r="L153" s="202"/>
       <c r="N153" s="29"/>
       <c r="O153" s="91"/>
       <c r="P153" s="106"/>
@@ -12099,7 +12103,7 @@
       <c r="E154" s="15"/>
       <c r="F154" s="81"/>
       <c r="G154" s="28"/>
-      <c r="L154" s="213"/>
+      <c r="L154" s="202"/>
       <c r="N154" s="29"/>
       <c r="O154" s="91"/>
       <c r="P154" s="106"/>
@@ -12119,7 +12123,7 @@
       <c r="E155" s="15"/>
       <c r="F155" s="81"/>
       <c r="G155" s="28"/>
-      <c r="L155" s="213"/>
+      <c r="L155" s="202"/>
       <c r="N155" s="29"/>
       <c r="O155" s="91"/>
       <c r="P155" s="106"/>
@@ -12139,7 +12143,7 @@
       <c r="E156" s="15"/>
       <c r="F156" s="81"/>
       <c r="G156" s="28"/>
-      <c r="L156" s="213"/>
+      <c r="L156" s="202"/>
       <c r="N156" s="29"/>
       <c r="O156" s="91"/>
       <c r="P156" s="106"/>
@@ -12159,7 +12163,7 @@
       <c r="E157" s="15"/>
       <c r="F157" s="81"/>
       <c r="G157" s="28"/>
-      <c r="L157" s="213"/>
+      <c r="L157" s="202"/>
       <c r="N157" s="29"/>
       <c r="O157" s="91"/>
       <c r="P157" s="106"/>
@@ -12179,7 +12183,7 @@
       <c r="E158" s="15"/>
       <c r="F158" s="81"/>
       <c r="G158" s="28"/>
-      <c r="L158" s="213"/>
+      <c r="L158" s="202"/>
       <c r="N158" s="29"/>
       <c r="O158" s="91"/>
       <c r="P158" s="106"/>
@@ -12199,7 +12203,7 @@
       <c r="E159" s="15"/>
       <c r="F159" s="81"/>
       <c r="G159" s="28"/>
-      <c r="L159" s="213"/>
+      <c r="L159" s="202"/>
       <c r="N159" s="29"/>
       <c r="O159" s="91"/>
       <c r="P159" s="106"/>
@@ -12219,7 +12223,7 @@
       <c r="E160" s="15"/>
       <c r="F160" s="81"/>
       <c r="G160" s="28"/>
-      <c r="L160" s="213"/>
+      <c r="L160" s="202"/>
       <c r="N160" s="29"/>
       <c r="O160" s="91"/>
       <c r="P160" s="106"/>
@@ -12239,7 +12243,7 @@
       <c r="E161" s="15"/>
       <c r="F161" s="81"/>
       <c r="G161" s="28"/>
-      <c r="L161" s="213"/>
+      <c r="L161" s="202"/>
       <c r="N161" s="29"/>
       <c r="O161" s="91"/>
       <c r="P161" s="106"/>
@@ -12259,7 +12263,7 @@
       <c r="E162" s="15"/>
       <c r="F162" s="81"/>
       <c r="G162" s="28"/>
-      <c r="L162" s="213"/>
+      <c r="L162" s="202"/>
       <c r="N162" s="29"/>
       <c r="O162" s="91"/>
       <c r="P162" s="106"/>
@@ -12279,7 +12283,7 @@
       <c r="E163" s="15"/>
       <c r="F163" s="81"/>
       <c r="G163" s="28"/>
-      <c r="L163" s="213"/>
+      <c r="L163" s="202"/>
       <c r="N163" s="29"/>
       <c r="O163" s="91"/>
       <c r="P163" s="106"/>
@@ -12299,7 +12303,7 @@
       <c r="E164" s="15"/>
       <c r="F164" s="81"/>
       <c r="G164" s="28"/>
-      <c r="L164" s="213"/>
+      <c r="L164" s="202"/>
       <c r="N164" s="29"/>
       <c r="O164" s="91"/>
       <c r="P164" s="106"/>
@@ -12319,7 +12323,7 @@
       <c r="E165" s="15"/>
       <c r="F165" s="81"/>
       <c r="G165" s="28"/>
-      <c r="L165" s="213"/>
+      <c r="L165" s="202"/>
       <c r="N165" s="29"/>
       <c r="O165" s="91"/>
       <c r="P165" s="106"/>
@@ -12339,7 +12343,7 @@
       <c r="E166" s="15"/>
       <c r="F166" s="81"/>
       <c r="G166" s="28"/>
-      <c r="L166" s="213"/>
+      <c r="L166" s="202"/>
       <c r="N166" s="29"/>
       <c r="O166" s="91"/>
       <c r="P166" s="106"/>
@@ -12359,7 +12363,7 @@
       <c r="E167" s="15"/>
       <c r="F167" s="81"/>
       <c r="G167" s="28"/>
-      <c r="L167" s="213"/>
+      <c r="L167" s="202"/>
       <c r="N167" s="29"/>
       <c r="O167" s="91"/>
       <c r="P167" s="106"/>
@@ -12379,7 +12383,7 @@
       <c r="E168" s="15"/>
       <c r="F168" s="81"/>
       <c r="G168" s="28"/>
-      <c r="L168" s="213"/>
+      <c r="L168" s="202"/>
       <c r="N168" s="29"/>
       <c r="O168" s="91"/>
       <c r="P168" s="106"/>
@@ -12399,7 +12403,7 @@
       <c r="E169" s="15"/>
       <c r="F169" s="81"/>
       <c r="G169" s="28"/>
-      <c r="L169" s="213"/>
+      <c r="L169" s="202"/>
       <c r="N169" s="29"/>
       <c r="O169" s="91"/>
       <c r="P169" s="106"/>
@@ -12419,7 +12423,7 @@
       <c r="E170" s="15"/>
       <c r="F170" s="81"/>
       <c r="G170" s="28"/>
-      <c r="L170" s="213"/>
+      <c r="L170" s="202"/>
       <c r="N170" s="29"/>
       <c r="O170" s="91"/>
       <c r="P170" s="106"/>
@@ -12439,7 +12443,7 @@
       <c r="E171" s="15"/>
       <c r="F171" s="81"/>
       <c r="G171" s="28"/>
-      <c r="L171" s="213"/>
+      <c r="L171" s="202"/>
       <c r="N171" s="29"/>
       <c r="O171" s="91"/>
       <c r="P171" s="106"/>
@@ -12459,7 +12463,7 @@
       <c r="E172" s="15"/>
       <c r="F172" s="81"/>
       <c r="G172" s="28"/>
-      <c r="L172" s="213"/>
+      <c r="L172" s="202"/>
       <c r="N172" s="29"/>
       <c r="O172" s="91"/>
       <c r="P172" s="106"/>
@@ -12479,7 +12483,7 @@
       <c r="E173" s="15"/>
       <c r="F173" s="81"/>
       <c r="G173" s="28"/>
-      <c r="L173" s="213"/>
+      <c r="L173" s="202"/>
       <c r="N173" s="29"/>
       <c r="O173" s="91"/>
       <c r="P173" s="106"/>
@@ -12499,7 +12503,7 @@
       <c r="E174" s="15"/>
       <c r="F174" s="81"/>
       <c r="G174" s="28"/>
-      <c r="L174" s="213"/>
+      <c r="L174" s="202"/>
       <c r="N174" s="29"/>
       <c r="O174" s="91"/>
       <c r="P174" s="106"/>
@@ -12519,7 +12523,7 @@
       <c r="E175" s="15"/>
       <c r="F175" s="81"/>
       <c r="G175" s="28"/>
-      <c r="L175" s="213"/>
+      <c r="L175" s="202"/>
       <c r="N175" s="29"/>
       <c r="O175" s="91"/>
       <c r="P175" s="106"/>
@@ -12539,7 +12543,7 @@
       <c r="E176" s="15"/>
       <c r="F176" s="81"/>
       <c r="G176" s="28"/>
-      <c r="L176" s="213"/>
+      <c r="L176" s="202"/>
       <c r="N176" s="29"/>
       <c r="O176" s="91"/>
       <c r="P176" s="106"/>
@@ -12559,7 +12563,7 @@
       <c r="E177" s="15"/>
       <c r="F177" s="81"/>
       <c r="G177" s="28"/>
-      <c r="L177" s="213"/>
+      <c r="L177" s="202"/>
       <c r="N177" s="29"/>
       <c r="O177" s="91"/>
       <c r="P177" s="106"/>
@@ -12579,7 +12583,7 @@
       <c r="E178" s="15"/>
       <c r="F178" s="81"/>
       <c r="G178" s="28"/>
-      <c r="L178" s="213"/>
+      <c r="L178" s="202"/>
       <c r="N178" s="29"/>
       <c r="O178" s="91"/>
       <c r="P178" s="106"/>
@@ -12599,7 +12603,7 @@
       <c r="E179" s="15"/>
       <c r="F179" s="81"/>
       <c r="G179" s="28"/>
-      <c r="L179" s="213"/>
+      <c r="L179" s="202"/>
       <c r="N179" s="29"/>
       <c r="O179" s="91"/>
       <c r="P179" s="106"/>
@@ -12619,7 +12623,7 @@
       <c r="E180" s="15"/>
       <c r="F180" s="81"/>
       <c r="G180" s="28"/>
-      <c r="L180" s="213"/>
+      <c r="L180" s="202"/>
       <c r="N180" s="29"/>
       <c r="O180" s="91"/>
       <c r="P180" s="106"/>
@@ -12639,7 +12643,7 @@
       <c r="E181" s="15"/>
       <c r="F181" s="81"/>
       <c r="G181" s="28"/>
-      <c r="L181" s="213"/>
+      <c r="L181" s="202"/>
       <c r="N181" s="29"/>
       <c r="O181" s="91"/>
       <c r="P181" s="106"/>
@@ -12659,7 +12663,7 @@
       <c r="E182" s="15"/>
       <c r="F182" s="81"/>
       <c r="G182" s="28"/>
-      <c r="L182" s="213"/>
+      <c r="L182" s="202"/>
       <c r="N182" s="29"/>
       <c r="O182" s="91"/>
       <c r="P182" s="106"/>
@@ -12679,7 +12683,7 @@
       <c r="E183" s="15"/>
       <c r="F183" s="81"/>
       <c r="G183" s="28"/>
-      <c r="L183" s="213"/>
+      <c r="L183" s="202"/>
       <c r="N183" s="29"/>
       <c r="O183" s="91"/>
       <c r="P183" s="106"/>
@@ -12699,7 +12703,7 @@
       <c r="E184" s="15"/>
       <c r="F184" s="81"/>
       <c r="G184" s="28"/>
-      <c r="L184" s="213"/>
+      <c r="L184" s="202"/>
       <c r="N184" s="29"/>
       <c r="O184" s="91"/>
       <c r="P184" s="106"/>
@@ -12719,7 +12723,7 @@
       <c r="E185" s="15"/>
       <c r="F185" s="81"/>
       <c r="G185" s="28"/>
-      <c r="L185" s="213"/>
+      <c r="L185" s="202"/>
       <c r="N185" s="29"/>
       <c r="O185" s="91"/>
       <c r="P185" s="106"/>
@@ -12739,7 +12743,7 @@
       <c r="E186" s="15"/>
       <c r="F186" s="81"/>
       <c r="G186" s="28"/>
-      <c r="L186" s="213"/>
+      <c r="L186" s="202"/>
       <c r="N186" s="29"/>
       <c r="O186" s="91"/>
       <c r="P186" s="106"/>
@@ -12759,7 +12763,7 @@
       <c r="E187" s="15"/>
       <c r="F187" s="81"/>
       <c r="G187" s="28"/>
-      <c r="L187" s="213"/>
+      <c r="L187" s="202"/>
       <c r="N187" s="29"/>
       <c r="O187" s="91"/>
       <c r="P187" s="106"/>
@@ -12779,7 +12783,7 @@
       <c r="E188" s="15"/>
       <c r="F188" s="81"/>
       <c r="G188" s="28"/>
-      <c r="L188" s="213"/>
+      <c r="L188" s="202"/>
       <c r="N188" s="29"/>
       <c r="O188" s="91"/>
       <c r="P188" s="106"/>
@@ -12799,7 +12803,7 @@
       <c r="E189" s="15"/>
       <c r="F189" s="81"/>
       <c r="G189" s="28"/>
-      <c r="L189" s="213"/>
+      <c r="L189" s="202"/>
       <c r="N189" s="29"/>
       <c r="O189" s="91"/>
       <c r="P189" s="106"/>
@@ -12819,7 +12823,7 @@
       <c r="E190" s="15"/>
       <c r="F190" s="81"/>
       <c r="G190" s="28"/>
-      <c r="L190" s="213"/>
+      <c r="L190" s="202"/>
       <c r="N190" s="29"/>
       <c r="O190" s="91"/>
       <c r="P190" s="106"/>
@@ -12839,7 +12843,7 @@
       <c r="E191" s="15"/>
       <c r="F191" s="81"/>
       <c r="G191" s="28"/>
-      <c r="L191" s="213"/>
+      <c r="L191" s="202"/>
       <c r="N191" s="29"/>
       <c r="O191" s="91"/>
       <c r="P191" s="106"/>
@@ -12859,7 +12863,7 @@
       <c r="E192" s="15"/>
       <c r="F192" s="81"/>
       <c r="G192" s="28"/>
-      <c r="L192" s="213"/>
+      <c r="L192" s="202"/>
       <c r="N192" s="29"/>
       <c r="O192" s="91"/>
       <c r="P192" s="106"/>
@@ -12879,7 +12883,7 @@
       <c r="E193" s="15"/>
       <c r="F193" s="81"/>
       <c r="G193" s="28"/>
-      <c r="L193" s="213"/>
+      <c r="L193" s="202"/>
       <c r="N193" s="29"/>
       <c r="O193" s="91"/>
       <c r="P193" s="106"/>
@@ -12899,7 +12903,7 @@
       <c r="E194" s="15"/>
       <c r="F194" s="81"/>
       <c r="G194" s="28"/>
-      <c r="L194" s="213"/>
+      <c r="L194" s="202"/>
       <c r="N194" s="29"/>
       <c r="O194" s="91"/>
       <c r="P194" s="106"/>
@@ -12919,7 +12923,7 @@
       <c r="E195" s="15"/>
       <c r="F195" s="81"/>
       <c r="G195" s="28"/>
-      <c r="L195" s="213"/>
+      <c r="L195" s="202"/>
       <c r="N195" s="29"/>
       <c r="O195" s="91"/>
       <c r="P195" s="106"/>
@@ -12939,7 +12943,7 @@
       <c r="E196" s="15"/>
       <c r="F196" s="81"/>
       <c r="G196" s="28"/>
-      <c r="L196" s="213"/>
+      <c r="L196" s="202"/>
       <c r="N196" s="29"/>
       <c r="O196" s="91"/>
       <c r="P196" s="106"/>
@@ -12959,7 +12963,7 @@
       <c r="E197" s="15"/>
       <c r="F197" s="81"/>
       <c r="G197" s="28"/>
-      <c r="L197" s="213"/>
+      <c r="L197" s="202"/>
       <c r="N197" s="29"/>
       <c r="O197" s="91"/>
       <c r="P197" s="106"/>
@@ -12979,7 +12983,7 @@
       <c r="E198" s="15"/>
       <c r="F198" s="81"/>
       <c r="G198" s="28"/>
-      <c r="L198" s="213"/>
+      <c r="L198" s="202"/>
       <c r="N198" s="29"/>
       <c r="O198" s="91"/>
       <c r="P198" s="106"/>
@@ -12999,7 +13003,7 @@
       <c r="E199" s="15"/>
       <c r="F199" s="81"/>
       <c r="G199" s="28"/>
-      <c r="L199" s="213"/>
+      <c r="L199" s="202"/>
       <c r="N199" s="29"/>
       <c r="O199" s="91"/>
       <c r="P199" s="106"/>
@@ -13019,7 +13023,7 @@
       <c r="E200" s="15"/>
       <c r="F200" s="81"/>
       <c r="G200" s="28"/>
-      <c r="L200" s="213"/>
+      <c r="L200" s="202"/>
       <c r="N200" s="29"/>
       <c r="O200" s="91"/>
       <c r="P200" s="106"/>
@@ -13039,7 +13043,7 @@
       <c r="E201" s="15"/>
       <c r="F201" s="81"/>
       <c r="G201" s="28"/>
-      <c r="L201" s="213"/>
+      <c r="L201" s="202"/>
       <c r="N201" s="29"/>
       <c r="O201" s="91"/>
       <c r="P201" s="106"/>
@@ -13059,7 +13063,7 @@
       <c r="E202" s="15"/>
       <c r="F202" s="81"/>
       <c r="G202" s="28"/>
-      <c r="L202" s="213"/>
+      <c r="L202" s="202"/>
       <c r="N202" s="29"/>
       <c r="O202" s="91"/>
       <c r="P202" s="106"/>
@@ -13079,7 +13083,7 @@
       <c r="E203" s="15"/>
       <c r="F203" s="81"/>
       <c r="G203" s="28"/>
-      <c r="L203" s="213"/>
+      <c r="L203" s="202"/>
       <c r="N203" s="29"/>
       <c r="O203" s="91"/>
       <c r="P203" s="106"/>
@@ -13099,7 +13103,7 @@
       <c r="E204" s="15"/>
       <c r="F204" s="81"/>
       <c r="G204" s="28"/>
-      <c r="L204" s="213"/>
+      <c r="L204" s="202"/>
       <c r="N204" s="29"/>
       <c r="O204" s="91"/>
       <c r="P204" s="106"/>
@@ -13119,7 +13123,7 @@
       <c r="E205" s="15"/>
       <c r="F205" s="81"/>
       <c r="G205" s="28"/>
-      <c r="L205" s="213"/>
+      <c r="L205" s="202"/>
       <c r="N205" s="29"/>
       <c r="O205" s="91"/>
       <c r="P205" s="106"/>
@@ -13139,7 +13143,7 @@
       <c r="E206" s="15"/>
       <c r="F206" s="81"/>
       <c r="G206" s="28"/>
-      <c r="L206" s="213"/>
+      <c r="L206" s="202"/>
       <c r="N206" s="29"/>
       <c r="O206" s="91"/>
       <c r="P206" s="106"/>
@@ -13159,7 +13163,7 @@
       <c r="E207" s="15"/>
       <c r="F207" s="81"/>
       <c r="G207" s="28"/>
-      <c r="L207" s="213"/>
+      <c r="L207" s="202"/>
       <c r="N207" s="29"/>
       <c r="O207" s="91"/>
       <c r="P207" s="106"/>
@@ -13179,7 +13183,7 @@
       <c r="E208" s="15"/>
       <c r="F208" s="81"/>
       <c r="G208" s="28"/>
-      <c r="L208" s="213"/>
+      <c r="L208" s="202"/>
       <c r="N208" s="29"/>
       <c r="O208" s="91"/>
       <c r="P208" s="106"/>
@@ -13199,7 +13203,7 @@
       <c r="E209" s="15"/>
       <c r="F209" s="81"/>
       <c r="G209" s="28"/>
-      <c r="L209" s="213"/>
+      <c r="L209" s="202"/>
       <c r="N209" s="29"/>
       <c r="O209" s="91"/>
       <c r="P209" s="106"/>
@@ -13219,7 +13223,7 @@
       <c r="E210" s="15"/>
       <c r="F210" s="81"/>
       <c r="G210" s="28"/>
-      <c r="L210" s="213"/>
+      <c r="L210" s="202"/>
       <c r="N210" s="29"/>
       <c r="O210" s="91"/>
       <c r="P210" s="106"/>
@@ -13239,7 +13243,7 @@
       <c r="E211" s="15"/>
       <c r="F211" s="81"/>
       <c r="G211" s="28"/>
-      <c r="L211" s="213"/>
+      <c r="L211" s="202"/>
       <c r="N211" s="29"/>
       <c r="O211" s="91"/>
       <c r="P211" s="106"/>
@@ -13259,7 +13263,7 @@
       <c r="E212" s="15"/>
       <c r="F212" s="81"/>
       <c r="G212" s="28"/>
-      <c r="L212" s="213"/>
+      <c r="L212" s="202"/>
       <c r="N212" s="29"/>
       <c r="O212" s="91"/>
       <c r="P212" s="106"/>
@@ -13279,7 +13283,7 @@
       <c r="E213" s="15"/>
       <c r="F213" s="81"/>
       <c r="G213" s="28"/>
-      <c r="L213" s="213"/>
+      <c r="L213" s="202"/>
       <c r="N213" s="29"/>
       <c r="O213" s="91"/>
       <c r="P213" s="106"/>
@@ -13299,7 +13303,7 @@
       <c r="E214" s="15"/>
       <c r="F214" s="81"/>
       <c r="G214" s="28"/>
-      <c r="L214" s="213"/>
+      <c r="L214" s="202"/>
       <c r="N214" s="29"/>
       <c r="O214" s="91"/>
       <c r="P214" s="106"/>
@@ -13319,7 +13323,7 @@
       <c r="E215" s="15"/>
       <c r="F215" s="81"/>
       <c r="G215" s="28"/>
-      <c r="L215" s="213"/>
+      <c r="L215" s="202"/>
       <c r="N215" s="29"/>
       <c r="O215" s="91"/>
       <c r="P215" s="106"/>
@@ -13339,7 +13343,7 @@
       <c r="E216" s="15"/>
       <c r="F216" s="81"/>
       <c r="G216" s="28"/>
-      <c r="L216" s="213"/>
+      <c r="L216" s="202"/>
       <c r="N216" s="29"/>
       <c r="O216" s="91"/>
       <c r="P216" s="106"/>
@@ -13359,7 +13363,7 @@
       <c r="E217" s="15"/>
       <c r="F217" s="81"/>
       <c r="G217" s="28"/>
-      <c r="L217" s="213"/>
+      <c r="L217" s="202"/>
       <c r="N217" s="29"/>
       <c r="O217" s="91"/>
       <c r="P217" s="106"/>
@@ -13379,7 +13383,7 @@
       <c r="E218" s="15"/>
       <c r="F218" s="81"/>
       <c r="G218" s="28"/>
-      <c r="L218" s="213"/>
+      <c r="L218" s="202"/>
       <c r="N218" s="29"/>
       <c r="O218" s="91"/>
       <c r="P218" s="106"/>
@@ -13399,7 +13403,7 @@
       <c r="E219" s="15"/>
       <c r="F219" s="81"/>
       <c r="G219" s="28"/>
-      <c r="L219" s="213"/>
+      <c r="L219" s="202"/>
       <c r="N219" s="29"/>
       <c r="O219" s="91"/>
       <c r="P219" s="106"/>
@@ -13419,7 +13423,7 @@
       <c r="E220" s="15"/>
       <c r="F220" s="81"/>
       <c r="G220" s="28"/>
-      <c r="L220" s="213"/>
+      <c r="L220" s="202"/>
       <c r="N220" s="29"/>
       <c r="O220" s="91"/>
       <c r="P220" s="106"/>
@@ -13439,7 +13443,7 @@
       <c r="E221" s="15"/>
       <c r="F221" s="81"/>
       <c r="G221" s="28"/>
-      <c r="L221" s="213"/>
+      <c r="L221" s="202"/>
       <c r="N221" s="29"/>
       <c r="O221" s="91"/>
       <c r="P221" s="106"/>
@@ -13459,7 +13463,7 @@
       <c r="E222" s="15"/>
       <c r="F222" s="81"/>
       <c r="G222" s="28"/>
-      <c r="L222" s="213"/>
+      <c r="L222" s="202"/>
       <c r="N222" s="29"/>
       <c r="O222" s="91"/>
       <c r="P222" s="106"/>
@@ -13479,7 +13483,7 @@
       <c r="E223" s="15"/>
       <c r="F223" s="81"/>
       <c r="G223" s="28"/>
-      <c r="L223" s="213"/>
+      <c r="L223" s="202"/>
       <c r="N223" s="29"/>
       <c r="O223" s="91"/>
       <c r="P223" s="106"/>
@@ -13499,7 +13503,7 @@
       <c r="E224" s="15"/>
       <c r="F224" s="81"/>
       <c r="G224" s="28"/>
-      <c r="L224" s="213"/>
+      <c r="L224" s="202"/>
       <c r="N224" s="29"/>
       <c r="O224" s="91"/>
       <c r="P224" s="106"/>
@@ -13519,7 +13523,7 @@
       <c r="E225" s="15"/>
       <c r="F225" s="81"/>
       <c r="G225" s="28"/>
-      <c r="L225" s="213"/>
+      <c r="L225" s="202"/>
       <c r="N225" s="29"/>
       <c r="O225" s="91"/>
       <c r="P225" s="106"/>
@@ -13539,7 +13543,7 @@
       <c r="E226" s="15"/>
       <c r="F226" s="81"/>
       <c r="G226" s="28"/>
-      <c r="L226" s="213"/>
+      <c r="L226" s="202"/>
       <c r="N226" s="29"/>
       <c r="O226" s="91"/>
       <c r="P226" s="106"/>
@@ -13559,7 +13563,7 @@
       <c r="E227" s="15"/>
       <c r="F227" s="81"/>
       <c r="G227" s="28"/>
-      <c r="L227" s="213"/>
+      <c r="L227" s="202"/>
       <c r="N227" s="29"/>
       <c r="O227" s="91"/>
       <c r="P227" s="106"/>
@@ -13579,7 +13583,7 @@
       <c r="E228" s="15"/>
       <c r="F228" s="81"/>
       <c r="G228" s="28"/>
-      <c r="L228" s="213"/>
+      <c r="L228" s="202"/>
       <c r="N228" s="29"/>
       <c r="O228" s="91"/>
       <c r="P228" s="106"/>
@@ -13599,7 +13603,7 @@
       <c r="E229" s="15"/>
       <c r="F229" s="81"/>
       <c r="G229" s="28"/>
-      <c r="L229" s="213"/>
+      <c r="L229" s="202"/>
       <c r="N229" s="29"/>
       <c r="O229" s="91"/>
       <c r="P229" s="106"/>
@@ -13619,7 +13623,7 @@
       <c r="E230" s="15"/>
       <c r="F230" s="81"/>
       <c r="G230" s="28"/>
-      <c r="L230" s="213"/>
+      <c r="L230" s="202"/>
       <c r="N230" s="29"/>
       <c r="O230" s="91"/>
       <c r="P230" s="106"/>
@@ -13639,7 +13643,7 @@
       <c r="E231" s="15"/>
       <c r="F231" s="81"/>
       <c r="G231" s="28"/>
-      <c r="L231" s="213"/>
+      <c r="L231" s="202"/>
       <c r="N231" s="29"/>
       <c r="O231" s="91"/>
       <c r="P231" s="106"/>
@@ -13659,7 +13663,7 @@
       <c r="E232" s="15"/>
       <c r="F232" s="81"/>
       <c r="G232" s="28"/>
-      <c r="L232" s="213"/>
+      <c r="L232" s="202"/>
       <c r="N232" s="29"/>
       <c r="O232" s="91"/>
       <c r="P232" s="106"/>
@@ -13679,7 +13683,7 @@
       <c r="E233" s="15"/>
       <c r="F233" s="81"/>
       <c r="G233" s="28"/>
-      <c r="L233" s="213"/>
+      <c r="L233" s="202"/>
       <c r="N233" s="29"/>
       <c r="O233" s="91"/>
       <c r="P233" s="106"/>
@@ -13699,7 +13703,7 @@
       <c r="E234" s="15"/>
       <c r="F234" s="81"/>
       <c r="G234" s="28"/>
-      <c r="L234" s="213"/>
+      <c r="L234" s="202"/>
       <c r="N234" s="29"/>
       <c r="O234" s="91"/>
       <c r="P234" s="106"/>
@@ -13719,7 +13723,7 @@
       <c r="E235" s="15"/>
       <c r="F235" s="81"/>
       <c r="G235" s="28"/>
-      <c r="L235" s="213"/>
+      <c r="L235" s="202"/>
       <c r="N235" s="29"/>
       <c r="O235" s="91"/>
       <c r="P235" s="106"/>
@@ -13739,7 +13743,7 @@
       <c r="E236" s="15"/>
       <c r="F236" s="81"/>
       <c r="G236" s="28"/>
-      <c r="L236" s="213"/>
+      <c r="L236" s="202"/>
       <c r="N236" s="29"/>
       <c r="O236" s="91"/>
       <c r="P236" s="106"/>
@@ -13759,7 +13763,7 @@
       <c r="E237" s="15"/>
       <c r="F237" s="81"/>
       <c r="G237" s="28"/>
-      <c r="L237" s="213"/>
+      <c r="L237" s="202"/>
       <c r="N237" s="29"/>
       <c r="O237" s="91"/>
       <c r="P237" s="106"/>
@@ -13779,7 +13783,7 @@
       <c r="E238" s="15"/>
       <c r="F238" s="81"/>
       <c r="G238" s="28"/>
-      <c r="L238" s="213"/>
+      <c r="L238" s="202"/>
       <c r="N238" s="29"/>
       <c r="O238" s="91"/>
       <c r="P238" s="106"/>
@@ -13799,7 +13803,7 @@
       <c r="E239" s="15"/>
       <c r="F239" s="81"/>
       <c r="G239" s="28"/>
-      <c r="L239" s="213"/>
+      <c r="L239" s="202"/>
       <c r="N239" s="29"/>
       <c r="O239" s="91"/>
       <c r="P239" s="106"/>
@@ -13819,7 +13823,7 @@
       <c r="E240" s="15"/>
       <c r="F240" s="81"/>
       <c r="G240" s="28"/>
-      <c r="L240" s="213"/>
+      <c r="L240" s="202"/>
       <c r="N240" s="29"/>
       <c r="O240" s="91"/>
       <c r="P240" s="106"/>
@@ -13839,7 +13843,7 @@
       <c r="E241" s="15"/>
       <c r="F241" s="81"/>
       <c r="G241" s="28"/>
-      <c r="L241" s="213"/>
+      <c r="L241" s="202"/>
       <c r="N241" s="29"/>
       <c r="O241" s="91"/>
       <c r="P241" s="106"/>
@@ -13859,7 +13863,7 @@
       <c r="E242" s="15"/>
       <c r="F242" s="81"/>
       <c r="G242" s="28"/>
-      <c r="L242" s="213"/>
+      <c r="L242" s="202"/>
       <c r="N242" s="29"/>
       <c r="O242" s="91"/>
       <c r="P242" s="106"/>
@@ -13879,7 +13883,7 @@
       <c r="E243" s="15"/>
       <c r="F243" s="81"/>
       <c r="G243" s="28"/>
-      <c r="L243" s="213"/>
+      <c r="L243" s="202"/>
       <c r="N243" s="29"/>
       <c r="O243" s="91"/>
       <c r="P243" s="106"/>
@@ -13899,7 +13903,7 @@
       <c r="E244" s="15"/>
       <c r="F244" s="81"/>
       <c r="G244" s="28"/>
-      <c r="L244" s="213"/>
+      <c r="L244" s="202"/>
       <c r="N244" s="29"/>
       <c r="O244" s="91"/>
       <c r="P244" s="106"/>
@@ -13919,7 +13923,7 @@
       <c r="E245" s="15"/>
       <c r="F245" s="81"/>
       <c r="G245" s="28"/>
-      <c r="L245" s="213"/>
+      <c r="L245" s="202"/>
       <c r="N245" s="29"/>
       <c r="O245" s="91"/>
       <c r="P245" s="106"/>
@@ -13939,7 +13943,7 @@
       <c r="E246" s="15"/>
       <c r="F246" s="81"/>
       <c r="G246" s="28"/>
-      <c r="L246" s="213"/>
+      <c r="L246" s="202"/>
       <c r="N246" s="29"/>
       <c r="O246" s="91"/>
       <c r="P246" s="106"/>
@@ -13959,7 +13963,7 @@
       <c r="E247" s="15"/>
       <c r="F247" s="81"/>
       <c r="G247" s="28"/>
-      <c r="L247" s="213"/>
+      <c r="L247" s="202"/>
       <c r="N247" s="29"/>
       <c r="O247" s="91"/>
       <c r="P247" s="106"/>
@@ -13979,7 +13983,7 @@
       <c r="E248" s="15"/>
       <c r="F248" s="81"/>
       <c r="G248" s="28"/>
-      <c r="L248" s="213"/>
+      <c r="L248" s="202"/>
       <c r="N248" s="29"/>
       <c r="O248" s="91"/>
       <c r="P248" s="106"/>
@@ -13999,7 +14003,7 @@
       <c r="E249" s="15"/>
       <c r="F249" s="81"/>
       <c r="G249" s="28"/>
-      <c r="L249" s="213"/>
+      <c r="L249" s="202"/>
       <c r="N249" s="29"/>
       <c r="O249" s="91"/>
       <c r="P249" s="106"/>
@@ -14019,7 +14023,7 @@
       <c r="E250" s="15"/>
       <c r="F250" s="81"/>
       <c r="G250" s="28"/>
-      <c r="L250" s="213"/>
+      <c r="L250" s="202"/>
       <c r="N250" s="29"/>
       <c r="O250" s="91"/>
       <c r="P250" s="106"/>
@@ -14039,7 +14043,7 @@
       <c r="E251" s="15"/>
       <c r="F251" s="81"/>
       <c r="G251" s="28"/>
-      <c r="L251" s="213"/>
+      <c r="L251" s="202"/>
       <c r="N251" s="29"/>
       <c r="O251" s="91"/>
       <c r="P251" s="106"/>
@@ -14059,7 +14063,7 @@
       <c r="E252" s="15"/>
       <c r="F252" s="81"/>
       <c r="G252" s="28"/>
-      <c r="L252" s="213"/>
+      <c r="L252" s="202"/>
       <c r="N252" s="29"/>
       <c r="O252" s="91"/>
       <c r="P252" s="106"/>
@@ -14079,7 +14083,7 @@
       <c r="E253" s="15"/>
       <c r="F253" s="81"/>
       <c r="G253" s="28"/>
-      <c r="L253" s="213"/>
+      <c r="L253" s="202"/>
       <c r="N253" s="29"/>
       <c r="O253" s="91"/>
       <c r="P253" s="106"/>
@@ -14099,7 +14103,7 @@
       <c r="E254" s="15"/>
       <c r="F254" s="81"/>
       <c r="G254" s="28"/>
-      <c r="L254" s="213"/>
+      <c r="L254" s="202"/>
       <c r="N254" s="29"/>
       <c r="O254" s="91"/>
       <c r="P254" s="106"/>
@@ -14119,7 +14123,7 @@
       <c r="E255" s="15"/>
       <c r="F255" s="81"/>
       <c r="G255" s="28"/>
-      <c r="L255" s="213"/>
+      <c r="L255" s="202"/>
       <c r="N255" s="29"/>
       <c r="O255" s="91"/>
       <c r="P255" s="106"/>
@@ -14139,7 +14143,7 @@
       <c r="E256" s="15"/>
       <c r="F256" s="81"/>
       <c r="G256" s="28"/>
-      <c r="L256" s="213"/>
+      <c r="L256" s="202"/>
       <c r="N256" s="29"/>
       <c r="O256" s="91"/>
       <c r="P256" s="106"/>
@@ -14159,7 +14163,7 @@
       <c r="E257" s="15"/>
       <c r="F257" s="81"/>
       <c r="G257" s="28"/>
-      <c r="L257" s="213"/>
+      <c r="L257" s="202"/>
       <c r="N257" s="29"/>
       <c r="O257" s="91"/>
       <c r="P257" s="106"/>
@@ -14179,7 +14183,7 @@
       <c r="E258" s="15"/>
       <c r="F258" s="81"/>
       <c r="G258" s="28"/>
-      <c r="L258" s="213"/>
+      <c r="L258" s="202"/>
       <c r="N258" s="29"/>
       <c r="O258" s="91"/>
       <c r="P258" s="106"/>
@@ -14199,7 +14203,7 @@
       <c r="E259" s="15"/>
       <c r="F259" s="81"/>
       <c r="G259" s="28"/>
-      <c r="L259" s="213"/>
+      <c r="L259" s="202"/>
       <c r="N259" s="29"/>
       <c r="O259" s="91"/>
       <c r="P259" s="106"/>
@@ -14219,7 +14223,7 @@
       <c r="E260" s="15"/>
       <c r="F260" s="81"/>
       <c r="G260" s="28"/>
-      <c r="L260" s="213"/>
+      <c r="L260" s="202"/>
       <c r="N260" s="29"/>
       <c r="O260" s="91"/>
       <c r="P260" s="106"/>
@@ -14239,7 +14243,7 @@
       <c r="E261" s="15"/>
       <c r="F261" s="81"/>
       <c r="G261" s="28"/>
-      <c r="L261" s="213"/>
+      <c r="L261" s="202"/>
       <c r="N261" s="29"/>
       <c r="O261" s="91"/>
       <c r="P261" s="106"/>
@@ -14259,7 +14263,7 @@
       <c r="E262" s="15"/>
       <c r="F262" s="81"/>
       <c r="G262" s="28"/>
-      <c r="L262" s="213"/>
+      <c r="L262" s="202"/>
       <c r="N262" s="29"/>
       <c r="O262" s="91"/>
       <c r="P262" s="106"/>
@@ -14279,7 +14283,7 @@
       <c r="E263" s="15"/>
       <c r="F263" s="81"/>
       <c r="G263" s="28"/>
-      <c r="L263" s="213"/>
+      <c r="L263" s="202"/>
       <c r="N263" s="29"/>
       <c r="O263" s="91"/>
       <c r="P263" s="106"/>
@@ -14299,7 +14303,7 @@
       <c r="E264" s="15"/>
       <c r="F264" s="81"/>
       <c r="G264" s="28"/>
-      <c r="L264" s="213"/>
+      <c r="L264" s="202"/>
       <c r="N264" s="29"/>
       <c r="O264" s="91"/>
       <c r="P264" s="106"/>
@@ -14319,7 +14323,7 @@
       <c r="E265" s="15"/>
       <c r="F265" s="81"/>
       <c r="G265" s="28"/>
-      <c r="L265" s="213"/>
+      <c r="L265" s="202"/>
       <c r="N265" s="29"/>
       <c r="O265" s="91"/>
       <c r="P265" s="106"/>
@@ -14339,7 +14343,7 @@
       <c r="E266" s="15"/>
       <c r="F266" s="81"/>
       <c r="G266" s="28"/>
-      <c r="L266" s="213"/>
+      <c r="L266" s="202"/>
       <c r="N266" s="29"/>
       <c r="O266" s="91"/>
       <c r="P266" s="106"/>
@@ -14359,7 +14363,7 @@
       <c r="E267" s="15"/>
       <c r="F267" s="81"/>
       <c r="G267" s="28"/>
-      <c r="L267" s="213"/>
+      <c r="L267" s="202"/>
       <c r="N267" s="29"/>
       <c r="O267" s="91"/>
       <c r="P267" s="106"/>
@@ -14379,7 +14383,7 @@
       <c r="E268" s="15"/>
       <c r="F268" s="81"/>
       <c r="G268" s="28"/>
-      <c r="L268" s="213"/>
+      <c r="L268" s="202"/>
       <c r="N268" s="29"/>
       <c r="O268" s="91"/>
       <c r="P268" s="106"/>
@@ -14399,7 +14403,7 @@
       <c r="E269" s="15"/>
       <c r="F269" s="81"/>
       <c r="G269" s="28"/>
-      <c r="L269" s="213"/>
+      <c r="L269" s="202"/>
       <c r="N269" s="29"/>
       <c r="O269" s="91"/>
       <c r="P269" s="106"/>
@@ -14419,7 +14423,7 @@
       <c r="E270" s="15"/>
       <c r="F270" s="81"/>
       <c r="G270" s="28"/>
-      <c r="L270" s="213"/>
+      <c r="L270" s="202"/>
       <c r="N270" s="29"/>
       <c r="O270" s="91"/>
       <c r="P270" s="106"/>
@@ -14439,7 +14443,7 @@
       <c r="E271" s="15"/>
       <c r="F271" s="81"/>
       <c r="G271" s="28"/>
-      <c r="L271" s="213"/>
+      <c r="L271" s="202"/>
       <c r="N271" s="29"/>
       <c r="O271" s="91"/>
       <c r="P271" s="106"/>
@@ -14459,7 +14463,7 @@
       <c r="E272" s="15"/>
       <c r="F272" s="81"/>
       <c r="G272" s="28"/>
-      <c r="L272" s="213"/>
+      <c r="L272" s="202"/>
       <c r="N272" s="29"/>
       <c r="O272" s="91"/>
       <c r="P272" s="106"/>
@@ -14479,7 +14483,7 @@
       <c r="E273" s="15"/>
       <c r="F273" s="81"/>
       <c r="G273" s="28"/>
-      <c r="L273" s="213"/>
+      <c r="L273" s="202"/>
       <c r="N273" s="29"/>
       <c r="O273" s="91"/>
       <c r="P273" s="106"/>
@@ -14499,7 +14503,7 @@
       <c r="E274" s="15"/>
       <c r="F274" s="81"/>
       <c r="G274" s="28"/>
-      <c r="L274" s="213"/>
+      <c r="L274" s="202"/>
       <c r="N274" s="29"/>
       <c r="O274" s="91"/>
       <c r="P274" s="106"/>
@@ -14519,7 +14523,7 @@
       <c r="E275" s="15"/>
       <c r="F275" s="81"/>
       <c r="G275" s="28"/>
-      <c r="L275" s="213"/>
+      <c r="L275" s="202"/>
       <c r="N275" s="29"/>
       <c r="O275" s="91"/>
       <c r="P275" s="106"/>
@@ -14539,7 +14543,7 @@
       <c r="E276" s="15"/>
       <c r="F276" s="81"/>
       <c r="G276" s="28"/>
-      <c r="L276" s="213"/>
+      <c r="L276" s="202"/>
       <c r="N276" s="29"/>
       <c r="O276" s="91"/>
       <c r="P276" s="106"/>
@@ -14559,7 +14563,7 @@
       <c r="E277" s="15"/>
       <c r="F277" s="81"/>
       <c r="G277" s="28"/>
-      <c r="L277" s="213"/>
+      <c r="L277" s="202"/>
       <c r="N277" s="29"/>
       <c r="O277" s="91"/>
       <c r="P277" s="106"/>
@@ -14579,7 +14583,7 @@
       <c r="E278" s="15"/>
       <c r="F278" s="81"/>
       <c r="G278" s="28"/>
-      <c r="L278" s="213"/>
+      <c r="L278" s="202"/>
       <c r="N278" s="29"/>
       <c r="O278" s="91"/>
       <c r="P278" s="106"/>
@@ -14599,7 +14603,7 @@
       <c r="E279" s="15"/>
       <c r="F279" s="81"/>
       <c r="G279" s="28"/>
-      <c r="L279" s="213"/>
+      <c r="L279" s="202"/>
       <c r="N279" s="29"/>
       <c r="O279" s="91"/>
       <c r="P279" s="106"/>
@@ -14619,7 +14623,7 @@
       <c r="E280" s="15"/>
       <c r="F280" s="81"/>
       <c r="G280" s="28"/>
-      <c r="L280" s="213"/>
+      <c r="L280" s="202"/>
       <c r="N280" s="29"/>
       <c r="O280" s="91"/>
       <c r="P280" s="106"/>
@@ -14639,7 +14643,7 @@
       <c r="E281" s="15"/>
       <c r="F281" s="81"/>
       <c r="G281" s="28"/>
-      <c r="L281" s="213"/>
+      <c r="L281" s="202"/>
       <c r="N281" s="29"/>
       <c r="O281" s="91"/>
       <c r="P281" s="106"/>
@@ -14659,7 +14663,7 @@
       <c r="E282" s="15"/>
       <c r="F282" s="81"/>
       <c r="G282" s="28"/>
-      <c r="L282" s="213"/>
+      <c r="L282" s="202"/>
       <c r="N282" s="29"/>
       <c r="O282" s="91"/>
       <c r="P282" s="106"/>
@@ -14679,7 +14683,7 @@
       <c r="E283" s="15"/>
       <c r="F283" s="81"/>
       <c r="G283" s="28"/>
-      <c r="L283" s="213"/>
+      <c r="L283" s="202"/>
       <c r="N283" s="29"/>
       <c r="O283" s="91"/>
       <c r="P283" s="106"/>
@@ -14699,7 +14703,7 @@
       <c r="E284" s="15"/>
       <c r="F284" s="81"/>
       <c r="G284" s="28"/>
-      <c r="L284" s="213"/>
+      <c r="L284" s="202"/>
       <c r="N284" s="29"/>
       <c r="O284" s="91"/>
       <c r="P284" s="106"/>
@@ -14719,7 +14723,7 @@
       <c r="E285" s="15"/>
       <c r="F285" s="81"/>
       <c r="G285" s="28"/>
-      <c r="L285" s="213"/>
+      <c r="L285" s="202"/>
       <c r="N285" s="29"/>
       <c r="O285" s="91"/>
       <c r="P285" s="106"/>
@@ -14739,7 +14743,7 @@
       <c r="E286" s="15"/>
       <c r="F286" s="81"/>
       <c r="G286" s="28"/>
-      <c r="L286" s="213"/>
+      <c r="L286" s="202"/>
       <c r="N286" s="29"/>
       <c r="O286" s="91"/>
       <c r="P286" s="106"/>
@@ -14759,7 +14763,7 @@
       <c r="E287" s="15"/>
       <c r="F287" s="81"/>
       <c r="G287" s="28"/>
-      <c r="L287" s="213"/>
+      <c r="L287" s="202"/>
       <c r="N287" s="29"/>
       <c r="O287" s="91"/>
       <c r="P287" s="106"/>
@@ -14779,7 +14783,7 @@
       <c r="E288" s="15"/>
       <c r="F288" s="81"/>
       <c r="G288" s="28"/>
-      <c r="L288" s="213"/>
+      <c r="L288" s="202"/>
       <c r="N288" s="29"/>
       <c r="O288" s="91"/>
       <c r="P288" s="106"/>
@@ -14799,7 +14803,7 @@
       <c r="E289" s="15"/>
       <c r="F289" s="81"/>
       <c r="G289" s="28"/>
-      <c r="L289" s="213"/>
+      <c r="L289" s="202"/>
       <c r="N289" s="29"/>
       <c r="O289" s="91"/>
       <c r="P289" s="106"/>
@@ -14819,7 +14823,7 @@
       <c r="E290" s="15"/>
       <c r="F290" s="81"/>
       <c r="G290" s="28"/>
-      <c r="L290" s="213"/>
+      <c r="L290" s="202"/>
       <c r="N290" s="29"/>
       <c r="O290" s="91"/>
       <c r="P290" s="106"/>
@@ -14839,7 +14843,7 @@
       <c r="E291" s="15"/>
       <c r="F291" s="81"/>
       <c r="G291" s="28"/>
-      <c r="L291" s="213"/>
+      <c r="L291" s="202"/>
       <c r="N291" s="29"/>
       <c r="O291" s="91"/>
       <c r="P291" s="106"/>
@@ -14859,7 +14863,7 @@
       <c r="E292" s="15"/>
       <c r="F292" s="81"/>
       <c r="G292" s="28"/>
-      <c r="L292" s="213"/>
+      <c r="L292" s="202"/>
       <c r="N292" s="29"/>
       <c r="O292" s="91"/>
       <c r="P292" s="106"/>
@@ -14879,7 +14883,7 @@
       <c r="E293" s="15"/>
       <c r="F293" s="81"/>
       <c r="G293" s="28"/>
-      <c r="L293" s="213"/>
+      <c r="L293" s="202"/>
       <c r="N293" s="29"/>
       <c r="O293" s="91"/>
       <c r="P293" s="106"/>
@@ -14899,7 +14903,7 @@
       <c r="E294" s="15"/>
       <c r="F294" s="81"/>
       <c r="G294" s="28"/>
-      <c r="L294" s="213"/>
+      <c r="L294" s="202"/>
       <c r="N294" s="29"/>
       <c r="O294" s="91"/>
       <c r="P294" s="106"/>
@@ -14919,7 +14923,7 @@
       <c r="E295" s="15"/>
       <c r="F295" s="81"/>
       <c r="G295" s="28"/>
-      <c r="L295" s="213"/>
+      <c r="L295" s="202"/>
       <c r="N295" s="29"/>
       <c r="O295" s="91"/>
       <c r="P295" s="106"/>
@@ -14939,7 +14943,7 @@
       <c r="E296" s="15"/>
       <c r="F296" s="81"/>
       <c r="G296" s="28"/>
-      <c r="L296" s="213"/>
+      <c r="L296" s="202"/>
       <c r="N296" s="29"/>
       <c r="O296" s="91"/>
       <c r="P296" s="106"/>
@@ -14959,7 +14963,7 @@
       <c r="E297" s="15"/>
       <c r="F297" s="81"/>
       <c r="G297" s="28"/>
-      <c r="L297" s="213"/>
+      <c r="L297" s="202"/>
       <c r="N297" s="29"/>
       <c r="O297" s="91"/>
       <c r="P297" s="106"/>
@@ -14979,7 +14983,7 @@
       <c r="E298" s="15"/>
       <c r="F298" s="81"/>
       <c r="G298" s="28"/>
-      <c r="L298" s="213"/>
+      <c r="L298" s="202"/>
       <c r="N298" s="29"/>
       <c r="O298" s="91"/>
       <c r="P298" s="106"/>
@@ -14999,7 +15003,7 @@
       <c r="E299" s="15"/>
       <c r="F299" s="81"/>
       <c r="G299" s="28"/>
-      <c r="L299" s="213"/>
+      <c r="L299" s="202"/>
       <c r="N299" s="29"/>
       <c r="O299" s="91"/>
       <c r="P299" s="106"/>
@@ -15019,7 +15023,7 @@
       <c r="E300" s="15"/>
       <c r="F300" s="81"/>
       <c r="G300" s="28"/>
-      <c r="L300" s="213"/>
+      <c r="L300" s="202"/>
       <c r="N300" s="29"/>
       <c r="O300" s="91"/>
       <c r="P300" s="106"/>
@@ -15039,7 +15043,7 @@
       <c r="E301" s="15"/>
       <c r="F301" s="81"/>
       <c r="G301" s="28"/>
-      <c r="L301" s="213"/>
+      <c r="L301" s="202"/>
       <c r="N301" s="29"/>
       <c r="O301" s="91"/>
       <c r="P301" s="106"/>
@@ -15059,7 +15063,7 @@
       <c r="E302" s="15"/>
       <c r="F302" s="81"/>
       <c r="G302" s="28"/>
-      <c r="L302" s="213"/>
+      <c r="L302" s="202"/>
       <c r="N302" s="29"/>
       <c r="O302" s="91"/>
       <c r="P302" s="106"/>
@@ -15079,7 +15083,7 @@
       <c r="E303" s="15"/>
       <c r="F303" s="81"/>
       <c r="G303" s="28"/>
-      <c r="L303" s="213"/>
+      <c r="L303" s="202"/>
       <c r="N303" s="29"/>
       <c r="O303" s="91"/>
       <c r="P303" s="106"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -2878,7 +2878,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.###############"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -3788,6 +3788,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3835,38 +3867,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4223,10 +4223,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4:X85"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4289,16 +4289,16 @@
       <c r="F1" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="213" t="s">
+      <c r="G1" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="216"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="228"/>
       <c r="O1" s="107" t="s">
         <v>283</v>
       </c>
@@ -4329,31 +4329,31 @@
       <c r="X1" s="175" t="s">
         <v>517</v>
       </c>
-      <c r="Y1" s="224" t="s">
+      <c r="Y1" s="236" t="s">
         <v>334</v>
       </c>
-      <c r="Z1" s="225"/>
+      <c r="Z1" s="237"/>
       <c r="AA1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="217" t="s">
+      <c r="AB1" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="210" t="s">
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="232"/>
+      <c r="AH1" s="222" t="s">
         <v>273</v>
       </c>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="212"/>
-      <c r="AK1" s="210" t="s">
+      <c r="AI1" s="223"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="222" t="s">
         <v>279</v>
       </c>
-      <c r="AL1" s="211"/>
-      <c r="AM1" s="212"/>
+      <c r="AL1" s="223"/>
+      <c r="AM1" s="224"/>
       <c r="AN1" s="209" t="s">
         <v>529</v>
       </c>
@@ -4362,12 +4362,12 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="233" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
       <c r="F2" s="113"/>
       <c r="G2" s="187" t="s">
         <v>13</v>
@@ -4451,12 +4451,12 @@
     </row>
     <row r="3" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
       <c r="F3" s="74"/>
       <c r="G3" s="18">
         <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G87)</f>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="Z3" s="185">
         <f ca="1">MEDIAN(Z4:Z100)</f>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="AA3" s="78"/>
       <c r="AB3" s="22">
@@ -4600,10 +4600,10 @@
       <c r="V4" s="114" t="s">
         <v>316</v>
       </c>
-      <c r="W4" s="226">
+      <c r="W4" s="210">
         <v>40878</v>
       </c>
-      <c r="X4" s="226"/>
+      <c r="X4" s="210"/>
       <c r="Y4" s="181"/>
       <c r="Z4" s="183"/>
       <c r="AA4" s="76"/>
@@ -4670,8 +4670,8 @@
       <c r="V5" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="W5" s="227"/>
-      <c r="X5" s="227">
+      <c r="W5" s="211"/>
+      <c r="X5" s="211">
         <v>39876</v>
       </c>
       <c r="Y5" s="181">
@@ -4768,10 +4768,10 @@
       <c r="V6" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="W6" s="228">
+      <c r="W6" s="212">
         <v>40562</v>
       </c>
-      <c r="X6" s="228"/>
+      <c r="X6" s="212"/>
       <c r="Y6" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -4862,10 +4862,10 @@
       <c r="V7" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="W7" s="227">
+      <c r="W7" s="211">
         <v>40495</v>
       </c>
-      <c r="X7" s="227">
+      <c r="X7" s="211">
         <v>40941</v>
       </c>
       <c r="Y7" s="181">
@@ -4944,8 +4944,8 @@
       <c r="V8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="213"/>
       <c r="Y8" s="181"/>
       <c r="Z8" s="183"/>
       <c r="AA8" s="3" t="s">
@@ -5012,8 +5012,8 @@
       <c r="V9" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="W9" s="230"/>
-      <c r="X9" s="230">
+      <c r="W9" s="214"/>
+      <c r="X9" s="214">
         <v>39784</v>
       </c>
       <c r="Y9" s="181">
@@ -5094,8 +5094,8 @@
       <c r="V10" s="65">
         <v>39879</v>
       </c>
-      <c r="W10" s="231"/>
-      <c r="X10" s="231">
+      <c r="W10" s="215"/>
+      <c r="X10" s="215">
         <v>39879</v>
       </c>
       <c r="Y10" s="181">
@@ -5161,8 +5161,8 @@
       <c r="V11" s="56">
         <v>2010</v>
       </c>
-      <c r="W11" s="232"/>
-      <c r="X11" s="232"/>
+      <c r="W11" s="216"/>
+      <c r="X11" s="216"/>
       <c r="Y11" s="181"/>
       <c r="Z11" s="183"/>
       <c r="AA11" s="57"/>
@@ -5225,8 +5225,8 @@
       <c r="V12" s="163">
         <v>40575</v>
       </c>
-      <c r="W12" s="231"/>
-      <c r="X12" s="231"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="215"/>
       <c r="Y12" s="207"/>
       <c r="Z12" s="208"/>
       <c r="AA12" s="75" t="s">
@@ -5300,10 +5300,10 @@
       <c r="V13" s="141" t="s">
         <v>267</v>
       </c>
-      <c r="W13" s="227">
+      <c r="W13" s="211">
         <v>39252</v>
       </c>
-      <c r="X13" s="227">
+      <c r="X13" s="211">
         <v>39370</v>
       </c>
       <c r="Y13" s="181">
@@ -5378,8 +5378,8 @@
       <c r="V14" s="65">
         <v>40205</v>
       </c>
-      <c r="W14" s="231"/>
-      <c r="X14" s="231">
+      <c r="W14" s="215"/>
+      <c r="X14" s="215">
         <v>40205</v>
       </c>
       <c r="Y14" s="181">
@@ -5464,8 +5464,8 @@
       <c r="V15" s="141" t="s">
         <v>272</v>
       </c>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227">
+      <c r="W15" s="211"/>
+      <c r="X15" s="211">
         <v>41304</v>
       </c>
       <c r="Y15" s="181">
@@ -5554,10 +5554,10 @@
       <c r="V16" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="W16" s="227">
+      <c r="W16" s="211">
         <v>40360</v>
       </c>
-      <c r="X16" s="227">
+      <c r="X16" s="211">
         <v>40513</v>
       </c>
       <c r="Y16" s="181">
@@ -5646,10 +5646,18 @@
       <c r="V17" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="181"/>
-      <c r="Z17" s="183"/>
+      <c r="W17" s="211">
+        <v>40645</v>
+      </c>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
       <c r="AA17" s="132"/>
       <c r="AB17" s="138" t="s">
         <v>25</v>
@@ -5724,10 +5732,10 @@
       <c r="V18" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="W18" s="228">
+      <c r="W18" s="212">
         <v>41383</v>
       </c>
-      <c r="X18" s="228"/>
+      <c r="X18" s="212"/>
       <c r="Y18" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -5813,10 +5821,10 @@
       <c r="V19" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="W19" s="231">
+      <c r="W19" s="215">
         <v>40668</v>
       </c>
-      <c r="X19" s="231">
+      <c r="X19" s="215">
         <v>40968</v>
       </c>
       <c r="Y19" s="181">
@@ -5900,8 +5908,8 @@
       <c r="V20" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="W20" s="231"/>
-      <c r="X20" s="231"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
       <c r="Y20" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -5983,8 +5991,8 @@
       <c r="V21" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="W21" s="228"/>
-      <c r="X21" s="228">
+      <c r="W21" s="212"/>
+      <c r="X21" s="212">
         <v>41105</v>
       </c>
       <c r="Y21" s="181">
@@ -6067,8 +6075,8 @@
       <c r="V22" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="W22" s="226"/>
-      <c r="X22" s="226"/>
+      <c r="W22" s="210"/>
+      <c r="X22" s="210"/>
       <c r="Y22" s="181"/>
       <c r="Z22" s="183"/>
       <c r="AA22" s="76"/>
@@ -6138,10 +6146,10 @@
       <c r="V23" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="W23" s="233">
+      <c r="W23" s="217">
         <v>41085</v>
       </c>
-      <c r="X23" s="233"/>
+      <c r="X23" s="217"/>
       <c r="Y23" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -6224,10 +6232,10 @@
       <c r="V24" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="W24" s="233">
+      <c r="W24" s="217">
         <v>41037</v>
       </c>
-      <c r="X24" s="233">
+      <c r="X24" s="217">
         <v>41061</v>
       </c>
       <c r="Y24" s="181">
@@ -6311,13 +6319,13 @@
       <c r="V25" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="W25" s="233"/>
-      <c r="X25" s="233">
+      <c r="W25" s="217"/>
+      <c r="X25" s="217">
         <v>41343</v>
       </c>
       <c r="Y25" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6399,8 +6407,8 @@
       <c r="V26" s="153" t="s">
         <v>394</v>
       </c>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
       <c r="Y26" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -6480,10 +6488,10 @@
       <c r="V27" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="W27" s="233">
+      <c r="W27" s="217">
         <v>41244</v>
       </c>
-      <c r="X27" s="233">
+      <c r="X27" s="217">
         <v>41361</v>
       </c>
       <c r="Y27" s="181">
@@ -6567,8 +6575,8 @@
       <c r="V28" s="171" t="s">
         <v>502</v>
       </c>
-      <c r="W28" s="234"/>
-      <c r="X28" s="234"/>
+      <c r="W28" s="218"/>
+      <c r="X28" s="218"/>
       <c r="Y28" s="181"/>
       <c r="Z28" s="183"/>
       <c r="AA28" s="57" t="s">
@@ -6621,8 +6629,8 @@
       <c r="V29" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="W29" s="231"/>
-      <c r="X29" s="231"/>
+      <c r="W29" s="215"/>
+      <c r="X29" s="215"/>
       <c r="Y29" s="181"/>
       <c r="Z29" s="183"/>
       <c r="AA29" s="77"/>
@@ -6677,10 +6685,10 @@
       <c r="V30" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="W30" s="231">
+      <c r="W30" s="215">
         <v>40269</v>
       </c>
-      <c r="X30" s="231">
+      <c r="X30" s="215">
         <v>40574</v>
       </c>
       <c r="Y30" s="181">
@@ -6765,10 +6773,10 @@
       <c r="V31" s="153" t="s">
         <v>469</v>
       </c>
-      <c r="W31" s="233">
+      <c r="W31" s="217">
         <v>40840</v>
       </c>
-      <c r="X31" s="233">
+      <c r="X31" s="217">
         <v>40953</v>
       </c>
       <c r="Y31" s="181">
@@ -6836,10 +6844,10 @@
       <c r="V32" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="W32" s="231">
+      <c r="W32" s="215">
         <v>40790</v>
       </c>
-      <c r="X32" s="231"/>
+      <c r="X32" s="215"/>
       <c r="Y32" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -6907,8 +6915,8 @@
       <c r="V33" s="166">
         <v>40756</v>
       </c>
-      <c r="W33" s="232"/>
-      <c r="X33" s="232"/>
+      <c r="W33" s="216"/>
+      <c r="X33" s="216"/>
       <c r="Y33" s="181"/>
       <c r="Z33" s="183"/>
       <c r="AA33" s="57" t="s">
@@ -6988,8 +6996,8 @@
       <c r="V34" s="206" t="s">
         <v>521</v>
       </c>
-      <c r="W34" s="230"/>
-      <c r="X34" s="230">
+      <c r="W34" s="214"/>
+      <c r="X34" s="214">
         <v>40989</v>
       </c>
       <c r="Y34" s="207">
@@ -7068,10 +7076,10 @@
       <c r="V35" s="163">
         <v>40756</v>
       </c>
-      <c r="W35" s="231">
+      <c r="W35" s="215">
         <v>40756</v>
       </c>
-      <c r="X35" s="231"/>
+      <c r="X35" s="215"/>
       <c r="Y35" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -7140,8 +7148,8 @@
       <c r="V36" s="62">
         <v>2012</v>
       </c>
-      <c r="W36" s="235"/>
-      <c r="X36" s="235"/>
+      <c r="W36" s="219"/>
+      <c r="X36" s="219"/>
       <c r="Y36" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -7209,10 +7217,10 @@
       <c r="V37" s="163" t="s">
         <v>461</v>
       </c>
-      <c r="W37" s="231">
+      <c r="W37" s="215">
         <v>41331</v>
       </c>
-      <c r="X37" s="231"/>
+      <c r="X37" s="215"/>
       <c r="Y37" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -7277,10 +7285,10 @@
       <c r="V38" s="143" t="s">
         <v>323</v>
       </c>
-      <c r="W38" s="226">
+      <c r="W38" s="210">
         <v>40443</v>
       </c>
-      <c r="X38" s="226"/>
+      <c r="X38" s="210"/>
       <c r="Y38" s="181"/>
       <c r="Z38" s="183"/>
       <c r="AA38" s="76"/>
@@ -7336,10 +7344,10 @@
       <c r="V39" s="65" t="s">
         <v>513</v>
       </c>
-      <c r="W39" s="231">
+      <c r="W39" s="215">
         <v>41061</v>
       </c>
-      <c r="X39" s="231"/>
+      <c r="X39" s="215"/>
       <c r="Y39" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -7414,10 +7422,10 @@
       <c r="V40" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="W40" s="231">
+      <c r="W40" s="215">
         <v>40544</v>
       </c>
-      <c r="X40" s="231">
+      <c r="X40" s="215">
         <v>40719</v>
       </c>
       <c r="Y40" s="181">
@@ -7508,10 +7516,10 @@
       <c r="V41" s="67" t="s">
         <v>410</v>
       </c>
-      <c r="W41" s="236">
+      <c r="W41" s="220">
         <v>40878</v>
       </c>
-      <c r="X41" s="236"/>
+      <c r="X41" s="220"/>
       <c r="Y41" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -7594,8 +7602,8 @@
       <c r="V42" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="W42" s="231"/>
-      <c r="X42" s="231">
+      <c r="W42" s="215"/>
+      <c r="X42" s="215">
         <v>41011</v>
       </c>
       <c r="Y42" s="181">
@@ -7673,8 +7681,8 @@
       <c r="V43" s="144" t="s">
         <v>363</v>
       </c>
-      <c r="W43" s="227"/>
-      <c r="X43" s="227">
+      <c r="W43" s="211"/>
+      <c r="X43" s="211">
         <v>38961</v>
       </c>
       <c r="Y43" s="181">
@@ -7761,8 +7769,8 @@
       <c r="V44" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="W44" s="226"/>
-      <c r="X44" s="226"/>
+      <c r="W44" s="210"/>
+      <c r="X44" s="210"/>
       <c r="Y44" s="181"/>
       <c r="Z44" s="183"/>
       <c r="AA44" s="76"/>
@@ -7823,8 +7831,8 @@
       <c r="V45" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="W45" s="231"/>
-      <c r="X45" s="231">
+      <c r="W45" s="215"/>
+      <c r="X45" s="215">
         <v>39448</v>
       </c>
       <c r="Y45" s="181">
@@ -7891,10 +7899,10 @@
       <c r="V46" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="W46" s="227">
+      <c r="W46" s="211">
         <v>41143</v>
       </c>
-      <c r="X46" s="227">
+      <c r="X46" s="211">
         <v>41186</v>
       </c>
       <c r="Y46" s="181">
@@ -7971,10 +7979,10 @@
       <c r="V47" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="W47" s="227">
+      <c r="W47" s="211">
         <v>40546</v>
       </c>
-      <c r="X47" s="227">
+      <c r="X47" s="211">
         <v>40788</v>
       </c>
       <c r="Y47" s="181">
@@ -8057,10 +8065,10 @@
       <c r="V48" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="W48" s="228">
+      <c r="W48" s="212">
         <v>39545</v>
       </c>
-      <c r="X48" s="228">
+      <c r="X48" s="212">
         <v>40854</v>
       </c>
       <c r="Y48" s="181">
@@ -8157,10 +8165,10 @@
       <c r="V49" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="W49" s="228">
+      <c r="W49" s="212">
         <v>39385</v>
       </c>
-      <c r="X49" s="228">
+      <c r="X49" s="212">
         <v>39927</v>
       </c>
       <c r="Y49" s="181">
@@ -8243,10 +8251,10 @@
       <c r="V50" s="157" t="s">
         <v>430</v>
       </c>
-      <c r="W50" s="233">
+      <c r="W50" s="217">
         <v>40865</v>
       </c>
-      <c r="X50" s="233">
+      <c r="X50" s="217">
         <v>41184</v>
       </c>
       <c r="Y50" s="181">
@@ -8319,10 +8327,10 @@
       <c r="V51" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="W51" s="231">
+      <c r="W51" s="215">
         <v>40742</v>
       </c>
-      <c r="X51" s="231">
+      <c r="X51" s="215">
         <v>40969</v>
       </c>
       <c r="Y51" s="181">
@@ -8409,10 +8417,10 @@
       <c r="V52" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="W52" s="231">
+      <c r="W52" s="215">
         <v>39249</v>
       </c>
-      <c r="X52" s="231">
+      <c r="X52" s="215">
         <v>39349</v>
       </c>
       <c r="Y52" s="181">
@@ -8486,8 +8494,8 @@
       <c r="V53" s="66">
         <v>2005</v>
       </c>
-      <c r="W53" s="231"/>
-      <c r="X53" s="231"/>
+      <c r="W53" s="215"/>
+      <c r="X53" s="215"/>
       <c r="Y53" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -8563,10 +8571,10 @@
       <c r="V54" s="146" t="s">
         <v>207</v>
       </c>
-      <c r="W54" s="237">
+      <c r="W54" s="221">
         <v>39748</v>
       </c>
-      <c r="X54" s="237">
+      <c r="X54" s="221">
         <v>40210</v>
       </c>
       <c r="Y54" s="181">
@@ -8649,8 +8657,8 @@
       <c r="V55" s="66" t="s">
         <v>425</v>
       </c>
-      <c r="W55" s="231"/>
-      <c r="X55" s="231"/>
+      <c r="W55" s="215"/>
+      <c r="X55" s="215"/>
       <c r="Y55" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -8710,10 +8718,10 @@
       <c r="V56" s="163">
         <v>40787</v>
       </c>
-      <c r="W56" s="231">
+      <c r="W56" s="215">
         <v>40787</v>
       </c>
-      <c r="X56" s="231"/>
+      <c r="X56" s="215"/>
       <c r="Y56" s="207" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -8792,10 +8800,10 @@
       <c r="V57" s="65" t="s">
         <v>526</v>
       </c>
-      <c r="W57" s="231">
+      <c r="W57" s="215">
         <v>41080</v>
       </c>
-      <c r="X57" s="231"/>
+      <c r="X57" s="215"/>
       <c r="Y57" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -8875,15 +8883,15 @@
       <c r="V58" s="144" t="s">
         <v>307</v>
       </c>
-      <c r="W58" s="227">
+      <c r="W58" s="211">
         <v>41099</v>
       </c>
-      <c r="X58" s="227">
+      <c r="X58" s="211">
         <v>41192</v>
       </c>
       <c r="Y58" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z58" s="183">
         <f t="shared" ca="1" si="3"/>
@@ -8951,8 +8959,8 @@
       <c r="V59" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="W59" s="232"/>
-      <c r="X59" s="232"/>
+      <c r="W59" s="216"/>
+      <c r="X59" s="216"/>
       <c r="Y59" s="181"/>
       <c r="Z59" s="183"/>
     </row>
@@ -8994,8 +9002,8 @@
       <c r="V60" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="W60" s="226"/>
-      <c r="X60" s="226"/>
+      <c r="W60" s="210"/>
+      <c r="X60" s="210"/>
       <c r="Y60" s="181"/>
       <c r="Z60" s="183"/>
       <c r="AA60" s="76"/>
@@ -9057,8 +9065,8 @@
       <c r="V61" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="W61" s="232"/>
-      <c r="X61" s="232"/>
+      <c r="W61" s="216"/>
+      <c r="X61" s="216"/>
       <c r="Y61" s="181"/>
       <c r="Z61" s="183"/>
     </row>
@@ -9092,8 +9100,8 @@
       <c r="V62" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="W62" s="232"/>
-      <c r="X62" s="232"/>
+      <c r="W62" s="216"/>
+      <c r="X62" s="216"/>
       <c r="Y62" s="181"/>
       <c r="Z62" s="183"/>
     </row>
@@ -9151,15 +9159,15 @@
       <c r="V63" s="144" t="s">
         <v>278</v>
       </c>
-      <c r="W63" s="227">
+      <c r="W63" s="211">
         <v>40667</v>
       </c>
-      <c r="X63" s="227">
+      <c r="X63" s="211">
         <v>41435</v>
       </c>
       <c r="Y63" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63" s="183">
         <f t="shared" ca="1" si="3"/>
@@ -9231,8 +9239,8 @@
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="62"/>
-      <c r="W64" s="235"/>
-      <c r="X64" s="235"/>
+      <c r="W64" s="219"/>
+      <c r="X64" s="219"/>
       <c r="Y64" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -9301,8 +9309,8 @@
         <v>516</v>
       </c>
       <c r="V65" s="62"/>
-      <c r="W65" s="235"/>
-      <c r="X65" s="235"/>
+      <c r="W65" s="219"/>
+      <c r="X65" s="219"/>
       <c r="Y65" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
@@ -9372,10 +9380,10 @@
       <c r="V66" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="W66" s="226">
+      <c r="W66" s="210">
         <v>40609</v>
       </c>
-      <c r="X66" s="226">
+      <c r="X66" s="210">
         <v>40638</v>
       </c>
       <c r="Y66" s="181"/>
@@ -9442,10 +9450,10 @@
       <c r="V67" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="W67" s="227">
+      <c r="W67" s="211">
         <v>40664</v>
       </c>
-      <c r="X67" s="227">
+      <c r="X67" s="211">
         <v>40836</v>
       </c>
       <c r="Y67" s="181">
@@ -9519,8 +9527,8 @@
       <c r="V68" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="W68" s="232"/>
-      <c r="X68" s="232"/>
+      <c r="W68" s="216"/>
+      <c r="X68" s="216"/>
       <c r="Y68" s="181"/>
       <c r="Z68" s="183"/>
       <c r="AK68" s="1" t="s">
@@ -9565,10 +9573,10 @@
       <c r="V69" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="W69" s="228">
+      <c r="W69" s="212">
         <v>40834</v>
       </c>
-      <c r="X69" s="228"/>
+      <c r="X69" s="212"/>
       <c r="Y69" s="181" t="str">
         <f t="shared" ref="Y69:Y85" ca="1" si="4">IF(ISBLANK(X69),"0", DATEDIF(X69,TODAY(),"m"))</f>
         <v>0</v>
@@ -9655,8 +9663,8 @@
       <c r="V70" s="123" t="s">
         <v>372</v>
       </c>
-      <c r="W70" s="227"/>
-      <c r="X70" s="227"/>
+      <c r="W70" s="211"/>
+      <c r="X70" s="211"/>
       <c r="Y70" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -9717,8 +9725,8 @@
         <v>504</v>
       </c>
       <c r="V71" s="56"/>
-      <c r="W71" s="232"/>
-      <c r="X71" s="232"/>
+      <c r="W71" s="216"/>
+      <c r="X71" s="216"/>
       <c r="Y71" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -9766,10 +9774,10 @@
       <c r="V72" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="W72" s="231">
+      <c r="W72" s="215">
         <v>40561</v>
       </c>
-      <c r="X72" s="231"/>
+      <c r="X72" s="215"/>
       <c r="Y72" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -9834,10 +9842,10 @@
       <c r="V73" s="163">
         <v>40603</v>
       </c>
-      <c r="W73" s="231">
+      <c r="W73" s="215">
         <v>40603</v>
       </c>
-      <c r="X73" s="231"/>
+      <c r="X73" s="215"/>
       <c r="Y73" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -9914,10 +9922,10 @@
       <c r="V74" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="W74" s="235">
+      <c r="W74" s="219">
         <v>40940</v>
       </c>
-      <c r="X74" s="235">
+      <c r="X74" s="219">
         <v>41030</v>
       </c>
       <c r="Y74" s="181">
@@ -9985,10 +9993,10 @@
       <c r="V75" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="W75" s="231">
+      <c r="W75" s="215">
         <v>40828</v>
       </c>
-      <c r="X75" s="231">
+      <c r="X75" s="215">
         <v>41264</v>
       </c>
       <c r="Y75" s="207">
@@ -10067,10 +10075,10 @@
       <c r="V76" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="W76" s="231">
+      <c r="W76" s="215">
         <v>41410</v>
       </c>
-      <c r="X76" s="231"/>
+      <c r="X76" s="215"/>
       <c r="Y76" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10133,8 +10141,8 @@
       <c r="V77" s="163">
         <v>40210</v>
       </c>
-      <c r="W77" s="231"/>
-      <c r="X77" s="231">
+      <c r="W77" s="215"/>
+      <c r="X77" s="215">
         <v>40210</v>
       </c>
       <c r="Y77" s="181">
@@ -10212,10 +10220,10 @@
       <c r="V78" s="65" t="s">
         <v>525</v>
       </c>
-      <c r="W78" s="231">
+      <c r="W78" s="215">
         <v>40252</v>
       </c>
-      <c r="X78" s="231"/>
+      <c r="X78" s="215"/>
       <c r="Y78" s="207" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10286,8 +10294,8 @@
       <c r="V79" s="56">
         <v>2008</v>
       </c>
-      <c r="W79" s="232"/>
-      <c r="X79" s="232"/>
+      <c r="W79" s="216"/>
+      <c r="X79" s="216"/>
       <c r="Y79" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10348,8 +10356,8 @@
       </c>
       <c r="U80" s="138"/>
       <c r="V80" s="141"/>
-      <c r="W80" s="227"/>
-      <c r="X80" s="227"/>
+      <c r="W80" s="211"/>
+      <c r="X80" s="211"/>
       <c r="Y80" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10414,8 +10422,8 @@
       <c r="T81" s="33"/>
       <c r="U81" s="32"/>
       <c r="V81" s="13"/>
-      <c r="W81" s="226"/>
-      <c r="X81" s="226"/>
+      <c r="W81" s="210"/>
+      <c r="X81" s="210"/>
       <c r="Y81" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10481,8 +10489,8 @@
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
-      <c r="W82" s="231"/>
-      <c r="X82" s="231"/>
+      <c r="W82" s="215"/>
+      <c r="X82" s="215"/>
       <c r="Y82" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10551,8 +10559,8 @@
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
-      <c r="W83" s="231"/>
-      <c r="X83" s="231"/>
+      <c r="W83" s="215"/>
+      <c r="X83" s="215"/>
       <c r="Y83" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -10620,10 +10628,10 @@
       <c r="V84" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="W84" s="231">
+      <c r="W84" s="215">
         <v>39794</v>
       </c>
-      <c r="X84" s="231">
+      <c r="X84" s="215">
         <v>39975</v>
       </c>
       <c r="Y84" s="181">
@@ -10691,10 +10699,10 @@
       <c r="V85" s="163" t="s">
         <v>476</v>
       </c>
-      <c r="W85" s="231">
+      <c r="W85" s="215">
         <v>40497</v>
       </c>
-      <c r="X85" s="231"/>
+      <c r="X85" s="215"/>
       <c r="Y85" s="181" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -4223,10 +4223,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -2791,15 +2791,9 @@
     <t>Durga</t>
   </si>
   <si>
-    <t>https://durga.onesme.com/</t>
-  </si>
-  <si>
     <t>Priv Beta 06.2012</t>
   </si>
   <si>
-    <t>SENATH Pty Ltd </t>
-  </si>
-  <si>
     <t xml:space="preserve">Monthly </t>
   </si>
   <si>
@@ -2870,6 +2864,15 @@
   </si>
   <si>
     <t>cloudControl</t>
+  </si>
+  <si>
+    <t>https://durgacloud.com/</t>
+  </si>
+  <si>
+    <t>@durgacloud</t>
+  </si>
+  <si>
+    <t>Senath Pty Ltd </t>
   </si>
 </sst>
 </file>
@@ -4223,10 +4226,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4327,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="X1" s="175" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Y1" s="236" t="s">
         <v>334</v>
@@ -4355,7 +4358,7 @@
       <c r="AL1" s="223"/>
       <c r="AM1" s="224"/>
       <c r="AN1" s="209" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4407,7 +4410,7 @@
         <v>29</v>
       </c>
       <c r="Z2" s="178" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
@@ -4548,7 +4551,7 @@
       </c>
       <c r="AJ3" s="23">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" s="22">
         <f t="shared" si="1"/>
@@ -4556,7 +4559,7 @@
       </c>
       <c r="AL3" s="10">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
@@ -4564,7 +4567,7 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5182,7 +5185,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>332</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
@@ -6038,7 +6041,7 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
@@ -6987,14 +6990,14 @@
         <v>177</v>
       </c>
       <c r="S34" s="205" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="206" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W34" s="214"/>
       <c r="X34" s="214">
@@ -7334,15 +7337,17 @@
         <v>76</v>
       </c>
       <c r="R39" s="173" t="s">
-        <v>512</v>
-      </c>
-      <c r="S39" s="64"/>
+        <v>537</v>
+      </c>
+      <c r="S39" s="64" t="s">
+        <v>538</v>
+      </c>
       <c r="T39" s="54" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W39" s="215">
         <v>41061</v>
@@ -7360,8 +7365,13 @@
       <c r="AB39" s="53"/>
       <c r="AG39" s="54"/>
       <c r="AH39" s="53"/>
-      <c r="AJ39" s="54"/>
+      <c r="AJ39" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="AK39" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL39" s="42" t="s">
         <v>25</v>
       </c>
       <c r="AM39" s="54"/>
@@ -7402,7 +7412,7 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
@@ -7557,7 +7567,7 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8021,7 +8031,7 @@
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
@@ -8107,7 +8117,7 @@
         <v>291</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8525,7 +8535,7 @@
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
@@ -8798,7 +8808,7 @@
         <v>449</v>
       </c>
       <c r="V57" s="65" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W57" s="215">
         <v>41080</v>
@@ -9250,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9306,7 +9316,7 @@
         <v>258</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="219"/>
@@ -9960,7 +9970,7 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F75" s="75" t="s">
         <v>301</v>
@@ -9983,7 +9993,7 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
@@ -9991,7 +10001,7 @@
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W75" s="215">
         <v>40828</v>
@@ -10214,11 +10224,11 @@
         <v>142</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W78" s="215">
         <v>40252</v>
@@ -10263,7 +10273,7 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10636,7 +10646,7 @@
       </c>
       <c r="Y84" s="181">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z84" s="183">
         <f t="shared" ca="1" si="5"/>
@@ -15215,15 +15225,14 @@
     <hyperlink ref="R36" r:id="rId90"/>
     <hyperlink ref="R85" r:id="rId91"/>
     <hyperlink ref="U41" r:id="rId92"/>
-    <hyperlink ref="R39" r:id="rId93"/>
-    <hyperlink ref="U28" r:id="rId94"/>
-    <hyperlink ref="R57" r:id="rId95"/>
-    <hyperlink ref="U12" r:id="rId96"/>
-    <hyperlink ref="R75" r:id="rId97"/>
+    <hyperlink ref="U28" r:id="rId93"/>
+    <hyperlink ref="R57" r:id="rId94"/>
+    <hyperlink ref="U12" r:id="rId95"/>
+    <hyperlink ref="R75" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
-  <drawing r:id="rId99"/>
-  <legacyDrawing r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <drawing r:id="rId98"/>
+  <legacyDrawing r:id="rId99"/>
 </worksheet>
 </file>
--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="540">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -4226,10 +4226,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="O3" s="86">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="100" t="s">
         <v>24</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="Z17" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA17" s="132"/>
       <c r="AB17" s="138" t="s">
@@ -6668,7 +6668,9 @@
       <c r="N30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="110"/>
+      <c r="O30" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="P30" s="103"/>
       <c r="Q30" s="54" t="s">
         <v>29</v>
@@ -7618,7 +7620,7 @@
       </c>
       <c r="Y42" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z42" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10015,7 +10017,7 @@
       </c>
       <c r="Z75" s="208">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA75" s="75" t="s">
         <v>296</v>
@@ -10650,7 +10652,7 @@
       </c>
       <c r="Z84" s="183">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA84" s="75" t="s">
         <v>305</v>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -2446,9 +2446,6 @@
     <t>Japan-based</t>
   </si>
   <si>
-    <t>@nttcom</t>
-  </si>
-  <si>
     <t>http://www.ntt.com/cloudn/</t>
   </si>
   <si>
@@ -2873,6 +2870,9 @@
   </si>
   <si>
     <t>Senath Pty Ltd </t>
+  </si>
+  <si>
+    <t>@Cloudn_NTTCom </t>
   </si>
 </sst>
 </file>
@@ -4226,10 +4226,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4330,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="X1" s="175" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y1" s="236" t="s">
         <v>334</v>
@@ -4358,7 +4358,7 @@
       <c r="AL1" s="223"/>
       <c r="AM1" s="224"/>
       <c r="AN1" s="209" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="233" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C2" s="233"/>
       <c r="D2" s="233"/>
@@ -4410,7 +4410,7 @@
         <v>29</v>
       </c>
       <c r="Z2" s="178" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
@@ -4567,7 +4567,7 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="Z7" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="132" t="s">
         <v>305</v>
@@ -5010,7 +5010,7 @@
         <v>352</v>
       </c>
       <c r="U9" s="159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V9" s="51" t="s">
         <v>354</v>
@@ -5089,10 +5089,10 @@
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5185,7 +5185,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>332</v>
@@ -5217,13 +5217,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>419</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>420</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5233,7 +5233,7 @@
       <c r="Y12" s="207"/>
       <c r="Z12" s="208"/>
       <c r="AA12" s="75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="Y13" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="183">
         <f t="shared" ca="1" si="3"/>
@@ -5373,10 +5373,10 @@
         <v>246</v>
       </c>
       <c r="T14" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
@@ -5818,11 +5818,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W19" s="215">
         <v>40668</v>
@@ -5858,15 +5858,15 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>465</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>466</v>
       </c>
       <c r="F20" s="75" t="s">
         <v>332</v>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W20" s="215"/>
       <c r="X20" s="215"/>
@@ -5939,7 +5939,7 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="Y21" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z21" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6041,7 +6041,7 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
@@ -6479,10 +6479,10 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>397</v>
+        <v>539</v>
       </c>
       <c r="T27" s="49" t="s">
         <v>224</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -6555,7 +6555,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
@@ -6564,19 +6564,19 @@
         <v>213</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S28" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>502</v>
+      </c>
+      <c r="V28" s="171" t="s">
         <v>501</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>503</v>
-      </c>
-      <c r="V28" s="171" t="s">
-        <v>502</v>
       </c>
       <c r="W28" s="218"/>
       <c r="X28" s="218"/>
@@ -6626,11 +6626,11 @@
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W29" s="215"/>
       <c r="X29" s="215"/>
@@ -6685,7 +6685,7 @@
         <v>65</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V30" s="65" t="s">
         <v>271</v>
@@ -6729,7 +6729,7 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W31" s="217">
         <v>40840</v>
@@ -6786,14 +6786,14 @@
       </c>
       <c r="Y31" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z31" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6841,10 +6841,10 @@
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V32" s="66" t="s">
         <v>221</v>
@@ -6914,7 +6914,7 @@
         <v>70</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
@@ -6925,7 +6925,7 @@
       <c r="Y33" s="181"/>
       <c r="Z33" s="183"/>
       <c r="AA33" s="57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6992,14 +6992,14 @@
         <v>177</v>
       </c>
       <c r="S34" s="205" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="206" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W34" s="214"/>
       <c r="X34" s="214">
@@ -7046,7 +7046,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F35" s="75" t="s">
         <v>332</v>
@@ -7076,7 +7076,7 @@
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
@@ -7094,7 +7094,7 @@
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7112,7 +7112,7 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7141,13 +7141,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>461</v>
+      </c>
+      <c r="S36" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="23" t="s">
         <v>463</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>464</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
@@ -7211,16 +7211,16 @@
         <v>75</v>
       </c>
       <c r="S37" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>77</v>
       </c>
       <c r="U37" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="V37" s="163" t="s">
         <v>460</v>
-      </c>
-      <c r="V37" s="163" t="s">
-        <v>461</v>
       </c>
       <c r="W37" s="215">
         <v>41331</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>301</v>
@@ -7339,17 +7339,17 @@
         <v>76</v>
       </c>
       <c r="R39" s="173" t="s">
+        <v>536</v>
+      </c>
+      <c r="S39" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="S39" s="64" t="s">
+      <c r="T39" s="54" t="s">
         <v>538</v>
-      </c>
-      <c r="T39" s="54" t="s">
-        <v>539</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W39" s="215">
         <v>41061</v>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
@@ -7523,10 +7523,10 @@
         <v>81</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>409</v>
-      </c>
-      <c r="V41" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="W41" s="220">
         <v>40878</v>
@@ -7569,7 +7569,7 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7577,7 +7577,7 @@
         <v>248</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F42" s="77" t="s">
         <v>301</v>
@@ -7603,16 +7603,16 @@
         <v>249</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>407</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>408</v>
       </c>
       <c r="W42" s="215"/>
       <c r="X42" s="215">
@@ -7810,10 +7810,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7822,7 +7822,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W45" s="215"/>
       <c r="X45" s="215">
@@ -8033,7 +8033,7 @@
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
@@ -8119,7 +8119,7 @@
         <v>291</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8228,7 +8228,7 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F50" s="77" t="s">
         <v>301</v>
@@ -8255,13 +8255,13 @@
         <v>100</v>
       </c>
       <c r="T50" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="U50" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="U50" s="45" t="s">
-        <v>428</v>
-      </c>
       <c r="V50" s="157" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W50" s="217">
         <v>40865</v>
@@ -8278,7 +8278,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8297,7 +8297,7 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,7 +8334,7 @@
         <v>101</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V51" s="66" t="s">
         <v>206</v>
@@ -8354,7 +8354,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8382,7 +8382,7 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
@@ -8394,14 +8394,14 @@
         <v>253</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="F52" s="77" t="s">
         <v>435</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>436</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8419,15 +8419,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W52" s="215">
         <v>39249</v>
@@ -8463,7 +8463,7 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8495,13 +8495,13 @@
         <v>168</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T53" s="54" t="s">
         <v>167</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
@@ -8532,12 +8532,12 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W55" s="215"/>
       <c r="X55" s="215"/>
@@ -8743,7 +8743,7 @@
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8769,7 +8769,7 @@
         <v>160</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F57" s="75" t="s">
         <v>332</v>
@@ -8798,19 +8798,19 @@
         <v>76</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>445</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="T57" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="S57" s="64" t="s">
+      <c r="U57" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="T57" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>449</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W57" s="215">
         <v>41080</v>
@@ -8942,7 +8942,7 @@
         <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>301</v>
@@ -8966,10 +8966,10 @@
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W59" s="216"/>
       <c r="X59" s="216"/>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
@@ -9047,7 +9047,7 @@
         <v>338</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>301</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W61" s="216"/>
       <c r="X61" s="216"/>
@@ -9107,10 +9107,10 @@
         <v>122</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W62" s="216"/>
       <c r="X62" s="216"/>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9291,7 +9291,7 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9318,7 +9318,7 @@
         <v>258</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="219"/>
@@ -9511,7 +9511,7 @@
         <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>301</v>
@@ -9534,10 +9534,10 @@
         <v>130</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V68" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W68" s="216"/>
       <c r="X68" s="216"/>
@@ -9628,7 +9628,7 @@
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F70" s="116" t="s">
         <v>332</v>
@@ -9734,7 +9734,7 @@
         <v>134</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="216"/>
@@ -9777,14 +9777,14 @@
         <v>136</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>411</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>412</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W72" s="215">
         <v>40561</v>
@@ -9899,7 +9899,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F74" s="74" t="s">
         <v>301</v>
@@ -9923,16 +9923,16 @@
         <v>170</v>
       </c>
       <c r="S74" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>114</v>
       </c>
       <c r="U74" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="V74" s="62" t="s">
         <v>508</v>
-      </c>
-      <c r="V74" s="62" t="s">
-        <v>509</v>
       </c>
       <c r="W74" s="219">
         <v>40940</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F75" s="75" t="s">
         <v>301</v>
@@ -9995,7 +9995,7 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W75" s="215">
         <v>40828</v>
@@ -10054,7 +10054,7 @@
         <v>250</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F76" s="77" t="s">
         <v>301</v>
@@ -10144,7 +10144,7 @@
         <v>175</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T77" s="54" t="s">
         <v>174</v>
@@ -10185,7 +10185,7 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10226,11 +10226,11 @@
         <v>142</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W78" s="215">
         <v>40252</v>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="Z78" s="208">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA78" s="75" t="s">
         <v>345</v>
@@ -10275,7 +10275,7 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10283,7 +10283,7 @@
         <v>236</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>301</v>
@@ -10487,7 +10487,7 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
@@ -10629,16 +10629,16 @@
         <v>269</v>
       </c>
       <c r="S84" s="64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T84" s="54" t="s">
         <v>270</v>
       </c>
       <c r="U84" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="V84" s="66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W84" s="215">
         <v>39794</v>
@@ -10669,12 +10669,12 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F85" s="75" t="s">
         <v>332</v>
@@ -10697,7 +10697,7 @@
         <v>76</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S85" s="64" t="s">
         <v>144</v>
@@ -10706,10 +10706,10 @@
         <v>145</v>
       </c>
       <c r="U85" s="53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V85" s="163" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W85" s="215">
         <v>40497</v>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="Z85" s="183">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA85" s="75"/>
       <c r="AB85" s="53"/>
@@ -10740,7 +10740,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1083,7 +1083,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://twitter.com/railscloud/status/27346063417417728</t>
+          <t xml:space="preserve">https://twitter.com/railscloud/status/27346063417417728
+</t>
         </r>
       </text>
     </comment>
@@ -1253,7 +1254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="541">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -1663,9 +1664,6 @@
     <t>Railscloud</t>
   </si>
   <si>
-    <t>https://www.railscloud.de/</t>
-  </si>
-  <si>
     <t>Relbit</t>
   </si>
   <si>
@@ -2491,9 +2489,6 @@
     <t>Fremaks GmbH</t>
   </si>
   <si>
-    <t>Priv beta 18/1/2011</t>
-  </si>
-  <si>
     <t>http://apprenda.com/blog/</t>
   </si>
   <si>
@@ -2873,6 +2868,15 @@
   </si>
   <si>
     <t>@Cloudn_NTTCom </t>
+  </si>
+  <si>
+    <t>Priv beta 18/1/2011, Production 1.6.2013</t>
+  </si>
+  <si>
+    <t>https://railscloud.de/</t>
+  </si>
+  <si>
+    <t>Startet as scalable PaaS, released a static managed Hosting in June 2013</t>
   </si>
 </sst>
 </file>
@@ -4226,10 +4230,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4290,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G1" s="225" t="s">
         <v>4</v>
@@ -4303,7 +4307,7 @@
       <c r="M1" s="226"/>
       <c r="N1" s="228"/>
       <c r="O1" s="107" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>5</v>
@@ -4321,19 +4325,19 @@
         <v>9</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W1" s="175" t="s">
         <v>76</v>
       </c>
       <c r="X1" s="175" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Y1" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="237"/>
       <c r="AA1" s="73" t="s">
@@ -4348,17 +4352,17 @@
       <c r="AF1" s="231"/>
       <c r="AG1" s="232"/>
       <c r="AH1" s="222" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI1" s="223"/>
       <c r="AJ1" s="224"/>
       <c r="AK1" s="222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL1" s="223"/>
       <c r="AM1" s="224"/>
       <c r="AN1" s="209" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
@@ -4366,7 +4370,7 @@
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="233" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C2" s="233"/>
       <c r="D2" s="233"/>
@@ -4391,10 +4395,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="186" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N2" s="189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="99"/>
@@ -4410,14 +4414,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="178" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4429,25 +4433,25 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>276</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AN2" s="31"/>
       <c r="AO2" s="74"/>
@@ -4510,7 +4514,7 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="184">
         <f ca="1">MEDIAN(Y4:Y100)</f>
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" s="185">
         <f ca="1">MEDIAN(Z4:Z100)</f>
@@ -4551,7 +4555,7 @@
       </c>
       <c r="AJ3" s="23">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" s="22">
         <f t="shared" si="1"/>
@@ -4567,13 +4571,13 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G4" s="190"/>
       <c r="H4" s="11"/>
@@ -4588,20 +4592,20 @@
       <c r="O4" s="89"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W4" s="210">
         <v>40878</v>
@@ -4626,7 +4630,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4636,10 +4640,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4653,7 +4657,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4662,16 +4666,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>381</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>382</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>383</v>
-      </c>
-      <c r="V5" s="123" t="s">
-        <v>384</v>
       </c>
       <c r="W5" s="211"/>
       <c r="X5" s="211">
@@ -4686,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4729,7 +4733,7 @@
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G6" s="192" t="s">
         <v>25</v>
@@ -4760,16 +4764,16 @@
         <v>36</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W6" s="212">
         <v>40562</v>
@@ -4784,7 +4788,7 @@
         <v>29</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4816,7 +4820,7 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
@@ -4829,7 +4833,7 @@
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4845,7 +4849,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="120" t="s">
         <v>29</v>
@@ -4854,16 +4858,16 @@
         <v>38</v>
       </c>
       <c r="S7" s="122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T7" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="U7" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="U7" s="121" t="s">
-        <v>287</v>
-      </c>
       <c r="V7" s="123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W7" s="211">
         <v>40495</v>
@@ -4880,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4904,7 +4908,7 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
@@ -4917,7 +4921,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G8" s="195"/>
       <c r="H8" s="195"/>
@@ -4932,27 +4936,27 @@
       <c r="O8" s="140"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W8" s="213"/>
       <c r="X8" s="213"/>
       <c r="Y8" s="181"/>
       <c r="Z8" s="183"/>
       <c r="AA8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -4978,10 +4982,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G9" s="196" t="s">
         <v>25</v>
@@ -5004,16 +5008,16 @@
         <v>41</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>351</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>352</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W9" s="214"/>
       <c r="X9" s="214">
@@ -5028,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5048,7 +5052,7 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5059,7 +5063,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5074,7 +5078,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5083,16 +5087,16 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5110,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5128,7 +5132,7 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5139,7 +5143,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5154,10 +5158,10 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
@@ -5185,10 +5189,10 @@
         <v>47</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5217,13 +5221,13 @@
         <v>48</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="U12" s="53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5233,7 +5237,7 @@
       <c r="Y12" s="207"/>
       <c r="Z12" s="208"/>
       <c r="AA12" s="75" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5265,13 +5269,13 @@
     </row>
     <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5289,19 +5293,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="S13" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="T13" s="120" t="s">
         <v>265</v>
       </c>
-      <c r="T13" s="120" t="s">
+      <c r="U13" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="V13" s="141" t="s">
         <v>266</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>356</v>
-      </c>
-      <c r="V13" s="141" t="s">
-        <v>267</v>
       </c>
       <c r="W13" s="211">
         <v>39252</v>
@@ -5318,7 +5322,7 @@
         <v>72</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5345,11 +5349,11 @@
     </row>
     <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5367,16 +5371,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>246</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5394,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5417,15 +5421,15 @@
     </row>
     <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5442,30 +5446,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V15" s="141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W15" s="211"/>
       <c r="X15" s="211">
@@ -5480,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5509,13 +5513,13 @@
     </row>
     <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5546,16 +5550,16 @@
         <v>49</v>
       </c>
       <c r="S16" s="122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V16" s="141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W16" s="211">
         <v>40360</v>
@@ -5572,7 +5576,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5604,10 +5608,10 @@
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5622,7 +5626,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5638,16 +5642,16 @@
         <v>51</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T17" s="139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W17" s="211">
         <v>40645</v>
@@ -5692,14 +5696,14 @@
     <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="124"/>
       <c r="C18" s="124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18" s="192"/>
       <c r="H18" s="193"/>
@@ -5721,19 +5725,19 @@
         <v>76</v>
       </c>
       <c r="R18" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="T18" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="S18" s="124" t="s">
-        <v>192</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>180</v>
-      </c>
       <c r="U18" s="121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V18" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W18" s="212">
         <v>41383</v>
@@ -5768,7 +5772,7 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
@@ -5780,7 +5784,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5818,11 +5822,11 @@
         <v>34</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W19" s="215">
         <v>40668</v>
@@ -5839,7 +5843,7 @@
         <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5858,18 +5862,18 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>25</v>
@@ -5909,7 +5913,7 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="66" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W20" s="215"/>
       <c r="X20" s="215"/>
@@ -5939,7 +5943,7 @@
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="75" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,10 +5953,10 @@
       </c>
       <c r="D21" s="124"/>
       <c r="E21" s="124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G21" s="192" t="s">
         <v>25</v>
@@ -5986,13 +5990,13 @@
         <v>58</v>
       </c>
       <c r="T21" s="129" t="s">
+        <v>287</v>
+      </c>
+      <c r="U21" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="U21" s="121" t="s">
-        <v>289</v>
-      </c>
       <c r="V21" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W21" s="212"/>
       <c r="X21" s="212">
@@ -6007,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB21" s="126" t="s">
         <v>25</v>
@@ -6041,14 +6045,14 @@
     <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G22" s="190"/>
       <c r="H22" s="11"/>
@@ -6063,7 +6067,7 @@
       <c r="O22" s="89"/>
       <c r="P22" s="102"/>
       <c r="Q22" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>59</v>
@@ -6076,7 +6080,7 @@
       </c>
       <c r="U22" s="32"/>
       <c r="V22" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W22" s="210"/>
       <c r="X22" s="210"/>
@@ -6104,12 +6108,12 @@
     </row>
     <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>25</v>
@@ -6138,16 +6142,16 @@
         <v>61</v>
       </c>
       <c r="S23" s="152" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V23" s="69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W23" s="217">
         <v>41085</v>
@@ -6186,12 +6190,12 @@
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6212,7 +6216,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
@@ -6221,19 +6225,19 @@
         <v>29</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S24" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T24" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="V24" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W24" s="217">
         <v>41037</v>
@@ -6250,7 +6254,7 @@
         <v>14</v>
       </c>
       <c r="AA24" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB24" s="48" t="s">
         <v>25</v>
@@ -6277,12 +6281,12 @@
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6301,7 +6305,7 @@
         <v>25</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6310,17 +6314,17 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W25" s="217"/>
       <c r="X25" s="217">
@@ -6335,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6356,23 +6360,23 @@
         <v>25</v>
       </c>
       <c r="AM25" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN25" s="49"/>
       <c r="AO25" s="77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6391,7 +6395,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6400,15 +6404,15 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S26" s="64"/>
       <c r="T26" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="153" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W26" s="217"/>
       <c r="X26" s="217"/>
@@ -6421,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB26" s="48"/>
       <c r="AC26" s="44"/>
@@ -6446,14 +6450,14 @@
     </row>
     <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6479,17 +6483,17 @@
         <v>29</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S27" s="64" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="T27" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W27" s="217">
         <v>41244</v>
@@ -6506,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB27" s="48" t="s">
         <v>25</v>
@@ -6535,12 +6539,12 @@
     </row>
     <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
       <c r="F28" s="169" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
@@ -6555,35 +6559,35 @@
         <v>25</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N28" s="58"/>
       <c r="O28" s="170"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S28" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="S28" s="55" t="s">
+      <c r="T28" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="U28" s="174" t="s">
         <v>500</v>
       </c>
-      <c r="T28" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="U28" s="174" t="s">
-        <v>502</v>
-      </c>
       <c r="V28" s="171" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W28" s="218"/>
       <c r="X28" s="218"/>
       <c r="Y28" s="181"/>
       <c r="Z28" s="183"/>
       <c r="AA28" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
@@ -6605,10 +6609,10 @@
     </row>
     <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
@@ -6621,16 +6625,16 @@
       <c r="O29" s="162"/>
       <c r="P29" s="103"/>
       <c r="Q29" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="64"/>
       <c r="T29" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="66" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W29" s="215"/>
       <c r="X29" s="215"/>
@@ -6654,7 +6658,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>25</v>
@@ -6679,16 +6683,16 @@
         <v>64</v>
       </c>
       <c r="S30" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T30" s="54" t="s">
         <v>65</v>
       </c>
       <c r="U30" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V30" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W30" s="215">
         <v>40269</v>
@@ -6705,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="AA30" s="75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB30" s="53" t="s">
         <v>25</v>
@@ -6729,20 +6733,20 @@
       <c r="AM30" s="54"/>
       <c r="AN30" s="54"/>
       <c r="AO30" s="75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6766,17 +6770,17 @@
         <v>29</v>
       </c>
       <c r="R31" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="S31" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="S31" s="156" t="s">
+      <c r="T31" s="49" t="s">
         <v>150</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>151</v>
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="153" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="W31" s="217">
         <v>40840</v>
@@ -6793,7 +6797,7 @@
         <v>20</v>
       </c>
       <c r="AA31" s="77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB31" s="48"/>
       <c r="AC31" s="44"/>
@@ -6819,7 +6823,7 @@
       </c>
       <c r="C32" s="154"/>
       <c r="F32" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
@@ -6841,13 +6845,13 @@
       </c>
       <c r="S32" s="64"/>
       <c r="T32" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V32" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W32" s="215">
         <v>40790</v>
@@ -6884,7 +6888,7 @@
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>25</v>
@@ -6905,7 +6909,7 @@
       <c r="O33" s="58"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R33" s="57" t="s">
         <v>69</v>
@@ -6914,7 +6918,7 @@
         <v>70</v>
       </c>
       <c r="T33" s="57" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U33" s="57"/>
       <c r="V33" s="166">
@@ -6925,7 +6929,7 @@
       <c r="Y33" s="181"/>
       <c r="Z33" s="183"/>
       <c r="AA33" s="57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AB33" s="57" t="s">
         <v>25</v>
@@ -6957,13 +6961,13 @@
     </row>
     <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="158" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G34" s="196" t="s">
         <v>25</v>
@@ -6989,17 +6993,17 @@
         <v>29</v>
       </c>
       <c r="R34" s="159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S34" s="205" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T34" s="160" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="U34" s="159"/>
       <c r="V34" s="206" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W34" s="214"/>
       <c r="X34" s="214">
@@ -7014,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB34" s="159" t="s">
         <v>25</v>
@@ -7046,10 +7050,10 @@
         <v>72</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F35" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>25</v>
@@ -7076,7 +7080,7 @@
       <c r="S35" s="64"/>
       <c r="T35" s="54"/>
       <c r="U35" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="V35" s="163">
         <v>40756</v>
@@ -7094,7 +7098,7 @@
         <v>23</v>
       </c>
       <c r="AA35" s="75" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB35" s="53"/>
       <c r="AG35" s="54"/>
@@ -7112,18 +7116,18 @@
       <c r="AM35" s="54"/>
       <c r="AN35" s="54"/>
       <c r="AO35" s="75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>25</v>
@@ -7141,13 +7145,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="164" t="s">
+        <v>459</v>
+      </c>
+      <c r="S36" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="T36" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="S36" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="T36" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="62">
@@ -7188,7 +7192,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>25</v>
@@ -7211,16 +7215,16 @@
         <v>75</v>
       </c>
       <c r="S37" s="64" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T37" s="54" t="s">
         <v>77</v>
       </c>
       <c r="U37" s="53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="V37" s="163" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="W37" s="215">
         <v>41331</v>
@@ -7235,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="AA37" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB37" s="53"/>
       <c r="AG37" s="54"/>
@@ -7256,13 +7260,13 @@
     </row>
     <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G38" s="190"/>
       <c r="H38" s="11"/>
@@ -7277,18 +7281,18 @@
       <c r="O38" s="89"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W38" s="210">
         <v>40443</v>
@@ -7313,15 +7317,15 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F39" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G39" s="45"/>
       <c r="H39" s="46"/>
@@ -7339,17 +7343,17 @@
         <v>76</v>
       </c>
       <c r="R39" s="173" t="s">
+        <v>534</v>
+      </c>
+      <c r="S39" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="T39" s="54" t="s">
         <v>536</v>
-      </c>
-      <c r="S39" s="64" t="s">
-        <v>537</v>
-      </c>
-      <c r="T39" s="54" t="s">
-        <v>538</v>
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W39" s="215">
         <v>41061</v>
@@ -7388,7 +7392,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>25</v>
@@ -7414,7 +7418,7 @@
       </c>
       <c r="O40" s="110"/>
       <c r="P40" s="103" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>29</v>
@@ -7426,13 +7430,13 @@
         <v>80</v>
       </c>
       <c r="T40" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="U40" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="U40" s="53" t="s">
-        <v>299</v>
-      </c>
       <c r="V40" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W40" s="215">
         <v>40544</v>
@@ -7449,7 +7453,7 @@
         <v>30</v>
       </c>
       <c r="AA40" s="75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB40" s="53" t="s">
         <v>25</v>
@@ -7484,7 +7488,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>25</v>
@@ -7523,10 +7527,10 @@
         <v>81</v>
       </c>
       <c r="U41" s="172" t="s">
+        <v>407</v>
+      </c>
+      <c r="V41" s="67" t="s">
         <v>408</v>
-      </c>
-      <c r="V41" s="67" t="s">
-        <v>409</v>
       </c>
       <c r="W41" s="220">
         <v>40878</v>
@@ -7569,18 +7573,18 @@
       <c r="AM41" s="31"/>
       <c r="AN41" s="31"/>
       <c r="AO41" s="74" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>31</v>
@@ -7591,7 +7595,7 @@
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
       <c r="M42" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="88"/>
@@ -7600,19 +7604,19 @@
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S42" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="U42" s="53" t="s">
+      <c r="V42" s="65" t="s">
         <v>406</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>407</v>
       </c>
       <c r="W42" s="215"/>
       <c r="X42" s="215">
@@ -7627,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB42" s="48" t="s">
         <v>25</v>
@@ -7655,7 +7659,7 @@
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G43" s="133"/>
       <c r="H43" s="134"/>
@@ -7682,16 +7686,16 @@
         <v>85</v>
       </c>
       <c r="S43" s="122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T43" s="120" t="s">
+        <v>358</v>
+      </c>
+      <c r="U43" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="U43" s="121" t="s">
-        <v>360</v>
-      </c>
       <c r="V43" s="144" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W43" s="211"/>
       <c r="X43" s="211">
@@ -7706,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB43" s="121" t="s">
         <v>25</v>
@@ -7740,7 +7744,7 @@
       </c>
       <c r="AN43" s="120"/>
       <c r="AO43" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -7751,7 +7755,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G44" s="190"/>
       <c r="H44" s="11"/>
@@ -7765,21 +7769,21 @@
       <c r="N44" s="191"/>
       <c r="O44" s="89"/>
       <c r="P44" s="102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q44" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>87</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T44" s="33"/>
       <c r="U44" s="24"/>
       <c r="V44" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W44" s="210"/>
       <c r="X44" s="210"/>
@@ -7810,10 +7814,10 @@
         <v>88</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F45" s="75" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
@@ -7822,7 +7826,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="110"/>
@@ -7841,7 +7845,7 @@
       </c>
       <c r="U45" s="52"/>
       <c r="V45" s="66" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="W45" s="215"/>
       <c r="X45" s="215">
@@ -7856,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB45" s="53"/>
       <c r="AG45" s="54"/>
@@ -7873,13 +7877,13 @@
     </row>
     <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" s="115"/>
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G46" s="133"/>
       <c r="H46" s="134"/>
@@ -7897,19 +7901,19 @@
         <v>29</v>
       </c>
       <c r="R46" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="S46" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="S46" s="122" t="s">
+      <c r="T46" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="U46" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="V46" s="123" t="s">
         <v>233</v>
-      </c>
-      <c r="T46" s="120" t="s">
-        <v>235</v>
-      </c>
-      <c r="U46" s="121" t="s">
-        <v>327</v>
-      </c>
-      <c r="V46" s="123" t="s">
-        <v>234</v>
       </c>
       <c r="W46" s="211">
         <v>41143</v>
@@ -7926,7 +7930,7 @@
         <v>10</v>
       </c>
       <c r="AA46" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB46" s="138"/>
       <c r="AC46" s="131"/>
@@ -7959,7 +7963,7 @@
       <c r="D47" s="115"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
@@ -7980,16 +7984,16 @@
         <v>93</v>
       </c>
       <c r="S47" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="U47" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="T47" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>330</v>
-      </c>
       <c r="V47" s="141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W47" s="211">
         <v>40546</v>
@@ -8006,7 +8010,7 @@
         <v>30</v>
       </c>
       <c r="AA47" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB47" s="121" t="s">
         <v>25</v>
@@ -8026,20 +8030,20 @@
       </c>
       <c r="AL47" s="115"/>
       <c r="AM47" s="120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN47" s="120"/>
       <c r="AO47" s="116"/>
     </row>
     <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="124" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="124"/>
       <c r="E48" s="124"/>
       <c r="F48" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G48" s="192" t="s">
         <v>25</v>
@@ -8054,7 +8058,7 @@
       <c r="K48" s="193"/>
       <c r="L48" s="193"/>
       <c r="M48" s="193" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N48" s="194"/>
       <c r="O48" s="127"/>
@@ -8066,16 +8070,16 @@
         <v>94</v>
       </c>
       <c r="S48" s="124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T48" s="129" t="s">
         <v>95</v>
       </c>
       <c r="U48" s="121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V48" s="124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W48" s="212">
         <v>39545</v>
@@ -8092,7 +8096,7 @@
         <v>63</v>
       </c>
       <c r="AA48" s="125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB48" s="126" t="s">
         <v>25</v>
@@ -8116,10 +8120,10 @@
       </c>
       <c r="AL48" s="124"/>
       <c r="AM48" s="129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN48" s="129" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AO48" s="125"/>
     </row>
@@ -8131,7 +8135,7 @@
       <c r="D49" s="124"/>
       <c r="E49" s="124"/>
       <c r="F49" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G49" s="192" t="s">
         <v>25</v>
@@ -8150,7 +8154,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="193" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N49" s="194" t="s">
         <v>25</v>
@@ -8166,16 +8170,16 @@
         <v>97</v>
       </c>
       <c r="S49" s="124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U49" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="V49" s="124" t="s">
         <v>189</v>
-      </c>
-      <c r="V49" s="124" t="s">
-        <v>190</v>
       </c>
       <c r="W49" s="212">
         <v>39385</v>
@@ -8192,7 +8196,7 @@
         <v>68</v>
       </c>
       <c r="AA49" s="150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB49" s="126" t="s">
         <v>25</v>
@@ -8228,10 +8232,10 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="46" t="s">
@@ -8255,13 +8259,13 @@
         <v>100</v>
       </c>
       <c r="T50" s="49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U50" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="V50" s="157" t="s">
         <v>427</v>
-      </c>
-      <c r="V50" s="157" t="s">
-        <v>429</v>
       </c>
       <c r="W50" s="217">
         <v>40865</v>
@@ -8278,7 +8282,7 @@
         <v>19</v>
       </c>
       <c r="AA50" s="77" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB50" s="48" t="s">
         <v>25</v>
@@ -8297,7 +8301,7 @@
       <c r="AM50" s="49"/>
       <c r="AN50" s="49"/>
       <c r="AO50" s="75" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,7 +8309,7 @@
         <v>101</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>25</v>
@@ -8328,16 +8332,16 @@
         <v>102</v>
       </c>
       <c r="S51" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T51" s="54" t="s">
         <v>101</v>
       </c>
       <c r="U51" s="52" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V51" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W51" s="215">
         <v>40742</v>
@@ -8354,7 +8358,7 @@
         <v>23</v>
       </c>
       <c r="AA51" s="75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AB51" s="53" t="s">
         <v>25</v>
@@ -8382,7 +8386,7 @@
         <v>25</v>
       </c>
       <c r="AM51" s="54" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN51" s="54"/>
       <c r="AO51" s="75" t="s">
@@ -8391,17 +8395,17 @@
     </row>
     <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
@@ -8419,15 +8423,15 @@
         <v>29</v>
       </c>
       <c r="R52" s="48" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S52" s="64"/>
       <c r="T52" s="54" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U52" s="53"/>
       <c r="V52" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W52" s="215">
         <v>39249</v>
@@ -8444,7 +8448,7 @@
         <v>72</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
@@ -8463,18 +8467,18 @@
       <c r="AM52" s="54"/>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
       <c r="E53" s="44"/>
       <c r="F53" s="77" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8492,16 +8496,16 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U53" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="V53" s="66">
         <v>2005</v>
@@ -8532,18 +8536,18 @@
       <c r="AM53" s="54"/>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="131" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C54" s="131"/>
       <c r="D54" s="131"/>
       <c r="E54" s="131"/>
       <c r="F54" s="132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>25</v>
@@ -8581,7 +8585,7 @@
       </c>
       <c r="U54" s="121"/>
       <c r="V54" s="146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W54" s="221">
         <v>39748</v>
@@ -8598,7 +8602,7 @@
         <v>56</v>
       </c>
       <c r="AA54" s="132" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB54" s="121" t="s">
         <v>25</v>
@@ -8626,7 +8630,7 @@
       </c>
       <c r="AL54" s="115"/>
       <c r="AM54" s="120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN54" s="120"/>
       <c r="AO54" s="116"/>
@@ -8639,7 +8643,7 @@
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G55" s="45"/>
       <c r="H55" s="46" t="s">
@@ -8660,14 +8664,14 @@
         <v>108</v>
       </c>
       <c r="S55" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U55" s="45"/>
       <c r="V55" s="66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W55" s="215"/>
       <c r="X55" s="215"/>
@@ -8702,7 +8706,7 @@
         <v>110</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>25</v>
@@ -8743,7 +8747,7 @@
         <v>22</v>
       </c>
       <c r="AA56" s="75" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB56" s="53"/>
       <c r="AG56" s="54"/>
@@ -8766,13 +8770,13 @@
     </row>
     <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46"/>
@@ -8787,30 +8791,30 @@
         <v>25</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
       <c r="P57" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q57" s="54" t="s">
         <v>76</v>
       </c>
       <c r="R57" s="173" t="s">
+        <v>443</v>
+      </c>
+      <c r="S57" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="S57" s="64" t="s">
-        <v>447</v>
-      </c>
       <c r="T57" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="U57" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="U57" s="53" t="s">
-        <v>448</v>
-      </c>
       <c r="V57" s="65" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W57" s="215">
         <v>41080</v>
@@ -8825,7 +8829,7 @@
         <v>12</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB57" s="53" t="s">
         <v>25</v>
@@ -8861,7 +8865,7 @@
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="133"/>
       <c r="H58" s="134"/>
@@ -8884,16 +8888,16 @@
         <v>116</v>
       </c>
       <c r="S58" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="T58" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="U58" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="U58" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="V58" s="144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W58" s="211">
         <v>41099</v>
@@ -8910,7 +8914,7 @@
         <v>12</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB58" s="121" t="s">
         <v>25</v>
@@ -8932,7 +8936,7 @@
       </c>
       <c r="AL58" s="115"/>
       <c r="AM58" s="120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN58" s="120"/>
       <c r="AO58" s="116"/>
@@ -8942,10 +8946,10 @@
         <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
@@ -8959,17 +8963,17 @@
       <c r="N59" s="58"/>
       <c r="O59" s="168"/>
       <c r="Q59" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="V59" s="56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W59" s="216"/>
       <c r="X59" s="216"/>
@@ -8983,10 +8987,10 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G60" s="190"/>
       <c r="H60" s="11"/>
@@ -9001,18 +9005,18 @@
       <c r="O60" s="89"/>
       <c r="P60" s="102"/>
       <c r="Q60" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R60" s="32" t="s">
         <v>120</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="U60" s="32"/>
       <c r="V60" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W60" s="210"/>
       <c r="X60" s="210"/>
@@ -9039,18 +9043,18 @@
       <c r="AM60" s="33"/>
       <c r="AN60" s="33"/>
       <c r="AO60" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9064,10 +9068,10 @@
       <c r="N61" s="58"/>
       <c r="O61" s="168"/>
       <c r="Q61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
@@ -9075,7 +9079,7 @@
       </c>
       <c r="U61" s="167"/>
       <c r="V61" s="56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W61" s="216"/>
       <c r="X61" s="216"/>
@@ -9087,7 +9091,7 @@
         <v>121</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
@@ -9101,16 +9105,16 @@
       <c r="N62" s="58"/>
       <c r="O62" s="168"/>
       <c r="Q62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="V62" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W62" s="216"/>
       <c r="X62" s="216"/>
@@ -9119,17 +9123,17 @@
     </row>
     <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D63" s="115"/>
       <c r="E63" s="115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F63" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>25</v>
@@ -9159,17 +9163,17 @@
         <v>29</v>
       </c>
       <c r="R63" s="148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S63" s="122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T63" s="120" t="s">
         <v>123</v>
       </c>
       <c r="U63" s="121"/>
       <c r="V63" s="144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W63" s="211">
         <v>40667</v>
@@ -9186,7 +9190,7 @@
         <v>26</v>
       </c>
       <c r="AA63" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB63" s="121" t="s">
         <v>25</v>
@@ -9212,18 +9216,18 @@
       <c r="AM63" s="120"/>
       <c r="AN63" s="120"/>
       <c r="AO63" s="116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>25</v>
@@ -9262,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="74" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AB64" s="22"/>
       <c r="AC64" s="10"/>
@@ -9285,13 +9289,13 @@
     </row>
     <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>31</v>
@@ -9309,16 +9313,16 @@
         <v>29</v>
       </c>
       <c r="R65" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="S65" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="S65" s="151" t="s">
+      <c r="T65" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="T65" s="25" t="s">
-        <v>258</v>
-      </c>
       <c r="U65" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="V65" s="62"/>
       <c r="W65" s="219"/>
@@ -9359,10 +9363,10 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G66" s="190"/>
       <c r="H66" s="11"/>
@@ -9377,20 +9381,20 @@
       <c r="O66" s="89"/>
       <c r="P66" s="102"/>
       <c r="Q66" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>132</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T66" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U66" s="32"/>
       <c r="V66" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W66" s="210">
         <v>40609</v>
@@ -9401,7 +9405,7 @@
       <c r="Y66" s="181"/>
       <c r="Z66" s="183"/>
       <c r="AA66" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB66" s="32" t="s">
         <v>25</v>
@@ -9429,10 +9433,10 @@
       <c r="C67" s="115"/>
       <c r="D67" s="115"/>
       <c r="E67" s="115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F67" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G67" s="133"/>
       <c r="H67" s="134"/>
@@ -9453,14 +9457,14 @@
         <v>128</v>
       </c>
       <c r="S67" s="122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T67" s="120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U67" s="121"/>
       <c r="V67" s="141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W67" s="211">
         <v>40664</v>
@@ -9477,7 +9481,7 @@
         <v>26</v>
       </c>
       <c r="AA67" s="116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB67" s="121" t="s">
         <v>25</v>
@@ -9499,11 +9503,11 @@
       </c>
       <c r="AL67" s="115"/>
       <c r="AM67" s="120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN67" s="120"/>
       <c r="AO67" s="116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9511,10 +9515,10 @@
         <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -9528,16 +9532,16 @@
       <c r="N68" s="58"/>
       <c r="O68" s="168"/>
       <c r="Q68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="S68" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="V68" s="56" t="s">
         <v>487</v>
-      </c>
-      <c r="V68" s="56" t="s">
-        <v>489</v>
       </c>
       <c r="W68" s="216"/>
       <c r="X68" s="216"/>
@@ -9549,13 +9553,13 @@
     </row>
     <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C69" s="124"/>
       <c r="D69" s="124"/>
       <c r="E69" s="124"/>
       <c r="F69" s="125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G69" s="192"/>
       <c r="H69" s="193"/>
@@ -9573,17 +9577,17 @@
         <v>76</v>
       </c>
       <c r="R69" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="S69" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="S69" s="124" t="s">
-        <v>238</v>
-      </c>
       <c r="T69" s="129" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U69" s="126"/>
       <c r="V69" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W69" s="212">
         <v>40834</v>
@@ -9623,15 +9627,15 @@
     </row>
     <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="115"/>
       <c r="D70" s="115"/>
       <c r="E70" s="115" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F70" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G70" s="133"/>
       <c r="H70" s="134"/>
@@ -9648,7 +9652,7 @@
         <v>25</v>
       </c>
       <c r="M70" s="134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N70" s="135" t="s">
         <v>25</v>
@@ -9661,19 +9665,19 @@
         <v>76</v>
       </c>
       <c r="R70" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S70" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="T70" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="U70" s="121" t="s">
+        <v>372</v>
+      </c>
+      <c r="V70" s="123" t="s">
         <v>371</v>
-      </c>
-      <c r="T70" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="U70" s="121" t="s">
-        <v>373</v>
-      </c>
-      <c r="V70" s="123" t="s">
-        <v>372</v>
       </c>
       <c r="W70" s="211"/>
       <c r="X70" s="211"/>
@@ -9686,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="AA70" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB70" s="138" t="s">
         <v>25</v>
@@ -9714,7 +9718,7 @@
         <v>133</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
@@ -9728,13 +9732,13 @@
       <c r="N71" s="58"/>
       <c r="O71" s="167"/>
       <c r="Q71" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>134</v>
       </c>
       <c r="S71" s="55" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V71" s="56"/>
       <c r="W71" s="216"/>
@@ -9753,10 +9757,10 @@
         <v>135</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>44</v>
+        <v>540</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="46"/>
@@ -9771,34 +9775,38 @@
       <c r="O72" s="110"/>
       <c r="P72" s="103"/>
       <c r="Q72" s="54" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R72" s="53" t="s">
-        <v>136</v>
+        <v>539</v>
       </c>
       <c r="S72" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="T72" s="54" t="s">
         <v>410</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>411</v>
       </c>
       <c r="U72" s="53"/>
       <c r="V72" s="66" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="W72" s="215">
         <v>40561</v>
       </c>
-      <c r="X72" s="215"/>
-      <c r="Y72" s="181" t="str">
+      <c r="X72" s="215">
+        <v>41426</v>
+      </c>
+      <c r="Y72" s="181">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="183">
         <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
-      <c r="AA72" s="75"/>
+      <c r="AA72" s="75" t="s">
+        <v>304</v>
+      </c>
       <c r="AB72" s="53"/>
       <c r="AE72" s="42" t="s">
         <v>25</v>
@@ -9808,9 +9816,7 @@
       <c r="AI72" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AJ72" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="AJ72" s="54"/>
       <c r="AK72" s="53" t="s">
         <v>25</v>
       </c>
@@ -9820,11 +9826,11 @@
     </row>
     <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E73" s="44"/>
       <c r="F73" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
@@ -9842,13 +9848,13 @@
         <v>76</v>
       </c>
       <c r="R73" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S73" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T73" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U73" s="53"/>
       <c r="V73" s="163">
@@ -9867,7 +9873,7 @@
         <v>28</v>
       </c>
       <c r="AA73" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB73" s="48"/>
       <c r="AC73" s="44"/>
@@ -9894,15 +9900,15 @@
     </row>
     <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>25</v>
@@ -9920,19 +9926,19 @@
         <v>29</v>
       </c>
       <c r="R74" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S74" s="61" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T74" s="23" t="s">
         <v>114</v>
       </c>
       <c r="U74" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V74" s="62" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W74" s="219">
         <v>40940</v>
@@ -9949,7 +9955,7 @@
         <v>17</v>
       </c>
       <c r="AA74" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB74" s="22"/>
       <c r="AC74" s="10"/>
@@ -9972,10 +9978,10 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F75" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>25</v>
@@ -9995,15 +10001,15 @@
         <v>29</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S75" s="64"/>
       <c r="T75" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W75" s="215">
         <v>40828</v>
@@ -10020,7 +10026,7 @@
         <v>21</v>
       </c>
       <c r="AA75" s="75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB75" s="53" t="s">
         <v>25</v>
@@ -10051,13 +10057,13 @@
     </row>
     <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="46" t="s">
@@ -10075,17 +10081,17 @@
         <v>76</v>
       </c>
       <c r="R76" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="S76" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="S76" s="64" t="s">
-        <v>252</v>
-      </c>
       <c r="T76" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U76" s="53"/>
       <c r="V76" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W76" s="215">
         <v>41410</v>
@@ -10118,10 +10124,10 @@
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="46"/>
@@ -10141,13 +10147,13 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="T77" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="163">
@@ -10166,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10185,18 +10191,18 @@
       <c r="AM77" s="54"/>
       <c r="AN77" s="54"/>
       <c r="AO77" s="75" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>25</v>
@@ -10220,17 +10226,17 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="S78" s="64" t="s">
-        <v>142</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="65" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W78" s="215">
         <v>40252</v>
@@ -10245,7 +10251,7 @@
         <v>40</v>
       </c>
       <c r="AA78" s="75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
@@ -10275,18 +10281,18 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G79" s="58" t="s">
         <v>25</v>
@@ -10300,7 +10306,7 @@
       <c r="N79" s="58"/>
       <c r="O79" s="167"/>
       <c r="Q79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S79" s="55"/>
       <c r="V79" s="56">
@@ -10330,13 +10336,13 @@
     </row>
     <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B80" s="131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" s="131"/>
       <c r="D80" s="131"/>
       <c r="E80" s="131"/>
       <c r="F80" s="132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="134"/>
@@ -10358,13 +10364,13 @@
         <v>76</v>
       </c>
       <c r="R80" s="121" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S80" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="T80" s="120" t="s">
         <v>226</v>
-      </c>
-      <c r="T80" s="120" t="s">
-        <v>227</v>
       </c>
       <c r="U80" s="138"/>
       <c r="V80" s="141"/>
@@ -10400,15 +10406,15 @@
     </row>
     <row r="81" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F81" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G81" s="190" t="s">
         <v>25</v>
@@ -10425,10 +10431,10 @@
       <c r="O81" s="89"/>
       <c r="P81" s="102"/>
       <c r="Q81" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R81" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="33"/>
@@ -10465,15 +10471,15 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>25</v>
@@ -10487,17 +10493,17 @@
       <c r="N82" s="47"/>
       <c r="O82" s="110"/>
       <c r="P82" s="103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R82" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S82" s="64"/>
       <c r="T82" s="54" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U82" s="53"/>
       <c r="V82" s="66"/>
@@ -10512,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AA82" s="77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB82" s="48"/>
       <c r="AC82" s="44"/>
@@ -10534,10 +10540,10 @@
     </row>
     <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
@@ -10554,7 +10560,7 @@
       </c>
       <c r="L83" s="46"/>
       <c r="M83" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
@@ -10563,11 +10569,11 @@
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
@@ -10582,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="AA83" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB83" s="53" t="s">
         <v>25</v>
@@ -10599,10 +10605,10 @@
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G84" s="45"/>
       <c r="H84" s="46"/>
@@ -10626,19 +10632,19 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="T84" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="S84" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="T84" s="54" t="s">
-        <v>270</v>
-      </c>
       <c r="U84" s="53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V84" s="66" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W84" s="215">
         <v>39794</v>
@@ -10655,7 +10661,7 @@
         <v>55</v>
       </c>
       <c r="AA84" s="75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB84" s="53" t="s">
         <v>25</v>
@@ -10669,15 +10675,15 @@
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
       <c r="AO84" s="75" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
@@ -10697,19 +10703,19 @@
         <v>76</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="S85" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="T85" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="T85" s="54" t="s">
-        <v>145</v>
-      </c>
       <c r="U85" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="V85" s="163" t="s">
         <v>473</v>
-      </c>
-      <c r="V85" s="163" t="s">
-        <v>475</v>
       </c>
       <c r="W85" s="215">
         <v>40497</v>
@@ -10740,7 +10746,7 @@
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15189,52 +15195,51 @@
     <hyperlink ref="R68" r:id="rId52"/>
     <hyperlink ref="R66" r:id="rId53"/>
     <hyperlink ref="R71" r:id="rId54"/>
-    <hyperlink ref="R72" r:id="rId55"/>
-    <hyperlink ref="R78" r:id="rId56"/>
-    <hyperlink ref="R81" r:id="rId57"/>
-    <hyperlink ref="R31" r:id="rId58"/>
-    <hyperlink ref="R82" r:id="rId59"/>
-    <hyperlink ref="R25" r:id="rId60"/>
-    <hyperlink ref="R74" r:id="rId61"/>
-    <hyperlink ref="R51" r:id="rId62"/>
-    <hyperlink ref="R9" r:id="rId63"/>
-    <hyperlink ref="R11" r:id="rId64"/>
-    <hyperlink ref="R43" r:id="rId65"/>
-    <hyperlink ref="R54" r:id="rId66"/>
-    <hyperlink ref="R83" r:id="rId67"/>
-    <hyperlink ref="R77" r:id="rId68"/>
-    <hyperlink ref="R18" r:id="rId69"/>
-    <hyperlink ref="R80" r:id="rId70"/>
-    <hyperlink ref="R26" r:id="rId71"/>
-    <hyperlink ref="R34" r:id="rId72"/>
-    <hyperlink ref="R15" r:id="rId73"/>
-    <hyperlink ref="R70" r:id="rId74"/>
-    <hyperlink ref="R46" r:id="rId75"/>
-    <hyperlink ref="R69" r:id="rId76"/>
-    <hyperlink ref="R14" r:id="rId77"/>
-    <hyperlink ref="R73" r:id="rId78"/>
-    <hyperlink ref="R42" r:id="rId79"/>
-    <hyperlink ref="R76" r:id="rId80"/>
-    <hyperlink ref="R65" r:id="rId81"/>
-    <hyperlink ref="R13" r:id="rId82"/>
-    <hyperlink ref="R84" r:id="rId83"/>
-    <hyperlink ref="R38" r:id="rId84"/>
-    <hyperlink ref="R63" r:id="rId85"/>
-    <hyperlink ref="U24" r:id="rId86"/>
-    <hyperlink ref="R27" r:id="rId87"/>
-    <hyperlink ref="U32" r:id="rId88"/>
-    <hyperlink ref="R53" r:id="rId89"/>
-    <hyperlink ref="R36" r:id="rId90"/>
-    <hyperlink ref="R85" r:id="rId91"/>
-    <hyperlink ref="U41" r:id="rId92"/>
-    <hyperlink ref="U28" r:id="rId93"/>
-    <hyperlink ref="R57" r:id="rId94"/>
-    <hyperlink ref="U12" r:id="rId95"/>
-    <hyperlink ref="R75" r:id="rId96"/>
+    <hyperlink ref="R78" r:id="rId55"/>
+    <hyperlink ref="R81" r:id="rId56"/>
+    <hyperlink ref="R31" r:id="rId57"/>
+    <hyperlink ref="R82" r:id="rId58"/>
+    <hyperlink ref="R25" r:id="rId59"/>
+    <hyperlink ref="R74" r:id="rId60"/>
+    <hyperlink ref="R51" r:id="rId61"/>
+    <hyperlink ref="R9" r:id="rId62"/>
+    <hyperlink ref="R11" r:id="rId63"/>
+    <hyperlink ref="R43" r:id="rId64"/>
+    <hyperlink ref="R54" r:id="rId65"/>
+    <hyperlink ref="R83" r:id="rId66"/>
+    <hyperlink ref="R77" r:id="rId67"/>
+    <hyperlink ref="R18" r:id="rId68"/>
+    <hyperlink ref="R80" r:id="rId69"/>
+    <hyperlink ref="R26" r:id="rId70"/>
+    <hyperlink ref="R34" r:id="rId71"/>
+    <hyperlink ref="R15" r:id="rId72"/>
+    <hyperlink ref="R70" r:id="rId73"/>
+    <hyperlink ref="R46" r:id="rId74"/>
+    <hyperlink ref="R69" r:id="rId75"/>
+    <hyperlink ref="R14" r:id="rId76"/>
+    <hyperlink ref="R73" r:id="rId77"/>
+    <hyperlink ref="R42" r:id="rId78"/>
+    <hyperlink ref="R76" r:id="rId79"/>
+    <hyperlink ref="R65" r:id="rId80"/>
+    <hyperlink ref="R13" r:id="rId81"/>
+    <hyperlink ref="R84" r:id="rId82"/>
+    <hyperlink ref="R38" r:id="rId83"/>
+    <hyperlink ref="R63" r:id="rId84"/>
+    <hyperlink ref="U24" r:id="rId85"/>
+    <hyperlink ref="R27" r:id="rId86"/>
+    <hyperlink ref="U32" r:id="rId87"/>
+    <hyperlink ref="R53" r:id="rId88"/>
+    <hyperlink ref="R36" r:id="rId89"/>
+    <hyperlink ref="R85" r:id="rId90"/>
+    <hyperlink ref="U41" r:id="rId91"/>
+    <hyperlink ref="U28" r:id="rId92"/>
+    <hyperlink ref="R57" r:id="rId93"/>
+    <hyperlink ref="U12" r:id="rId94"/>
+    <hyperlink ref="R75" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
-  <drawing r:id="rId98"/>
-  <legacyDrawing r:id="rId99"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <drawing r:id="rId97"/>
+  <legacyDrawing r:id="rId98"/>
 </worksheet>
 </file>
--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -4230,10 +4230,10 @@
   <dimension ref="A1:AO320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -260,11 +260,25 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>http://www.hp.com/hpinfo/newsroom/press_kits/2012/HPDiscoverFrankfurt2012/HPCloudServices_Advisory.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>https://twitter.com/appsembler/status/177469137856118784</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO20" authorId="1">
+    <comment ref="AO21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -278,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="1">
+    <comment ref="E22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -292,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V21" authorId="1">
+    <comment ref="V22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -308,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="1">
+    <comment ref="V23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -324,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V23" authorId="1">
+    <comment ref="V24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -338,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V24" authorId="1">
+    <comment ref="V25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -352,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V25" authorId="1">
+    <comment ref="V26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -367,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V26" authorId="1">
+    <comment ref="V27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -381,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V27" authorId="1">
+    <comment ref="V28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -395,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA27" authorId="1">
+    <comment ref="AA28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -409,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ27" authorId="1">
+    <comment ref="AJ28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -423,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V28" authorId="1">
+    <comment ref="V29" authorId="1">
       <text>
         <r>
           <rPr>
@@ -437,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V29" authorId="1">
+    <comment ref="V30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -451,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V30" authorId="1">
+    <comment ref="V31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -466,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V31" authorId="1">
+    <comment ref="V32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -482,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V32" authorId="1">
+    <comment ref="V33" authorId="1">
       <text>
         <r>
           <rPr>
@@ -497,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V33" authorId="1">
+    <comment ref="V34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -511,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V34" authorId="1">
+    <comment ref="V35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -525,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V35" authorId="1">
+    <comment ref="V36" authorId="1">
       <text>
         <r>
           <rPr>
@@ -539,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V37" authorId="1">
+    <comment ref="V38" authorId="1">
       <text>
         <r>
           <rPr>
@@ -554,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V38" authorId="1">
+    <comment ref="V39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -569,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V39" authorId="1">
+    <comment ref="V40" authorId="1">
       <text>
         <r>
           <rPr>
@@ -583,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V40" authorId="1">
+    <comment ref="V41" authorId="1">
       <text>
         <r>
           <rPr>
@@ -598,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V42" authorId="1">
+    <comment ref="V43" authorId="1">
       <text>
         <r>
           <rPr>
@@ -612,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V43" authorId="1">
+    <comment ref="V44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -626,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V44" authorId="1">
+    <comment ref="V45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -641,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V45" authorId="1">
+    <comment ref="V46" authorId="1">
       <text>
         <r>
           <rPr>
@@ -655,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V46" authorId="1">
+    <comment ref="V47" authorId="1">
       <text>
         <r>
           <rPr>
@@ -670,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V47" authorId="1">
+    <comment ref="V48" authorId="1">
       <text>
         <r>
           <rPr>
@@ -684,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V48" authorId="1">
+    <comment ref="V49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -699,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE48" authorId="1">
+    <comment ref="AE49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -713,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V49" authorId="1">
+    <comment ref="V50" authorId="1">
       <text>
         <r>
           <rPr>
@@ -728,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V50" authorId="1">
+    <comment ref="V51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -743,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V51" authorId="1">
+    <comment ref="V52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -758,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="1">
+    <comment ref="E53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -772,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V52" authorId="1">
+    <comment ref="V53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -788,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0">
+    <comment ref="D55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V54" authorId="1">
+    <comment ref="V55" authorId="1">
       <text>
         <r>
           <rPr>
@@ -814,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V55" authorId="1">
+    <comment ref="V56" authorId="1">
       <text>
         <r>
           <rPr>
@@ -828,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V56" authorId="1">
+    <comment ref="V57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -842,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V57" authorId="1">
+    <comment ref="V58" authorId="1">
       <text>
         <r>
           <rPr>
@@ -857,7 +871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V58" authorId="1">
+    <comment ref="V59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -872,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V59" authorId="1">
+    <comment ref="V60" authorId="1">
       <text>
         <r>
           <rPr>
@@ -887,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E60" authorId="1">
+    <comment ref="E61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -901,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V60" authorId="1">
+    <comment ref="V61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -916,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1">
+    <comment ref="E62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -930,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V62" authorId="1">
+    <comment ref="V63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -944,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V63" authorId="1">
+    <comment ref="V64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -959,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="1">
+    <comment ref="E67" authorId="1">
       <text>
         <r>
           <rPr>
@@ -973,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V66" authorId="1">
+    <comment ref="V67" authorId="1">
       <text>
         <r>
           <rPr>
@@ -988,7 +1002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N67" authorId="0">
+    <comment ref="N68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V67" authorId="1">
+    <comment ref="V68" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="1">
+    <comment ref="E69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V68" authorId="1">
+    <comment ref="V69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V69" authorId="1">
+    <comment ref="V70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V70" authorId="1">
+    <comment ref="V71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V72" authorId="1">
+    <comment ref="V73" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V73" authorId="1">
+    <comment ref="V74" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V74" authorId="1">
+    <comment ref="V75" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V75" authorId="1">
+    <comment ref="V76" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V76" authorId="1">
+    <comment ref="V77" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V77" authorId="1">
+    <comment ref="V78" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1159,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V78" authorId="1">
+    <comment ref="V79" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E79" authorId="1">
+    <comment ref="E80" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V84" authorId="1">
+    <comment ref="V85" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V85" authorId="1">
+    <comment ref="V86" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D319" authorId="0">
+    <comment ref="D320" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1237,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D320" authorId="0">
+    <comment ref="D321" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="548">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -2877,6 +2891,27 @@
   </si>
   <si>
     <t>Startet as scalable PaaS, released a static managed Hosting in June 2013</t>
+  </si>
+  <si>
+    <t>PB 5.12.2012</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP Cloud Application Platform as a Service</t>
+  </si>
+  <si>
+    <t>Based on Stackato</t>
+  </si>
+  <si>
+    <t>Clojure, Go, Perl</t>
+  </si>
+  <si>
+    <t>https://www.hpcloud.com/products/PaaSApp</t>
+  </si>
+  <si>
+    <t>@hpcloud</t>
   </si>
 </sst>
 </file>
@@ -3904,7 +3939,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4227,13 +4262,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO320"/>
+  <dimension ref="A1:AO321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="AF13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4466,39 +4501,39 @@
       <c r="E3" s="235"/>
       <c r="F3" s="74"/>
       <c r="G3" s="18">
-        <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G87)</f>
-        <v>42</v>
+        <f>COUNTA(G4:G88)</f>
+        <v>43</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f>COUNTA(H4:H88)</f>
         <v>13</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>COUNTA(I4:I88)</f>
+        <v>35</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>COUNTA(J4:J88)</f>
+        <v>43</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>COUNTA(K4:K88)</f>
+        <v>30</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>COUNTA(L4:L88)</f>
+        <v>31</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>COUNTA(M4:M88)</f>
+        <v>21</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTA(N4:N88)</f>
+        <v>16</v>
       </c>
       <c r="O3" s="86">
-        <f t="shared" si="0"/>
+        <f>COUNTA(O4:O88)</f>
         <v>12</v>
       </c>
       <c r="P3" s="100" t="s">
@@ -4513,56 +4548,56 @@
       <c r="W3" s="176"/>
       <c r="X3" s="179"/>
       <c r="Y3" s="184">
-        <f ca="1">MEDIAN(Y4:Y100)</f>
+        <f ca="1">MEDIAN(Y4:Y101)</f>
         <v>18.5</v>
       </c>
       <c r="Z3" s="185">
-        <f ca="1">MEDIAN(Z4:Z100)</f>
-        <v>24.5</v>
+        <f ca="1">MEDIAN(Z4:Z101)</f>
+        <v>24</v>
       </c>
       <c r="AA3" s="78"/>
       <c r="AB3" s="22">
-        <f t="shared" ref="AB3:AL3" si="1">COUNTA(AB4:AB87)</f>
-        <v>41</v>
+        <f>COUNTA(AB4:AB88)</f>
+        <v>42</v>
       </c>
       <c r="AC3" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AC4:AC88)</f>
         <v>9</v>
       </c>
       <c r="AD3" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AD4:AD88)</f>
         <v>14</v>
       </c>
       <c r="AE3" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AE4:AE88)</f>
         <v>29</v>
       </c>
       <c r="AF3" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AF4:AF88)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="23">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AG4:AG88)</f>
         <v>9</v>
       </c>
       <c r="AH3" s="22">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>COUNTA(AH4:AH88)</f>
+        <v>33</v>
       </c>
       <c r="AI3" s="10">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f>COUNTA(AI4:AI88)</f>
+        <v>45</v>
       </c>
       <c r="AJ3" s="23">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>COUNTA(AJ4:AJ88)</f>
+        <v>27</v>
       </c>
       <c r="AK3" s="22">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f>COUNTA(AK4:AK88)</f>
+        <v>66</v>
       </c>
       <c r="AL3" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AL4:AL88)</f>
         <v>25</v>
       </c>
       <c r="AM3" s="23"/>
@@ -4682,11 +4717,11 @@
         <v>39876</v>
       </c>
       <c r="Y5" s="181">
-        <f t="shared" ref="Y5:Y67" ca="1" si="2">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
+        <f t="shared" ref="Y5:Y68" ca="1" si="0">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
         <v>52</v>
       </c>
       <c r="Z5" s="183" t="str">
-        <f t="shared" ref="Z5:Z67" ca="1" si="3">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
+        <f t="shared" ref="Z5:Z68" ca="1" si="1">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
@@ -4780,12 +4815,12 @@
       </c>
       <c r="X6" s="212"/>
       <c r="Y6" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="AA6" s="125" t="s">
         <v>295</v>
@@ -4876,11 +4911,11 @@
         <v>40941</v>
       </c>
       <c r="Y7" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="Z7" s="183">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="AA7" s="132" t="s">
@@ -5024,11 +5059,11 @@
         <v>39784</v>
       </c>
       <c r="Y9" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="Z9" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
@@ -5106,11 +5141,11 @@
         <v>39879</v>
       </c>
       <c r="Y10" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="Z10" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
@@ -5314,12 +5349,12 @@
         <v>39370</v>
       </c>
       <c r="Y13" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="Z13" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
       </c>
       <c r="AA13" s="116" t="s">
         <v>304</v>
@@ -5390,11 +5425,11 @@
         <v>40205</v>
       </c>
       <c r="Y14" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="Z14" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
@@ -5476,11 +5511,11 @@
         <v>41304</v>
       </c>
       <c r="Y15" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="Z15" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
@@ -5568,11 +5603,11 @@
         <v>40513</v>
       </c>
       <c r="Y16" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="Z16" s="183">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
@@ -5658,11 +5693,11 @@
       </c>
       <c r="X17" s="211"/>
       <c r="Y17" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Z17" s="183">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="AA17" s="132"/>
@@ -5744,12 +5779,12 @@
       </c>
       <c r="X18" s="212"/>
       <c r="Y18" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Z18" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="AA18" s="125"/>
       <c r="AB18" s="126"/>
@@ -5835,11 +5870,11 @@
         <v>40968</v>
       </c>
       <c r="Y19" s="181">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="Z19" s="183">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
@@ -5865,332 +5900,337 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="42" t="s">
+    <row r="20" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124" t="s">
+        <v>543</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>544</v>
+      </c>
+      <c r="F20" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="193" t="s">
+        <v>545</v>
+      </c>
+      <c r="N20" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="127"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="149" t="s">
+        <v>546</v>
+      </c>
+      <c r="S20" s="130" t="s">
+        <v>547</v>
+      </c>
+      <c r="T20" s="129" t="s">
+        <v>542</v>
+      </c>
+      <c r="U20" s="121"/>
+      <c r="V20" s="124" t="s">
+        <v>541</v>
+      </c>
+      <c r="W20" s="212">
+        <v>41248</v>
+      </c>
+      <c r="X20" s="212"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="183">
+        <f ca="1">IF(ISBLANK(W20),"0", DATEDIF(W20,TODAY(),"m"))</f>
+        <v>7</v>
+      </c>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI20" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ20" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="125"/>
+    </row>
+    <row r="21" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E21" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F21" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="46" t="s">
+      <c r="G21" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="54" t="s">
+      <c r="N21" s="47"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R20" s="53" t="s">
+      <c r="R21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="S20" s="64" t="s">
+      <c r="S21" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="T20" s="54" t="s">
+      <c r="T21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="66" t="s">
+      <c r="U21" s="53"/>
+      <c r="V21" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="W20" s="215"/>
-      <c r="X20" s="215"/>
-      <c r="Y20" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z21" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI20" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="75" t="s">
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="75" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124" t="s">
+    <row r="22" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124" t="s">
+      <c r="D22" s="124"/>
+      <c r="E22" s="124" t="s">
         <v>374</v>
       </c>
-      <c r="F21" s="125" t="s">
+      <c r="F22" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="G21" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="193"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="129" t="s">
+      <c r="G22" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="193"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="126" t="s">
+      <c r="R22" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="S21" s="124" t="s">
+      <c r="S22" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="129" t="s">
+      <c r="T22" s="129" t="s">
         <v>287</v>
       </c>
-      <c r="U21" s="121" t="s">
+      <c r="U22" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="V21" s="124" t="s">
+      <c r="V22" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="W21" s="212"/>
-      <c r="X21" s="212">
+      <c r="W22" s="212"/>
+      <c r="X22" s="212">
         <v>41105</v>
       </c>
-      <c r="Y21" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y22" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="Z21" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z22" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="125" t="s">
+      <c r="AA22" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="AB21" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE21" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI21" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ21" s="129"/>
-      <c r="AK21" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL21" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM21" s="129"/>
-      <c r="AN21" s="129"/>
-      <c r="AO21" s="125"/>
-    </row>
-    <row r="22" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="AB22" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI22" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ22" s="129"/>
+      <c r="AK22" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL22" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM22" s="129"/>
+      <c r="AN22" s="129"/>
+      <c r="AO22" s="125"/>
+    </row>
+    <row r="23" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F23" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G22" s="190"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="33" t="s">
+      <c r="G23" s="190"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="S23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="13" t="s">
+      <c r="U23" s="32"/>
+      <c r="V23" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="W22" s="210"/>
-      <c r="X22" s="210"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="76"/>
-    </row>
-    <row r="23" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="R23" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="152" t="s">
-        <v>199</v>
-      </c>
-      <c r="T23" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="V23" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="W23" s="217">
-        <v>41085</v>
-      </c>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC23" s="44"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI23" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL23" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="77"/>
+      <c r="W23" s="210"/>
+      <c r="X23" s="210"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="76"/>
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
@@ -6203,9 +6243,7 @@
       <c r="H24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="I24" s="46"/>
       <c r="J24" s="46" t="s">
         <v>25</v>
       </c>
@@ -6215,54 +6253,45 @@
       <c r="L24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="46" t="s">
-        <v>389</v>
-      </c>
+      <c r="M24" s="46"/>
       <c r="N24" s="47"/>
       <c r="O24" s="109"/>
       <c r="P24" s="101"/>
       <c r="Q24" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="S24" s="64" t="s">
-        <v>200</v>
+        <v>76</v>
+      </c>
+      <c r="R24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="152" t="s">
+        <v>199</v>
       </c>
       <c r="T24" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>392</v>
+        <v>62</v>
+      </c>
+      <c r="U24" s="48" t="s">
+        <v>387</v>
       </c>
       <c r="V24" s="69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W24" s="217">
-        <v>41037</v>
-      </c>
-      <c r="X24" s="217">
-        <v>41061</v>
-      </c>
-      <c r="Y24" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>41085</v>
+      </c>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="Z24" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="AA24" s="77" t="s">
-        <v>295</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AC24" s="44"/>
-      <c r="AE24" s="42" t="s">
-        <v>25</v>
-      </c>
       <c r="AG24" s="49"/>
       <c r="AH24" s="48" t="s">
         <v>25</v>
@@ -6274,14 +6303,16 @@
       <c r="AK24" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AL24" s="44"/>
+      <c r="AL24" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="AM24" s="49"/>
       <c r="AN24" s="49"/>
       <c r="AO24" s="77"/>
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
@@ -6291,7 +6322,9 @@
       <c r="G25" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="I25" s="46" t="s">
         <v>25</v>
       </c>
@@ -6314,37 +6347,44 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="T25" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="U25" s="48"/>
+        <v>391</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="V25" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="W25" s="217"/>
+        <v>218</v>
+      </c>
+      <c r="W25" s="217">
+        <v>41037</v>
+      </c>
       <c r="X25" s="217">
-        <v>41343</v>
+        <v>41061</v>
       </c>
       <c r="Y25" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Z25" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z25" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
       </c>
       <c r="AC25" s="44"/>
+      <c r="AE25" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="AG25" s="49"/>
       <c r="AH25" s="48" t="s">
         <v>25</v>
@@ -6356,26 +6396,18 @@
       <c r="AK25" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AL25" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM25" s="49" t="s">
-        <v>290</v>
-      </c>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="49"/>
       <c r="AN25" s="49"/>
-      <c r="AO25" s="77" t="s">
-        <v>388</v>
-      </c>
+      <c r="AO25" s="77"/>
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="77" t="s">
         <v>331</v>
       </c>
       <c r="G26" s="45" t="s">
@@ -6404,34 +6436,37 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="S26" s="64"/>
+        <v>165</v>
+      </c>
+      <c r="S26" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="T26" s="49" t="s">
-        <v>222</v>
+        <v>390</v>
       </c>
       <c r="U26" s="48"/>
-      <c r="V26" s="153" t="s">
-        <v>393</v>
+      <c r="V26" s="69" t="s">
+        <v>219</v>
       </c>
       <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+      <c r="X26" s="217">
+        <v>41343</v>
+      </c>
+      <c r="Y26" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="Z26" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AB26" s="48"/>
+      <c r="AB26" s="48" t="s">
+        <v>25</v>
+      </c>
       <c r="AC26" s="44"/>
-      <c r="AD26" s="42" t="s">
-        <v>25</v>
-      </c>
       <c r="AG26" s="49"/>
       <c r="AH26" s="48" t="s">
         <v>25</v>
@@ -6443,18 +6478,24 @@
       <c r="AK26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="49"/>
+      <c r="AL26" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM26" s="49" t="s">
+        <v>290</v>
+      </c>
       <c r="AN26" s="49"/>
-      <c r="AO26" s="77"/>
-    </row>
-    <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO26" s="77" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>331</v>
@@ -6475,46 +6516,40 @@
       <c r="L27" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="46"/>
+      <c r="M27" s="46" t="s">
+        <v>389</v>
+      </c>
       <c r="N27" s="47"/>
       <c r="O27" s="109"/>
       <c r="P27" s="101"/>
       <c r="Q27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="S27" s="64" t="s">
-        <v>537</v>
-      </c>
+      <c r="R27" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="S27" s="64"/>
       <c r="T27" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U27" s="48"/>
-      <c r="V27" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="W27" s="217">
-        <v>41244</v>
-      </c>
-      <c r="X27" s="217">
-        <v>41361</v>
-      </c>
-      <c r="Y27" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Z27" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+      <c r="V27" s="153" t="s">
+        <v>393</v>
+      </c>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB27" s="48" t="s">
-        <v>25</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AB27" s="48"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="42" t="s">
         <v>25</v>
@@ -6526,9 +6561,7 @@
       <c r="AI27" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AJ27" s="49" t="s">
-        <v>25</v>
-      </c>
+      <c r="AJ27" s="49"/>
       <c r="AK27" s="48" t="s">
         <v>25</v>
       </c>
@@ -6537,1427 +6570,1436 @@
       <c r="AN27" s="49"/>
       <c r="AO27" s="77"/>
     </row>
-    <row r="28" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="57" t="s">
+    <row r="28" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="S28" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="U28" s="48"/>
+      <c r="V28" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="W28" s="217">
+        <v>41244</v>
+      </c>
+      <c r="X28" s="217">
+        <v>41361</v>
+      </c>
+      <c r="Y28" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z28" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA28" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB28" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ28" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="77"/>
+    </row>
+    <row r="29" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="169" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="169" t="s">
         <v>331</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="58" t="s">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57" t="s">
+      <c r="N29" s="58"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="S28" s="55" t="s">
+      <c r="S29" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="T28" s="57" t="s">
+      <c r="T29" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="U28" s="174" t="s">
+      <c r="U29" s="174" t="s">
         <v>500</v>
       </c>
-      <c r="V28" s="171" t="s">
+      <c r="V29" s="171" t="s">
         <v>499</v>
       </c>
-      <c r="W28" s="218"/>
-      <c r="X28" s="218"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="183"/>
-      <c r="AA28" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-    </row>
-    <row r="29" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="U29" s="53"/>
-      <c r="V29" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="W29" s="215"/>
-      <c r="X29" s="215"/>
+      <c r="W29" s="218"/>
+      <c r="X29" s="218"/>
       <c r="Y29" s="181"/>
       <c r="Z29" s="183"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="44"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="48"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="75"/>
-    </row>
-    <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA29" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI29" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+    </row>
+    <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" s="45"/>
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="110" t="s">
-        <v>25</v>
-      </c>
+      <c r="N30" s="47"/>
+      <c r="O30" s="162"/>
       <c r="P30" s="103"/>
       <c r="Q30" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" s="64" t="s">
-        <v>195</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="R30" s="53"/>
+      <c r="S30" s="64"/>
       <c r="T30" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="U30" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="V30" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="W30" s="215">
-        <v>40269</v>
-      </c>
-      <c r="X30" s="215">
-        <v>40574</v>
-      </c>
-      <c r="Y30" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="Z30" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="AA30" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB30" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE30" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI30" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ30" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK30" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="75" t="s">
-        <v>399</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="U30" s="53"/>
+      <c r="V30" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="W30" s="215"/>
+      <c r="X30" s="215"/>
+      <c r="Y30" s="181"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="44"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="75"/>
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>331</v>
+      <c r="B31" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>300</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
       <c r="N31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="110"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="49" t="s">
+      <c r="O31" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="S31" s="156" t="s">
-        <v>149</v>
-      </c>
-      <c r="T31" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="U31" s="48"/>
-      <c r="V31" s="153" t="s">
-        <v>466</v>
-      </c>
-      <c r="W31" s="217">
-        <v>40840</v>
-      </c>
-      <c r="X31" s="217">
-        <v>40953</v>
+      <c r="R31" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="S31" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="U31" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="V31" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="W31" s="215">
+        <v>40269</v>
+      </c>
+      <c r="X31" s="215">
+        <v>40574</v>
       </c>
       <c r="Y31" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="Z31" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AA31" s="77" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="44"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ31" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="77"/>
-    </row>
-    <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="154"/>
-      <c r="F32" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="45"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="AA31" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB31" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI31" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ31" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK31" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="75" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="J32" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="46"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
+      <c r="N32" s="47" t="s">
+        <v>25</v>
+      </c>
       <c r="O32" s="110"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="54" t="s">
+      <c r="P32" s="101"/>
+      <c r="Q32" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="S32" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="U32" s="48"/>
+      <c r="V32" s="153" t="s">
+        <v>466</v>
+      </c>
+      <c r="W32" s="217">
+        <v>40840</v>
+      </c>
+      <c r="X32" s="217">
+        <v>40953</v>
+      </c>
+      <c r="Y32" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z32" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AA32" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="44"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ32" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="77"/>
+    </row>
+    <row r="33" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="154"/>
+      <c r="F33" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="53" t="s">
+      <c r="R33" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="S32" s="64"/>
-      <c r="T32" s="54" t="s">
+      <c r="S33" s="64"/>
+      <c r="T33" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="V32" s="66" t="s">
+      <c r="V33" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="W32" s="215">
+      <c r="W33" s="215">
         <v>40790</v>
       </c>
-      <c r="X32" s="215"/>
-      <c r="Y32" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X33" s="215"/>
+      <c r="Y33" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z33" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="53"/>
-      <c r="AE32" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="53"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="75"/>
-    </row>
-    <row r="33" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57" t="s">
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="53"/>
+      <c r="AE33" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="53"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="75"/>
+    </row>
+    <row r="34" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57" t="s">
+      <c r="G34" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="R33" s="57" t="s">
+      <c r="R34" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="S33" s="165" t="s">
+      <c r="S34" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="57" t="s">
+      <c r="T34" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="U33" s="57"/>
-      <c r="V33" s="166">
+      <c r="U34" s="57"/>
+      <c r="V34" s="166">
         <v>40756</v>
       </c>
-      <c r="W33" s="216"/>
-      <c r="X33" s="216"/>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="183"/>
-      <c r="AA33" s="57" t="s">
+      <c r="W34" s="216"/>
+      <c r="X34" s="216"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="183"/>
+      <c r="AA34" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="AB33" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC33" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG33" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57" t="s">
+      <c r="AB34" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC34" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG34" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+    <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="158" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="158" t="s">
         <v>331</v>
       </c>
-      <c r="G34" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="197"/>
-      <c r="M34" s="197"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="204" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="160" t="s">
+      <c r="G35" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="197" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="197"/>
+      <c r="M35" s="197"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="204" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="R34" s="159" t="s">
+      <c r="R35" s="159" t="s">
         <v>176</v>
       </c>
-      <c r="S34" s="205" t="s">
+      <c r="S35" s="205" t="s">
         <v>515</v>
       </c>
-      <c r="T34" s="160" t="s">
+      <c r="T35" s="160" t="s">
         <v>514</v>
       </c>
-      <c r="U34" s="159"/>
-      <c r="V34" s="206" t="s">
+      <c r="U35" s="159"/>
+      <c r="V35" s="206" t="s">
         <v>516</v>
       </c>
-      <c r="W34" s="214"/>
-      <c r="X34" s="214">
+      <c r="W35" s="214"/>
+      <c r="X35" s="214">
         <v>40989</v>
       </c>
-      <c r="Y34" s="207">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="Z34" s="208" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Y35" s="207">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Z35" s="208" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="158" t="s">
+      <c r="AA35" s="158" t="s">
         <v>304</v>
       </c>
-      <c r="AB34" s="159" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="160" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH34" s="159" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="159" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="160"/>
-      <c r="AN34" s="160"/>
-      <c r="AO34" s="158"/>
-    </row>
-    <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="AB35" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH35" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="160"/>
+      <c r="AK35" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="160"/>
+      <c r="AN35" s="160"/>
+      <c r="AO35" s="158"/>
+    </row>
+    <row r="36" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E36" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F36" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G35" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="110"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="54" t="s">
+      <c r="G36" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="110"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R35" s="53" t="s">
+      <c r="R36" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="S35" s="64"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="53" t="s">
+      <c r="S36" s="64"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="V35" s="163">
+      <c r="V36" s="163">
         <v>40756</v>
       </c>
-      <c r="W35" s="215">
+      <c r="W36" s="215">
         <v>40756</v>
       </c>
-      <c r="X35" s="215"/>
-      <c r="Y35" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X36" s="215"/>
+      <c r="Y36" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z36" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="AA35" s="75" t="s">
+      <c r="AA36" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="AB35" s="53"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ35" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="75" t="s">
+      <c r="AB36" s="53"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ36" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="75" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="36" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="74" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="199"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="23" t="s">
+      <c r="G37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="199"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="R36" s="164" t="s">
+      <c r="R37" s="164" t="s">
         <v>459</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="S37" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T37" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="62">
+      <c r="U37" s="22"/>
+      <c r="V37" s="62">
         <v>2012</v>
       </c>
-      <c r="W36" s="219"/>
-      <c r="X36" s="219"/>
-      <c r="Y36" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W37" s="219"/>
+      <c r="X37" s="219"/>
+      <c r="Y37" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z37" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="31" t="s">
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="74"/>
-    </row>
-    <row r="37" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="74"/>
+    </row>
+    <row r="38" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F38" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="54" t="s">
+      <c r="G38" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R37" s="53" t="s">
+      <c r="R38" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="S37" s="64" t="s">
+      <c r="S38" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="T37" s="54" t="s">
+      <c r="T38" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="U37" s="53" t="s">
+      <c r="U38" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="V37" s="163" t="s">
+      <c r="V38" s="163" t="s">
         <v>458</v>
       </c>
-      <c r="W37" s="215">
+      <c r="W38" s="215">
         <v>41331</v>
       </c>
-      <c r="X37" s="215"/>
-      <c r="Y37" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X38" s="215"/>
+      <c r="Y38" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z38" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="AA37" s="75" t="s">
+      <c r="AA38" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="AB37" s="53"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ37" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="75"/>
-    </row>
-    <row r="38" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="AB38" s="53"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ38" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="75"/>
+    </row>
+    <row r="39" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="76" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G38" s="190"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="33" t="s">
+      <c r="G39" s="190"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R38" s="32" t="s">
+      <c r="R39" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="S39" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="T38" s="33"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="143" t="s">
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="W38" s="210">
+      <c r="W39" s="210">
         <v>40443</v>
       </c>
-      <c r="X38" s="210"/>
-      <c r="Y38" s="181"/>
-      <c r="Z38" s="183"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="76" t="s">
+      <c r="X39" s="210"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="76" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
+    <row r="40" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F40" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="54" t="s">
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R39" s="173" t="s">
+      <c r="R40" s="173" t="s">
         <v>534</v>
       </c>
-      <c r="S39" s="64" t="s">
+      <c r="S40" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="T39" s="54" t="s">
+      <c r="T40" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="U39" s="48"/>
-      <c r="V39" s="65" t="s">
+      <c r="U40" s="48"/>
+      <c r="V40" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="W39" s="215">
+      <c r="W40" s="215">
         <v>41061</v>
       </c>
-      <c r="X39" s="215"/>
-      <c r="Y39" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X40" s="215"/>
+      <c r="Y40" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z40" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="53"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="53"/>
-      <c r="AJ39" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK39" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL39" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="75"/>
-    </row>
-    <row r="40" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="110"/>
-      <c r="P40" s="103" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q40" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R40" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="S40" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="T40" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="U40" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="V40" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="W40" s="215">
-        <v>40544</v>
-      </c>
-      <c r="X40" s="215">
-        <v>40719</v>
-      </c>
-      <c r="Y40" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Z40" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AA40" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB40" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="53"/>
       <c r="AG40" s="54"/>
-      <c r="AH40" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI40" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ40" s="54"/>
+      <c r="AH40" s="53"/>
+      <c r="AJ40" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="AK40" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="54" t="s">
-        <v>30</v>
-      </c>
+      <c r="AL40" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM40" s="54"/>
       <c r="AN40" s="54"/>
       <c r="AO40" s="75"/>
     </row>
-    <row r="41" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="110"/>
+      <c r="P41" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q41" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="S41" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="U41" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="V41" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="W41" s="215">
+        <v>40544</v>
+      </c>
+      <c r="X41" s="215">
+        <v>40719</v>
+      </c>
+      <c r="Y41" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z41" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AA41" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB41" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI41" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="75"/>
+    </row>
+    <row r="42" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="78" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="5" t="s">
+      <c r="G42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="111"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="31" t="s">
+      <c r="N42" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="111"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R41" s="96" t="s">
+      <c r="R42" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="S41" s="68" t="s">
+      <c r="S42" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="T41" s="31" t="s">
+      <c r="T42" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U41" s="172" t="s">
+      <c r="U42" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="V41" s="67" t="s">
+      <c r="V42" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="W41" s="220">
+      <c r="W42" s="220">
         <v>40878</v>
       </c>
-      <c r="X41" s="220"/>
-      <c r="Y41" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X42" s="220"/>
+      <c r="Y42" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z42" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="AA41" s="78"/>
-      <c r="AB41" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="74" t="s">
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="74" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="42" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+    <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E43" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="F43" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G43" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46" t="s">
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="N42" s="47"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="54" t="s">
+      <c r="N43" s="47"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R42" s="53" t="s">
+      <c r="R43" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="S42" s="64" t="s">
+      <c r="S43" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="T42" s="54" t="s">
+      <c r="T43" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="U42" s="53" t="s">
+      <c r="U43" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="V42" s="65" t="s">
+      <c r="V43" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="W42" s="215"/>
-      <c r="X42" s="215">
+      <c r="W43" s="215"/>
+      <c r="X43" s="215">
         <v>41011</v>
       </c>
-      <c r="Y42" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y43" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="Z42" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z43" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="77" t="s">
+      <c r="AA43" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AB42" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC42" s="44"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="49" t="s">
+      <c r="AB43" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC43" s="44"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="75"/>
-    </row>
-    <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="115" t="s">
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="75"/>
+    </row>
+    <row r="44" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116" t="s">
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="G43" s="133"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="134"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120" t="s">
+      <c r="G44" s="133"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="134"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R43" s="121" t="s">
+      <c r="R44" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="S43" s="122" t="s">
+      <c r="S44" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="T43" s="120" t="s">
+      <c r="T44" s="120" t="s">
         <v>358</v>
       </c>
-      <c r="U43" s="121" t="s">
+      <c r="U44" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="V43" s="144" t="s">
+      <c r="V44" s="144" t="s">
         <v>362</v>
       </c>
-      <c r="W43" s="211"/>
-      <c r="X43" s="211">
+      <c r="W44" s="211"/>
+      <c r="X44" s="211">
         <v>38961</v>
       </c>
-      <c r="Y43" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y44" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
-      <c r="Z43" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z44" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="116" t="s">
+      <c r="AA44" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="AB43" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC43" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD43" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE43" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF43" s="115"/>
-      <c r="AG43" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH43" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI43" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL43" s="115"/>
-      <c r="AM43" s="120" t="s">
+      <c r="AB44" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC44" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD44" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE44" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF44" s="115"/>
+      <c r="AG44" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH44" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI44" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ44" s="120"/>
+      <c r="AK44" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL44" s="115"/>
+      <c r="AM44" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="116" t="s">
+      <c r="AN44" s="120"/>
+      <c r="AO44" s="116" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="44" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="76" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="190"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="191"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="102" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="Q44" s="33" t="s">
+      <c r="Q45" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R44" s="32" t="s">
+      <c r="R45" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="S45" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="T44" s="33"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="13" t="s">
+      <c r="T45" s="33"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="W44" s="210"/>
-      <c r="X44" s="210"/>
-      <c r="Y44" s="181"/>
-      <c r="Z44" s="183"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="33" t="s">
+      <c r="W45" s="210"/>
+      <c r="X45" s="210"/>
+      <c r="Y45" s="181"/>
+      <c r="Z45" s="183"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="76"/>
-    </row>
-    <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="76"/>
+    </row>
+    <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E46" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F46" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46" t="s">
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="54" t="s">
+      <c r="N46" s="47"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R45" s="53" t="s">
+      <c r="R46" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="S45" s="64" t="s">
+      <c r="S46" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="T45" s="54" t="s">
+      <c r="T46" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="U45" s="52"/>
-      <c r="V45" s="66" t="s">
+      <c r="U46" s="52"/>
+      <c r="V46" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="W45" s="215"/>
-      <c r="X45" s="215">
+      <c r="W46" s="215"/>
+      <c r="X46" s="215">
         <v>39448</v>
       </c>
-      <c r="Y45" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y46" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
-      <c r="Z45" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z46" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="75" t="s">
+      <c r="AA46" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="AB45" s="53"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="53"/>
-      <c r="AJ45" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK45" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="75"/>
-    </row>
-    <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="115" t="s">
+      <c r="AB46" s="53"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="53"/>
+      <c r="AJ46" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK46" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="75"/>
+    </row>
+    <row r="47" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="115" t="s">
         <v>238</v>
-      </c>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="116" t="s">
-        <v>300</v>
-      </c>
-      <c r="G46" s="133"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="134"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="R46" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="S46" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="T46" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="U46" s="121" t="s">
-        <v>326</v>
-      </c>
-      <c r="V46" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="W46" s="211">
-        <v>41143</v>
-      </c>
-      <c r="X46" s="211">
-        <v>41186</v>
-      </c>
-      <c r="Y46" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Z46" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AA46" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="131"/>
-      <c r="AD46" s="115"/>
-      <c r="AE46" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF46" s="115"/>
-      <c r="AG46" s="139"/>
-      <c r="AH46" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI46" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ46" s="139"/>
-      <c r="AK46" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL46" s="131"/>
-      <c r="AM46" s="139"/>
-      <c r="AN46" s="139"/>
-      <c r="AO46" s="116"/>
-    </row>
-    <row r="47" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="115" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="115"/>
       <c r="D47" s="115"/>
@@ -7967,10 +8009,10 @@
       </c>
       <c r="G47" s="133"/>
       <c r="H47" s="134"/>
-      <c r="I47" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134" t="s">
+        <v>25</v>
+      </c>
       <c r="K47" s="134"/>
       <c r="L47" s="134"/>
       <c r="M47" s="134"/>
@@ -7981,155 +8023,143 @@
         <v>29</v>
       </c>
       <c r="R47" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="S47" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="T47" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="U47" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="V47" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="W47" s="211">
+        <v>41143</v>
+      </c>
+      <c r="X47" s="211">
+        <v>41186</v>
+      </c>
+      <c r="Y47" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Z47" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AA47" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB47" s="138"/>
+      <c r="AC47" s="131"/>
+      <c r="AD47" s="115"/>
+      <c r="AE47" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF47" s="115"/>
+      <c r="AG47" s="139"/>
+      <c r="AH47" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI47" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ47" s="139"/>
+      <c r="AK47" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL47" s="131"/>
+      <c r="AM47" s="139"/>
+      <c r="AN47" s="139"/>
+      <c r="AO47" s="116"/>
+    </row>
+    <row r="48" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="G48" s="133"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="S47" s="122" t="s">
+      <c r="S48" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="T47" s="120" t="s">
+      <c r="T48" s="120" t="s">
         <v>327</v>
       </c>
-      <c r="U47" s="121" t="s">
+      <c r="U48" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="V47" s="141" t="s">
+      <c r="V48" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="W47" s="211">
+      <c r="W48" s="211">
         <v>40546</v>
       </c>
-      <c r="X47" s="211">
+      <c r="X48" s="211">
         <v>40788</v>
       </c>
-      <c r="Y47" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y48" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z47" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z48" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
-      <c r="AA47" s="116" t="s">
+      <c r="AA48" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="AB47" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC47" s="115"/>
-      <c r="AD47" s="115"/>
-      <c r="AE47" s="115"/>
-      <c r="AF47" s="115"/>
-      <c r="AG47" s="120"/>
-      <c r="AH47" s="121"/>
-      <c r="AI47" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ47" s="120"/>
-      <c r="AK47" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL47" s="115"/>
-      <c r="AM47" s="120" t="s">
+      <c r="AB48" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC48" s="115"/>
+      <c r="AD48" s="115"/>
+      <c r="AE48" s="115"/>
+      <c r="AF48" s="115"/>
+      <c r="AG48" s="120"/>
+      <c r="AH48" s="121"/>
+      <c r="AI48" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ48" s="120"/>
+      <c r="AK48" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL48" s="115"/>
+      <c r="AM48" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="AN47" s="120"/>
-      <c r="AO47" s="116"/>
-    </row>
-    <row r="48" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="125" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="193"/>
-      <c r="I48" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="193"/>
-      <c r="L48" s="193"/>
-      <c r="M48" s="193" t="s">
-        <v>291</v>
-      </c>
-      <c r="N48" s="194"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="R48" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="S48" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="T48" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="U48" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="V48" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="W48" s="212">
-        <v>39545</v>
-      </c>
-      <c r="X48" s="212">
-        <v>40854</v>
-      </c>
-      <c r="Y48" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Z48" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="AA48" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB48" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC48" s="124"/>
-      <c r="AD48" s="124"/>
-      <c r="AE48" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF48" s="124"/>
-      <c r="AG48" s="129"/>
-      <c r="AH48" s="126"/>
-      <c r="AI48" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ48" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK48" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL48" s="124"/>
-      <c r="AM48" s="129" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN48" s="129" t="s">
-        <v>525</v>
-      </c>
-      <c r="AO48" s="125"/>
+      <c r="AN48" s="120"/>
+      <c r="AO48" s="116"/>
     </row>
     <row r="49" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="124" t="s">
-        <v>96</v>
+        <v>526</v>
       </c>
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
@@ -8147,55 +8177,47 @@
       <c r="J49" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="193" t="s">
-        <v>25</v>
-      </c>
+      <c r="K49" s="193"/>
+      <c r="L49" s="193"/>
       <c r="M49" s="193" t="s">
-        <v>293</v>
-      </c>
-      <c r="N49" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="127" t="s">
-        <v>25</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N49" s="194"/>
+      <c r="O49" s="127"/>
       <c r="P49" s="128"/>
       <c r="Q49" s="129" t="s">
         <v>29</v>
       </c>
       <c r="R49" s="149" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S49" s="124" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T49" s="129" t="s">
-        <v>294</v>
-      </c>
-      <c r="U49" s="126" t="s">
-        <v>188</v>
+        <v>95</v>
+      </c>
+      <c r="U49" s="121" t="s">
+        <v>296</v>
       </c>
       <c r="V49" s="124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W49" s="212">
-        <v>39385</v>
+        <v>39545</v>
       </c>
       <c r="X49" s="212">
-        <v>39927</v>
+        <v>40854</v>
       </c>
       <c r="Y49" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="Z49" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="AA49" s="150" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="AA49" s="125" t="s">
         <v>295</v>
       </c>
       <c r="AB49" s="126" t="s">
@@ -8208,275 +8230,302 @@
       </c>
       <c r="AF49" s="124"/>
       <c r="AG49" s="129"/>
-      <c r="AH49" s="126" t="s">
-        <v>25</v>
-      </c>
+      <c r="AH49" s="126"/>
       <c r="AI49" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="AJ49" s="129"/>
+      <c r="AJ49" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="AK49" s="126" t="s">
         <v>25</v>
       </c>
       <c r="AL49" s="124"/>
       <c r="AM49" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN49" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO49" s="125"/>
+    </row>
+    <row r="50" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="193"/>
+      <c r="I50" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="193" t="s">
+        <v>293</v>
+      </c>
+      <c r="N50" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="128"/>
+      <c r="Q50" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="R50" s="149" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T50" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="U50" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="V50" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="W50" s="212">
+        <v>39385</v>
+      </c>
+      <c r="X50" s="212">
+        <v>39927</v>
+      </c>
+      <c r="Y50" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Z50" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AA50" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB50" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC50" s="124"/>
+      <c r="AD50" s="124"/>
+      <c r="AE50" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF50" s="124"/>
+      <c r="AG50" s="129"/>
+      <c r="AH50" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI50" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ50" s="129"/>
+      <c r="AK50" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL50" s="124"/>
+      <c r="AM50" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="AN49" s="129"/>
-      <c r="AO49" s="125"/>
-    </row>
-    <row r="50" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="44" t="s">
+      <c r="AN50" s="129"/>
+      <c r="AO50" s="125"/>
+    </row>
+    <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="F50" s="77" t="s">
+      <c r="F51" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="S50" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="T50" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="U50" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="V50" s="157" t="s">
-        <v>427</v>
-      </c>
-      <c r="W50" s="217">
-        <v>40865</v>
-      </c>
-      <c r="X50" s="217">
-        <v>41184</v>
-      </c>
-      <c r="Y50" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Z50" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="AA50" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB50" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC50" s="44"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="48"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK50" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="75" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="46"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="I51" s="46"/>
-      <c r="J51" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="J51" s="46"/>
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
       <c r="M51" s="46"/>
       <c r="N51" s="47"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R51" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="S51" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="T51" s="54" t="s">
+      <c r="O51" s="109"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="R51" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S51" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="T51" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="U51" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="V51" s="157" t="s">
+        <v>427</v>
+      </c>
+      <c r="W51" s="217">
+        <v>40865</v>
+      </c>
+      <c r="X51" s="217">
+        <v>41184</v>
+      </c>
+      <c r="Y51" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Z51" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AA51" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB51" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC51" s="44"/>
+      <c r="AG51" s="49"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK51" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="49"/>
+      <c r="AN51" s="49"/>
+      <c r="AO51" s="75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="U51" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="V51" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="W51" s="215">
-        <v>40742</v>
-      </c>
-      <c r="X51" s="215">
-        <v>40969</v>
-      </c>
-      <c r="Y51" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="Z51" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AA51" s="75" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB51" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG51" s="54"/>
-      <c r="AH51" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ51" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK51" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM51" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN51" s="54"/>
-      <c r="AO51" s="75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>433</v>
+      <c r="F52" s="75" t="s">
+        <v>300</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H52" s="46"/>
       <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
+      <c r="J52" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="K52" s="46"/>
       <c r="L52" s="46"/>
       <c r="M52" s="46"/>
       <c r="N52" s="47"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="101"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="103"/>
       <c r="Q52" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R52" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="S52" s="64"/>
+      <c r="R52" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S52" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="T52" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="U52" s="53"/>
+        <v>101</v>
+      </c>
+      <c r="U52" s="52" t="s">
+        <v>429</v>
+      </c>
       <c r="V52" s="66" t="s">
-        <v>436</v>
+        <v>205</v>
       </c>
       <c r="W52" s="215">
-        <v>39249</v>
+        <v>40742</v>
       </c>
       <c r="X52" s="215">
-        <v>39349</v>
+        <v>40969</v>
       </c>
       <c r="Y52" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="Z52" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="AA52" s="77" t="s">
-        <v>304</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA52" s="75" t="s">
+        <v>428</v>
       </c>
       <c r="AB52" s="53" t="s">
         <v>25</v>
       </c>
+      <c r="AC52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE52" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="AG52" s="54"/>
-      <c r="AH52" s="53"/>
+      <c r="AH52" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI52" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="AJ52" s="54" t="s">
         <v>25</v>
       </c>
       <c r="AK52" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AL52" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM52" s="54"/>
+      <c r="AM52" s="54" t="s">
+        <v>430</v>
+      </c>
       <c r="AN52" s="54"/>
       <c r="AO52" s="75" t="s">
-        <v>434</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="44"/>
+        <v>252</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>431</v>
+      </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
+      <c r="E53" s="44" t="s">
+        <v>432</v>
+      </c>
       <c r="F53" s="77" t="s">
         <v>433</v>
       </c>
@@ -8496,32 +8545,36 @@
         <v>29</v>
       </c>
       <c r="R53" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="S53" s="64" t="s">
-        <v>439</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="S53" s="64"/>
       <c r="T53" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="U53" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="V53" s="66">
-        <v>2005</v>
-      </c>
-      <c r="W53" s="215"/>
-      <c r="X53" s="215"/>
-      <c r="Y53" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="77"/>
-      <c r="AB53" s="53"/>
+        <v>435</v>
+      </c>
+      <c r="U53" s="53"/>
+      <c r="V53" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="W53" s="215">
+        <v>39249</v>
+      </c>
+      <c r="X53" s="215">
+        <v>39349</v>
+      </c>
+      <c r="Y53" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="Z53" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="AA53" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB53" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="AG53" s="54"/>
       <c r="AH53" s="53"/>
       <c r="AJ53" s="54" t="s">
@@ -8540,567 +8593,599 @@
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="S54" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="T54" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U54" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="V54" s="66">
+        <v>2005</v>
+      </c>
+      <c r="W54" s="215"/>
+      <c r="X54" s="215"/>
+      <c r="Y54" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="77"/>
+      <c r="AB54" s="53"/>
+      <c r="AG54" s="54"/>
+      <c r="AH54" s="53"/>
+      <c r="AJ54" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK54" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL54" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="54"/>
+      <c r="AO54" s="75" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="131" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="132" t="s">
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="G54" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="134"/>
-      <c r="N54" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="145"/>
-      <c r="P54" s="137"/>
-      <c r="Q54" s="139" t="s">
+      <c r="G55" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="134"/>
+      <c r="N55" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="145"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="R54" s="138" t="s">
+      <c r="R55" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="S54" s="122"/>
-      <c r="T54" s="139" t="s">
+      <c r="S55" s="122"/>
+      <c r="T55" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="U54" s="121"/>
-      <c r="V54" s="146" t="s">
+      <c r="U55" s="121"/>
+      <c r="V55" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="W54" s="221">
+      <c r="W55" s="221">
         <v>39748</v>
       </c>
-      <c r="X54" s="221">
+      <c r="X55" s="221">
         <v>40210</v>
       </c>
-      <c r="Y54" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y55" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="Z54" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z55" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
-      <c r="AA54" s="132" t="s">
+      <c r="AA55" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="AB54" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC54" s="115"/>
-      <c r="AD54" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE54" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF54" s="115"/>
-      <c r="AG54" s="120"/>
-      <c r="AH54" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI54" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ54" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK54" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL54" s="115"/>
-      <c r="AM54" s="120" t="s">
+      <c r="AB55" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC55" s="115"/>
+      <c r="AD55" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE55" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF55" s="115"/>
+      <c r="AG55" s="120"/>
+      <c r="AH55" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI55" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ55" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK55" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL55" s="115"/>
+      <c r="AM55" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="AN54" s="120"/>
-      <c r="AO54" s="116"/>
-    </row>
-    <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="44" t="s">
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="116"/>
+    </row>
+    <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="77" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="R55" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="S55" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="T55" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="U55" s="45"/>
-      <c r="V55" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="W55" s="215"/>
-      <c r="X55" s="215"/>
-      <c r="Y55" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="77"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="44"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="48"/>
-      <c r="AI55" s="44"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL55" s="44"/>
-      <c r="AM55" s="49"/>
-      <c r="AN55" s="49"/>
-      <c r="AO55" s="75"/>
-    </row>
-    <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="46"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
       <c r="L56" s="46"/>
       <c r="M56" s="46"/>
       <c r="N56" s="47"/>
-      <c r="O56" s="110"/>
-      <c r="P56" s="103"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="101"/>
       <c r="Q56" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R56" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="S56" s="64"/>
+      <c r="R56" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="S56" s="64" t="s">
+        <v>260</v>
+      </c>
       <c r="T56" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="U56" s="52"/>
-      <c r="V56" s="163">
-        <v>40787</v>
-      </c>
-      <c r="W56" s="215">
-        <v>40787</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="U56" s="45"/>
+      <c r="V56" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="W56" s="215"/>
       <c r="X56" s="215"/>
-      <c r="Y56" s="207" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y56" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="208">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="AA56" s="75" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB56" s="53"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ56" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK56" s="53"/>
-      <c r="AL56" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM56" s="54"/>
-      <c r="AN56" s="54"/>
-      <c r="AO56" s="75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z56" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="77"/>
+      <c r="AB56" s="48"/>
+      <c r="AC56" s="44"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="48"/>
+      <c r="AI56" s="44"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL56" s="44"/>
+      <c r="AM56" s="49"/>
+      <c r="AN56" s="49"/>
+      <c r="AO56" s="75"/>
+    </row>
+    <row r="57" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G57" s="45"/>
+        <v>300</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="H57" s="46"/>
-      <c r="I57" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="I57" s="46"/>
       <c r="J57" s="46"/>
-      <c r="K57" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="46" t="s">
-        <v>291</v>
-      </c>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
       <c r="N57" s="47"/>
       <c r="O57" s="110"/>
-      <c r="P57" s="103" t="s">
-        <v>145</v>
-      </c>
+      <c r="P57" s="103"/>
       <c r="Q57" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R57" s="173" t="s">
-        <v>443</v>
-      </c>
-      <c r="S57" s="64" t="s">
-        <v>445</v>
-      </c>
+      <c r="R57" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="S57" s="64"/>
       <c r="T57" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="U57" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="V57" s="65" t="s">
-        <v>521</v>
+        <v>112</v>
+      </c>
+      <c r="U57" s="52"/>
+      <c r="V57" s="163">
+        <v>40787</v>
       </c>
       <c r="W57" s="215">
-        <v>41080</v>
+        <v>40787</v>
       </c>
       <c r="X57" s="215"/>
-      <c r="Y57" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y57" s="207" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+      <c r="Z57" s="208">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="AA57" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB57" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC57" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD57" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE57" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG57" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH57" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ57" s="54"/>
-      <c r="AK57" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB57" s="53"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="53"/>
+      <c r="AI57" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ57" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="42" t="s">
         <v>25</v>
       </c>
       <c r="AM57" s="54"/>
       <c r="AN57" s="54"/>
-      <c r="AO57" s="75"/>
-    </row>
-    <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="115" t="s">
+      <c r="AO57" s="75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="F58" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="N58" s="47"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q58" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R58" s="173" t="s">
+        <v>443</v>
+      </c>
+      <c r="S58" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="T58" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="U58" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="V58" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="W58" s="215">
+        <v>41080</v>
+      </c>
+      <c r="X58" s="215"/>
+      <c r="Y58" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AA58" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB58" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC58" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD58" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE58" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG58" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH58" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ58" s="54"/>
+      <c r="AK58" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM58" s="54"/>
+      <c r="AN58" s="54"/>
+      <c r="AO58" s="75"/>
+    </row>
+    <row r="59" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="116" t="s">
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="133"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="134"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="120" t="s">
+      <c r="G59" s="133"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="134"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="148" t="s">
+      <c r="R59" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="S58" s="122" t="s">
+      <c r="S59" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="T58" s="54" t="s">
+      <c r="T59" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="U58" s="53" t="s">
+      <c r="U59" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="V58" s="144" t="s">
+      <c r="V59" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="W58" s="211">
+      <c r="W59" s="211">
         <v>41099</v>
       </c>
-      <c r="X58" s="211">
+      <c r="X59" s="211">
         <v>41192</v>
       </c>
-      <c r="Y58" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y59" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="Z58" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z59" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="AA58" s="116" t="s">
+      <c r="AA59" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="AB58" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC58" s="115"/>
-      <c r="AD58" s="115"/>
-      <c r="AE58" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF58" s="115"/>
-      <c r="AG58" s="120"/>
-      <c r="AH58" s="121"/>
-      <c r="AI58" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ58" s="120"/>
-      <c r="AK58" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL58" s="115"/>
-      <c r="AM58" s="120" t="s">
+      <c r="AB59" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC59" s="115"/>
+      <c r="AD59" s="115"/>
+      <c r="AE59" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF59" s="115"/>
+      <c r="AG59" s="120"/>
+      <c r="AH59" s="121"/>
+      <c r="AI59" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ59" s="120"/>
+      <c r="AK59" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL59" s="115"/>
+      <c r="AM59" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="AN58" s="120"/>
-      <c r="AO58" s="116"/>
-    </row>
-    <row r="59" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="AN59" s="120"/>
+      <c r="AO59" s="116"/>
+    </row>
+    <row r="60" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="168"/>
-      <c r="Q59" s="1" t="s">
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="168"/>
+      <c r="Q60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S59" s="55"/>
-      <c r="T59" s="1" t="s">
+      <c r="S60" s="55"/>
+      <c r="T60" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V59" s="56" t="s">
+      <c r="V60" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="W59" s="216"/>
-      <c r="X59" s="216"/>
-      <c r="Y59" s="181"/>
-      <c r="Z59" s="183"/>
-    </row>
-    <row r="60" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F60" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="G60" s="190"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="191"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="102"/>
-      <c r="Q60" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="R60" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="S60" s="12"/>
-      <c r="T60" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="U60" s="32"/>
-      <c r="V60" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="W60" s="210"/>
-      <c r="X60" s="210"/>
+      <c r="W60" s="216"/>
+      <c r="X60" s="216"/>
       <c r="Y60" s="181"/>
       <c r="Z60" s="183"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM60" s="33"/>
-      <c r="AN60" s="33"/>
-      <c r="AO60" s="76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F61" s="1" t="s">
+    </row>
+    <row r="61" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F61" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="168"/>
-      <c r="Q61" s="1" t="s">
+      <c r="G61" s="190"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="11"/>
+      <c r="N61" s="191"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R61" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S61" s="55"/>
-      <c r="T61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U61" s="167"/>
-      <c r="V61" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="W61" s="216"/>
-      <c r="X61" s="216"/>
+      <c r="R61" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S61" s="12"/>
+      <c r="T61" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="U61" s="32"/>
+      <c r="V61" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="W61" s="210"/>
+      <c r="X61" s="210"/>
       <c r="Y61" s="181"/>
       <c r="Z61" s="183"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="32"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="33"/>
+      <c r="AK61" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="33"/>
+      <c r="AO61" s="76" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="62" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>300</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
-      <c r="I62" s="58" t="s">
-        <v>25</v>
-      </c>
+      <c r="I62" s="58"/>
       <c r="J62" s="58"/>
       <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
+      <c r="L62" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="M62" s="58"/>
       <c r="N62" s="58"/>
       <c r="O62" s="168"/>
@@ -9108,197 +9193,166 @@
         <v>212</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S62" s="55" t="s">
-        <v>503</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="S62" s="55"/>
+      <c r="T62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U62" s="167"/>
       <c r="V62" s="56" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W62" s="216"/>
       <c r="X62" s="216"/>
       <c r="Y62" s="181"/>
       <c r="Z62" s="183"/>
     </row>
-    <row r="63" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="115" t="s">
+    <row r="63" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="168"/>
+      <c r="Q63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S63" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="V63" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="W63" s="216"/>
+      <c r="X63" s="216"/>
+      <c r="Y63" s="181"/>
+      <c r="Z63" s="183"/>
+    </row>
+    <row r="64" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="C63" s="115" t="s">
+      <c r="C64" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115" t="s">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="116" t="s">
+      <c r="F64" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="G63" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J63" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M63" s="134" t="s">
+      <c r="G64" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="N63" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O63" s="118"/>
-      <c r="P63" s="119"/>
-      <c r="Q63" s="120" t="s">
+      <c r="N64" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="118"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R63" s="148" t="s">
+      <c r="R64" s="148" t="s">
         <v>341</v>
       </c>
-      <c r="S63" s="122" t="s">
+      <c r="S64" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="T63" s="120" t="s">
+      <c r="T64" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="U63" s="121"/>
-      <c r="V63" s="144" t="s">
+      <c r="U64" s="121"/>
+      <c r="V64" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="W63" s="211">
+      <c r="W64" s="211">
         <v>40667</v>
       </c>
-      <c r="X63" s="211">
+      <c r="X64" s="211">
         <v>41435</v>
       </c>
-      <c r="Y63" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y64" s="181">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z63" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z64" s="183">
+        <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="AA63" s="116" t="s">
+      <c r="AA64" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="AB63" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC63" s="115"/>
-      <c r="AD63" s="115"/>
-      <c r="AE63" s="115"/>
-      <c r="AF63" s="115"/>
-      <c r="AG63" s="120"/>
-      <c r="AH63" s="121"/>
-      <c r="AI63" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ63" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK63" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL63" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM63" s="120"/>
-      <c r="AN63" s="120"/>
-      <c r="AO63" s="116" t="s">
+      <c r="AB64" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC64" s="115"/>
+      <c r="AD64" s="115"/>
+      <c r="AE64" s="115"/>
+      <c r="AF64" s="115"/>
+      <c r="AG64" s="120"/>
+      <c r="AH64" s="121"/>
+      <c r="AI64" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ64" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK64" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL64" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM64" s="120"/>
+      <c r="AN64" s="120"/>
+      <c r="AO64" s="116" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="64" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R64" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="S64" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="T64" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="U64" s="22"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="219"/>
-      <c r="X64" s="219"/>
-      <c r="Y64" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="74" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="23"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="23"/>
-      <c r="AK64" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="23"/>
-      <c r="AO64" s="74"/>
     </row>
     <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="74" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -9313,900 +9367,891 @@
         <v>29</v>
       </c>
       <c r="R65" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="S65" s="151" t="s">
-        <v>256</v>
-      </c>
-      <c r="T65" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>511</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S65" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="T65" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="U65" s="22"/>
       <c r="V65" s="62"/>
       <c r="W65" s="219"/>
       <c r="X65" s="219"/>
       <c r="Y65" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Z65" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="78"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="6"/>
+      <c r="AA65" s="74" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
-      <c r="AG65" s="31"/>
-      <c r="AH65" s="30"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="31"/>
-      <c r="AK65" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL65" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM65" s="31"/>
-      <c r="AN65" s="31"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="23"/>
       <c r="AO65" s="74"/>
     </row>
-    <row r="66" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="199"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="R66" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="S66" s="151" t="s">
+        <v>256</v>
+      </c>
+      <c r="T66" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="U66" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="V66" s="62"/>
+      <c r="W66" s="219"/>
+      <c r="X66" s="219"/>
+      <c r="Y66" s="181" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="183" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="78"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="31"/>
+      <c r="AH66" s="30"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="74"/>
+    </row>
+    <row r="67" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F66" s="76" t="s">
+      <c r="F67" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G66" s="190"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="191"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="33" t="s">
+      <c r="G67" s="190"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="191"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R66" s="32" t="s">
+      <c r="R67" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="S66" s="12" t="s">
+      <c r="S67" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="T66" s="33" t="s">
+      <c r="T67" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="U66" s="32"/>
-      <c r="V66" s="13" t="s">
+      <c r="U67" s="32"/>
+      <c r="V67" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="W66" s="210">
+      <c r="W67" s="210">
         <v>40609</v>
       </c>
-      <c r="X66" s="210">
+      <c r="X67" s="210">
         <v>40638</v>
       </c>
-      <c r="Y66" s="181"/>
-      <c r="Z66" s="183"/>
-      <c r="AA66" s="76" t="s">
+      <c r="Y67" s="181"/>
+      <c r="Z67" s="183"/>
+      <c r="AA67" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="AB66" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="8"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="33"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="8"/>
-      <c r="AJ66" s="33"/>
-      <c r="AK66" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL66" s="8"/>
-      <c r="AM66" s="33"/>
-      <c r="AN66" s="33"/>
-      <c r="AO66" s="76"/>
-    </row>
-    <row r="67" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="115" t="s">
+      <c r="AB67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="33"/>
+      <c r="AK67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="33"/>
+      <c r="AN67" s="33"/>
+      <c r="AO67" s="76"/>
+    </row>
+    <row r="68" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115" t="s">
+      <c r="C68" s="115"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="F67" s="116" t="s">
+      <c r="F68" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="134"/>
-      <c r="J67" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="134"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="118"/>
-      <c r="P67" s="119"/>
-      <c r="Q67" s="120" t="s">
+      <c r="G68" s="133"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="134"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
+      <c r="N68" s="135"/>
+      <c r="O68" s="118"/>
+      <c r="P68" s="119"/>
+      <c r="Q68" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R67" s="121" t="s">
+      <c r="R68" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="S67" s="122" t="s">
+      <c r="S68" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="T67" s="120" t="s">
+      <c r="T68" s="120" t="s">
         <v>367</v>
       </c>
-      <c r="U67" s="121"/>
-      <c r="V67" s="141" t="s">
+      <c r="U68" s="121"/>
+      <c r="V68" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="W67" s="211">
+      <c r="W68" s="211">
         <v>40664</v>
       </c>
-      <c r="X67" s="211">
+      <c r="X68" s="211">
         <v>40836</v>
       </c>
-      <c r="Y67" s="181">
+      <c r="Y68" s="181">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z68" s="183">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AA68" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB68" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC68" s="115"/>
+      <c r="AD68" s="115"/>
+      <c r="AE68" s="115"/>
+      <c r="AF68" s="115"/>
+      <c r="AG68" s="120"/>
+      <c r="AH68" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI68" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ68" s="120"/>
+      <c r="AK68" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL68" s="115"/>
+      <c r="AM68" s="120" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN68" s="120"/>
+      <c r="AO68" s="116" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="58"/>
+      <c r="O69" s="168"/>
+      <c r="Q69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S69" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="V69" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="W69" s="216"/>
+      <c r="X69" s="216"/>
+      <c r="Y69" s="181"/>
+      <c r="Z69" s="183"/>
+      <c r="AK69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="192"/>
+      <c r="H70" s="193"/>
+      <c r="I70" s="193"/>
+      <c r="J70" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="193"/>
+      <c r="L70" s="193"/>
+      <c r="M70" s="193"/>
+      <c r="N70" s="194"/>
+      <c r="O70" s="127"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="S70" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="T70" s="129" t="s">
+        <v>308</v>
+      </c>
+      <c r="U70" s="126"/>
+      <c r="V70" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="W70" s="212">
+        <v>40834</v>
+      </c>
+      <c r="X70" s="212"/>
+      <c r="Y70" s="181" t="str">
+        <f t="shared" ref="Y70:Y86" ca="1" si="2">IF(ISBLANK(X70),"0", DATEDIF(X70,TODAY(),"m"))</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="183">
+        <f t="shared" ref="Z70:Z86" ca="1" si="3">IF(ISBLANK(W70),"0", DATEDIF(W70,TODAY(),"m"))</f>
+        <v>21</v>
+      </c>
+      <c r="AA70" s="125"/>
+      <c r="AB70" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC70" s="124"/>
+      <c r="AD70" s="124"/>
+      <c r="AE70" s="124"/>
+      <c r="AF70" s="124"/>
+      <c r="AG70" s="129"/>
+      <c r="AH70" s="126"/>
+      <c r="AI70" s="124"/>
+      <c r="AJ70" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK70" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL70" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM70" s="129"/>
+      <c r="AN70" s="129"/>
+      <c r="AO70" s="125"/>
+    </row>
+    <row r="71" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="F71" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="G71" s="133"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="134" t="s">
+        <v>369</v>
+      </c>
+      <c r="N71" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="119"/>
+      <c r="Q71" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="R71" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="S71" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="T71" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="U71" s="121" t="s">
+        <v>372</v>
+      </c>
+      <c r="V71" s="123" t="s">
+        <v>371</v>
+      </c>
+      <c r="W71" s="211"/>
+      <c r="X71" s="211"/>
+      <c r="Y71" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Z67" s="183">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="AA67" s="116" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB67" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC67" s="115"/>
-      <c r="AD67" s="115"/>
-      <c r="AE67" s="115"/>
-      <c r="AF67" s="115"/>
-      <c r="AG67" s="120"/>
-      <c r="AH67" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI67" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ67" s="120"/>
-      <c r="AK67" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL67" s="115"/>
-      <c r="AM67" s="120" t="s">
-        <v>368</v>
-      </c>
-      <c r="AN67" s="120"/>
-      <c r="AO67" s="116" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB71" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC71" s="131"/>
+      <c r="AD71" s="115"/>
+      <c r="AE71" s="115"/>
+      <c r="AF71" s="115"/>
+      <c r="AG71" s="139"/>
+      <c r="AH71" s="138"/>
+      <c r="AI71" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ71" s="139"/>
+      <c r="AK71" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL71" s="131"/>
+      <c r="AM71" s="139"/>
+      <c r="AN71" s="139"/>
+      <c r="AO71" s="116"/>
+    </row>
+    <row r="72" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="58"/>
-      <c r="O68" s="168"/>
-      <c r="Q68" s="1" t="s">
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="167"/>
+      <c r="Q72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S68" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="V68" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="W68" s="216"/>
-      <c r="X68" s="216"/>
-      <c r="Y68" s="181"/>
-      <c r="Z68" s="183"/>
-      <c r="AK68" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="192"/>
-      <c r="H69" s="193"/>
-      <c r="I69" s="193"/>
-      <c r="J69" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="193"/>
-      <c r="L69" s="193"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="194"/>
-      <c r="O69" s="127"/>
-      <c r="P69" s="128"/>
-      <c r="Q69" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="R69" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="S69" s="124" t="s">
-        <v>237</v>
-      </c>
-      <c r="T69" s="129" t="s">
-        <v>308</v>
-      </c>
-      <c r="U69" s="126"/>
-      <c r="V69" s="124" t="s">
-        <v>239</v>
-      </c>
-      <c r="W69" s="212">
-        <v>40834</v>
-      </c>
-      <c r="X69" s="212"/>
-      <c r="Y69" s="181" t="str">
-        <f t="shared" ref="Y69:Y85" ca="1" si="4">IF(ISBLANK(X69),"0", DATEDIF(X69,TODAY(),"m"))</f>
+      <c r="R72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S72" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="V72" s="56"/>
+      <c r="W72" s="216"/>
+      <c r="X72" s="216"/>
+      <c r="Y72" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z69" s="183">
-        <f t="shared" ref="Z69:Z85" ca="1" si="5">IF(ISBLANK(W69),"0", DATEDIF(W69,TODAY(),"m"))</f>
-        <v>20</v>
-      </c>
-      <c r="AA69" s="125"/>
-      <c r="AB69" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC69" s="124"/>
-      <c r="AD69" s="124"/>
-      <c r="AE69" s="124"/>
-      <c r="AF69" s="124"/>
-      <c r="AG69" s="129"/>
-      <c r="AH69" s="126"/>
-      <c r="AI69" s="124"/>
-      <c r="AJ69" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK69" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL69" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM69" s="129"/>
-      <c r="AN69" s="129"/>
-      <c r="AO69" s="125"/>
-    </row>
-    <row r="70" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115" t="s">
-        <v>467</v>
-      </c>
-      <c r="F70" s="116" t="s">
-        <v>331</v>
-      </c>
-      <c r="G70" s="133"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J70" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" s="134" t="s">
-        <v>369</v>
-      </c>
-      <c r="N70" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P70" s="119"/>
-      <c r="Q70" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="R70" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="S70" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="T70" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="U70" s="121" t="s">
-        <v>372</v>
-      </c>
-      <c r="V70" s="123" t="s">
-        <v>371</v>
-      </c>
-      <c r="W70" s="211"/>
-      <c r="X70" s="211"/>
-      <c r="Y70" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="Z72" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z70" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB70" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC70" s="131"/>
-      <c r="AD70" s="115"/>
-      <c r="AE70" s="115"/>
-      <c r="AF70" s="115"/>
-      <c r="AG70" s="139"/>
-      <c r="AH70" s="138"/>
-      <c r="AI70" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ70" s="139"/>
-      <c r="AK70" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL70" s="131"/>
-      <c r="AM70" s="139"/>
-      <c r="AN70" s="139"/>
-      <c r="AO70" s="116"/>
-    </row>
-    <row r="71" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="167"/>
-      <c r="Q71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S71" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="V71" s="56"/>
-      <c r="W71" s="216"/>
-      <c r="X71" s="216"/>
-      <c r="Y71" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+    </row>
+    <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E73" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="F72" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="110"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R72" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="S72" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="T72" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="U72" s="53"/>
-      <c r="V72" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="W72" s="215">
-        <v>40561</v>
-      </c>
-      <c r="X72" s="215">
-        <v>41426</v>
-      </c>
-      <c r="Y72" s="181">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Z72" s="183">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="AA72" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB72" s="53"/>
-      <c r="AE72" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG72" s="54"/>
-      <c r="AH72" s="53"/>
-      <c r="AI72" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ72" s="54"/>
-      <c r="AK72" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM72" s="54"/>
-      <c r="AN72" s="54"/>
-      <c r="AO72" s="75"/>
-    </row>
-    <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="77" t="s">
+      <c r="F73" s="75" t="s">
         <v>300</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="46"/>
       <c r="I73" s="46"/>
-      <c r="J73" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="L73" s="46"/>
       <c r="M73" s="46"/>
       <c r="N73" s="47"/>
-      <c r="O73" s="88"/>
-      <c r="P73" s="101"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="103"/>
       <c r="Q73" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="S73" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="T73" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="U73" s="53"/>
+      <c r="V73" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="W73" s="215">
+        <v>40561</v>
+      </c>
+      <c r="X73" s="215">
+        <v>41426</v>
+      </c>
+      <c r="Y73" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AA73" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB73" s="53"/>
+      <c r="AE73" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG73" s="54"/>
+      <c r="AH73" s="53"/>
+      <c r="AI73" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ73" s="54"/>
+      <c r="AK73" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM73" s="54"/>
+      <c r="AN73" s="54"/>
+      <c r="AO73" s="75"/>
+    </row>
+    <row r="74" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="44"/>
+      <c r="F74" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="G74" s="45"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R73" s="53" t="s">
+      <c r="R74" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="S73" s="64" t="s">
+      <c r="S74" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="T73" s="54" t="s">
+      <c r="T74" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="U73" s="53"/>
-      <c r="V73" s="163">
+      <c r="U74" s="53"/>
+      <c r="V74" s="163">
         <v>40603</v>
       </c>
-      <c r="W73" s="215">
+      <c r="W74" s="215">
         <v>40603</v>
       </c>
-      <c r="X73" s="215"/>
-      <c r="Y73" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="X74" s="215"/>
+      <c r="Y74" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="183">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Z74" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
-      <c r="AA73" s="77" t="s">
+      <c r="AA74" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AB73" s="48"/>
-      <c r="AC73" s="44"/>
-      <c r="AE73" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG73" s="49"/>
-      <c r="AH73" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI73" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ73" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK73" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL73" s="44"/>
-      <c r="AM73" s="49"/>
-      <c r="AN73" s="49"/>
-      <c r="AO73" s="75"/>
-    </row>
-    <row r="74" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+      <c r="AB74" s="48"/>
+      <c r="AC74" s="44"/>
+      <c r="AE74" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG74" s="49"/>
+      <c r="AH74" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI74" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ74" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK74" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL74" s="44"/>
+      <c r="AM74" s="49"/>
+      <c r="AN74" s="49"/>
+      <c r="AO74" s="75"/>
+    </row>
+    <row r="75" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10" t="s">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="F74" s="74" t="s">
+      <c r="F75" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="199"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="108"/>
-      <c r="P74" s="99"/>
-      <c r="Q74" s="23" t="s">
+      <c r="G75" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="199"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="R74" s="95" t="s">
+      <c r="R75" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="S74" s="61" t="s">
+      <c r="S75" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="T74" s="23" t="s">
+      <c r="T75" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="U74" s="22" t="s">
+      <c r="U75" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="V74" s="62" t="s">
+      <c r="V75" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="W74" s="219">
+      <c r="W75" s="219">
         <v>40940</v>
       </c>
-      <c r="X74" s="219">
+      <c r="X75" s="219">
         <v>41030</v>
       </c>
-      <c r="Y74" s="181">
-        <f t="shared" ca="1" si="4"/>
+      <c r="Y75" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="Z74" s="183">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Z75" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>17</v>
       </c>
-      <c r="AA74" s="74" t="s">
+      <c r="AA75" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="23"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="23"/>
-      <c r="AK74" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="23"/>
-      <c r="AN74" s="23"/>
-      <c r="AO74" s="74"/>
-    </row>
-    <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="F75" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G75" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="110"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R75" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="S75" s="64"/>
-      <c r="T75" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="U75" s="53"/>
-      <c r="V75" s="65" t="s">
-        <v>530</v>
-      </c>
-      <c r="W75" s="215">
-        <v>40828</v>
-      </c>
-      <c r="X75" s="215">
-        <v>41264</v>
-      </c>
-      <c r="Y75" s="207">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Z75" s="208">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="AA75" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB75" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD75" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE75" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG75" s="54"/>
-      <c r="AH75" s="53"/>
-      <c r="AI75" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ75" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK75" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL75" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM75" s="54"/>
-      <c r="AN75" s="54"/>
-      <c r="AO75" s="75"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="23"/>
+      <c r="AH75" s="22"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="23"/>
+      <c r="AK75" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="23"/>
+      <c r="AN75" s="23"/>
+      <c r="AO75" s="74"/>
     </row>
     <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="F76" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="F76" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="G76" s="45"/>
-      <c r="H76" s="46" t="s">
-        <v>31</v>
-      </c>
+      <c r="G76" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="46"/>
       <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
+      <c r="J76" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="K76" s="46"/>
       <c r="L76" s="46"/>
       <c r="M76" s="46"/>
       <c r="N76" s="47"/>
-      <c r="O76" s="109"/>
-      <c r="P76" s="101"/>
+      <c r="O76" s="110"/>
+      <c r="P76" s="103"/>
       <c r="Q76" s="54" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R76" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="S76" s="64" t="s">
-        <v>251</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="S76" s="64"/>
       <c r="T76" s="54" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="U76" s="53"/>
-      <c r="V76" s="66" t="s">
-        <v>254</v>
+      <c r="V76" s="65" t="s">
+        <v>530</v>
       </c>
       <c r="W76" s="215">
-        <v>41410</v>
-      </c>
-      <c r="X76" s="215"/>
-      <c r="Y76" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="183">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AA76" s="77"/>
-      <c r="AB76" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC76" s="44"/>
-      <c r="AG76" s="49"/>
-      <c r="AH76" s="48"/>
-      <c r="AI76" s="44"/>
-      <c r="AJ76" s="49"/>
-      <c r="AK76" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL76" s="44"/>
-      <c r="AM76" s="49"/>
-      <c r="AN76" s="49"/>
+        <v>40828</v>
+      </c>
+      <c r="X76" s="215">
+        <v>41264</v>
+      </c>
+      <c r="Y76" s="207">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Z76" s="208">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AA76" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB76" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD76" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE76" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG76" s="54"/>
+      <c r="AH76" s="53"/>
+      <c r="AI76" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ76" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK76" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL76" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM76" s="54"/>
+      <c r="AN76" s="54"/>
       <c r="AO76" s="75"/>
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" s="77" t="s">
         <v>300</v>
       </c>
       <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="H77" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
       <c r="K77" s="46"/>
       <c r="L77" s="46"/>
       <c r="M77" s="46"/>
       <c r="N77" s="47"/>
-      <c r="O77" s="110"/>
-      <c r="P77" s="103"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="101"/>
       <c r="Q77" s="54" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="S77" s="64" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
       <c r="T77" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="U77" s="53"/>
+      <c r="V77" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="W77" s="215">
+        <v>41410</v>
+      </c>
+      <c r="X77" s="215"/>
+      <c r="Y77" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA77" s="77"/>
+      <c r="AB77" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC77" s="44"/>
+      <c r="AG77" s="49"/>
+      <c r="AH77" s="48"/>
+      <c r="AI77" s="44"/>
+      <c r="AJ77" s="49"/>
+      <c r="AK77" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL77" s="44"/>
+      <c r="AM77" s="49"/>
+      <c r="AN77" s="49"/>
+      <c r="AO77" s="75"/>
+    </row>
+    <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="U77" s="53"/>
-      <c r="V77" s="163">
-        <v>40210</v>
-      </c>
-      <c r="W77" s="215"/>
-      <c r="X77" s="215">
-        <v>40210</v>
-      </c>
-      <c r="Y77" s="181">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="Z77" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB77" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG77" s="54"/>
-      <c r="AH77" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI77" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ77" s="54"/>
-      <c r="AK77" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM77" s="54"/>
-      <c r="AN77" s="54"/>
-      <c r="AO77" s="75" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>157</v>
-      </c>
       <c r="F78" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>25</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G78" s="45"/>
       <c r="H78" s="46"/>
       <c r="I78" s="46" t="s">
         <v>25</v>
@@ -10214,9 +10259,7 @@
       <c r="J78" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K78" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="K78" s="46"/>
       <c r="L78" s="46"/>
       <c r="M78" s="46"/>
       <c r="N78" s="47"/>
@@ -10226,48 +10269,37 @@
         <v>29</v>
       </c>
       <c r="R78" s="53" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="S78" s="64" t="s">
-        <v>141</v>
+        <v>483</v>
       </c>
       <c r="T78" s="54" t="s">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="U78" s="53"/>
-      <c r="V78" s="65" t="s">
-        <v>520</v>
-      </c>
-      <c r="W78" s="215">
-        <v>40252</v>
-      </c>
-      <c r="X78" s="215"/>
-      <c r="Y78" s="207" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="V78" s="163">
+        <v>40210</v>
+      </c>
+      <c r="W78" s="215"/>
+      <c r="X78" s="215">
+        <v>40210</v>
+      </c>
+      <c r="Y78" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Z78" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z78" s="208">
-        <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
       <c r="AA78" s="75" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="AB78" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AC78" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD78" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE78" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG78" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="AG78" s="54"/>
       <c r="AH78" s="53" t="s">
         <v>25</v>
       </c>
@@ -10281,336 +10313,363 @@
       <c r="AM78" s="54"/>
       <c r="AN78" s="54"/>
       <c r="AO78" s="75" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="103"/>
+      <c r="Q79" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R79" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="S79" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="T79" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="U79" s="53"/>
+      <c r="V79" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="W79" s="215">
+        <v>40252</v>
+      </c>
+      <c r="X79" s="215"/>
+      <c r="Y79" s="207" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="208">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AA79" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB79" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC79" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD79" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE79" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG79" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH79" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI79" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ79" s="54"/>
+      <c r="AK79" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM79" s="54"/>
+      <c r="AN79" s="54"/>
+      <c r="AO79" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="79" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G79" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="167"/>
-      <c r="Q79" s="1" t="s">
+      <c r="G80" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="167"/>
+      <c r="Q80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S79" s="55"/>
-      <c r="V79" s="56">
+      <c r="S80" s="55"/>
+      <c r="V80" s="56">
         <v>2008</v>
       </c>
-      <c r="W79" s="216"/>
-      <c r="X79" s="216"/>
-      <c r="Y79" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="W80" s="216"/>
+      <c r="X80" s="216"/>
+      <c r="Y80" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z79" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Z80" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA79" s="57"/>
-      <c r="AB79" s="57"/>
-      <c r="AC79" s="57"/>
-      <c r="AG79" s="57"/>
-      <c r="AH79" s="57"/>
-      <c r="AI79" s="57"/>
-      <c r="AJ79" s="57"/>
-      <c r="AK79" s="57"/>
-      <c r="AL79" s="57"/>
-      <c r="AM79" s="57"/>
-      <c r="AN79" s="57"/>
-    </row>
-    <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="131" t="s">
+      <c r="AA80" s="57"/>
+      <c r="AB80" s="57"/>
+      <c r="AC80" s="57"/>
+      <c r="AG80" s="57"/>
+      <c r="AH80" s="57"/>
+      <c r="AI80" s="57"/>
+      <c r="AJ80" s="57"/>
+      <c r="AK80" s="57"/>
+      <c r="AL80" s="57"/>
+      <c r="AM80" s="57"/>
+      <c r="AN80" s="57"/>
+    </row>
+    <row r="81" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="132" t="s">
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="G80" s="133"/>
-      <c r="H80" s="134"/>
-      <c r="I80" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" s="134"/>
-      <c r="K80" s="134"/>
-      <c r="L80" s="134"/>
-      <c r="M80" s="134"/>
-      <c r="N80" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80" s="137"/>
-      <c r="Q80" s="120" t="s">
+      <c r="G81" s="133"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" s="134"/>
+      <c r="K81" s="134"/>
+      <c r="L81" s="134"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="137"/>
+      <c r="Q81" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="R80" s="121" t="s">
+      <c r="R81" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="S80" s="122" t="s">
+      <c r="S81" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="T80" s="120" t="s">
+      <c r="T81" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="U80" s="138"/>
-      <c r="V80" s="141"/>
-      <c r="W80" s="211"/>
-      <c r="X80" s="211"/>
-      <c r="Y80" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="U81" s="138"/>
+      <c r="V81" s="141"/>
+      <c r="W81" s="211"/>
+      <c r="X81" s="211"/>
+      <c r="Y81" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Z81" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA80" s="132"/>
-      <c r="AB80" s="138"/>
-      <c r="AC80" s="131"/>
-      <c r="AD80" s="115"/>
-      <c r="AE80" s="115"/>
-      <c r="AF80" s="115"/>
-      <c r="AG80" s="139"/>
-      <c r="AH80" s="138"/>
-      <c r="AI80" s="131"/>
-      <c r="AJ80" s="139"/>
-      <c r="AK80" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL80" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM80" s="139"/>
-      <c r="AN80" s="139"/>
-      <c r="AO80" s="116"/>
-    </row>
-    <row r="81" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+      <c r="AA81" s="132"/>
+      <c r="AB81" s="138"/>
+      <c r="AC81" s="131"/>
+      <c r="AD81" s="115"/>
+      <c r="AE81" s="115"/>
+      <c r="AF81" s="115"/>
+      <c r="AG81" s="139"/>
+      <c r="AH81" s="138"/>
+      <c r="AI81" s="131"/>
+      <c r="AJ81" s="139"/>
+      <c r="AK81" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL81" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM81" s="139"/>
+      <c r="AN81" s="139"/>
+      <c r="AO81" s="116"/>
+    </row>
+    <row r="82" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F82" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="G81" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="191"/>
-      <c r="O81" s="89"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="33" t="s">
+      <c r="G82" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="191"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R81" s="32" t="s">
+      <c r="R82" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="S81" s="12"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="210"/>
-      <c r="X81" s="210"/>
-      <c r="Y81" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="210"/>
+      <c r="X82" s="210"/>
+      <c r="Y82" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="Z82" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="8"/>
-      <c r="AD81" s="8"/>
-      <c r="AE81" s="8"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="33"/>
-      <c r="AH81" s="32"/>
-      <c r="AI81" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ81" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK81" s="32"/>
-      <c r="AL81" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM81" s="33"/>
-      <c r="AN81" s="33"/>
-      <c r="AO81" s="76" t="s">
+      <c r="AA82" s="76"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="33"/>
+      <c r="AH82" s="32"/>
+      <c r="AI82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ82" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK82" s="32"/>
+      <c r="AL82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM82" s="33"/>
+      <c r="AN82" s="33"/>
+      <c r="AO82" s="76" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G82" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="110"/>
-      <c r="P82" s="103" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q82" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R82" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="S82" s="64"/>
-      <c r="T82" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="U82" s="53"/>
-      <c r="V82" s="66"/>
-      <c r="W82" s="215"/>
-      <c r="X82" s="215"/>
-      <c r="Y82" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA82" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="44"/>
-      <c r="AG82" s="49"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ82" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM82" s="49"/>
-      <c r="AN82" s="49"/>
-      <c r="AO82" s="75"/>
     </row>
     <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H83" s="46"/>
-      <c r="I83" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
       <c r="L83" s="46"/>
-      <c r="M83" s="46" t="s">
-        <v>310</v>
-      </c>
+      <c r="M83" s="46"/>
       <c r="N83" s="47"/>
       <c r="O83" s="110"/>
-      <c r="P83" s="103"/>
+      <c r="P83" s="103" t="s">
+        <v>468</v>
+      </c>
       <c r="Q83" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R83" s="53" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="S83" s="64"/>
       <c r="T83" s="54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U83" s="53"/>
       <c r="V83" s="66"/>
       <c r="W83" s="215"/>
       <c r="X83" s="215"/>
       <c r="Y83" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z83" s="183" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA83" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB83" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="53"/>
-      <c r="AJ83" s="54"/>
-      <c r="AK83" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM83" s="54"/>
-      <c r="AN83" s="54"/>
+      <c r="AA83" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="44"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ83" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM83" s="49"/>
+      <c r="AN83" s="49"/>
       <c r="AO83" s="75"/>
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="F84" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G84" s="45"/>
+      <c r="G84" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="H84" s="46"/>
       <c r="I84" s="46" t="s">
         <v>25</v>
@@ -10621,10 +10680,10 @@
       <c r="K84" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L84" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46" t="s">
+        <v>310</v>
+      </c>
       <c r="N84" s="47"/>
       <c r="O84" s="110"/>
       <c r="P84" s="103"/>
@@ -10632,33 +10691,23 @@
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="S84" s="64" t="s">
-        <v>480</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="S84" s="64"/>
       <c r="T84" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="U84" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="V84" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="W84" s="215">
-        <v>39794</v>
-      </c>
-      <c r="X84" s="215">
-        <v>39975</v>
-      </c>
-      <c r="Y84" s="181">
-        <f t="shared" ca="1" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="Z84" s="183">
-        <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>470</v>
+      </c>
+      <c r="U84" s="53"/>
+      <c r="V84" s="66"/>
+      <c r="W84" s="215"/>
+      <c r="X84" s="215"/>
+      <c r="Y84" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="AA84" s="75" t="s">
         <v>304</v>
@@ -10674,156 +10723,209 @@
       </c>
       <c r="AM84" s="54"/>
       <c r="AN84" s="54"/>
-      <c r="AO84" s="75" t="s">
-        <v>479</v>
-      </c>
+      <c r="AO84" s="75"/>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
       <c r="F85" s="75" t="s">
         <v>331</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
+      <c r="I85" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="J85" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
+      <c r="K85" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="M85" s="46"/>
-      <c r="N85" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="N85" s="47"/>
       <c r="O85" s="110"/>
       <c r="P85" s="103"/>
       <c r="Q85" s="54" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="S85" s="64" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="T85" s="54" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="U85" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="V85" s="163" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="V85" s="66" t="s">
+        <v>481</v>
       </c>
       <c r="W85" s="215">
-        <v>40497</v>
-      </c>
-      <c r="X85" s="215"/>
-      <c r="Y85" s="181" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>39794</v>
+      </c>
+      <c r="X85" s="215">
+        <v>39975</v>
+      </c>
+      <c r="Y85" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
       </c>
       <c r="Z85" s="183">
-        <f t="shared" ca="1" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="AA85" s="75"/>
-      <c r="AB85" s="53"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="AA85" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB85" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="AG85" s="54"/>
       <c r="AH85" s="53"/>
-      <c r="AI85" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ85" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK85" s="53"/>
-      <c r="AL85" s="42" t="s">
+      <c r="AJ85" s="54"/>
+      <c r="AK85" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
       <c r="AO85" s="75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="F86" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G86" s="45"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" s="110"/>
+      <c r="P86" s="103"/>
+      <c r="Q86" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R86" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="S86" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="T86" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="U86" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="V86" s="163" t="s">
+        <v>473</v>
+      </c>
+      <c r="W86" s="215">
+        <v>40497</v>
+      </c>
+      <c r="X86" s="215"/>
+      <c r="Y86" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AA86" s="75"/>
+      <c r="AB86" s="53"/>
+      <c r="AG86" s="54"/>
+      <c r="AH86" s="53"/>
+      <c r="AI86" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ86" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK86" s="53"/>
+      <c r="AL86" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM86" s="54"/>
+      <c r="AN86" s="54"/>
+      <c r="AO86" s="75" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="199"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="87"/>
-      <c r="P86" s="99"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="176"/>
-      <c r="X86" s="176"/>
-      <c r="Y86" s="181"/>
-      <c r="Z86" s="21"/>
-      <c r="AA86" s="74"/>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="10"/>
-      <c r="AD86" s="10"/>
-      <c r="AE86" s="10"/>
-      <c r="AF86" s="10"/>
-      <c r="AG86" s="23"/>
-      <c r="AH86" s="22"/>
-      <c r="AI86" s="10"/>
-      <c r="AJ86" s="23"/>
-      <c r="AK86" s="22"/>
-      <c r="AL86" s="10"/>
-      <c r="AM86" s="23"/>
-      <c r="AN86" s="23"/>
-      <c r="AO86" s="74"/>
-    </row>
-    <row r="87" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L87" s="202"/>
-      <c r="AA87" s="80"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="59"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="39"/>
-      <c r="AI87" s="14"/>
-      <c r="AJ87" s="36"/>
-      <c r="AK87" s="39"/>
-      <c r="AL87" s="14"/>
-      <c r="AM87" s="36"/>
-      <c r="AN87" s="36"/>
-    </row>
-    <row r="88" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E88" s="15"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="28"/>
+    <row r="87" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="199"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="87"/>
+      <c r="P87" s="99"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="30"/>
+      <c r="V87" s="62"/>
+      <c r="W87" s="176"/>
+      <c r="X87" s="176"/>
+      <c r="Y87" s="181"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="74"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="23"/>
+      <c r="AN87" s="23"/>
+      <c r="AO87" s="74"/>
+    </row>
+    <row r="88" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L88" s="202"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="91"/>
-      <c r="P88" s="106"/>
-      <c r="AA88" s="81"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="60"/>
-      <c r="AG88" s="38"/>
-      <c r="AH88" s="40"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="40"/>
-      <c r="AL88" s="15"/>
-      <c r="AM88" s="38"/>
-      <c r="AN88" s="38"/>
+      <c r="AA88" s="80"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="59"/>
+      <c r="AG88" s="36"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="14"/>
+      <c r="AJ88" s="36"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="14"/>
+      <c r="AM88" s="36"/>
+      <c r="AN88" s="36"/>
     </row>
     <row r="89" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E89" s="15"/>
@@ -15125,8 +15227,28 @@
       <c r="AM303" s="38"/>
       <c r="AN303" s="38"/>
     </row>
-    <row r="319" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="15"/>
+      <c r="F304" s="81"/>
+      <c r="G304" s="28"/>
+      <c r="L304" s="202"/>
+      <c r="N304" s="29"/>
+      <c r="O304" s="91"/>
+      <c r="P304" s="106"/>
+      <c r="AA304" s="81"/>
+      <c r="AB304" s="37"/>
+      <c r="AC304" s="60"/>
+      <c r="AG304" s="38"/>
+      <c r="AH304" s="40"/>
+      <c r="AI304" s="15"/>
+      <c r="AJ304" s="38"/>
+      <c r="AK304" s="40"/>
+      <c r="AL304" s="15"/>
+      <c r="AM304" s="38"/>
+      <c r="AN304" s="38"/>
+    </row>
     <row r="320" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="B4:AK100">
     <sortCondition ref="B4"/>
@@ -15142,20 +15264,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U6" r:id="rId1"/>
-    <hyperlink ref="U49" r:id="rId2"/>
+    <hyperlink ref="U50" r:id="rId2"/>
     <hyperlink ref="U7" r:id="rId3"/>
-    <hyperlink ref="U21" r:id="rId4"/>
+    <hyperlink ref="U22" r:id="rId4"/>
     <hyperlink ref="U18" r:id="rId5"/>
-    <hyperlink ref="U48" r:id="rId6" display="https://code.google.com/p/googleappengine/wiki/SdkReleaseNotes"/>
-    <hyperlink ref="U40" r:id="rId7"/>
-    <hyperlink ref="U58" r:id="rId8"/>
+    <hyperlink ref="U49" r:id="rId6" display="https://code.google.com/p/googleappengine/wiki/SdkReleaseNotes"/>
+    <hyperlink ref="U41" r:id="rId7"/>
+    <hyperlink ref="U59" r:id="rId8"/>
     <hyperlink ref="U16" r:id="rId9"/>
     <hyperlink ref="U15" r:id="rId10"/>
-    <hyperlink ref="U46" r:id="rId11"/>
-    <hyperlink ref="AO81" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
-    <hyperlink ref="AO60" r:id="rId13"/>
+    <hyperlink ref="U47" r:id="rId11"/>
+    <hyperlink ref="AO82" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
+    <hyperlink ref="AO61" r:id="rId13"/>
     <hyperlink ref="U13" r:id="rId14"/>
-    <hyperlink ref="U43" r:id="rId15"/>
+    <hyperlink ref="U44" r:id="rId15"/>
     <hyperlink ref="R4" r:id="rId16"/>
     <hyperlink ref="R5" r:id="rId17"/>
     <hyperlink ref="R7" r:id="rId18"/>
@@ -15166,76 +15288,76 @@
     <hyperlink ref="R16" r:id="rId23"/>
     <hyperlink ref="R17" r:id="rId24"/>
     <hyperlink ref="R19" r:id="rId25"/>
-    <hyperlink ref="R20" r:id="rId26"/>
-    <hyperlink ref="R21" r:id="rId27"/>
-    <hyperlink ref="R23" r:id="rId28"/>
-    <hyperlink ref="R24" r:id="rId29"/>
-    <hyperlink ref="R30" r:id="rId30"/>
-    <hyperlink ref="R32" r:id="rId31"/>
-    <hyperlink ref="R33" r:id="rId32"/>
-    <hyperlink ref="R35" r:id="rId33"/>
-    <hyperlink ref="R37" r:id="rId34"/>
-    <hyperlink ref="R40" r:id="rId35"/>
-    <hyperlink ref="R41" r:id="rId36"/>
-    <hyperlink ref="R44" r:id="rId37"/>
-    <hyperlink ref="R45" r:id="rId38"/>
-    <hyperlink ref="R47" r:id="rId39"/>
-    <hyperlink ref="R48" r:id="rId40"/>
-    <hyperlink ref="R49" r:id="rId41"/>
-    <hyperlink ref="R50" r:id="rId42"/>
-    <hyperlink ref="R61" r:id="rId43"/>
-    <hyperlink ref="R55" r:id="rId44"/>
-    <hyperlink ref="R56" r:id="rId45"/>
-    <hyperlink ref="R58" r:id="rId46"/>
-    <hyperlink ref="R59" r:id="rId47"/>
-    <hyperlink ref="R60" r:id="rId48"/>
-    <hyperlink ref="R62" r:id="rId49"/>
-    <hyperlink ref="R64" r:id="rId50"/>
-    <hyperlink ref="R67" r:id="rId51"/>
-    <hyperlink ref="R68" r:id="rId52"/>
-    <hyperlink ref="R66" r:id="rId53"/>
-    <hyperlink ref="R71" r:id="rId54"/>
-    <hyperlink ref="R78" r:id="rId55"/>
-    <hyperlink ref="R81" r:id="rId56"/>
-    <hyperlink ref="R31" r:id="rId57"/>
-    <hyperlink ref="R82" r:id="rId58"/>
-    <hyperlink ref="R25" r:id="rId59"/>
-    <hyperlink ref="R74" r:id="rId60"/>
-    <hyperlink ref="R51" r:id="rId61"/>
+    <hyperlink ref="R21" r:id="rId26"/>
+    <hyperlink ref="R22" r:id="rId27"/>
+    <hyperlink ref="R24" r:id="rId28"/>
+    <hyperlink ref="R25" r:id="rId29"/>
+    <hyperlink ref="R31" r:id="rId30"/>
+    <hyperlink ref="R33" r:id="rId31"/>
+    <hyperlink ref="R34" r:id="rId32"/>
+    <hyperlink ref="R36" r:id="rId33"/>
+    <hyperlink ref="R38" r:id="rId34"/>
+    <hyperlink ref="R41" r:id="rId35"/>
+    <hyperlink ref="R42" r:id="rId36"/>
+    <hyperlink ref="R45" r:id="rId37"/>
+    <hyperlink ref="R46" r:id="rId38"/>
+    <hyperlink ref="R48" r:id="rId39"/>
+    <hyperlink ref="R49" r:id="rId40"/>
+    <hyperlink ref="R50" r:id="rId41"/>
+    <hyperlink ref="R51" r:id="rId42"/>
+    <hyperlink ref="R62" r:id="rId43"/>
+    <hyperlink ref="R56" r:id="rId44"/>
+    <hyperlink ref="R57" r:id="rId45"/>
+    <hyperlink ref="R59" r:id="rId46"/>
+    <hyperlink ref="R60" r:id="rId47"/>
+    <hyperlink ref="R61" r:id="rId48"/>
+    <hyperlink ref="R63" r:id="rId49"/>
+    <hyperlink ref="R65" r:id="rId50"/>
+    <hyperlink ref="R68" r:id="rId51"/>
+    <hyperlink ref="R69" r:id="rId52"/>
+    <hyperlink ref="R67" r:id="rId53"/>
+    <hyperlink ref="R72" r:id="rId54"/>
+    <hyperlink ref="R79" r:id="rId55"/>
+    <hyperlink ref="R82" r:id="rId56"/>
+    <hyperlink ref="R32" r:id="rId57"/>
+    <hyperlink ref="R83" r:id="rId58"/>
+    <hyperlink ref="R26" r:id="rId59"/>
+    <hyperlink ref="R75" r:id="rId60"/>
+    <hyperlink ref="R52" r:id="rId61"/>
     <hyperlink ref="R9" r:id="rId62"/>
     <hyperlink ref="R11" r:id="rId63"/>
-    <hyperlink ref="R43" r:id="rId64"/>
-    <hyperlink ref="R54" r:id="rId65"/>
-    <hyperlink ref="R83" r:id="rId66"/>
-    <hyperlink ref="R77" r:id="rId67"/>
+    <hyperlink ref="R44" r:id="rId64"/>
+    <hyperlink ref="R55" r:id="rId65"/>
+    <hyperlink ref="R84" r:id="rId66"/>
+    <hyperlink ref="R78" r:id="rId67"/>
     <hyperlink ref="R18" r:id="rId68"/>
-    <hyperlink ref="R80" r:id="rId69"/>
-    <hyperlink ref="R26" r:id="rId70"/>
-    <hyperlink ref="R34" r:id="rId71"/>
+    <hyperlink ref="R81" r:id="rId69"/>
+    <hyperlink ref="R27" r:id="rId70"/>
+    <hyperlink ref="R35" r:id="rId71"/>
     <hyperlink ref="R15" r:id="rId72"/>
-    <hyperlink ref="R70" r:id="rId73"/>
-    <hyperlink ref="R46" r:id="rId74"/>
-    <hyperlink ref="R69" r:id="rId75"/>
+    <hyperlink ref="R71" r:id="rId73"/>
+    <hyperlink ref="R47" r:id="rId74"/>
+    <hyperlink ref="R70" r:id="rId75"/>
     <hyperlink ref="R14" r:id="rId76"/>
-    <hyperlink ref="R73" r:id="rId77"/>
-    <hyperlink ref="R42" r:id="rId78"/>
-    <hyperlink ref="R76" r:id="rId79"/>
-    <hyperlink ref="R65" r:id="rId80"/>
+    <hyperlink ref="R74" r:id="rId77"/>
+    <hyperlink ref="R43" r:id="rId78"/>
+    <hyperlink ref="R77" r:id="rId79"/>
+    <hyperlink ref="R66" r:id="rId80"/>
     <hyperlink ref="R13" r:id="rId81"/>
-    <hyperlink ref="R84" r:id="rId82"/>
-    <hyperlink ref="R38" r:id="rId83"/>
-    <hyperlink ref="R63" r:id="rId84"/>
-    <hyperlink ref="U24" r:id="rId85"/>
-    <hyperlink ref="R27" r:id="rId86"/>
-    <hyperlink ref="U32" r:id="rId87"/>
-    <hyperlink ref="R53" r:id="rId88"/>
-    <hyperlink ref="R36" r:id="rId89"/>
-    <hyperlink ref="R85" r:id="rId90"/>
-    <hyperlink ref="U41" r:id="rId91"/>
-    <hyperlink ref="U28" r:id="rId92"/>
-    <hyperlink ref="R57" r:id="rId93"/>
+    <hyperlink ref="R85" r:id="rId82"/>
+    <hyperlink ref="R39" r:id="rId83"/>
+    <hyperlink ref="R64" r:id="rId84"/>
+    <hyperlink ref="U25" r:id="rId85"/>
+    <hyperlink ref="R28" r:id="rId86"/>
+    <hyperlink ref="U33" r:id="rId87"/>
+    <hyperlink ref="R54" r:id="rId88"/>
+    <hyperlink ref="R37" r:id="rId89"/>
+    <hyperlink ref="R86" r:id="rId90"/>
+    <hyperlink ref="U42" r:id="rId91"/>
+    <hyperlink ref="U29" r:id="rId92"/>
+    <hyperlink ref="R58" r:id="rId93"/>
     <hyperlink ref="U12" r:id="rId94"/>
-    <hyperlink ref="R75" r:id="rId95"/>
+    <hyperlink ref="R76" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -578,12 +578,26 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>http://gigaom.com/2011/05/24/exclusive-paas-startups-unite-dotcloud-buys-duostack/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V40" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t>https://twitter.com/djangy/status/25187081957
 https://twitter.com/djangy/status/42017765254643712</t>
         </r>
       </text>
     </comment>
-    <comment ref="V40" authorId="1">
+    <comment ref="V41" authorId="1">
       <text>
         <r>
           <rPr>
@@ -597,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V41" authorId="1">
+    <comment ref="V42" authorId="1">
       <text>
         <r>
           <rPr>
@@ -612,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V43" authorId="1">
+    <comment ref="V44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -626,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V44" authorId="1">
+    <comment ref="V45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -640,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V45" authorId="1">
+    <comment ref="V46" authorId="1">
       <text>
         <r>
           <rPr>
@@ -655,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V46" authorId="1">
+    <comment ref="V47" authorId="1">
       <text>
         <r>
           <rPr>
@@ -669,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V47" authorId="1">
+    <comment ref="V48" authorId="1">
       <text>
         <r>
           <rPr>
@@ -684,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V48" authorId="1">
+    <comment ref="V49" authorId="1">
       <text>
         <r>
           <rPr>
@@ -698,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V49" authorId="1">
+    <comment ref="V50" authorId="1">
       <text>
         <r>
           <rPr>
@@ -713,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE49" authorId="1">
+    <comment ref="AE50" authorId="1">
       <text>
         <r>
           <rPr>
@@ -727,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V50" authorId="1">
+    <comment ref="V51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -742,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V51" authorId="1">
+    <comment ref="V52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -757,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V52" authorId="1">
+    <comment ref="V53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -772,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="1">
+    <comment ref="E54" authorId="1">
       <text>
         <r>
           <rPr>
@@ -786,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V53" authorId="1">
+    <comment ref="V54" authorId="1">
       <text>
         <r>
           <rPr>
@@ -802,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="D56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -814,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V55" authorId="1">
+    <comment ref="V56" authorId="1">
       <text>
         <r>
           <rPr>
@@ -828,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V56" authorId="1">
+    <comment ref="V57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -842,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V57" authorId="1">
+    <comment ref="V58" authorId="1">
       <text>
         <r>
           <rPr>
@@ -856,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V58" authorId="1">
+    <comment ref="V59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -871,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V59" authorId="1">
+    <comment ref="V60" authorId="1">
       <text>
         <r>
           <rPr>
@@ -886,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V60" authorId="1">
+    <comment ref="V61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -901,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1">
+    <comment ref="E62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -915,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V61" authorId="1">
+    <comment ref="V62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -930,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="1">
+    <comment ref="E63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -944,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V63" authorId="1">
+    <comment ref="V64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -958,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V64" authorId="1">
+    <comment ref="V65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -973,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="1">
+    <comment ref="E68" authorId="1">
       <text>
         <r>
           <rPr>
@@ -987,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V67" authorId="1">
+    <comment ref="V68" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N68" authorId="0">
+    <comment ref="N69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V68" authorId="1">
+    <comment ref="V69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E69" authorId="1">
+    <comment ref="E70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1044,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V69" authorId="1">
+    <comment ref="V70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V70" authorId="1">
+    <comment ref="V71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V71" authorId="1">
+    <comment ref="V72" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V73" authorId="1">
+    <comment ref="V74" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V74" authorId="1">
+    <comment ref="V75" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V75" authorId="1">
+    <comment ref="V76" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V76" authorId="1">
+    <comment ref="V77" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V77" authorId="1">
+    <comment ref="V78" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1159,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V78" authorId="1">
+    <comment ref="V79" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V79" authorId="1">
+    <comment ref="V80" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="1">
+    <comment ref="E81" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V85" authorId="1">
+    <comment ref="V86" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V86" authorId="1">
+    <comment ref="V87" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D320" authorId="0">
+    <comment ref="D321" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D321" authorId="0">
+    <comment ref="D322" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="554">
   <si>
     <t>Parent Platform Name</t>
   </si>
@@ -2912,6 +2926,24 @@
   </si>
   <si>
     <t>@hpcloud</t>
+  </si>
+  <si>
+    <t>Duostack</t>
+  </si>
+  <si>
+    <t>Aquired by Dotcloud</t>
+  </si>
+  <si>
+    <t>http://www.duostack.com/</t>
+  </si>
+  <si>
+    <t>@duostack</t>
+  </si>
+  <si>
+    <t>EOL 24.5.2011</t>
+  </si>
+  <si>
+    <t>Aquired by Salesforce</t>
   </si>
 </sst>
 </file>
@@ -3235,7 +3267,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3909,6 +3941,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4262,13 +4300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO321"/>
+  <dimension ref="A1:AO322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AF13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4501,39 +4539,39 @@
       <c r="E3" s="235"/>
       <c r="F3" s="74"/>
       <c r="G3" s="18">
-        <f>COUNTA(G4:G88)</f>
+        <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G89)</f>
         <v>43</v>
       </c>
       <c r="H3" s="5">
-        <f>COUNTA(H4:H88)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I3" s="5">
-        <f>COUNTA(I4:I88)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J88)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="K3" s="5">
-        <f>COUNTA(K4:K88)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="L3" s="19">
-        <f>COUNTA(L4:L88)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="M3" s="5">
-        <f>COUNTA(M4:M88)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="N3" s="20">
-        <f>COUNTA(N4:N88)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="O3" s="86">
-        <f>COUNTA(O4:O88)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P3" s="100" t="s">
@@ -4548,56 +4586,56 @@
       <c r="W3" s="176"/>
       <c r="X3" s="179"/>
       <c r="Y3" s="184">
-        <f ca="1">MEDIAN(Y4:Y101)</f>
+        <f ca="1">MEDIAN(Y4:Y102)</f>
         <v>18.5</v>
       </c>
       <c r="Z3" s="185">
-        <f ca="1">MEDIAN(Z4:Z101)</f>
+        <f ca="1">MEDIAN(Z4:Z102)</f>
         <v>24</v>
       </c>
       <c r="AA3" s="78"/>
       <c r="AB3" s="22">
-        <f>COUNTA(AB4:AB88)</f>
+        <f t="shared" ref="AB3:AL3" si="1">COUNTA(AB4:AB89)</f>
         <v>42</v>
       </c>
       <c r="AC3" s="10">
-        <f>COUNTA(AC4:AC88)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AD3" s="10">
-        <f>COUNTA(AD4:AD88)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AE3" s="10">
-        <f>COUNTA(AE4:AE88)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AF3" s="10">
-        <f>COUNTA(AF4:AF88)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG3" s="23">
-        <f>COUNTA(AG4:AG88)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AH3" s="22">
-        <f>COUNTA(AH4:AH88)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="AI3" s="10">
-        <f>COUNTA(AI4:AI88)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AJ3" s="23">
-        <f>COUNTA(AJ4:AJ88)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AK3" s="22">
-        <f>COUNTA(AK4:AK88)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="AL3" s="10">
-        <f>COUNTA(AL4:AL88)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AM3" s="23"/>
@@ -4717,11 +4755,11 @@
         <v>39876</v>
       </c>
       <c r="Y5" s="181">
-        <f t="shared" ref="Y5:Y68" ca="1" si="0">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
+        <f t="shared" ref="Y5:Y69" ca="1" si="2">IF(ISBLANK(X5),"0", DATEDIF(X5,TODAY(),"m"))</f>
         <v>52</v>
       </c>
       <c r="Z5" s="183" t="str">
-        <f t="shared" ref="Z5:Z68" ca="1" si="1">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
+        <f t="shared" ref="Z5:Z69" ca="1" si="3">IF(ISBLANK(W5),"0", DATEDIF(W5,TODAY(),"m"))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
@@ -4815,11 +4853,11 @@
       </c>
       <c r="X6" s="212"/>
       <c r="Y6" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="AA6" s="125" t="s">
@@ -4911,11 +4949,11 @@
         <v>40941</v>
       </c>
       <c r="Y7" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
       <c r="Z7" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
       <c r="AA7" s="132" t="s">
@@ -5059,11 +5097,11 @@
         <v>39784</v>
       </c>
       <c r="Y9" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="Z9" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
@@ -5141,11 +5179,11 @@
         <v>39879</v>
       </c>
       <c r="Y10" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="Z10" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
@@ -5349,11 +5387,11 @@
         <v>39370</v>
       </c>
       <c r="Y13" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="Z13" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>73</v>
       </c>
       <c r="AA13" s="116" t="s">
@@ -5425,11 +5463,11 @@
         <v>40205</v>
       </c>
       <c r="Y14" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
       <c r="Z14" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
@@ -5511,11 +5549,11 @@
         <v>41304</v>
       </c>
       <c r="Y15" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="Z15" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
@@ -5603,11 +5641,11 @@
         <v>40513</v>
       </c>
       <c r="Y16" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="Z16" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
@@ -5693,11 +5731,11 @@
       </c>
       <c r="X17" s="211"/>
       <c r="Y17" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z17" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
       <c r="AA17" s="132"/>
@@ -5779,11 +5817,11 @@
       </c>
       <c r="X18" s="212"/>
       <c r="Y18" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="AA18" s="125"/>
@@ -5870,11 +5908,11 @@
         <v>40968</v>
       </c>
       <c r="Y19" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
       <c r="Z19" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
@@ -6040,11 +6078,11 @@
       <c r="W21" s="215"/>
       <c r="X21" s="215"/>
       <c r="Y21" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA21" s="75"/>
@@ -6125,11 +6163,11 @@
         <v>41105</v>
       </c>
       <c r="Y22" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
       <c r="Z22" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA22" s="125" t="s">
@@ -6280,11 +6318,11 @@
       </c>
       <c r="X24" s="217"/>
       <c r="Y24" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
       <c r="AA24" s="77"/>
@@ -6368,11 +6406,11 @@
         <v>41061</v>
       </c>
       <c r="Y25" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="Z25" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="AA25" s="77" t="s">
@@ -6453,11 +6491,11 @@
         <v>41343</v>
       </c>
       <c r="Y26" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="Z26" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
@@ -6539,11 +6577,11 @@
       <c r="W27" s="217"/>
       <c r="X27" s="217"/>
       <c r="Y27" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA27" s="77" t="s">
@@ -6624,11 +6662,11 @@
         <v>41361</v>
       </c>
       <c r="Y28" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="Z28" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
       <c r="AA28" s="77" t="s">
@@ -6823,11 +6861,11 @@
         <v>40574</v>
       </c>
       <c r="Y31" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
       <c r="Z31" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="AA31" s="75" t="s">
@@ -6911,11 +6949,11 @@
         <v>40953</v>
       </c>
       <c r="Y32" s="181">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
       <c r="Z32" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
       <c r="AA32" s="77" t="s">
@@ -6980,11 +7018,11 @@
       </c>
       <c r="X33" s="215"/>
       <c r="Y33" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
       <c r="AA33" s="75"/>
@@ -7132,11 +7170,11 @@
         <v>40989</v>
       </c>
       <c r="Y35" s="207">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
       <c r="Z35" s="208" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA35" s="158" t="s">
@@ -7212,11 +7250,11 @@
       </c>
       <c r="X36" s="215"/>
       <c r="Y36" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z36" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="AA36" s="75" t="s">
@@ -7282,11 +7320,11 @@
       <c r="W37" s="219"/>
       <c r="X37" s="219"/>
       <c r="Y37" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z37" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AA37" s="78"/>
@@ -7309,7 +7347,7 @@
       <c r="AN37" s="31"/>
       <c r="AO37" s="74"/>
     </row>
-    <row r="38" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="42" t="s">
         <v>74</v>
       </c>
@@ -7353,11 +7391,11 @@
       </c>
       <c r="X38" s="215"/>
       <c r="Y38" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z38" s="183">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="AA38" s="75" t="s">
@@ -7380,706 +7418,666 @@
       <c r="AN38" s="54"/>
       <c r="AO38" s="75"/>
     </row>
-    <row r="39" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="168"/>
+      <c r="Q39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="S39" s="55" t="s">
+        <v>551</v>
+      </c>
+      <c r="V39" s="166" t="s">
+        <v>552</v>
+      </c>
+      <c r="W39" s="216"/>
+      <c r="X39" s="216"/>
+      <c r="Y39" s="238"/>
+      <c r="Z39" s="239"/>
+    </row>
+    <row r="40" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="76" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="190"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="33" t="s">
+      <c r="G40" s="190"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="191"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R39" s="32" t="s">
+      <c r="R40" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="S40" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="143" t="s">
+      <c r="T40" s="33"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="W39" s="210">
+      <c r="W40" s="210">
         <v>40443</v>
       </c>
-      <c r="X39" s="210"/>
-      <c r="Y39" s="181"/>
-      <c r="Z39" s="183"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="76" t="s">
+      <c r="X40" s="210"/>
+      <c r="Y40" s="181"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="76" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="44" t="s">
+    <row r="41" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F41" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="54" t="s">
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R40" s="173" t="s">
+      <c r="R41" s="173" t="s">
         <v>534</v>
       </c>
-      <c r="S40" s="64" t="s">
+      <c r="S41" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="T40" s="54" t="s">
+      <c r="T41" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="U40" s="48"/>
-      <c r="V40" s="65" t="s">
+      <c r="U41" s="48"/>
+      <c r="V41" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="W40" s="215">
+      <c r="W41" s="215">
         <v>41061</v>
       </c>
-      <c r="X40" s="215"/>
-      <c r="Y40" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="X41" s="215"/>
+      <c r="Y41" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z41" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="53"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="53"/>
-      <c r="AJ40" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK40" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL40" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="75"/>
-    </row>
-    <row r="41" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="110"/>
-      <c r="P41" s="103" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q41" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R41" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="S41" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="U41" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="V41" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="W41" s="215">
-        <v>40544</v>
-      </c>
-      <c r="X41" s="215">
-        <v>40719</v>
-      </c>
-      <c r="Y41" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Z41" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AA41" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB41" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="53"/>
       <c r="AG41" s="54"/>
-      <c r="AH41" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI41" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ41" s="54"/>
+      <c r="AH41" s="53"/>
+      <c r="AJ41" s="54" t="s">
+        <v>25</v>
+      </c>
       <c r="AK41" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="54" t="s">
-        <v>30</v>
-      </c>
+      <c r="AL41" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM41" s="54"/>
       <c r="AN41" s="54"/>
       <c r="AO41" s="75"/>
     </row>
-    <row r="42" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="110"/>
+      <c r="P42" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q42" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="U42" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="V42" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="W42" s="215">
+        <v>40544</v>
+      </c>
+      <c r="X42" s="215">
+        <v>40719</v>
+      </c>
+      <c r="Y42" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Z42" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AA42" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB42" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI42" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="75"/>
+    </row>
+    <row r="43" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="78" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="G43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="111"/>
-      <c r="P42" s="104"/>
-      <c r="Q42" s="31" t="s">
+      <c r="N43" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="111"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R42" s="96" t="s">
+      <c r="R43" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="S42" s="68" t="s">
+      <c r="S43" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="T42" s="31" t="s">
+      <c r="T43" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="U42" s="172" t="s">
+      <c r="U43" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="V42" s="67" t="s">
+      <c r="V43" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="W42" s="220">
+      <c r="W43" s="220">
         <v>40878</v>
       </c>
-      <c r="X42" s="220"/>
-      <c r="Y42" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="X43" s="220"/>
+      <c r="Y43" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z43" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>19</v>
       </c>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="74" t="s">
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+      <c r="AO43" s="74" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="43" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+    <row r="44" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E44" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F44" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G43" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46" t="s">
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="54" t="s">
+      <c r="N44" s="47"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R43" s="53" t="s">
+      <c r="R44" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="S43" s="64" t="s">
+      <c r="S44" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="T43" s="54" t="s">
+      <c r="T44" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="U43" s="53" t="s">
+      <c r="U44" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="V43" s="65" t="s">
+      <c r="V44" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="W43" s="215"/>
-      <c r="X43" s="215">
+      <c r="W44" s="215"/>
+      <c r="X44" s="215">
         <v>41011</v>
       </c>
-      <c r="Y43" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y44" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>15</v>
       </c>
-      <c r="Z43" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z44" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="77" t="s">
+      <c r="AA44" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AB43" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC43" s="44"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="49" t="s">
+      <c r="AB44" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC44" s="44"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="48"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="75"/>
-    </row>
-    <row r="44" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="115" t="s">
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="75"/>
+    </row>
+    <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116" t="s">
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="G44" s="133"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="134"/>
-      <c r="N44" s="135"/>
-      <c r="O44" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="120" t="s">
+      <c r="G45" s="133"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="134"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="121" t="s">
+      <c r="R45" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="S44" s="122" t="s">
+      <c r="S45" s="122" t="s">
         <v>360</v>
       </c>
-      <c r="T44" s="120" t="s">
+      <c r="T45" s="120" t="s">
         <v>358</v>
       </c>
-      <c r="U44" s="121" t="s">
+      <c r="U45" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="V44" s="144" t="s">
+      <c r="V45" s="144" t="s">
         <v>362</v>
       </c>
-      <c r="W44" s="211"/>
-      <c r="X44" s="211">
+      <c r="W45" s="211"/>
+      <c r="X45" s="211">
         <v>38961</v>
       </c>
-      <c r="Y44" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y45" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>82</v>
       </c>
-      <c r="Z44" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z45" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="116" t="s">
+      <c r="AA45" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="AB44" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC44" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD44" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE44" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF44" s="115"/>
-      <c r="AG44" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH44" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI44" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ44" s="120"/>
-      <c r="AK44" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL44" s="115"/>
-      <c r="AM44" s="120" t="s">
+      <c r="AB45" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC45" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD45" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE45" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF45" s="115"/>
+      <c r="AG45" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH45" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI45" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ45" s="120"/>
+      <c r="AK45" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL45" s="115"/>
+      <c r="AM45" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AN44" s="120"/>
-      <c r="AO44" s="116" t="s">
+      <c r="AN45" s="120"/>
+      <c r="AO45" s="116" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="76" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G45" s="190"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="102" t="s">
+      <c r="G46" s="190"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="191"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="Q45" s="33" t="s">
+      <c r="Q46" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R45" s="32" t="s">
+      <c r="R46" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="S45" s="12" t="s">
+      <c r="S46" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="T45" s="33"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="13" t="s">
+      <c r="T46" s="33"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="W45" s="210"/>
-      <c r="X45" s="210"/>
-      <c r="Y45" s="181"/>
-      <c r="Z45" s="183"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="33"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="33"/>
-      <c r="AK45" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="33" t="s">
+      <c r="W46" s="210"/>
+      <c r="X46" s="210"/>
+      <c r="Y46" s="181"/>
+      <c r="Z46" s="183"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="33"/>
+      <c r="AK46" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="76"/>
-    </row>
-    <row r="46" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
+      <c r="AN46" s="33"/>
+      <c r="AO46" s="76"/>
+    </row>
+    <row r="47" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E47" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F47" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46" t="s">
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="54" t="s">
+      <c r="N47" s="47"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R46" s="53" t="s">
+      <c r="R47" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="S46" s="64" t="s">
+      <c r="S47" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="T46" s="54" t="s">
+      <c r="T47" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="U46" s="52"/>
-      <c r="V46" s="66" t="s">
+      <c r="U47" s="52"/>
+      <c r="V47" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="W46" s="215"/>
-      <c r="X46" s="215">
+      <c r="W47" s="215"/>
+      <c r="X47" s="215">
         <v>39448</v>
       </c>
-      <c r="Y46" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y47" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="Z46" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z47" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="75" t="s">
+      <c r="AA47" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="AB46" s="53"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="53"/>
-      <c r="AJ46" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK46" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="75"/>
-    </row>
-    <row r="47" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="115" t="s">
+      <c r="AB47" s="53"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="53"/>
+      <c r="AJ47" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK47" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="75"/>
+    </row>
+    <row r="48" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="115" t="s">
         <v>238</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="116" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="133"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="134"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="R47" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="S47" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="T47" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="U47" s="121" t="s">
-        <v>326</v>
-      </c>
-      <c r="V47" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="W47" s="211">
-        <v>41143</v>
-      </c>
-      <c r="X47" s="211">
-        <v>41186</v>
-      </c>
-      <c r="Y47" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Z47" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AA47" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB47" s="138"/>
-      <c r="AC47" s="131"/>
-      <c r="AD47" s="115"/>
-      <c r="AE47" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF47" s="115"/>
-      <c r="AG47" s="139"/>
-      <c r="AH47" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI47" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ47" s="139"/>
-      <c r="AK47" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL47" s="131"/>
-      <c r="AM47" s="139"/>
-      <c r="AN47" s="139"/>
-      <c r="AO47" s="116"/>
-    </row>
-    <row r="48" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
-        <v>92</v>
       </c>
       <c r="C48" s="115"/>
       <c r="D48" s="115"/>
@@ -8089,10 +8087,10 @@
       </c>
       <c r="G48" s="133"/>
       <c r="H48" s="134"/>
-      <c r="I48" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134" t="s">
+        <v>25</v>
+      </c>
       <c r="K48" s="134"/>
       <c r="L48" s="134"/>
       <c r="M48" s="134"/>
@@ -8103,155 +8101,143 @@
         <v>29</v>
       </c>
       <c r="R48" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="S48" s="122" t="s">
+        <v>232</v>
+      </c>
+      <c r="T48" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="U48" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="V48" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="W48" s="211">
+        <v>41143</v>
+      </c>
+      <c r="X48" s="211">
+        <v>41186</v>
+      </c>
+      <c r="Y48" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Z48" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AA48" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB48" s="138"/>
+      <c r="AC48" s="131"/>
+      <c r="AD48" s="115"/>
+      <c r="AE48" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF48" s="115"/>
+      <c r="AG48" s="139"/>
+      <c r="AH48" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI48" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ48" s="139"/>
+      <c r="AK48" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL48" s="131"/>
+      <c r="AM48" s="139"/>
+      <c r="AN48" s="139"/>
+      <c r="AO48" s="116"/>
+    </row>
+    <row r="49" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="133"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="S48" s="122" t="s">
+      <c r="S49" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="T48" s="120" t="s">
+      <c r="T49" s="120" t="s">
         <v>327</v>
       </c>
-      <c r="U48" s="121" t="s">
+      <c r="U49" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="V48" s="141" t="s">
+      <c r="V49" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="W48" s="211">
+      <c r="W49" s="211">
         <v>40546</v>
       </c>
-      <c r="X48" s="211">
+      <c r="X49" s="211">
         <v>40788</v>
       </c>
-      <c r="Y48" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y49" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
-      <c r="Z48" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z49" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
-      <c r="AA48" s="116" t="s">
+      <c r="AA49" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="AB48" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC48" s="115"/>
-      <c r="AD48" s="115"/>
-      <c r="AE48" s="115"/>
-      <c r="AF48" s="115"/>
-      <c r="AG48" s="120"/>
-      <c r="AH48" s="121"/>
-      <c r="AI48" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ48" s="120"/>
-      <c r="AK48" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL48" s="115"/>
-      <c r="AM48" s="120" t="s">
+      <c r="AB49" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC49" s="115"/>
+      <c r="AD49" s="115"/>
+      <c r="AE49" s="115"/>
+      <c r="AF49" s="115"/>
+      <c r="AG49" s="120"/>
+      <c r="AH49" s="121"/>
+      <c r="AI49" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ49" s="120"/>
+      <c r="AK49" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL49" s="115"/>
+      <c r="AM49" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="AN48" s="120"/>
-      <c r="AO48" s="116"/>
-    </row>
-    <row r="49" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="125" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="193"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193" t="s">
-        <v>291</v>
-      </c>
-      <c r="N49" s="194"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="R49" s="149" t="s">
-        <v>94</v>
-      </c>
-      <c r="S49" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="T49" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="U49" s="121" t="s">
-        <v>296</v>
-      </c>
-      <c r="V49" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="W49" s="212">
-        <v>39545</v>
-      </c>
-      <c r="X49" s="212">
-        <v>40854</v>
-      </c>
-      <c r="Y49" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Z49" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="AA49" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB49" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC49" s="124"/>
-      <c r="AD49" s="124"/>
-      <c r="AE49" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF49" s="124"/>
-      <c r="AG49" s="129"/>
-      <c r="AH49" s="126"/>
-      <c r="AI49" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ49" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK49" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL49" s="124"/>
-      <c r="AM49" s="129" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN49" s="129" t="s">
-        <v>525</v>
-      </c>
-      <c r="AO49" s="125"/>
+      <c r="AN49" s="120"/>
+      <c r="AO49" s="116"/>
     </row>
     <row r="50" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="124" t="s">
-        <v>96</v>
+        <v>526</v>
       </c>
       <c r="C50" s="124"/>
       <c r="D50" s="124"/>
@@ -8269,55 +8255,47 @@
       <c r="J50" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="193" t="s">
-        <v>25</v>
-      </c>
+      <c r="K50" s="193"/>
+      <c r="L50" s="193"/>
       <c r="M50" s="193" t="s">
-        <v>293</v>
-      </c>
-      <c r="N50" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="127" t="s">
-        <v>25</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N50" s="194"/>
+      <c r="O50" s="127"/>
       <c r="P50" s="128"/>
       <c r="Q50" s="129" t="s">
         <v>29</v>
       </c>
       <c r="R50" s="149" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S50" s="124" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T50" s="129" t="s">
-        <v>294</v>
-      </c>
-      <c r="U50" s="126" t="s">
-        <v>188</v>
+        <v>95</v>
+      </c>
+      <c r="U50" s="121" t="s">
+        <v>296</v>
       </c>
       <c r="V50" s="124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W50" s="212">
-        <v>39385</v>
+        <v>39545</v>
       </c>
       <c r="X50" s="212">
-        <v>39927</v>
+        <v>40854</v>
       </c>
       <c r="Y50" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
       <c r="Z50" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="AA50" s="150" t="s">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="AA50" s="125" t="s">
         <v>295</v>
       </c>
       <c r="AB50" s="126" t="s">
@@ -8330,275 +8308,304 @@
       </c>
       <c r="AF50" s="124"/>
       <c r="AG50" s="129"/>
-      <c r="AH50" s="126" t="s">
-        <v>25</v>
-      </c>
+      <c r="AH50" s="126"/>
       <c r="AI50" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="AJ50" s="129"/>
+      <c r="AJ50" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="AK50" s="126" t="s">
         <v>25</v>
       </c>
       <c r="AL50" s="124"/>
       <c r="AM50" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN50" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO50" s="125"/>
+    </row>
+    <row r="51" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124" t="s">
+        <v>553</v>
+      </c>
+      <c r="F51" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="193" t="s">
+        <v>293</v>
+      </c>
+      <c r="N51" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51" s="149" t="s">
+        <v>97</v>
+      </c>
+      <c r="S51" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T51" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="U51" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="V51" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="W51" s="212">
+        <v>39385</v>
+      </c>
+      <c r="X51" s="212">
+        <v>39927</v>
+      </c>
+      <c r="Y51" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Z51" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="AA51" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB51" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC51" s="124"/>
+      <c r="AD51" s="124"/>
+      <c r="AE51" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF51" s="124"/>
+      <c r="AG51" s="129"/>
+      <c r="AH51" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI51" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ51" s="129"/>
+      <c r="AK51" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL51" s="124"/>
+      <c r="AM51" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="AN50" s="129"/>
-      <c r="AO50" s="125"/>
-    </row>
-    <row r="51" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="44" t="s">
+      <c r="AN51" s="129"/>
+      <c r="AO51" s="125"/>
+    </row>
+    <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44" t="s">
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="F52" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="R51" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="S51" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="T51" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="U51" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="V51" s="157" t="s">
-        <v>427</v>
-      </c>
-      <c r="W51" s="217">
-        <v>40865</v>
-      </c>
-      <c r="X51" s="217">
-        <v>41184</v>
-      </c>
-      <c r="Y51" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Z51" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AA51" s="77" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB51" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC51" s="44"/>
-      <c r="AG51" s="49"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK51" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="75" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="I52" s="46"/>
-      <c r="J52" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="J52" s="46"/>
       <c r="K52" s="46"/>
       <c r="L52" s="46"/>
       <c r="M52" s="46"/>
       <c r="N52" s="47"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="S52" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="T52" s="54" t="s">
+      <c r="O52" s="109"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="R52" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S52" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="T52" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="U52" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="V52" s="157" t="s">
+        <v>427</v>
+      </c>
+      <c r="W52" s="217">
+        <v>40865</v>
+      </c>
+      <c r="X52" s="217">
+        <v>41184</v>
+      </c>
+      <c r="Y52" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Z52" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AA52" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB52" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC52" s="44"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="48"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK52" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL52" s="44"/>
+      <c r="AM52" s="49"/>
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="75" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="U52" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="V52" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="W52" s="215">
-        <v>40742</v>
-      </c>
-      <c r="X52" s="215">
-        <v>40969</v>
-      </c>
-      <c r="Y52" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Z52" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AA52" s="75" t="s">
-        <v>428</v>
-      </c>
-      <c r="AB52" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC52" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD52" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE52" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG52" s="54"/>
-      <c r="AH52" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI52" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ52" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK52" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM52" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN52" s="54"/>
-      <c r="AO52" s="75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="F53" s="77" t="s">
-        <v>433</v>
+      <c r="F53" s="75" t="s">
+        <v>300</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="46"/>
       <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
+      <c r="J53" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="K53" s="46"/>
       <c r="L53" s="46"/>
       <c r="M53" s="46"/>
       <c r="N53" s="47"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="101"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="103"/>
       <c r="Q53" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="S53" s="64"/>
+      <c r="R53" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="T53" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="U53" s="53"/>
+        <v>101</v>
+      </c>
+      <c r="U53" s="52" t="s">
+        <v>429</v>
+      </c>
       <c r="V53" s="66" t="s">
-        <v>436</v>
+        <v>205</v>
       </c>
       <c r="W53" s="215">
-        <v>39249</v>
+        <v>40742</v>
       </c>
       <c r="X53" s="215">
-        <v>39349</v>
+        <v>40969</v>
       </c>
       <c r="Y53" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
       </c>
       <c r="Z53" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="AA53" s="77" t="s">
-        <v>304</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AA53" s="75" t="s">
+        <v>428</v>
       </c>
       <c r="AB53" s="53" t="s">
         <v>25</v>
       </c>
+      <c r="AC53" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD53" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE53" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="AG53" s="54"/>
-      <c r="AH53" s="53"/>
+      <c r="AH53" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI53" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="AJ53" s="54" t="s">
         <v>25</v>
       </c>
       <c r="AK53" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AL53" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM53" s="54"/>
+      <c r="AM53" s="54" t="s">
+        <v>430</v>
+      </c>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>434</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="44"/>
+        <v>252</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>431</v>
+      </c>
       <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
+      <c r="E54" s="44" t="s">
+        <v>432</v>
+      </c>
       <c r="F54" s="77" t="s">
         <v>433</v>
       </c>
@@ -8618,32 +8625,36 @@
         <v>29</v>
       </c>
       <c r="R54" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="S54" s="64" t="s">
-        <v>439</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="S54" s="64"/>
       <c r="T54" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="U54" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="V54" s="66">
-        <v>2005</v>
-      </c>
-      <c r="W54" s="215"/>
-      <c r="X54" s="215"/>
-      <c r="Y54" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="77"/>
-      <c r="AB54" s="53"/>
+        <v>435</v>
+      </c>
+      <c r="U54" s="53"/>
+      <c r="V54" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="W54" s="215">
+        <v>39249</v>
+      </c>
+      <c r="X54" s="215">
+        <v>39349</v>
+      </c>
+      <c r="Y54" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Z54" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="AA54" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB54" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="AG54" s="54"/>
       <c r="AH54" s="53"/>
       <c r="AJ54" s="54" t="s">
@@ -8662,567 +8673,599 @@
       </c>
     </row>
     <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="131" t="s">
+      <c r="B55" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="S55" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="T55" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U55" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="V55" s="66">
+        <v>2005</v>
+      </c>
+      <c r="W55" s="215"/>
+      <c r="X55" s="215"/>
+      <c r="Y55" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="77"/>
+      <c r="AB55" s="53"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="53"/>
+      <c r="AJ55" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK55" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL55" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="75" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="131" t="s">
         <v>523</v>
       </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="132" t="s">
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="G55" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="134"/>
-      <c r="N55" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="145"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="139" t="s">
+      <c r="G56" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="134"/>
+      <c r="N56" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="145"/>
+      <c r="P56" s="137"/>
+      <c r="Q56" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="R55" s="138" t="s">
+      <c r="R56" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="S55" s="122"/>
-      <c r="T55" s="139" t="s">
+      <c r="S56" s="122"/>
+      <c r="T56" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="U55" s="121"/>
-      <c r="V55" s="146" t="s">
+      <c r="U56" s="121"/>
+      <c r="V56" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="W55" s="221">
+      <c r="W56" s="221">
         <v>39748</v>
       </c>
-      <c r="X55" s="221">
+      <c r="X56" s="221">
         <v>40210</v>
       </c>
-      <c r="Y55" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y56" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
-      <c r="Z55" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z56" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
-      <c r="AA55" s="132" t="s">
+      <c r="AA56" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="AB55" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC55" s="115"/>
-      <c r="AD55" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE55" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF55" s="115"/>
-      <c r="AG55" s="120"/>
-      <c r="AH55" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI55" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ55" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK55" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL55" s="115"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AB56" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC56" s="115"/>
+      <c r="AD56" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE56" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF56" s="115"/>
+      <c r="AG56" s="120"/>
+      <c r="AH56" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI56" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ56" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK56" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL56" s="115"/>
+      <c r="AM56" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="116"/>
-    </row>
-    <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="44" t="s">
+      <c r="AN56" s="120"/>
+      <c r="AO56" s="116"/>
+    </row>
+    <row r="57" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="77" t="s">
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="H56" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="R56" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="S56" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="T56" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="U56" s="45"/>
-      <c r="V56" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="W56" s="215"/>
-      <c r="X56" s="215"/>
-      <c r="Y56" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="77"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="44"/>
-      <c r="AG56" s="49"/>
-      <c r="AH56" s="48"/>
-      <c r="AI56" s="44"/>
-      <c r="AJ56" s="49"/>
-      <c r="AK56" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="49"/>
-      <c r="AN56" s="49"/>
-      <c r="AO56" s="75"/>
-    </row>
-    <row r="57" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="46"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
       <c r="L57" s="46"/>
       <c r="M57" s="46"/>
       <c r="N57" s="47"/>
-      <c r="O57" s="110"/>
-      <c r="P57" s="103"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="101"/>
       <c r="Q57" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R57" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="S57" s="64"/>
+      <c r="R57" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>260</v>
+      </c>
       <c r="T57" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="U57" s="52"/>
-      <c r="V57" s="163">
-        <v>40787</v>
-      </c>
-      <c r="W57" s="215">
-        <v>40787</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="U57" s="45"/>
+      <c r="V57" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="W57" s="215"/>
       <c r="X57" s="215"/>
-      <c r="Y57" s="207" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y57" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="208">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AA57" s="75" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB57" s="53"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="53"/>
-      <c r="AI57" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ57" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK57" s="53"/>
-      <c r="AL57" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM57" s="54"/>
-      <c r="AN57" s="54"/>
-      <c r="AO57" s="75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z57" s="183" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="48"/>
+      <c r="AC57" s="44"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="48"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="49"/>
+      <c r="AN57" s="49"/>
+      <c r="AO57" s="75"/>
+    </row>
+    <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>447</v>
+        <v>110</v>
       </c>
       <c r="F58" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G58" s="45"/>
+        <v>300</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="H58" s="46"/>
-      <c r="I58" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="I58" s="46"/>
       <c r="J58" s="46"/>
-      <c r="K58" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="46" t="s">
-        <v>291</v>
-      </c>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
       <c r="N58" s="47"/>
       <c r="O58" s="110"/>
-      <c r="P58" s="103" t="s">
-        <v>145</v>
-      </c>
+      <c r="P58" s="103"/>
       <c r="Q58" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R58" s="173" t="s">
-        <v>443</v>
-      </c>
-      <c r="S58" s="64" t="s">
-        <v>445</v>
-      </c>
+      <c r="R58" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="S58" s="64"/>
       <c r="T58" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="U58" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="V58" s="65" t="s">
-        <v>521</v>
+        <v>112</v>
+      </c>
+      <c r="U58" s="52"/>
+      <c r="V58" s="163">
+        <v>40787</v>
       </c>
       <c r="W58" s="215">
-        <v>41080</v>
+        <v>40787</v>
       </c>
       <c r="X58" s="215"/>
-      <c r="Y58" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y58" s="207" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+      <c r="Z58" s="208">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
       </c>
       <c r="AA58" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB58" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC58" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD58" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE58" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG58" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH58" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ58" s="54"/>
-      <c r="AK58" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB58" s="53"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="53"/>
+      <c r="AI58" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ58" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK58" s="53"/>
+      <c r="AL58" s="42" t="s">
         <v>25</v>
       </c>
       <c r="AM58" s="54"/>
       <c r="AN58" s="54"/>
-      <c r="AO58" s="75"/>
-    </row>
-    <row r="59" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="115" t="s">
+      <c r="AO58" s="75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="F59" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="N59" s="47"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q59" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R59" s="173" t="s">
+        <v>443</v>
+      </c>
+      <c r="S59" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="T59" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="U59" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="V59" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="W59" s="215">
+        <v>41080</v>
+      </c>
+      <c r="X59" s="215"/>
+      <c r="Y59" s="181" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AA59" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB59" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC59" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD59" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE59" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG59" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH59" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ59" s="54"/>
+      <c r="AK59" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="54"/>
+      <c r="AO59" s="75"/>
+    </row>
+    <row r="60" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="116" t="s">
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="G59" s="133"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="134"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="120" t="s">
+      <c r="G60" s="133"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="134"/>
+      <c r="N60" s="135"/>
+      <c r="O60" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="148" t="s">
+      <c r="R60" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="S59" s="122" t="s">
+      <c r="S60" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="T59" s="54" t="s">
+      <c r="T60" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="U59" s="53" t="s">
+      <c r="U60" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="V59" s="144" t="s">
+      <c r="V60" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="W59" s="211">
+      <c r="W60" s="211">
         <v>41099</v>
       </c>
-      <c r="X59" s="211">
+      <c r="X60" s="211">
         <v>41192</v>
       </c>
-      <c r="Y59" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y60" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="Z59" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z60" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="AA59" s="116" t="s">
+      <c r="AA60" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="AB59" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC59" s="115"/>
-      <c r="AD59" s="115"/>
-      <c r="AE59" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF59" s="115"/>
-      <c r="AG59" s="120"/>
-      <c r="AH59" s="121"/>
-      <c r="AI59" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ59" s="120"/>
-      <c r="AK59" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL59" s="115"/>
-      <c r="AM59" s="120" t="s">
+      <c r="AB60" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC60" s="115"/>
+      <c r="AD60" s="115"/>
+      <c r="AE60" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF60" s="115"/>
+      <c r="AG60" s="120"/>
+      <c r="AH60" s="121"/>
+      <c r="AI60" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ60" s="120"/>
+      <c r="AK60" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL60" s="115"/>
+      <c r="AM60" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="AN59" s="120"/>
-      <c r="AO59" s="116"/>
-    </row>
-    <row r="60" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+      <c r="AN60" s="120"/>
+      <c r="AO60" s="116"/>
+    </row>
+    <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="168"/>
-      <c r="Q60" s="1" t="s">
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="168"/>
+      <c r="Q61" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S60" s="55"/>
-      <c r="T60" s="1" t="s">
+      <c r="S61" s="55"/>
+      <c r="T61" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V60" s="56" t="s">
+      <c r="V61" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="W60" s="216"/>
-      <c r="X60" s="216"/>
-      <c r="Y60" s="181"/>
-      <c r="Z60" s="183"/>
-    </row>
-    <row r="61" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F61" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="190"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M61" s="11"/>
-      <c r="N61" s="191"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="102"/>
-      <c r="Q61" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="R61" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="S61" s="12"/>
-      <c r="T61" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="U61" s="32"/>
-      <c r="V61" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="W61" s="210"/>
-      <c r="X61" s="210"/>
+      <c r="W61" s="216"/>
+      <c r="X61" s="216"/>
       <c r="Y61" s="181"/>
       <c r="Z61" s="183"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="32"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM61" s="33"/>
-      <c r="AN61" s="33"/>
-      <c r="AO61" s="76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F62" s="1" t="s">
+    </row>
+    <row r="62" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="168"/>
-      <c r="Q62" s="1" t="s">
+      <c r="G62" s="190"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="191"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="S62" s="55"/>
-      <c r="T62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U62" s="167"/>
-      <c r="V62" s="56" t="s">
-        <v>493</v>
-      </c>
-      <c r="W62" s="216"/>
-      <c r="X62" s="216"/>
+      <c r="R62" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S62" s="12"/>
+      <c r="T62" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="U62" s="32"/>
+      <c r="V62" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="W62" s="210"/>
+      <c r="X62" s="210"/>
       <c r="Y62" s="181"/>
       <c r="Z62" s="183"/>
+      <c r="AA62" s="76"/>
+      <c r="AB62" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM62" s="33"/>
+      <c r="AN62" s="33"/>
+      <c r="AO62" s="76" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="63" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>300</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
-      <c r="I63" s="58" t="s">
-        <v>25</v>
-      </c>
+      <c r="I63" s="58"/>
       <c r="J63" s="58"/>
       <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
+      <c r="L63" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="M63" s="58"/>
       <c r="N63" s="58"/>
       <c r="O63" s="168"/>
@@ -9230,197 +9273,166 @@
         <v>212</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S63" s="55" t="s">
-        <v>503</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="S63" s="55"/>
+      <c r="T63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U63" s="167"/>
       <c r="V63" s="56" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="W63" s="216"/>
       <c r="X63" s="216"/>
       <c r="Y63" s="181"/>
       <c r="Z63" s="183"/>
     </row>
-    <row r="64" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="115" t="s">
+    <row r="64" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="168"/>
+      <c r="Q64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S64" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="V64" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="W64" s="216"/>
+      <c r="X64" s="216"/>
+      <c r="Y64" s="181"/>
+      <c r="Z64" s="183"/>
+    </row>
+    <row r="65" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="C64" s="115" t="s">
+      <c r="C65" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115" t="s">
+      <c r="D65" s="115"/>
+      <c r="E65" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="F64" s="116" t="s">
+      <c r="F65" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="G64" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J64" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M64" s="134" t="s">
+      <c r="G65" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="N64" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="118"/>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="120" t="s">
+      <c r="N65" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="118"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="R64" s="148" t="s">
+      <c r="R65" s="148" t="s">
         <v>341</v>
       </c>
-      <c r="S64" s="122" t="s">
+      <c r="S65" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="T64" s="120" t="s">
+      <c r="T65" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="U64" s="121"/>
-      <c r="V64" s="144" t="s">
+      <c r="U65" s="121"/>
+      <c r="V65" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="W64" s="211">
+      <c r="W65" s="211">
         <v>40667</v>
       </c>
-      <c r="X64" s="211">
+      <c r="X65" s="211">
         <v>41435</v>
       </c>
-      <c r="Y64" s="181">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y65" s="181">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z64" s="183">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z65" s="183">
+        <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
-      <c r="AA64" s="116" t="s">
+      <c r="AA65" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="AB64" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC64" s="115"/>
-      <c r="AD64" s="115"/>
-      <c r="AE64" s="115"/>
-      <c r="AF64" s="115"/>
-      <c r="AG64" s="120"/>
-      <c r="AH64" s="121"/>
-      <c r="AI64" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ64" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK64" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL64" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM64" s="120"/>
-      <c r="AN64" s="120"/>
-      <c r="AO64" s="116" t="s">
+      <c r="AB65" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC65" s="115"/>
+      <c r="AD65" s="115"/>
+      <c r="AE65" s="115"/>
+      <c r="AF65" s="115"/>
+      <c r="AG65" s="120"/>
+      <c r="AH65" s="121"/>
+      <c r="AI65" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ65" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK65" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL65" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM65" s="120"/>
+      <c r="AN65" s="120"/>
+      <c r="AO65" s="116" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="65" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="199"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R65" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="S65" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="T65" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="U65" s="22"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="219"/>
-      <c r="X65" s="219"/>
-      <c r="Y65" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z65" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="74" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
-      <c r="AG65" s="23"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="10"/>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL65" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="23"/>
-      <c r="AO65" s="74"/>
     </row>
     <row r="66" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="74" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -9435,900 +9447,891 @@
         <v>29</v>
       </c>
       <c r="R66" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="S66" s="151" t="s">
-        <v>256</v>
-      </c>
-      <c r="T66" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="U66" s="22" t="s">
-        <v>511</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="S66" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="T66" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="U66" s="22"/>
       <c r="V66" s="62"/>
       <c r="W66" s="219"/>
       <c r="X66" s="219"/>
       <c r="Y66" s="181" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="Z66" s="183" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="6"/>
+      <c r="AA66" s="74" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
       <c r="AF66" s="10"/>
-      <c r="AG66" s="31"/>
-      <c r="AH66" s="30"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
       <c r="AO66" s="74"/>
     </row>
-    <row r="67" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F67" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="G67" s="190"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="191"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="R67" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="S67" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="T67" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="U67" s="32"/>
-      <c r="V67" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="W67" s="210">
-        <v>40609</v>
-      </c>
-      <c r="X67" s="210">
-        <v>40638</v>
-      </c>
-      <c r="Y67" s="181"/>
-      <c r="Z67" s="183"/>
-      <c r="AA67" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB67" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="33"/>
-      <c r="AH67" s="32"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="33"/>
-      <c r="AK67" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL67" s="8"/>
-      <c r="AM67" s="33"/>
-      <c r="AN67" s="33"/>
-      <c r="AO67" s="76"/>
-    </row>
-    <row r="68" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="116" t="s">
-        <v>300</v>
-      </c>
-      <c r="G68" s="133"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" s="134"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="118"/>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="120" t="s">
+    <row r="67" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="199"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="R68" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="S68" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="T68" s="120" t="s">
-        <v>367</v>
-      </c>
-      <c r="U68" s="121"/>
-      <c r="V68" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="W68" s="211">
-        <v>40664</v>
-      </c>
-      <c r="X68" s="211">
-        <v>40836</v>
-      </c>
-      <c r="Y68" s="181">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Z68" s="183">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="AA68" s="116" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB68" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC68" s="115"/>
-      <c r="AD68" s="115"/>
-      <c r="AE68" s="115"/>
-      <c r="AF68" s="115"/>
-      <c r="AG68" s="120"/>
-      <c r="AH68" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI68" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ68" s="120"/>
-      <c r="AK68" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL68" s="115"/>
-      <c r="AM68" s="120" t="s">
-        <v>368</v>
-      </c>
-      <c r="AN68" s="120"/>
-      <c r="AO68" s="116" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N69" s="58"/>
-      <c r="O69" s="168"/>
-      <c r="Q69" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S69" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="V69" s="56" t="s">
-        <v>487</v>
-      </c>
-      <c r="W69" s="216"/>
-      <c r="X69" s="216"/>
-      <c r="Y69" s="181"/>
-      <c r="Z69" s="183"/>
-      <c r="AK69" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="125" t="s">
-        <v>300</v>
-      </c>
-      <c r="G70" s="192"/>
-      <c r="H70" s="193"/>
-      <c r="I70" s="193"/>
-      <c r="J70" s="193" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="193"/>
-      <c r="L70" s="193"/>
-      <c r="M70" s="193"/>
-      <c r="N70" s="194"/>
-      <c r="O70" s="127"/>
-      <c r="P70" s="128"/>
-      <c r="Q70" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="R70" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="S70" s="124" t="s">
-        <v>237</v>
-      </c>
-      <c r="T70" s="129" t="s">
-        <v>308</v>
-      </c>
-      <c r="U70" s="126"/>
-      <c r="V70" s="124" t="s">
-        <v>239</v>
-      </c>
-      <c r="W70" s="212">
-        <v>40834</v>
-      </c>
-      <c r="X70" s="212"/>
-      <c r="Y70" s="181" t="str">
-        <f t="shared" ref="Y70:Y86" ca="1" si="2">IF(ISBLANK(X70),"0", DATEDIF(X70,TODAY(),"m"))</f>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="183">
-        <f t="shared" ref="Z70:Z86" ca="1" si="3">IF(ISBLANK(W70),"0", DATEDIF(W70,TODAY(),"m"))</f>
-        <v>21</v>
-      </c>
-      <c r="AA70" s="125"/>
-      <c r="AB70" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC70" s="124"/>
-      <c r="AD70" s="124"/>
-      <c r="AE70" s="124"/>
-      <c r="AF70" s="124"/>
-      <c r="AG70" s="129"/>
-      <c r="AH70" s="126"/>
-      <c r="AI70" s="124"/>
-      <c r="AJ70" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK70" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL70" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM70" s="129"/>
-      <c r="AN70" s="129"/>
-      <c r="AO70" s="125"/>
-    </row>
-    <row r="71" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115" t="s">
-        <v>467</v>
-      </c>
-      <c r="F71" s="116" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" s="133"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="L71" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="M71" s="134" t="s">
-        <v>369</v>
-      </c>
-      <c r="N71" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O71" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="P71" s="119"/>
-      <c r="Q71" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="R71" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="S71" s="122" t="s">
-        <v>370</v>
-      </c>
-      <c r="T71" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="U71" s="121" t="s">
-        <v>372</v>
-      </c>
-      <c r="V71" s="123" t="s">
-        <v>371</v>
-      </c>
-      <c r="W71" s="211"/>
-      <c r="X71" s="211"/>
-      <c r="Y71" s="181" t="str">
+      <c r="R67" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="S67" s="151" t="s">
+        <v>256</v>
+      </c>
+      <c r="T67" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="U67" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="V67" s="62"/>
+      <c r="W67" s="219"/>
+      <c r="X67" s="219"/>
+      <c r="Y67" s="181" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z71" s="183" t="str">
+      <c r="Z67" s="183" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA71" s="132" t="s">
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="31"/>
+      <c r="AH67" s="30"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="31"/>
+      <c r="AK67" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM67" s="31"/>
+      <c r="AN67" s="31"/>
+      <c r="AO67" s="74"/>
+    </row>
+    <row r="68" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
+      <c r="B68" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="190"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="191"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="R68" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="T68" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="U68" s="32"/>
+      <c r="V68" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="W68" s="210">
+        <v>40609</v>
+      </c>
+      <c r="X68" s="210">
+        <v>40638</v>
+      </c>
+      <c r="Y68" s="181"/>
+      <c r="Z68" s="183"/>
+      <c r="AA68" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="AB71" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC71" s="131"/>
-      <c r="AD71" s="115"/>
-      <c r="AE71" s="115"/>
-      <c r="AF71" s="115"/>
-      <c r="AG71" s="139"/>
-      <c r="AH71" s="138"/>
-      <c r="AI71" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ71" s="139"/>
-      <c r="AK71" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL71" s="131"/>
-      <c r="AM71" s="139"/>
-      <c r="AN71" s="139"/>
-      <c r="AO71" s="116"/>
-    </row>
-    <row r="72" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
+      <c r="AB68" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="33"/>
+      <c r="AH68" s="32"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="33"/>
+      <c r="AK68" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="33"/>
+      <c r="AN68" s="33"/>
+      <c r="AO68" s="76"/>
+    </row>
+    <row r="69" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="133"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
+      <c r="J69" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="134"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
+      <c r="N69" s="135"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="R69" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="S69" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="T69" s="120" t="s">
+        <v>367</v>
+      </c>
+      <c r="U69" s="121"/>
+      <c r="V69" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="W69" s="211">
+        <v>40664</v>
+      </c>
+      <c r="X69" s="211">
+        <v>40836</v>
+      </c>
+      <c r="Y69" s="181">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Z69" s="183">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AA69" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB69" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC69" s="115"/>
+      <c r="AD69" s="115"/>
+      <c r="AE69" s="115"/>
+      <c r="AF69" s="115"/>
+      <c r="AG69" s="120"/>
+      <c r="AH69" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI69" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ69" s="120"/>
+      <c r="AK69" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL69" s="115"/>
+      <c r="AM69" s="120" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN69" s="120"/>
+      <c r="AO69" s="116" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="58"/>
+      <c r="O70" s="168"/>
+      <c r="Q70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S70" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="V70" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="W70" s="216"/>
+      <c r="X70" s="216"/>
+      <c r="Y70" s="181"/>
+      <c r="Z70" s="183"/>
+      <c r="AK70" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="G71" s="192"/>
+      <c r="H71" s="193"/>
+      <c r="I71" s="193"/>
+      <c r="J71" s="193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="193"/>
+      <c r="L71" s="193"/>
+      <c r="M71" s="193"/>
+      <c r="N71" s="194"/>
+      <c r="O71" s="127"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="R71" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="S71" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="T71" s="129" t="s">
+        <v>308</v>
+      </c>
+      <c r="U71" s="126"/>
+      <c r="V71" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="W71" s="212">
+        <v>40834</v>
+      </c>
+      <c r="X71" s="212"/>
+      <c r="Y71" s="181" t="str">
+        <f t="shared" ref="Y71:Y87" ca="1" si="4">IF(ISBLANK(X71),"0", DATEDIF(X71,TODAY(),"m"))</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="183">
+        <f t="shared" ref="Z71:Z87" ca="1" si="5">IF(ISBLANK(W71),"0", DATEDIF(W71,TODAY(),"m"))</f>
+        <v>21</v>
+      </c>
+      <c r="AA71" s="125"/>
+      <c r="AB71" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC71" s="124"/>
+      <c r="AD71" s="124"/>
+      <c r="AE71" s="124"/>
+      <c r="AF71" s="124"/>
+      <c r="AG71" s="129"/>
+      <c r="AH71" s="126"/>
+      <c r="AI71" s="124"/>
+      <c r="AJ71" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK71" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL71" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM71" s="129"/>
+      <c r="AN71" s="129"/>
+      <c r="AO71" s="125"/>
+    </row>
+    <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="G72" s="133"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="134" t="s">
+        <v>369</v>
+      </c>
+      <c r="N72" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="119"/>
+      <c r="Q72" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="R72" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="S72" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="T72" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="U72" s="121" t="s">
+        <v>372</v>
+      </c>
+      <c r="V72" s="123" t="s">
+        <v>371</v>
+      </c>
+      <c r="W72" s="211"/>
+      <c r="X72" s="211"/>
+      <c r="Y72" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB72" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC72" s="131"/>
+      <c r="AD72" s="115"/>
+      <c r="AE72" s="115"/>
+      <c r="AF72" s="115"/>
+      <c r="AG72" s="139"/>
+      <c r="AH72" s="138"/>
+      <c r="AI72" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ72" s="139"/>
+      <c r="AK72" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL72" s="131"/>
+      <c r="AM72" s="139"/>
+      <c r="AN72" s="139"/>
+      <c r="AO72" s="116"/>
+    </row>
+    <row r="73" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="167"/>
-      <c r="Q72" s="1" t="s">
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="167"/>
+      <c r="Q73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S72" s="55" t="s">
+      <c r="S73" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="V72" s="56"/>
-      <c r="W72" s="216"/>
-      <c r="X72" s="216"/>
-      <c r="Y72" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="216"/>
+      <c r="X73" s="216"/>
+      <c r="Y73" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z72" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z73" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
+    <row r="74" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E74" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="F73" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G73" s="45"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="110"/>
-      <c r="P73" s="103"/>
-      <c r="Q73" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R73" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="S73" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="T73" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="U73" s="53"/>
-      <c r="V73" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="W73" s="215">
-        <v>40561</v>
-      </c>
-      <c r="X73" s="215">
-        <v>41426</v>
-      </c>
-      <c r="Y73" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z73" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AA73" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB73" s="53"/>
-      <c r="AE73" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="53"/>
-      <c r="AI73" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ73" s="54"/>
-      <c r="AK73" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM73" s="54"/>
-      <c r="AN73" s="54"/>
-      <c r="AO73" s="75"/>
-    </row>
-    <row r="74" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="44"/>
-      <c r="F74" s="77" t="s">
+      <c r="F74" s="75" t="s">
         <v>300</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
-      <c r="J74" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="L74" s="46"/>
       <c r="M74" s="46"/>
       <c r="N74" s="47"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="101"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="103"/>
       <c r="Q74" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R74" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="S74" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="T74" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="U74" s="53"/>
+      <c r="V74" s="66" t="s">
+        <v>538</v>
+      </c>
+      <c r="W74" s="215">
+        <v>40561</v>
+      </c>
+      <c r="X74" s="215">
+        <v>41426</v>
+      </c>
+      <c r="Y74" s="181">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="183">
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AA74" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB74" s="53"/>
+      <c r="AE74" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG74" s="54"/>
+      <c r="AH74" s="53"/>
+      <c r="AI74" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ74" s="54"/>
+      <c r="AK74" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM74" s="54"/>
+      <c r="AN74" s="54"/>
+      <c r="AO74" s="75"/>
+    </row>
+    <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="44"/>
+      <c r="F75" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="101"/>
+      <c r="Q75" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R74" s="53" t="s">
+      <c r="R75" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="S74" s="64" t="s">
+      <c r="S75" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="T74" s="54" t="s">
+      <c r="T75" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="U74" s="53"/>
-      <c r="V74" s="163">
+      <c r="U75" s="53"/>
+      <c r="V75" s="163">
         <v>40603</v>
       </c>
-      <c r="W74" s="215">
+      <c r="W75" s="215">
         <v>40603</v>
       </c>
-      <c r="X74" s="215"/>
-      <c r="Y74" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X75" s="215"/>
+      <c r="Y75" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z74" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z75" s="183">
+        <f t="shared" ca="1" si="5"/>
         <v>28</v>
       </c>
-      <c r="AA74" s="77" t="s">
+      <c r="AA75" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="AB74" s="48"/>
-      <c r="AC74" s="44"/>
-      <c r="AE74" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG74" s="49"/>
-      <c r="AH74" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI74" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ74" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK74" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL74" s="44"/>
-      <c r="AM74" s="49"/>
-      <c r="AN74" s="49"/>
-      <c r="AO74" s="75"/>
-    </row>
-    <row r="75" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+      <c r="AB75" s="48"/>
+      <c r="AC75" s="44"/>
+      <c r="AE75" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI75" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ75" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK75" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL75" s="44"/>
+      <c r="AM75" s="49"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="75"/>
+    </row>
+    <row r="76" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="F75" s="74" t="s">
+      <c r="F76" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="199"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="23" t="s">
+      <c r="G76" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="199"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="99"/>
+      <c r="Q76" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="R75" s="95" t="s">
+      <c r="R76" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="S75" s="61" t="s">
+      <c r="S76" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="T75" s="23" t="s">
+      <c r="T76" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="U75" s="22" t="s">
+      <c r="U76" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="V75" s="62" t="s">
+      <c r="V76" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="W75" s="219">
+      <c r="W76" s="219">
         <v>40940</v>
       </c>
-      <c r="X75" s="219">
+      <c r="X76" s="219">
         <v>41030</v>
       </c>
-      <c r="Y75" s="181">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Y76" s="181">
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
-      <c r="Z75" s="183">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z76" s="183">
+        <f t="shared" ca="1" si="5"/>
         <v>17</v>
       </c>
-      <c r="AA75" s="74" t="s">
+      <c r="AA76" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="23"/>
-      <c r="AH75" s="22"/>
-      <c r="AI75" s="10"/>
-      <c r="AJ75" s="23"/>
-      <c r="AK75" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL75" s="10"/>
-      <c r="AM75" s="23"/>
-      <c r="AN75" s="23"/>
-      <c r="AO75" s="74"/>
-    </row>
-    <row r="76" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="F76" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="110"/>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R76" s="53" t="s">
-        <v>529</v>
-      </c>
-      <c r="S76" s="64"/>
-      <c r="T76" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="U76" s="53"/>
-      <c r="V76" s="65" t="s">
-        <v>530</v>
-      </c>
-      <c r="W76" s="215">
-        <v>40828</v>
-      </c>
-      <c r="X76" s="215">
-        <v>41264</v>
-      </c>
-      <c r="Y76" s="207">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Z76" s="208">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="AA76" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB76" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD76" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE76" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG76" s="54"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ76" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK76" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL76" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM76" s="54"/>
-      <c r="AN76" s="54"/>
-      <c r="AO76" s="75"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="23"/>
+      <c r="AH76" s="22"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="23"/>
+      <c r="AK76" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="23"/>
+      <c r="AN76" s="23"/>
+      <c r="AO76" s="74"/>
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>451</v>
-      </c>
-      <c r="F77" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="F77" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46" t="s">
-        <v>31</v>
-      </c>
+      <c r="G77" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="46"/>
       <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
+      <c r="J77" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="K77" s="46"/>
       <c r="L77" s="46"/>
       <c r="M77" s="46"/>
       <c r="N77" s="47"/>
-      <c r="O77" s="109"/>
-      <c r="P77" s="101"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="103"/>
       <c r="Q77" s="54" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="S77" s="64" t="s">
-        <v>251</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="S77" s="64"/>
       <c r="T77" s="54" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="U77" s="53"/>
-      <c r="V77" s="66" t="s">
-        <v>254</v>
+      <c r="V77" s="65" t="s">
+        <v>530</v>
       </c>
       <c r="W77" s="215">
-        <v>41410</v>
-      </c>
-      <c r="X77" s="215"/>
-      <c r="Y77" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA77" s="77"/>
-      <c r="AB77" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC77" s="44"/>
-      <c r="AG77" s="49"/>
-      <c r="AH77" s="48"/>
-      <c r="AI77" s="44"/>
-      <c r="AJ77" s="49"/>
-      <c r="AK77" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL77" s="44"/>
-      <c r="AM77" s="49"/>
-      <c r="AN77" s="49"/>
+        <v>40828</v>
+      </c>
+      <c r="X77" s="215">
+        <v>41264</v>
+      </c>
+      <c r="Y77" s="207">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z77" s="208">
+        <f t="shared" ca="1" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AA77" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB77" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD77" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE77" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG77" s="54"/>
+      <c r="AH77" s="53"/>
+      <c r="AI77" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ77" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK77" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL77" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM77" s="54"/>
+      <c r="AN77" s="54"/>
       <c r="AO77" s="75"/>
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F78" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="F78" s="77" t="s">
         <v>300</v>
       </c>
       <c r="G78" s="45"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="H78" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
       <c r="K78" s="46"/>
       <c r="L78" s="46"/>
       <c r="M78" s="46"/>
       <c r="N78" s="47"/>
-      <c r="O78" s="110"/>
-      <c r="P78" s="103"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="101"/>
       <c r="Q78" s="54" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="R78" s="53" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="S78" s="64" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
       <c r="T78" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="U78" s="53"/>
+      <c r="V78" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="W78" s="215">
+        <v>41410</v>
+      </c>
+      <c r="X78" s="215"/>
+      <c r="Y78" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="183">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AA78" s="77"/>
+      <c r="AB78" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC78" s="44"/>
+      <c r="AG78" s="49"/>
+      <c r="AH78" s="48"/>
+      <c r="AI78" s="44"/>
+      <c r="AJ78" s="49"/>
+      <c r="AK78" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL78" s="44"/>
+      <c r="AM78" s="49"/>
+      <c r="AN78" s="49"/>
+      <c r="AO78" s="75"/>
+    </row>
+    <row r="79" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="U78" s="53"/>
-      <c r="V78" s="163">
-        <v>40210</v>
-      </c>
-      <c r="W78" s="215"/>
-      <c r="X78" s="215">
-        <v>40210</v>
-      </c>
-      <c r="Y78" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="Z78" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA78" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB78" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG78" s="54"/>
-      <c r="AH78" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI78" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ78" s="54"/>
-      <c r="AK78" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM78" s="54"/>
-      <c r="AN78" s="54"/>
-      <c r="AO78" s="75" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>157</v>
-      </c>
       <c r="F79" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G79" s="45" t="s">
-        <v>25</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G79" s="45"/>
       <c r="H79" s="46"/>
       <c r="I79" s="46" t="s">
         <v>25</v>
@@ -10336,9 +10339,7 @@
       <c r="J79" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K79" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="K79" s="46"/>
       <c r="L79" s="46"/>
       <c r="M79" s="46"/>
       <c r="N79" s="47"/>
@@ -10348,48 +10349,37 @@
         <v>29</v>
       </c>
       <c r="R79" s="53" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="S79" s="64" t="s">
-        <v>141</v>
+        <v>483</v>
       </c>
       <c r="T79" s="54" t="s">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="U79" s="53"/>
-      <c r="V79" s="65" t="s">
-        <v>520</v>
-      </c>
-      <c r="W79" s="215">
-        <v>40252</v>
-      </c>
-      <c r="X79" s="215"/>
-      <c r="Y79" s="207" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="V79" s="163">
+        <v>40210</v>
+      </c>
+      <c r="W79" s="215"/>
+      <c r="X79" s="215">
+        <v>40210</v>
+      </c>
+      <c r="Y79" s="181">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="Z79" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z79" s="208">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
       <c r="AA79" s="75" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="AB79" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AC79" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD79" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE79" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG79" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="AG79" s="54"/>
       <c r="AH79" s="53" t="s">
         <v>25</v>
       </c>
@@ -10403,336 +10393,363 @@
       <c r="AM79" s="54"/>
       <c r="AN79" s="54"/>
       <c r="AO79" s="75" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="103"/>
+      <c r="Q80" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R80" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="S80" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="T80" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="U80" s="53"/>
+      <c r="V80" s="65" t="s">
+        <v>520</v>
+      </c>
+      <c r="W80" s="215">
+        <v>40252</v>
+      </c>
+      <c r="X80" s="215"/>
+      <c r="Y80" s="207" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="208">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AA80" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB80" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC80" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD80" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE80" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG80" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH80" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI80" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ80" s="54"/>
+      <c r="AK80" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM80" s="54"/>
+      <c r="AN80" s="54"/>
+      <c r="AO80" s="75" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G80" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="58"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="167"/>
-      <c r="Q80" s="1" t="s">
+      <c r="G81" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="167"/>
+      <c r="Q81" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S80" s="55"/>
-      <c r="V80" s="56">
+      <c r="S81" s="55"/>
+      <c r="V81" s="56">
         <v>2008</v>
       </c>
-      <c r="W80" s="216"/>
-      <c r="X80" s="216"/>
-      <c r="Y80" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W81" s="216"/>
+      <c r="X81" s="216"/>
+      <c r="Y81" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z81" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA80" s="57"/>
-      <c r="AB80" s="57"/>
-      <c r="AC80" s="57"/>
-      <c r="AG80" s="57"/>
-      <c r="AH80" s="57"/>
-      <c r="AI80" s="57"/>
-      <c r="AJ80" s="57"/>
-      <c r="AK80" s="57"/>
-      <c r="AL80" s="57"/>
-      <c r="AM80" s="57"/>
-      <c r="AN80" s="57"/>
-    </row>
-    <row r="81" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="131" t="s">
+      <c r="AA81" s="57"/>
+      <c r="AB81" s="57"/>
+      <c r="AC81" s="57"/>
+      <c r="AG81" s="57"/>
+      <c r="AH81" s="57"/>
+      <c r="AI81" s="57"/>
+      <c r="AJ81" s="57"/>
+      <c r="AK81" s="57"/>
+      <c r="AL81" s="57"/>
+      <c r="AM81" s="57"/>
+      <c r="AN81" s="57"/>
+    </row>
+    <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="132" t="s">
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="G81" s="133"/>
-      <c r="H81" s="134"/>
-      <c r="I81" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J81" s="134"/>
-      <c r="K81" s="134"/>
-      <c r="L81" s="134"/>
-      <c r="M81" s="134"/>
-      <c r="N81" s="135" t="s">
-        <v>25</v>
-      </c>
-      <c r="O81" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="P81" s="137"/>
-      <c r="Q81" s="120" t="s">
+      <c r="G82" s="133"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="134"/>
+      <c r="K82" s="134"/>
+      <c r="L82" s="134"/>
+      <c r="M82" s="134"/>
+      <c r="N82" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="137"/>
+      <c r="Q82" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="R81" s="121" t="s">
+      <c r="R82" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="S81" s="122" t="s">
+      <c r="S82" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="T81" s="120" t="s">
+      <c r="T82" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="U81" s="138"/>
-      <c r="V81" s="141"/>
-      <c r="W81" s="211"/>
-      <c r="X81" s="211"/>
-      <c r="Y81" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="U82" s="138"/>
+      <c r="V82" s="141"/>
+      <c r="W82" s="211"/>
+      <c r="X82" s="211"/>
+      <c r="Y82" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z82" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA81" s="132"/>
-      <c r="AB81" s="138"/>
-      <c r="AC81" s="131"/>
-      <c r="AD81" s="115"/>
-      <c r="AE81" s="115"/>
-      <c r="AF81" s="115"/>
-      <c r="AG81" s="139"/>
-      <c r="AH81" s="138"/>
-      <c r="AI81" s="131"/>
-      <c r="AJ81" s="139"/>
-      <c r="AK81" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL81" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM81" s="139"/>
-      <c r="AN81" s="139"/>
-      <c r="AO81" s="116"/>
-    </row>
-    <row r="82" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+      <c r="AA82" s="132"/>
+      <c r="AB82" s="138"/>
+      <c r="AC82" s="131"/>
+      <c r="AD82" s="115"/>
+      <c r="AE82" s="115"/>
+      <c r="AF82" s="115"/>
+      <c r="AG82" s="139"/>
+      <c r="AH82" s="138"/>
+      <c r="AI82" s="131"/>
+      <c r="AJ82" s="139"/>
+      <c r="AK82" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL82" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM82" s="139"/>
+      <c r="AN82" s="139"/>
+      <c r="AO82" s="116"/>
+    </row>
+    <row r="83" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F82" s="76" t="s">
+      <c r="F83" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="G82" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="191"/>
-      <c r="O82" s="89"/>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="33" t="s">
+      <c r="G83" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="191"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="R82" s="32" t="s">
+      <c r="R83" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="S82" s="12"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="210"/>
-      <c r="X82" s="210"/>
-      <c r="Y82" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="210"/>
+      <c r="X83" s="210"/>
+      <c r="Y83" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z82" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z83" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA82" s="76"/>
-      <c r="AB82" s="32"/>
-      <c r="AC82" s="8"/>
-      <c r="AD82" s="8"/>
-      <c r="AE82" s="8"/>
-      <c r="AF82" s="8"/>
-      <c r="AG82" s="33"/>
-      <c r="AH82" s="32"/>
-      <c r="AI82" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ82" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK82" s="32"/>
-      <c r="AL82" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM82" s="33"/>
-      <c r="AN82" s="33"/>
-      <c r="AO82" s="76" t="s">
+      <c r="AA83" s="76"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="33"/>
+      <c r="AH83" s="32"/>
+      <c r="AI83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ83" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK83" s="32"/>
+      <c r="AL83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM83" s="33"/>
+      <c r="AN83" s="33"/>
+      <c r="AO83" s="76" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="83" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G83" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="110"/>
-      <c r="P83" s="103" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q83" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R83" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="S83" s="64"/>
-      <c r="T83" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="U83" s="53"/>
-      <c r="V83" s="66"/>
-      <c r="W83" s="215"/>
-      <c r="X83" s="215"/>
-      <c r="Y83" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="44"/>
-      <c r="AG83" s="49"/>
-      <c r="AH83" s="48"/>
-      <c r="AI83" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ83" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK83" s="48"/>
-      <c r="AL83" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM83" s="49"/>
-      <c r="AN83" s="49"/>
-      <c r="AO83" s="75"/>
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H84" s="46"/>
-      <c r="I84" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
       <c r="L84" s="46"/>
-      <c r="M84" s="46" t="s">
-        <v>310</v>
-      </c>
+      <c r="M84" s="46"/>
       <c r="N84" s="47"/>
       <c r="O84" s="110"/>
-      <c r="P84" s="103"/>
+      <c r="P84" s="103" t="s">
+        <v>468</v>
+      </c>
       <c r="Q84" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="S84" s="64"/>
       <c r="T84" s="54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U84" s="53"/>
       <c r="V84" s="66"/>
       <c r="W84" s="215"/>
       <c r="X84" s="215"/>
       <c r="Y84" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="Z84" s="183" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA84" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB84" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG84" s="54"/>
-      <c r="AH84" s="53"/>
-      <c r="AJ84" s="54"/>
-      <c r="AK84" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM84" s="54"/>
-      <c r="AN84" s="54"/>
+      <c r="AA84" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="44"/>
+      <c r="AG84" s="49"/>
+      <c r="AH84" s="48"/>
+      <c r="AI84" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ84" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK84" s="48"/>
+      <c r="AL84" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM84" s="49"/>
+      <c r="AN84" s="49"/>
       <c r="AO84" s="75"/>
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="F85" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G85" s="45"/>
+      <c r="G85" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="H85" s="46"/>
       <c r="I85" s="46" t="s">
         <v>25</v>
@@ -10743,10 +10760,10 @@
       <c r="K85" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L85" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46" t="s">
+        <v>310</v>
+      </c>
       <c r="N85" s="47"/>
       <c r="O85" s="110"/>
       <c r="P85" s="103"/>
@@ -10754,33 +10771,23 @@
         <v>29</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="S85" s="64" t="s">
-        <v>480</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="S85" s="64"/>
       <c r="T85" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="U85" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="V85" s="66" t="s">
-        <v>481</v>
-      </c>
-      <c r="W85" s="215">
-        <v>39794</v>
-      </c>
-      <c r="X85" s="215">
-        <v>39975</v>
-      </c>
-      <c r="Y85" s="181">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="Z85" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>470</v>
+      </c>
+      <c r="U85" s="53"/>
+      <c r="V85" s="66"/>
+      <c r="W85" s="215"/>
+      <c r="X85" s="215"/>
+      <c r="Y85" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="183" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="AA85" s="75" t="s">
         <v>304</v>
@@ -10796,156 +10803,209 @@
       </c>
       <c r="AM85" s="54"/>
       <c r="AN85" s="54"/>
-      <c r="AO85" s="75" t="s">
-        <v>479</v>
-      </c>
+      <c r="AO85" s="75"/>
     </row>
     <row r="86" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="42" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
       <c r="F86" s="75" t="s">
         <v>331</v>
       </c>
       <c r="G86" s="45"/>
       <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
+      <c r="I86" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="J86" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
+      <c r="K86" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="46" t="s">
+        <v>25</v>
+      </c>
       <c r="M86" s="46"/>
-      <c r="N86" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="N86" s="47"/>
       <c r="O86" s="110"/>
       <c r="P86" s="103"/>
       <c r="Q86" s="54" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="R86" s="53" t="s">
-        <v>472</v>
+        <v>268</v>
       </c>
       <c r="S86" s="64" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="T86" s="54" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="U86" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="V86" s="163" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="V86" s="66" t="s">
+        <v>481</v>
       </c>
       <c r="W86" s="215">
-        <v>40497</v>
-      </c>
-      <c r="X86" s="215"/>
-      <c r="Y86" s="181" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>39794</v>
+      </c>
+      <c r="X86" s="215">
+        <v>39975</v>
+      </c>
+      <c r="Y86" s="181">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
       </c>
       <c r="Z86" s="183">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="AA86" s="75"/>
-      <c r="AB86" s="53"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AA86" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB86" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="AG86" s="54"/>
       <c r="AH86" s="53"/>
-      <c r="AI86" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ86" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK86" s="53"/>
-      <c r="AL86" s="42" t="s">
+      <c r="AJ86" s="54"/>
+      <c r="AK86" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AM86" s="54"/>
       <c r="AN86" s="54"/>
       <c r="AO86" s="75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="F87" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G87" s="45"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O87" s="110"/>
+      <c r="P87" s="103"/>
+      <c r="Q87" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R87" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="S87" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="T87" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="U87" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="V87" s="163" t="s">
+        <v>473</v>
+      </c>
+      <c r="W87" s="215">
+        <v>40497</v>
+      </c>
+      <c r="X87" s="215"/>
+      <c r="Y87" s="181" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="183">
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AA87" s="75"/>
+      <c r="AB87" s="53"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="53"/>
+      <c r="AI87" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ87" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK87" s="53"/>
+      <c r="AL87" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM87" s="54"/>
+      <c r="AN87" s="54"/>
+      <c r="AO87" s="75" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="199"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="99"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="61"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="62"/>
-      <c r="W87" s="176"/>
-      <c r="X87" s="176"/>
-      <c r="Y87" s="181"/>
-      <c r="Z87" s="21"/>
-      <c r="AA87" s="74"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="10"/>
-      <c r="AD87" s="10"/>
-      <c r="AE87" s="10"/>
-      <c r="AF87" s="10"/>
-      <c r="AG87" s="23"/>
-      <c r="AH87" s="22"/>
-      <c r="AI87" s="10"/>
-      <c r="AJ87" s="23"/>
-      <c r="AK87" s="22"/>
-      <c r="AL87" s="10"/>
-      <c r="AM87" s="23"/>
-      <c r="AN87" s="23"/>
-      <c r="AO87" s="74"/>
-    </row>
-    <row r="88" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L88" s="202"/>
-      <c r="AA88" s="80"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="59"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="39"/>
-      <c r="AI88" s="14"/>
-      <c r="AJ88" s="36"/>
-      <c r="AK88" s="39"/>
-      <c r="AL88" s="14"/>
-      <c r="AM88" s="36"/>
-      <c r="AN88" s="36"/>
-    </row>
-    <row r="89" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="15"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="28"/>
+    <row r="88" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="199"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="87"/>
+      <c r="P88" s="99"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="62"/>
+      <c r="W88" s="176"/>
+      <c r="X88" s="176"/>
+      <c r="Y88" s="181"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="74"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="22"/>
+      <c r="AI88" s="10"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="22"/>
+      <c r="AL88" s="10"/>
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="74"/>
+    </row>
+    <row r="89" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L89" s="202"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="91"/>
-      <c r="P89" s="106"/>
-      <c r="AA89" s="81"/>
-      <c r="AB89" s="37"/>
-      <c r="AC89" s="60"/>
-      <c r="AG89" s="38"/>
-      <c r="AH89" s="40"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="38"/>
-      <c r="AK89" s="40"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="38"/>
-      <c r="AN89" s="38"/>
+      <c r="AA89" s="80"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="59"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="39"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="36"/>
+      <c r="AK89" s="39"/>
+      <c r="AL89" s="14"/>
+      <c r="AM89" s="36"/>
+      <c r="AN89" s="36"/>
     </row>
     <row r="90" spans="2:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E90" s="15"/>
@@ -15247,8 +15307,28 @@
       <c r="AM304" s="38"/>
       <c r="AN304" s="38"/>
     </row>
-    <row r="320" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="5:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="15"/>
+      <c r="F305" s="81"/>
+      <c r="G305" s="28"/>
+      <c r="L305" s="202"/>
+      <c r="N305" s="29"/>
+      <c r="O305" s="91"/>
+      <c r="P305" s="106"/>
+      <c r="AA305" s="81"/>
+      <c r="AB305" s="37"/>
+      <c r="AC305" s="60"/>
+      <c r="AG305" s="38"/>
+      <c r="AH305" s="40"/>
+      <c r="AI305" s="15"/>
+      <c r="AJ305" s="38"/>
+      <c r="AK305" s="40"/>
+      <c r="AL305" s="15"/>
+      <c r="AM305" s="38"/>
+      <c r="AN305" s="38"/>
+    </row>
     <row r="321" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="B4:AK100">
     <sortCondition ref="B4"/>
@@ -15264,20 +15344,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U6" r:id="rId1"/>
-    <hyperlink ref="U50" r:id="rId2"/>
+    <hyperlink ref="U51" r:id="rId2"/>
     <hyperlink ref="U7" r:id="rId3"/>
     <hyperlink ref="U22" r:id="rId4"/>
     <hyperlink ref="U18" r:id="rId5"/>
-    <hyperlink ref="U49" r:id="rId6" display="https://code.google.com/p/googleappengine/wiki/SdkReleaseNotes"/>
-    <hyperlink ref="U41" r:id="rId7"/>
-    <hyperlink ref="U59" r:id="rId8"/>
+    <hyperlink ref="U50" r:id="rId6" display="https://code.google.com/p/googleappengine/wiki/SdkReleaseNotes"/>
+    <hyperlink ref="U42" r:id="rId7"/>
+    <hyperlink ref="U60" r:id="rId8"/>
     <hyperlink ref="U16" r:id="rId9"/>
     <hyperlink ref="U15" r:id="rId10"/>
-    <hyperlink ref="U47" r:id="rId11"/>
-    <hyperlink ref="AO82" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
-    <hyperlink ref="AO61" r:id="rId13"/>
+    <hyperlink ref="U48" r:id="rId11"/>
+    <hyperlink ref="AO83" r:id="rId12" display="http://www.univention.de/fileadmin/univention/absolventenpreis/andreas-wolke_twospot.pdf"/>
+    <hyperlink ref="AO62" r:id="rId13"/>
     <hyperlink ref="U13" r:id="rId14"/>
-    <hyperlink ref="U44" r:id="rId15"/>
+    <hyperlink ref="U45" r:id="rId15"/>
     <hyperlink ref="R4" r:id="rId16"/>
     <hyperlink ref="R5" r:id="rId17"/>
     <hyperlink ref="R7" r:id="rId18"/>
@@ -15297,67 +15377,67 @@
     <hyperlink ref="R34" r:id="rId32"/>
     <hyperlink ref="R36" r:id="rId33"/>
     <hyperlink ref="R38" r:id="rId34"/>
-    <hyperlink ref="R41" r:id="rId35"/>
-    <hyperlink ref="R42" r:id="rId36"/>
-    <hyperlink ref="R45" r:id="rId37"/>
-    <hyperlink ref="R46" r:id="rId38"/>
-    <hyperlink ref="R48" r:id="rId39"/>
-    <hyperlink ref="R49" r:id="rId40"/>
-    <hyperlink ref="R50" r:id="rId41"/>
-    <hyperlink ref="R51" r:id="rId42"/>
-    <hyperlink ref="R62" r:id="rId43"/>
-    <hyperlink ref="R56" r:id="rId44"/>
-    <hyperlink ref="R57" r:id="rId45"/>
-    <hyperlink ref="R59" r:id="rId46"/>
-    <hyperlink ref="R60" r:id="rId47"/>
-    <hyperlink ref="R61" r:id="rId48"/>
-    <hyperlink ref="R63" r:id="rId49"/>
-    <hyperlink ref="R65" r:id="rId50"/>
-    <hyperlink ref="R68" r:id="rId51"/>
-    <hyperlink ref="R69" r:id="rId52"/>
-    <hyperlink ref="R67" r:id="rId53"/>
-    <hyperlink ref="R72" r:id="rId54"/>
-    <hyperlink ref="R79" r:id="rId55"/>
-    <hyperlink ref="R82" r:id="rId56"/>
+    <hyperlink ref="R42" r:id="rId35"/>
+    <hyperlink ref="R43" r:id="rId36"/>
+    <hyperlink ref="R46" r:id="rId37"/>
+    <hyperlink ref="R47" r:id="rId38"/>
+    <hyperlink ref="R49" r:id="rId39"/>
+    <hyperlink ref="R50" r:id="rId40"/>
+    <hyperlink ref="R51" r:id="rId41"/>
+    <hyperlink ref="R52" r:id="rId42"/>
+    <hyperlink ref="R63" r:id="rId43"/>
+    <hyperlink ref="R57" r:id="rId44"/>
+    <hyperlink ref="R58" r:id="rId45"/>
+    <hyperlink ref="R60" r:id="rId46"/>
+    <hyperlink ref="R61" r:id="rId47"/>
+    <hyperlink ref="R62" r:id="rId48"/>
+    <hyperlink ref="R64" r:id="rId49"/>
+    <hyperlink ref="R66" r:id="rId50"/>
+    <hyperlink ref="R69" r:id="rId51"/>
+    <hyperlink ref="R70" r:id="rId52"/>
+    <hyperlink ref="R68" r:id="rId53"/>
+    <hyperlink ref="R73" r:id="rId54"/>
+    <hyperlink ref="R80" r:id="rId55"/>
+    <hyperlink ref="R83" r:id="rId56"/>
     <hyperlink ref="R32" r:id="rId57"/>
-    <hyperlink ref="R83" r:id="rId58"/>
+    <hyperlink ref="R84" r:id="rId58"/>
     <hyperlink ref="R26" r:id="rId59"/>
-    <hyperlink ref="R75" r:id="rId60"/>
-    <hyperlink ref="R52" r:id="rId61"/>
+    <hyperlink ref="R76" r:id="rId60"/>
+    <hyperlink ref="R53" r:id="rId61"/>
     <hyperlink ref="R9" r:id="rId62"/>
     <hyperlink ref="R11" r:id="rId63"/>
-    <hyperlink ref="R44" r:id="rId64"/>
-    <hyperlink ref="R55" r:id="rId65"/>
-    <hyperlink ref="R84" r:id="rId66"/>
-    <hyperlink ref="R78" r:id="rId67"/>
+    <hyperlink ref="R45" r:id="rId64"/>
+    <hyperlink ref="R56" r:id="rId65"/>
+    <hyperlink ref="R85" r:id="rId66"/>
+    <hyperlink ref="R79" r:id="rId67"/>
     <hyperlink ref="R18" r:id="rId68"/>
-    <hyperlink ref="R81" r:id="rId69"/>
+    <hyperlink ref="R82" r:id="rId69"/>
     <hyperlink ref="R27" r:id="rId70"/>
     <hyperlink ref="R35" r:id="rId71"/>
     <hyperlink ref="R15" r:id="rId72"/>
-    <hyperlink ref="R71" r:id="rId73"/>
-    <hyperlink ref="R47" r:id="rId74"/>
-    <hyperlink ref="R70" r:id="rId75"/>
+    <hyperlink ref="R72" r:id="rId73"/>
+    <hyperlink ref="R48" r:id="rId74"/>
+    <hyperlink ref="R71" r:id="rId75"/>
     <hyperlink ref="R14" r:id="rId76"/>
-    <hyperlink ref="R74" r:id="rId77"/>
-    <hyperlink ref="R43" r:id="rId78"/>
-    <hyperlink ref="R77" r:id="rId79"/>
-    <hyperlink ref="R66" r:id="rId80"/>
+    <hyperlink ref="R75" r:id="rId77"/>
+    <hyperlink ref="R44" r:id="rId78"/>
+    <hyperlink ref="R78" r:id="rId79"/>
+    <hyperlink ref="R67" r:id="rId80"/>
     <hyperlink ref="R13" r:id="rId81"/>
-    <hyperlink ref="R85" r:id="rId82"/>
-    <hyperlink ref="R39" r:id="rId83"/>
-    <hyperlink ref="R64" r:id="rId84"/>
+    <hyperlink ref="R86" r:id="rId82"/>
+    <hyperlink ref="R40" r:id="rId83"/>
+    <hyperlink ref="R65" r:id="rId84"/>
     <hyperlink ref="U25" r:id="rId85"/>
     <hyperlink ref="R28" r:id="rId86"/>
     <hyperlink ref="U33" r:id="rId87"/>
-    <hyperlink ref="R54" r:id="rId88"/>
+    <hyperlink ref="R55" r:id="rId88"/>
     <hyperlink ref="R37" r:id="rId89"/>
-    <hyperlink ref="R86" r:id="rId90"/>
-    <hyperlink ref="U42" r:id="rId91"/>
+    <hyperlink ref="R87" r:id="rId90"/>
+    <hyperlink ref="U43" r:id="rId91"/>
     <hyperlink ref="U29" r:id="rId92"/>
-    <hyperlink ref="R58" r:id="rId93"/>
+    <hyperlink ref="R59" r:id="rId93"/>
     <hyperlink ref="U12" r:id="rId94"/>
-    <hyperlink ref="R76" r:id="rId95"/>
+    <hyperlink ref="R77" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>

--- a/Cloud Platforms (PaaS).xlsx
+++ b/Cloud Platforms (PaaS).xlsx
@@ -1380,9 +1380,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>ActiveState Stackato</t>
-  </si>
-  <si>
     <t>www.activestate.com/stackato</t>
   </si>
   <si>
@@ -2944,6 +2941,9 @@
   </si>
   <si>
     <t>Aquired by Salesforce</t>
+  </si>
+  <si>
+    <t>Stackato</t>
   </si>
 </sst>
 </file>
@@ -3894,6 +3894,12 @@
     <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3941,12 +3947,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4303,10 +4303,10 @@
   <dimension ref="A1:AO322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4367,20 +4367,20 @@
         <v>3</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="225" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="230"/>
       <c r="O1" s="107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P1" s="98" t="s">
         <v>5</v>
@@ -4398,56 +4398,56 @@
         <v>9</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V1" s="83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W1" s="175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X1" s="175" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y1" s="236" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z1" s="237"/>
+        <v>511</v>
+      </c>
+      <c r="Y1" s="238" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="239"/>
       <c r="AA1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="229" t="s">
+      <c r="AB1" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="232"/>
-      <c r="AH1" s="222" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI1" s="223"/>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="222" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="224"/>
+      <c r="AC1" s="232"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="234"/>
+      <c r="AH1" s="224" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI1" s="225"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="224" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="226"/>
       <c r="AN1" s="209" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO1" s="73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="233" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
+      <c r="B2" s="235" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
       <c r="F2" s="113"/>
       <c r="G2" s="187" t="s">
         <v>13</v>
@@ -4468,10 +4468,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="186" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N2" s="189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="99"/>
@@ -4487,14 +4487,14 @@
         <v>29</v>
       </c>
       <c r="Z2" s="178" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AA2" s="74"/>
       <c r="AB2" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>20</v>
@@ -4506,37 +4506,37 @@
         <v>22</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH2" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="31" t="s">
-        <v>275</v>
-      </c>
       <c r="AK2" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="AM2" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN2" s="31"/>
       <c r="AO2" s="74"/>
     </row>
     <row r="3" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
       <c r="F3" s="74"/>
       <c r="G3" s="18">
         <f t="shared" ref="G3:O3" si="0">COUNTA(G4:G89)</f>
@@ -4644,13 +4644,13 @@
     </row>
     <row r="4" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="190"/>
       <c r="H4" s="11"/>
@@ -4665,20 +4665,20 @@
       <c r="O4" s="89"/>
       <c r="P4" s="102"/>
       <c r="Q4" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U4" s="32"/>
       <c r="V4" s="114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W4" s="210">
         <v>40878</v>
@@ -4703,7 +4703,7 @@
       <c r="AM4" s="33"/>
       <c r="AN4" s="33"/>
       <c r="AO4" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4713,10 +4713,10 @@
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
       <c r="E5" s="115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="133"/>
       <c r="H5" s="134"/>
@@ -4730,7 +4730,7 @@
       <c r="N5" s="135"/>
       <c r="O5" s="118"/>
       <c r="P5" s="119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="120" t="s">
         <v>29</v>
@@ -4739,16 +4739,16 @@
         <v>28</v>
       </c>
       <c r="S5" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="T5" s="120" t="s">
         <v>380</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="U5" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="U5" s="117" t="s">
+      <c r="V5" s="123" t="s">
         <v>382</v>
-      </c>
-      <c r="V5" s="123" t="s">
-        <v>383</v>
       </c>
       <c r="W5" s="211"/>
       <c r="X5" s="211">
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB5" s="121" t="s">
         <v>25</v>
@@ -4800,13 +4800,13 @@
     </row>
     <row r="6" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" s="192" t="s">
         <v>25</v>
@@ -4831,22 +4831,22 @@
       <c r="O6" s="127"/>
       <c r="P6" s="128"/>
       <c r="Q6" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" s="126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" s="130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T6" s="129" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W6" s="212">
         <v>40562</v>
@@ -4861,7 +4861,7 @@
         <v>30</v>
       </c>
       <c r="AA6" s="125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB6" s="126" t="s">
         <v>25</v>
@@ -4893,20 +4893,20 @@
       </c>
       <c r="AL6" s="124"/>
       <c r="AM6" s="129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN6" s="129"/>
       <c r="AO6" s="125"/>
     </row>
     <row r="7" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
       <c r="F7" s="132" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="133"/>
       <c r="H7" s="134" t="s">
@@ -4922,25 +4922,25 @@
         <v>25</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T7" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="U7" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="U7" s="121" t="s">
-        <v>286</v>
-      </c>
       <c r="V7" s="123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W7" s="211">
         <v>40495</v>
@@ -4957,7 +4957,7 @@
         <v>32</v>
       </c>
       <c r="AA7" s="132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB7" s="138" t="s">
         <v>25</v>
@@ -4981,20 +4981,20 @@
       </c>
       <c r="AL7" s="131"/>
       <c r="AM7" s="139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN7" s="139"/>
       <c r="AO7" s="116"/>
     </row>
     <row r="8" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="195"/>
       <c r="H8" s="195"/>
@@ -5009,27 +5009,27 @@
       <c r="O8" s="140"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S8" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W8" s="213"/>
       <c r="X8" s="213"/>
       <c r="Y8" s="181"/>
       <c r="Z8" s="183"/>
       <c r="AA8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>25</v>
@@ -5052,13 +5052,13 @@
     </row>
     <row r="9" spans="1:41" s="51" customFormat="1" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G9" s="196" t="s">
         <v>25</v>
@@ -5078,19 +5078,19 @@
         <v>29</v>
       </c>
       <c r="R9" s="159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S9" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="T9" s="160" t="s">
         <v>350</v>
       </c>
-      <c r="T9" s="160" t="s">
-        <v>351</v>
-      </c>
       <c r="U9" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W9" s="214"/>
       <c r="X9" s="214">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB9" s="159"/>
       <c r="AG9" s="160"/>
@@ -5125,18 +5125,18 @@
       <c r="AM9" s="160"/>
       <c r="AN9" s="160"/>
       <c r="AO9" s="158" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="42" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" s="45" t="s">
         <v>25</v>
@@ -5148,10 +5148,10 @@
       <c r="J10" s="46"/>
       <c r="K10" s="46"/>
       <c r="L10" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="110"/>
@@ -5160,16 +5160,16 @@
         <v>29</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S10" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U10" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V10" s="65">
         <v>39879</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB10" s="53"/>
       <c r="AG10" s="54"/>
@@ -5205,18 +5205,18 @@
       <c r="AM10" s="54"/>
       <c r="AN10" s="54"/>
       <c r="AO10" s="75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="58" t="s">
@@ -5231,10 +5231,10 @@
       <c r="O11" s="58"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S11" s="55"/>
       <c r="U11" s="57"/>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="12" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>25</v>
@@ -5291,16 +5291,16 @@
         <v>29</v>
       </c>
       <c r="R12" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S12" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="U12" s="53" t="s">
         <v>416</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>417</v>
       </c>
       <c r="V12" s="163">
         <v>40575</v>
@@ -5310,7 +5310,7 @@
       <c r="Y12" s="207"/>
       <c r="Z12" s="208"/>
       <c r="AA12" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AB12" s="53" t="s">
         <v>25</v>
@@ -5342,13 +5342,13 @@
     </row>
     <row r="13" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="F13" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="133"/>
       <c r="H13" s="134"/>
@@ -5366,19 +5366,19 @@
         <v>29</v>
       </c>
       <c r="R13" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="S13" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="S13" s="122" t="s">
+      <c r="T13" s="120" t="s">
         <v>264</v>
       </c>
-      <c r="T13" s="120" t="s">
+      <c r="U13" s="121" t="s">
+        <v>354</v>
+      </c>
+      <c r="V13" s="141" t="s">
         <v>265</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>355</v>
-      </c>
-      <c r="V13" s="141" t="s">
-        <v>266</v>
       </c>
       <c r="W13" s="211">
         <v>39252</v>
@@ -5395,7 +5395,7 @@
         <v>73</v>
       </c>
       <c r="AA13" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB13" s="121"/>
       <c r="AC13" s="115"/>
@@ -5422,11 +5422,11 @@
     </row>
     <row r="14" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -5444,16 +5444,16 @@
         <v>29</v>
       </c>
       <c r="R14" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="S14" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="S14" s="64" t="s">
-        <v>245</v>
-      </c>
       <c r="T14" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U14" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V14" s="65">
         <v>40205</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB14" s="48"/>
       <c r="AC14" s="44"/>
@@ -5494,15 +5494,15 @@
     </row>
     <row r="15" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
       <c r="E15" s="115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" s="133" t="s">
         <v>31</v>
@@ -5519,30 +5519,30 @@
         <v>31</v>
       </c>
       <c r="M15" s="134" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N15" s="135"/>
       <c r="O15" s="142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P15" s="119"/>
       <c r="Q15" s="120" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S15" s="122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T15" s="120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U15" s="121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V15" s="141" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W15" s="211"/>
       <c r="X15" s="211">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB15" s="121"/>
       <c r="AC15" s="115"/>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="16" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="115" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" s="133" t="s">
         <v>25</v>
@@ -5620,19 +5620,19 @@
         <v>29</v>
       </c>
       <c r="R16" s="121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S16" s="122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U16" s="121" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V16" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W16" s="211">
         <v>40360</v>
@@ -5649,7 +5649,7 @@
         <v>36</v>
       </c>
       <c r="AA16" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB16" s="121"/>
       <c r="AC16" s="115"/>
@@ -5676,15 +5676,15 @@
     </row>
     <row r="17" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F17" s="132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G17" s="133" t="s">
         <v>25</v>
@@ -5699,7 +5699,7 @@
         <v>25</v>
       </c>
       <c r="M17" s="134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N17" s="135" t="s">
         <v>25</v>
@@ -5709,22 +5709,22 @@
       </c>
       <c r="P17" s="137"/>
       <c r="Q17" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R17" s="138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S17" s="122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T17" s="139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U17" s="138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V17" s="141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W17" s="211">
         <v>40645</v>
@@ -5763,20 +5763,20 @@
       <c r="AM17" s="139"/>
       <c r="AN17" s="139"/>
       <c r="AO17" s="132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="124"/>
       <c r="C18" s="124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="124"/>
       <c r="E18" s="124" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G18" s="192"/>
       <c r="H18" s="193"/>
@@ -5795,22 +5795,22 @@
       <c r="O18" s="127"/>
       <c r="P18" s="128"/>
       <c r="Q18" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R18" s="126" t="s">
+        <v>177</v>
+      </c>
+      <c r="S18" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="T18" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="S18" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>179</v>
-      </c>
       <c r="U18" s="121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V18" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W18" s="212">
         <v>41383</v>
@@ -5845,19 +5845,19 @@
       </c>
       <c r="AL18" s="124"/>
       <c r="AM18" s="129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN18" s="129"/>
       <c r="AO18" s="125"/>
     </row>
     <row r="19" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44" t="s">
-        <v>32</v>
+        <v>553</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>25</v>
@@ -5889,17 +5889,17 @@
         <v>29</v>
       </c>
       <c r="R19" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="64" t="s">
-        <v>34</v>
-      </c>
       <c r="T19" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W19" s="215">
         <v>40668</v>
@@ -5916,7 +5916,7 @@
         <v>26</v>
       </c>
       <c r="AA19" s="77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB19" s="48"/>
       <c r="AC19" s="44"/>
@@ -5935,20 +5935,20 @@
       <c r="AM19" s="49"/>
       <c r="AN19" s="49"/>
       <c r="AO19" s="77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
       <c r="D20" s="124" t="s">
+        <v>542</v>
+      </c>
+      <c r="E20" s="124" t="s">
         <v>543</v>
       </c>
-      <c r="E20" s="124" t="s">
-        <v>544</v>
-      </c>
       <c r="F20" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="192" t="s">
         <v>25</v>
@@ -5967,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N20" s="194" t="s">
         <v>25</v>
@@ -5975,20 +5975,20 @@
       <c r="O20" s="127"/>
       <c r="P20" s="128"/>
       <c r="Q20" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R20" s="149" t="s">
+        <v>545</v>
+      </c>
+      <c r="S20" s="130" t="s">
         <v>546</v>
       </c>
-      <c r="S20" s="130" t="s">
-        <v>547</v>
-      </c>
       <c r="T20" s="129" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U20" s="121"/>
       <c r="V20" s="124" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W20" s="212">
         <v>41248</v>
@@ -6027,13 +6027,13 @@
     </row>
     <row r="21" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>463</v>
-      </c>
       <c r="F21" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>25</v>
@@ -6060,20 +6060,20 @@
       <c r="O21" s="110"/>
       <c r="P21" s="103"/>
       <c r="Q21" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S21" s="64" t="s">
+      <c r="T21" s="54" t="s">
         <v>54</v>
-      </c>
-      <c r="T21" s="54" t="s">
-        <v>55</v>
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W21" s="215"/>
       <c r="X21" s="215"/>
@@ -6103,20 +6103,20 @@
       <c r="AM21" s="54"/>
       <c r="AN21" s="54"/>
       <c r="AO21" s="75" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="124"/>
       <c r="C22" s="124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="124"/>
       <c r="E22" s="124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G22" s="192" t="s">
         <v>25</v>
@@ -6144,19 +6144,19 @@
         <v>29</v>
       </c>
       <c r="R22" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="124" t="s">
-        <v>58</v>
-      </c>
       <c r="T22" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="U22" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="U22" s="121" t="s">
-        <v>288</v>
-      </c>
       <c r="V22" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W22" s="212"/>
       <c r="X22" s="212">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB22" s="126" t="s">
         <v>25</v>
@@ -6205,14 +6205,14 @@
     <row r="23" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" s="190"/>
       <c r="H23" s="11"/>
@@ -6227,20 +6227,20 @@
       <c r="O23" s="89"/>
       <c r="P23" s="102"/>
       <c r="Q23" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S23" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="T23" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U23" s="32"/>
       <c r="V23" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W23" s="210"/>
       <c r="X23" s="210"/>
@@ -6268,12 +6268,12 @@
     </row>
     <row r="24" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>25</v>
@@ -6296,22 +6296,22 @@
       <c r="O24" s="109"/>
       <c r="P24" s="101"/>
       <c r="Q24" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R24" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="T24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="152" t="s">
-        <v>199</v>
-      </c>
-      <c r="T24" s="49" t="s">
-        <v>62</v>
-      </c>
       <c r="U24" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V24" s="69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W24" s="217">
         <v>41085</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="Z24" s="183">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="77"/>
       <c r="AB24" s="48" t="s">
@@ -6350,12 +6350,12 @@
     </row>
     <row r="25" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>25</v>
@@ -6376,7 +6376,7 @@
         <v>25</v>
       </c>
       <c r="M25" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="109"/>
@@ -6385,19 +6385,19 @@
         <v>29</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S25" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T25" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="V25" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W25" s="217">
         <v>41037</v>
@@ -6414,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="AA25" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB25" s="48" t="s">
         <v>25</v>
@@ -6441,12 +6441,12 @@
     </row>
     <row r="26" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
       <c r="F26" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>25</v>
@@ -6465,7 +6465,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="109"/>
@@ -6474,17 +6474,17 @@
         <v>29</v>
       </c>
       <c r="R26" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S26" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T26" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W26" s="217"/>
       <c r="X26" s="217">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB26" s="48" t="s">
         <v>25</v>
@@ -6520,23 +6520,23 @@
         <v>25</v>
       </c>
       <c r="AM26" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN26" s="49"/>
       <c r="AO26" s="77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>25</v>
@@ -6555,7 +6555,7 @@
         <v>25</v>
       </c>
       <c r="M27" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N27" s="47"/>
       <c r="O27" s="109"/>
@@ -6564,15 +6564,15 @@
         <v>29</v>
       </c>
       <c r="R27" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S27" s="64"/>
       <c r="T27" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W27" s="217"/>
       <c r="X27" s="217"/>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB27" s="48"/>
       <c r="AC27" s="44"/>
@@ -6610,14 +6610,14 @@
     </row>
     <row r="28" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>25</v>
@@ -6643,17 +6643,17 @@
         <v>29</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S28" s="64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T28" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U28" s="48"/>
       <c r="V28" s="69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W28" s="217">
         <v>41244</v>
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="AA28" s="77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB28" s="48" t="s">
         <v>25</v>
@@ -6699,12 +6699,12 @@
     </row>
     <row r="29" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -6719,35 +6719,35 @@
         <v>25</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N29" s="58"/>
       <c r="O29" s="170"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S29" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="T29" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="U29" s="174" t="s">
+        <v>499</v>
+      </c>
+      <c r="V29" s="171" t="s">
         <v>498</v>
-      </c>
-      <c r="T29" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="U29" s="174" t="s">
-        <v>500</v>
-      </c>
-      <c r="V29" s="171" t="s">
-        <v>499</v>
       </c>
       <c r="W29" s="218"/>
       <c r="X29" s="218"/>
       <c r="Y29" s="181"/>
       <c r="Z29" s="183"/>
       <c r="AA29" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB29" s="57"/>
       <c r="AC29" s="57"/>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="30" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C30" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="46"/>
@@ -6785,16 +6785,16 @@
       <c r="O30" s="162"/>
       <c r="P30" s="103"/>
       <c r="Q30" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R30" s="53"/>
       <c r="S30" s="64"/>
       <c r="T30" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W30" s="215"/>
       <c r="X30" s="215"/>
@@ -6815,10 +6815,10 @@
     </row>
     <row r="31" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>25</v>
@@ -6840,19 +6840,19 @@
         <v>29</v>
       </c>
       <c r="R31" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="T31" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="T31" s="54" t="s">
-        <v>65</v>
-      </c>
       <c r="U31" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V31" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W31" s="215">
         <v>40269</v>
@@ -6869,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="AA31" s="75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB31" s="53" t="s">
         <v>25</v>
@@ -6893,20 +6893,20 @@
       <c r="AM31" s="54"/>
       <c r="AN31" s="54"/>
       <c r="AO31" s="75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>25</v>
@@ -6930,17 +6930,17 @@
         <v>29</v>
       </c>
       <c r="R32" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="S32" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="S32" s="156" t="s">
+      <c r="T32" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="T32" s="49" t="s">
-        <v>150</v>
       </c>
       <c r="U32" s="48"/>
       <c r="V32" s="153" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W32" s="217">
         <v>40840</v>
@@ -6957,7 +6957,7 @@
         <v>21</v>
       </c>
       <c r="AA32" s="77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB32" s="48"/>
       <c r="AC32" s="44"/>
@@ -6979,11 +6979,11 @@
     </row>
     <row r="33" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="154"/>
       <c r="F33" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G33" s="45"/>
       <c r="H33" s="46"/>
@@ -6998,20 +6998,20 @@
       <c r="O33" s="110"/>
       <c r="P33" s="103"/>
       <c r="Q33" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R33" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S33" s="64"/>
       <c r="T33" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V33" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W33" s="215">
         <v>40790</v>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="34" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G34" s="58" t="s">
         <v>25</v>
@@ -7069,16 +7069,16 @@
       <c r="O34" s="58"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R34" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="S34" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="S34" s="165" t="s">
-        <v>70</v>
-      </c>
       <c r="T34" s="57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U34" s="57"/>
       <c r="V34" s="166">
@@ -7089,7 +7089,7 @@
       <c r="Y34" s="181"/>
       <c r="Z34" s="183"/>
       <c r="AA34" s="57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB34" s="57" t="s">
         <v>25</v>
@@ -7116,18 +7116,18 @@
       <c r="AM34" s="57"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="51"/>
       <c r="F35" s="158" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G35" s="196" t="s">
         <v>25</v>
@@ -7153,17 +7153,17 @@
         <v>29</v>
       </c>
       <c r="R35" s="159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S35" s="205" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T35" s="160" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U35" s="159"/>
       <c r="V35" s="206" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W35" s="214"/>
       <c r="X35" s="214">
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="158" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB35" s="159" t="s">
         <v>25</v>
@@ -7207,13 +7207,13 @@
     </row>
     <row r="36" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F36" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>25</v>
@@ -7232,15 +7232,15 @@
       <c r="O36" s="110"/>
       <c r="P36" s="103"/>
       <c r="Q36" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R36" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S36" s="64"/>
       <c r="T36" s="54"/>
       <c r="U36" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V36" s="163">
         <v>40756</v>
@@ -7258,7 +7258,7 @@
         <v>23</v>
       </c>
       <c r="AA36" s="75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB36" s="53"/>
       <c r="AG36" s="54"/>
@@ -7276,18 +7276,18 @@
       <c r="AM36" s="54"/>
       <c r="AN36" s="54"/>
       <c r="AO36" s="75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>25</v>
@@ -7305,13 +7305,13 @@
         <v>29</v>
       </c>
       <c r="R37" s="164" t="s">
+        <v>458</v>
+      </c>
+      <c r="S37" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="S37" s="61" t="s">
+      <c r="T37" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="T37" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="U37" s="22"/>
       <c r="V37" s="62">
@@ -7349,10 +7349,10 @@
     </row>
     <row r="38" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>25</v>
@@ -7369,22 +7369,22 @@
       <c r="O38" s="110"/>
       <c r="P38" s="103"/>
       <c r="Q38" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="S38" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="T38" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="R38" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="S38" s="64" t="s">
+      <c r="U38" s="53" t="s">
         <v>456</v>
       </c>
-      <c r="T38" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="U38" s="53" t="s">
+      <c r="V38" s="163" t="s">
         <v>457</v>
-      </c>
-      <c r="V38" s="163" t="s">
-        <v>458</v>
       </c>
       <c r="W38" s="215">
         <v>41331</v>
@@ -7399,7 +7399,7 @@
         <v>4</v>
       </c>
       <c r="AA38" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB38" s="53"/>
       <c r="AG38" s="54"/>
@@ -7420,13 +7420,13 @@
     </row>
     <row r="39" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
@@ -7442,31 +7442,31 @@
       <c r="N39" s="58"/>
       <c r="O39" s="168"/>
       <c r="Q39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R39" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S39" s="55" t="s">
         <v>550</v>
       </c>
-      <c r="S39" s="55" t="s">
+      <c r="V39" s="166" t="s">
         <v>551</v>
-      </c>
-      <c r="V39" s="166" t="s">
-        <v>552</v>
       </c>
       <c r="W39" s="216"/>
       <c r="X39" s="216"/>
-      <c r="Y39" s="238"/>
-      <c r="Z39" s="239"/>
+      <c r="Y39" s="222"/>
+      <c r="Z39" s="223"/>
     </row>
     <row r="40" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G40" s="190"/>
       <c r="H40" s="11"/>
@@ -7481,18 +7481,18 @@
       <c r="O40" s="89"/>
       <c r="P40" s="102"/>
       <c r="Q40" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R40" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T40" s="33"/>
       <c r="U40" s="34"/>
       <c r="V40" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W40" s="210">
         <v>40443</v>
@@ -7517,15 +7517,15 @@
       <c r="AM40" s="33"/>
       <c r="AN40" s="33"/>
       <c r="AO40" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F41" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G41" s="45"/>
       <c r="H41" s="46"/>
@@ -7540,20 +7540,20 @@
       <c r="O41" s="162"/>
       <c r="P41" s="103"/>
       <c r="Q41" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R41" s="173" t="s">
+        <v>533</v>
+      </c>
+      <c r="S41" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="S41" s="64" t="s">
+      <c r="T41" s="54" t="s">
         <v>535</v>
-      </c>
-      <c r="T41" s="54" t="s">
-        <v>536</v>
       </c>
       <c r="U41" s="48"/>
       <c r="V41" s="65" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W41" s="215">
         <v>41061</v>
@@ -7586,13 +7586,13 @@
     </row>
     <row r="42" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
       <c r="F42" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>25</v>
@@ -7618,25 +7618,25 @@
       </c>
       <c r="O42" s="110"/>
       <c r="P42" s="103" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q42" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R42" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="S42" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="64" t="s">
-        <v>80</v>
-      </c>
       <c r="T42" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="U42" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="U42" s="53" t="s">
-        <v>298</v>
-      </c>
       <c r="V42" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W42" s="215">
         <v>40544</v>
@@ -7646,14 +7646,14 @@
       </c>
       <c r="Y42" s="181">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z42" s="183">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="AA42" s="75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB42" s="53" t="s">
         <v>25</v>
@@ -7682,13 +7682,13 @@
     </row>
     <row r="43" spans="2:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>25</v>
@@ -7715,22 +7715,22 @@
       <c r="O43" s="111"/>
       <c r="P43" s="104"/>
       <c r="Q43" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R43" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S43" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="S43" s="68" t="s">
-        <v>83</v>
-      </c>
       <c r="T43" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U43" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="V43" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="V43" s="67" t="s">
-        <v>408</v>
       </c>
       <c r="W43" s="220">
         <v>40878</v>
@@ -7773,18 +7773,18 @@
       <c r="AM43" s="31"/>
       <c r="AN43" s="31"/>
       <c r="AO43" s="74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F44" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>31</v>
@@ -7795,7 +7795,7 @@
       <c r="K44" s="46"/>
       <c r="L44" s="46"/>
       <c r="M44" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N44" s="47"/>
       <c r="O44" s="88"/>
@@ -7804,19 +7804,19 @@
         <v>29</v>
       </c>
       <c r="R44" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S44" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="T44" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="U44" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="T44" s="54" t="s">
-        <v>402</v>
-      </c>
-      <c r="U44" s="53" t="s">
+      <c r="V44" s="65" t="s">
         <v>405</v>
-      </c>
-      <c r="V44" s="65" t="s">
-        <v>406</v>
       </c>
       <c r="W44" s="215"/>
       <c r="X44" s="215">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB44" s="48" t="s">
         <v>25</v>
@@ -7853,13 +7853,13 @@
     </row>
     <row r="45" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="115"/>
       <c r="D45" s="115"/>
       <c r="E45" s="115"/>
       <c r="F45" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G45" s="133"/>
       <c r="H45" s="134"/>
@@ -7883,19 +7883,19 @@
         <v>29</v>
       </c>
       <c r="R45" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S45" s="122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T45" s="120" t="s">
+        <v>357</v>
+      </c>
+      <c r="U45" s="121" t="s">
         <v>358</v>
       </c>
-      <c r="U45" s="121" t="s">
-        <v>359</v>
-      </c>
       <c r="V45" s="144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W45" s="211"/>
       <c r="X45" s="211">
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB45" s="121" t="s">
         <v>25</v>
@@ -7944,18 +7944,18 @@
       </c>
       <c r="AN45" s="120"/>
       <c r="AO45" s="116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="190"/>
       <c r="H46" s="11"/>
@@ -7969,21 +7969,21 @@
       <c r="N46" s="191"/>
       <c r="O46" s="89"/>
       <c r="P46" s="102" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q46" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="R46" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="S46" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="Q46" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="R46" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="T46" s="33"/>
       <c r="U46" s="24"/>
       <c r="V46" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W46" s="210"/>
       <c r="X46" s="210"/>
@@ -8011,13 +8011,13 @@
     </row>
     <row r="47" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F47" s="75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G47" s="45"/>
       <c r="H47" s="46"/>
@@ -8026,7 +8026,7 @@
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
       <c r="M47" s="46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N47" s="47"/>
       <c r="O47" s="110"/>
@@ -8035,17 +8035,17 @@
         <v>29</v>
       </c>
       <c r="R47" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="S47" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="S47" s="64" t="s">
+      <c r="T47" s="54" t="s">
         <v>90</v>
-      </c>
-      <c r="T47" s="54" t="s">
-        <v>91</v>
       </c>
       <c r="U47" s="52"/>
       <c r="V47" s="66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W47" s="215"/>
       <c r="X47" s="215">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB47" s="53"/>
       <c r="AG47" s="54"/>
@@ -8077,13 +8077,13 @@
     </row>
     <row r="48" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="115"/>
       <c r="D48" s="115"/>
       <c r="E48" s="115"/>
       <c r="F48" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="133"/>
       <c r="H48" s="134"/>
@@ -8101,19 +8101,19 @@
         <v>29</v>
       </c>
       <c r="R48" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="S48" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="S48" s="122" t="s">
+      <c r="T48" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="U48" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="V48" s="123" t="s">
         <v>232</v>
-      </c>
-      <c r="T48" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="U48" s="121" t="s">
-        <v>326</v>
-      </c>
-      <c r="V48" s="123" t="s">
-        <v>233</v>
       </c>
       <c r="W48" s="211">
         <v>41143</v>
@@ -8130,7 +8130,7 @@
         <v>11</v>
       </c>
       <c r="AA48" s="132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="138"/>
       <c r="AC48" s="131"/>
@@ -8157,13 +8157,13 @@
     </row>
     <row r="49" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="115"/>
       <c r="D49" s="115"/>
       <c r="E49" s="115"/>
       <c r="F49" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="133"/>
       <c r="H49" s="134"/>
@@ -8181,19 +8181,19 @@
         <v>29</v>
       </c>
       <c r="R49" s="121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S49" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="T49" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="U49" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="T49" s="120" t="s">
-        <v>327</v>
-      </c>
-      <c r="U49" s="121" t="s">
-        <v>329</v>
-      </c>
       <c r="V49" s="141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W49" s="211">
         <v>40546</v>
@@ -8210,7 +8210,7 @@
         <v>30</v>
       </c>
       <c r="AA49" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB49" s="121" t="s">
         <v>25</v>
@@ -8230,20 +8230,20 @@
       </c>
       <c r="AL49" s="115"/>
       <c r="AM49" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN49" s="120"/>
       <c r="AO49" s="116"/>
     </row>
     <row r="50" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="124" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C50" s="124"/>
       <c r="D50" s="124"/>
       <c r="E50" s="124"/>
       <c r="F50" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G50" s="192" t="s">
         <v>25</v>
@@ -8258,7 +8258,7 @@
       <c r="K50" s="193"/>
       <c r="L50" s="193"/>
       <c r="M50" s="193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N50" s="194"/>
       <c r="O50" s="127"/>
@@ -8267,19 +8267,19 @@
         <v>29</v>
       </c>
       <c r="R50" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="S50" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="T50" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="S50" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="T50" s="129" t="s">
-        <v>95</v>
-      </c>
       <c r="U50" s="121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V50" s="124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W50" s="212">
         <v>39545</v>
@@ -8296,7 +8296,7 @@
         <v>63</v>
       </c>
       <c r="AA50" s="125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB50" s="126" t="s">
         <v>25</v>
@@ -8320,24 +8320,24 @@
       </c>
       <c r="AL50" s="124"/>
       <c r="AM50" s="129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN50" s="129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AO50" s="125"/>
     </row>
     <row r="51" spans="2:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="124"/>
       <c r="D51" s="124"/>
       <c r="E51" s="124" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F51" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G51" s="192" t="s">
         <v>25</v>
@@ -8356,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="M51" s="193" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N51" s="194" t="s">
         <v>25</v>
@@ -8369,19 +8369,19 @@
         <v>29</v>
       </c>
       <c r="R51" s="149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S51" s="124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T51" s="129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U51" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="V51" s="124" t="s">
         <v>188</v>
-      </c>
-      <c r="V51" s="124" t="s">
-        <v>189</v>
       </c>
       <c r="W51" s="212">
         <v>39385</v>
@@ -8398,7 +8398,7 @@
         <v>68</v>
       </c>
       <c r="AA51" s="150" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB51" s="126" t="s">
         <v>25</v>
@@ -8429,15 +8429,15 @@
     </row>
     <row r="52" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G52" s="45"/>
       <c r="H52" s="46" t="s">
@@ -8452,22 +8452,22 @@
       <c r="O52" s="109"/>
       <c r="P52" s="101"/>
       <c r="Q52" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R52" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="S52" s="156" t="s">
-        <v>100</v>
-      </c>
       <c r="T52" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="U52" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="U52" s="45" t="s">
-        <v>425</v>
-      </c>
       <c r="V52" s="157" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W52" s="217">
         <v>40865</v>
@@ -8484,7 +8484,7 @@
         <v>20</v>
       </c>
       <c r="AA52" s="77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB52" s="48" t="s">
         <v>25</v>
@@ -8503,15 +8503,15 @@
       <c r="AM52" s="49"/>
       <c r="AN52" s="49"/>
       <c r="AO52" s="75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>25</v>
@@ -8531,19 +8531,19 @@
         <v>29</v>
       </c>
       <c r="R53" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S53" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T53" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U53" s="52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V53" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W53" s="215">
         <v>40742</v>
@@ -8560,7 +8560,7 @@
         <v>24</v>
       </c>
       <c r="AA53" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB53" s="53" t="s">
         <v>25</v>
@@ -8588,26 +8588,26 @@
         <v>25</v>
       </c>
       <c r="AM53" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN53" s="54"/>
       <c r="AO53" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D54" s="44"/>
       <c r="E54" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="F54" s="77" t="s">
         <v>432</v>
-      </c>
-      <c r="F54" s="77" t="s">
-        <v>433</v>
       </c>
       <c r="G54" s="45" t="s">
         <v>25</v>
@@ -8625,15 +8625,15 @@
         <v>29</v>
       </c>
       <c r="R54" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S54" s="64"/>
       <c r="T54" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U54" s="53"/>
       <c r="V54" s="66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W54" s="215">
         <v>39249</v>
@@ -8650,7 +8650,7 @@
         <v>73</v>
       </c>
       <c r="AA54" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB54" s="53" t="s">
         <v>25</v>
@@ -8669,18 +8669,18 @@
       <c r="AM54" s="54"/>
       <c r="AN54" s="54"/>
       <c r="AO54" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G55" s="45" t="s">
         <v>25</v>
@@ -8698,16 +8698,16 @@
         <v>29</v>
       </c>
       <c r="R55" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S55" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U55" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V55" s="66">
         <v>2005</v>
@@ -8738,18 +8738,18 @@
       <c r="AM55" s="54"/>
       <c r="AN55" s="54"/>
       <c r="AO55" s="75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="131" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C56" s="131"/>
       <c r="D56" s="131"/>
       <c r="E56" s="131"/>
       <c r="F56" s="132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G56" s="133" t="s">
         <v>25</v>
@@ -8779,15 +8779,15 @@
         <v>29</v>
       </c>
       <c r="R56" s="138" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S56" s="122"/>
       <c r="T56" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U56" s="121"/>
       <c r="V56" s="146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W56" s="221">
         <v>39748</v>
@@ -8804,7 +8804,7 @@
         <v>56</v>
       </c>
       <c r="AA56" s="132" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB56" s="121" t="s">
         <v>25</v>
@@ -8832,20 +8832,20 @@
       </c>
       <c r="AL56" s="115"/>
       <c r="AM56" s="120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN56" s="120"/>
       <c r="AO56" s="116"/>
     </row>
     <row r="57" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
       <c r="F57" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="45"/>
       <c r="H57" s="46" t="s">
@@ -8860,20 +8860,20 @@
       <c r="O57" s="155"/>
       <c r="P57" s="101"/>
       <c r="Q57" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R57" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S57" s="64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T57" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U57" s="45"/>
       <c r="V57" s="66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W57" s="215"/>
       <c r="X57" s="215"/>
@@ -8902,13 +8902,13 @@
     </row>
     <row r="58" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="42" t="s">
-        <v>110</v>
-      </c>
       <c r="F58" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>25</v>
@@ -8923,14 +8923,14 @@
       <c r="O58" s="110"/>
       <c r="P58" s="103"/>
       <c r="Q58" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R58" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S58" s="64"/>
       <c r="T58" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U58" s="52"/>
       <c r="V58" s="163">
@@ -8949,7 +8949,7 @@
         <v>22</v>
       </c>
       <c r="AA58" s="75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB58" s="53"/>
       <c r="AG58" s="54"/>
@@ -8967,18 +8967,18 @@
       <c r="AM58" s="54"/>
       <c r="AN58" s="54"/>
       <c r="AO58" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:41" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F59" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G59" s="45"/>
       <c r="H59" s="46"/>
@@ -8993,30 +8993,30 @@
         <v>25</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N59" s="47"/>
       <c r="O59" s="110"/>
       <c r="P59" s="103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q59" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R59" s="173" t="s">
+        <v>442</v>
+      </c>
+      <c r="S59" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="T59" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="S59" s="64" t="s">
+      <c r="U59" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="T59" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="U59" s="53" t="s">
-        <v>446</v>
-      </c>
       <c r="V59" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W59" s="215">
         <v>41080</v>
@@ -9031,7 +9031,7 @@
         <v>13</v>
       </c>
       <c r="AA59" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB59" s="53" t="s">
         <v>25</v>
@@ -9061,13 +9061,13 @@
     </row>
     <row r="60" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="115"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G60" s="133"/>
       <c r="H60" s="134"/>
@@ -9087,19 +9087,19 @@
         <v>29</v>
       </c>
       <c r="R60" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S60" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="T60" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="T60" s="54" t="s">
+      <c r="U60" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="U60" s="53" t="s">
-        <v>303</v>
-      </c>
       <c r="V60" s="144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W60" s="211">
         <v>41099</v>
@@ -9116,7 +9116,7 @@
         <v>12</v>
       </c>
       <c r="AA60" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB60" s="121" t="s">
         <v>25</v>
@@ -9138,20 +9138,20 @@
       </c>
       <c r="AL60" s="115"/>
       <c r="AM60" s="120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN60" s="120"/>
       <c r="AO60" s="116"/>
     </row>
     <row r="61" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
@@ -9165,17 +9165,17 @@
       <c r="N61" s="58"/>
       <c r="O61" s="168"/>
       <c r="Q61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S61" s="55"/>
       <c r="T61" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V61" s="56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W61" s="216"/>
       <c r="X61" s="216"/>
@@ -9184,15 +9184,15 @@
     </row>
     <row r="62" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F62" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G62" s="190"/>
       <c r="H62" s="11"/>
@@ -9207,18 +9207,18 @@
       <c r="O62" s="89"/>
       <c r="P62" s="102"/>
       <c r="Q62" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R62" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S62" s="12"/>
       <c r="T62" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U62" s="32"/>
       <c r="V62" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W62" s="210"/>
       <c r="X62" s="210"/>
@@ -9245,18 +9245,18 @@
       <c r="AM62" s="33"/>
       <c r="AN62" s="33"/>
       <c r="AO62" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
@@ -9270,18 +9270,18 @@
       <c r="N63" s="58"/>
       <c r="O63" s="168"/>
       <c r="Q63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S63" s="55"/>
       <c r="T63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U63" s="167"/>
       <c r="V63" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W63" s="216"/>
       <c r="X63" s="216"/>
@@ -9290,10 +9290,10 @@
     </row>
     <row r="64" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
@@ -9307,16 +9307,16 @@
       <c r="N64" s="58"/>
       <c r="O64" s="168"/>
       <c r="Q64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V64" s="56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W64" s="216"/>
       <c r="X64" s="216"/>
@@ -9325,17 +9325,17 @@
     </row>
     <row r="65" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B65" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C65" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D65" s="115"/>
       <c r="E65" s="115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F65" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G65" s="133" t="s">
         <v>25</v>
@@ -9365,17 +9365,17 @@
         <v>29</v>
       </c>
       <c r="R65" s="148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S65" s="122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T65" s="120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U65" s="121"/>
       <c r="V65" s="144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W65" s="211">
         <v>40667</v>
@@ -9392,7 +9392,7 @@
         <v>26</v>
       </c>
       <c r="AA65" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB65" s="121" t="s">
         <v>25</v>
@@ -9418,18 +9418,18 @@
       <c r="AM65" s="120"/>
       <c r="AN65" s="120"/>
       <c r="AO65" s="116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>25</v>
@@ -9447,13 +9447,13 @@
         <v>29</v>
       </c>
       <c r="R66" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="S66" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="S66" s="61" t="s">
-        <v>126</v>
-      </c>
       <c r="T66" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="62"/>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AB66" s="22"/>
       <c r="AC66" s="10"/>
@@ -9491,13 +9491,13 @@
     </row>
     <row r="67" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>31</v>
@@ -9515,16 +9515,16 @@
         <v>29</v>
       </c>
       <c r="R67" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="S67" s="151" t="s">
         <v>255</v>
       </c>
-      <c r="S67" s="151" t="s">
+      <c r="T67" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="T67" s="25" t="s">
-        <v>257</v>
-      </c>
       <c r="U67" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V67" s="62"/>
       <c r="W67" s="219"/>
@@ -9560,15 +9560,15 @@
     <row r="68" spans="1:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70"/>
       <c r="B68" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F68" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G68" s="190"/>
       <c r="H68" s="11"/>
@@ -9583,20 +9583,20 @@
       <c r="O68" s="89"/>
       <c r="P68" s="102"/>
       <c r="Q68" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S68" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T68" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U68" s="32"/>
       <c r="V68" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W68" s="210">
         <v>40609</v>
@@ -9607,7 +9607,7 @@
       <c r="Y68" s="181"/>
       <c r="Z68" s="183"/>
       <c r="AA68" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB68" s="32" t="s">
         <v>25</v>
@@ -9630,15 +9630,15 @@
     </row>
     <row r="69" spans="1:41" s="42" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="115"/>
       <c r="D69" s="115"/>
       <c r="E69" s="115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F69" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G69" s="133"/>
       <c r="H69" s="134"/>
@@ -9656,17 +9656,17 @@
         <v>29</v>
       </c>
       <c r="R69" s="121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S69" s="122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T69" s="120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U69" s="121"/>
       <c r="V69" s="141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W69" s="211">
         <v>40664</v>
@@ -9683,7 +9683,7 @@
         <v>26</v>
       </c>
       <c r="AA69" s="116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB69" s="121" t="s">
         <v>25</v>
@@ -9705,22 +9705,22 @@
       </c>
       <c r="AL69" s="115"/>
       <c r="AM69" s="120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN69" s="120"/>
       <c r="AO69" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70" s="58"/>
       <c r="H70" s="58"/>
@@ -9734,16 +9734,16 @@
       <c r="N70" s="58"/>
       <c r="O70" s="168"/>
       <c r="Q70" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S70" s="55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V70" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W70" s="216"/>
       <c r="X70" s="216"/>
@@ -9755,13 +9755,13 @@
     </row>
     <row r="71" spans="1:41" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B71" s="124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C71" s="124"/>
       <c r="D71" s="124"/>
       <c r="E71" s="124"/>
       <c r="F71" s="125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G71" s="192"/>
       <c r="H71" s="193"/>
@@ -9776,20 +9776,20 @@
       <c r="O71" s="127"/>
       <c r="P71" s="128"/>
       <c r="Q71" s="129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R71" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="S71" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="S71" s="124" t="s">
-        <v>237</v>
-      </c>
       <c r="T71" s="129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U71" s="126"/>
       <c r="V71" s="124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W71" s="212">
         <v>40834</v>
@@ -9829,15 +9829,15 @@
     </row>
     <row r="72" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="115"/>
       <c r="D72" s="115"/>
       <c r="E72" s="115" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F72" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G72" s="133"/>
       <c r="H72" s="134"/>
@@ -9854,7 +9854,7 @@
         <v>25</v>
       </c>
       <c r="M72" s="134" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N72" s="135" t="s">
         <v>25</v>
@@ -9864,22 +9864,22 @@
       </c>
       <c r="P72" s="119"/>
       <c r="Q72" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R72" s="121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S72" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="T72" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="U72" s="121" t="s">
+        <v>371</v>
+      </c>
+      <c r="V72" s="123" t="s">
         <v>370</v>
-      </c>
-      <c r="T72" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="U72" s="121" t="s">
-        <v>372</v>
-      </c>
-      <c r="V72" s="123" t="s">
-        <v>371</v>
       </c>
       <c r="W72" s="211"/>
       <c r="X72" s="211"/>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="AA72" s="132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB72" s="138" t="s">
         <v>25</v>
@@ -9917,10 +9917,10 @@
     </row>
     <row r="73" spans="1:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G73" s="58"/>
       <c r="H73" s="58"/>
@@ -9934,13 +9934,13 @@
       <c r="N73" s="58"/>
       <c r="O73" s="167"/>
       <c r="Q73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S73" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V73" s="56"/>
       <c r="W73" s="216"/>
@@ -9956,13 +9956,13 @@
     </row>
     <row r="74" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="46"/>
@@ -9980,17 +9980,17 @@
         <v>29</v>
       </c>
       <c r="R74" s="53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S74" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="T74" s="54" t="s">
         <v>409</v>
-      </c>
-      <c r="T74" s="54" t="s">
-        <v>410</v>
       </c>
       <c r="U74" s="53"/>
       <c r="V74" s="66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="W74" s="215">
         <v>40561</v>
@@ -10007,7 +10007,7 @@
         <v>30</v>
       </c>
       <c r="AA74" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB74" s="53"/>
       <c r="AE74" s="42" t="s">
@@ -10028,11 +10028,11 @@
     </row>
     <row r="75" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" s="44"/>
       <c r="F75" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="46"/>
@@ -10047,16 +10047,16 @@
       <c r="O75" s="88"/>
       <c r="P75" s="101"/>
       <c r="Q75" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R75" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S75" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T75" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U75" s="53"/>
       <c r="V75" s="163">
@@ -10075,7 +10075,7 @@
         <v>28</v>
       </c>
       <c r="AA75" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB75" s="48"/>
       <c r="AC75" s="44"/>
@@ -10102,15 +10102,15 @@
     </row>
     <row r="76" spans="1:41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F76" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>25</v>
@@ -10128,19 +10128,19 @@
         <v>29</v>
       </c>
       <c r="R76" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S76" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="T76" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="U76" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="T76" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="U76" s="22" t="s">
+      <c r="V76" s="62" t="s">
         <v>505</v>
-      </c>
-      <c r="V76" s="62" t="s">
-        <v>506</v>
       </c>
       <c r="W76" s="219">
         <v>40940</v>
@@ -10157,7 +10157,7 @@
         <v>17</v>
       </c>
       <c r="AA76" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB76" s="22"/>
       <c r="AC76" s="10"/>
@@ -10180,10 +10180,10 @@
     </row>
     <row r="77" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>25</v>
@@ -10203,15 +10203,15 @@
         <v>29</v>
       </c>
       <c r="R77" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S77" s="64"/>
       <c r="T77" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U77" s="53"/>
       <c r="V77" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W77" s="215">
         <v>40828</v>
@@ -10228,7 +10228,7 @@
         <v>21</v>
       </c>
       <c r="AA77" s="75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB77" s="53" t="s">
         <v>25</v>
@@ -10259,13 +10259,13 @@
     </row>
     <row r="78" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E78" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F78" s="77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G78" s="45"/>
       <c r="H78" s="46" t="s">
@@ -10280,20 +10280,20 @@
       <c r="O78" s="109"/>
       <c r="P78" s="101"/>
       <c r="Q78" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R78" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="S78" s="64" t="s">
-        <v>251</v>
-      </c>
       <c r="T78" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U78" s="53"/>
       <c r="V78" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W78" s="215">
         <v>41410</v>
@@ -10326,10 +10326,10 @@
     </row>
     <row r="79" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F79" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G79" s="45"/>
       <c r="H79" s="46"/>
@@ -10349,13 +10349,13 @@
         <v>29</v>
       </c>
       <c r="R79" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S79" s="64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T79" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U79" s="53"/>
       <c r="V79" s="163">
@@ -10374,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB79" s="53" t="s">
         <v>25</v>
@@ -10393,18 +10393,18 @@
       <c r="AM79" s="54"/>
       <c r="AN79" s="54"/>
       <c r="AO79" s="75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>25</v>
@@ -10428,17 +10428,17 @@
         <v>29</v>
       </c>
       <c r="R80" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="S80" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="S80" s="64" t="s">
-        <v>141</v>
-      </c>
       <c r="T80" s="54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U80" s="53"/>
       <c r="V80" s="65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W80" s="215">
         <v>40252</v>
@@ -10453,7 +10453,7 @@
         <v>40</v>
       </c>
       <c r="AA80" s="75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB80" s="53" t="s">
         <v>25</v>
@@ -10483,18 +10483,18 @@
       <c r="AM80" s="54"/>
       <c r="AN80" s="54"/>
       <c r="AO80" s="75" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="2:41" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G81" s="58" t="s">
         <v>25</v>
@@ -10508,7 +10508,7 @@
       <c r="N81" s="58"/>
       <c r="O81" s="167"/>
       <c r="Q81" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S81" s="55"/>
       <c r="V81" s="56">
@@ -10538,13 +10538,13 @@
     </row>
     <row r="82" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B82" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" s="131"/>
       <c r="D82" s="131"/>
       <c r="E82" s="131"/>
       <c r="F82" s="132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G82" s="133"/>
       <c r="H82" s="134"/>
@@ -10563,16 +10563,16 @@
       </c>
       <c r="P82" s="137"/>
       <c r="Q82" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R82" s="121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S82" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="T82" s="120" t="s">
         <v>225</v>
-      </c>
-      <c r="T82" s="120" t="s">
-        <v>226</v>
       </c>
       <c r="U82" s="138"/>
       <c r="V82" s="141"/>
@@ -10608,15 +10608,15 @@
     </row>
     <row r="83" spans="2:41" s="63" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F83" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G83" s="190" t="s">
         <v>25</v>
@@ -10633,10 +10633,10 @@
       <c r="O83" s="89"/>
       <c r="P83" s="102"/>
       <c r="Q83" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R83" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S83" s="12"/>
       <c r="T83" s="33"/>
@@ -10673,15 +10673,15 @@
       <c r="AM83" s="33"/>
       <c r="AN83" s="33"/>
       <c r="AO83" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>25</v>
@@ -10695,17 +10695,17 @@
       <c r="N84" s="47"/>
       <c r="O84" s="110"/>
       <c r="P84" s="103" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q84" s="54" t="s">
         <v>29</v>
       </c>
       <c r="R84" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S84" s="64"/>
       <c r="T84" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U84" s="53"/>
       <c r="V84" s="66"/>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="AA84" s="77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB84" s="48"/>
       <c r="AC84" s="44"/>
@@ -10742,10 +10742,10 @@
     </row>
     <row r="85" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F85" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>25</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="L85" s="46"/>
       <c r="M85" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N85" s="47"/>
       <c r="O85" s="110"/>
@@ -10771,11 +10771,11 @@
         <v>29</v>
       </c>
       <c r="R85" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S85" s="64"/>
       <c r="T85" s="54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U85" s="53"/>
       <c r="V85" s="66"/>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="AA85" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB85" s="53" t="s">
         <v>25</v>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="86" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F86" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G86" s="45"/>
       <c r="H86" s="46"/>
@@ -10834,19 +10834,19 @@
         <v>29</v>
       </c>
       <c r="R86" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="S86" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="T86" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="S86" s="64" t="s">
+      <c r="U86" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="V86" s="66" t="s">
         <v>480</v>
-      </c>
-      <c r="T86" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="U86" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="V86" s="66" t="s">
-        <v>481</v>
       </c>
       <c r="W86" s="215">
         <v>39794</v>
@@ -10863,7 +10863,7 @@
         <v>55</v>
       </c>
       <c r="AA86" s="75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB86" s="53" t="s">
         <v>25</v>
@@ -10877,15 +10877,15 @@
       <c r="AM86" s="54"/>
       <c r="AN86" s="54"/>
       <c r="AO86" s="75" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="2:41" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F87" s="75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G87" s="45"/>
       <c r="H87" s="46"/>
@@ -10902,22 +10902,22 @@
       <c r="O87" s="110"/>
       <c r="P87" s="103"/>
       <c r="Q87" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R87" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="S87" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="T87" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="U87" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="V87" s="163" t="s">
         <v>472</v>
-      </c>
-      <c r="S87" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="T87" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="U87" s="53" t="s">
-        <v>471</v>
-      </c>
-      <c r="V87" s="163" t="s">
-        <v>473</v>
       </c>
       <c r="W87" s="215">
         <v>40497</v>
@@ -10948,7 +10948,7 @@
       <c r="AM87" s="54"/>
       <c r="AN87" s="54"/>
       <c r="AO87" s="75" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="2:41" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
